--- a/demo.xlsx
+++ b/demo.xlsx
@@ -66,7 +66,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF008000"/>
+        <fgColor rgb="FFBAFB29"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -160,301 +160,301 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>72.98480421306419</c:v>
+                  <c:v>81.69937672963491</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.87523696569257</c:v>
+                  <c:v>20.88049100315784</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23.41411781807617</c:v>
+                  <c:v>52.32825101853283</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>70.92305559944944</c:v>
+                  <c:v>50.01763946744937</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>66.25088776746024</c:v>
+                  <c:v>33.97075383266573</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16.65067135279649</c:v>
+                  <c:v>14.58906189867574</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>48.26335242313255</c:v>
+                  <c:v>14.45706607755189</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>61.76736817906589</c:v>
+                  <c:v>55.41255681517993</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>91.86455242517003</c:v>
+                  <c:v>76.46318718823449</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>26.16587920535992</c:v>
+                  <c:v>46.67931028850435</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>41.11812349163978</c:v>
+                  <c:v>50.98567401664162</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>32.62297449050504</c:v>
+                  <c:v>17.406819939051</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>30.80382838685408</c:v>
+                  <c:v>83.12055361325025</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>75.28835216160645</c:v>
+                  <c:v>93.38394294522369</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16.06997932822003</c:v>
+                  <c:v>84.0703241085285</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>90.85126787785808</c:v>
+                  <c:v>57.18135493844682</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>38.13363565187912</c:v>
+                  <c:v>70.84777631328267</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>42.91641717374947</c:v>
+                  <c:v>85.58356312103081</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>87.02014835862791</c:v>
+                  <c:v>58.86061344349162</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>20.77744472345713</c:v>
+                  <c:v>17.1789196878305</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>23.12734790464717</c:v>
+                  <c:v>74.65896018630437</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>28.9350171283177</c:v>
+                  <c:v>50.13824997666068</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>53.69914784193531</c:v>
+                  <c:v>98.95462808172329</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>87.55511300396803</c:v>
+                  <c:v>30.5842401516426</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>57.56735960167017</c:v>
+                  <c:v>86.78564003245614</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>60.2335044474201</c:v>
+                  <c:v>66.98760625143524</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>56.74363299118642</c:v>
+                  <c:v>86.3866111545878</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>98.35451945277634</c:v>
+                  <c:v>87.89244677979089</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>70.10784737469443</c:v>
+                  <c:v>28.11547218389643</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>39.62416088810002</c:v>
+                  <c:v>37.89085446029965</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>60.13615701930365</c:v>
+                  <c:v>66.65247327905075</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>33.66287585621234</c:v>
+                  <c:v>28.25020123935135</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>17.04402372520179</c:v>
+                  <c:v>75.74650205158299</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>71.66582176903381</c:v>
+                  <c:v>34.16920823132904</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>82.33907103376953</c:v>
+                  <c:v>62.55187120494409</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>83.02444235581765</c:v>
+                  <c:v>50.38324297908451</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>92.01864024630633</c:v>
+                  <c:v>38.08525179778542</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>70.61035348413024</c:v>
+                  <c:v>30.11539333237082</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>46.04117836190497</c:v>
+                  <c:v>65.40891874061087</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>52.10913459166155</c:v>
+                  <c:v>44.15112118951343</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>92.93832806555618</c:v>
+                  <c:v>94.34223026593781</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>60.21492682839688</c:v>
+                  <c:v>82.0452365808993</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>74.75777725120467</c:v>
+                  <c:v>98.2158887404448</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>45.77843759160107</c:v>
+                  <c:v>84.57007383224351</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>27.94072910046069</c:v>
+                  <c:v>28.30634935256842</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>71.90003033974678</c:v>
+                  <c:v>30.3845396979224</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>92.32917744967244</c:v>
+                  <c:v>98.32846864756388</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>95.5394718490878</c:v>
+                  <c:v>27.61862311889467</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>78.45608112851578</c:v>
+                  <c:v>63.89975826955598</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>18.18552564492981</c:v>
+                  <c:v>50.55212168555547</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>76.42231067467469</c:v>
+                  <c:v>22.13830686020021</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>18.8938004028689</c:v>
+                  <c:v>62.82219407787589</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>77.87549409213864</c:v>
+                  <c:v>55.6308331325931</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>23.12731108149582</c:v>
+                  <c:v>97.85462626322966</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>21.35161101622733</c:v>
+                  <c:v>71.07735413469867</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>40.55821562355922</c:v>
+                  <c:v>17.40546508997478</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>56.7456277342116</c:v>
+                  <c:v>11.22633541342599</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>88.59423669183683</c:v>
+                  <c:v>71.75857687103309</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>47.02178350816753</c:v>
+                  <c:v>56.9107724013063</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>76.96777386622813</c:v>
+                  <c:v>41.47477450305941</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>31.99045843650539</c:v>
+                  <c:v>42.82514113572447</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>86.60442726558838</c:v>
+                  <c:v>91.1431433955598</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>75.16168770515139</c:v>
+                  <c:v>51.74377392612084</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>72.86522228293123</c:v>
+                  <c:v>38.06794795275241</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>57.86463606572191</c:v>
+                  <c:v>80.86315420054748</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>63.7003581374619</c:v>
+                  <c:v>10.05850855450161</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>53.14706143419547</c:v>
+                  <c:v>51.58753254791964</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>89.34011209631322</c:v>
+                  <c:v>91.97109895340311</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>95.81655162642919</c:v>
+                  <c:v>93.84883575201893</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>80.91561097280714</c:v>
+                  <c:v>44.78400706481897</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>90.49292052509853</c:v>
+                  <c:v>80.88395812173677</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>43.62056002103892</c:v>
+                  <c:v>83.29337472833689</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>77.03501400720616</c:v>
+                  <c:v>69.39405668615105</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>92.19467032317634</c:v>
+                  <c:v>12.01935643146963</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>37.72501450447604</c:v>
+                  <c:v>33.35298738391277</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>24.74915345886221</c:v>
+                  <c:v>37.6118550004407</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>62.90276210741445</c:v>
+                  <c:v>75.38541815281447</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>29.45535959717423</c:v>
+                  <c:v>59.0607464908521</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>97.34095216877344</c:v>
+                  <c:v>63.52027195225843</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>82.93259353678886</c:v>
+                  <c:v>53.25468041329064</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>84.49388507516602</c:v>
+                  <c:v>91.97298409274342</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>40.78151176135094</c:v>
+                  <c:v>96.26350243543048</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>32.29885570558822</c:v>
+                  <c:v>53.3618661417859</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>85.16431011035105</c:v>
+                  <c:v>87.73527799318308</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>18.94951285527994</c:v>
+                  <c:v>82.18481486518682</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>65.34628135819065</c:v>
+                  <c:v>21.09081568532132</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>96.72707998510077</c:v>
+                  <c:v>37.1373539347405</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>18.796959348638</c:v>
+                  <c:v>62.94537739699331</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>83.18661617581128</c:v>
+                  <c:v>37.41852063198462</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>78.73252800490522</c:v>
+                  <c:v>69.57648902348365</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>75.18801459674593</c:v>
+                  <c:v>31.48469477238967</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>59.03616452080994</c:v>
+                  <c:v>91.72278473146478</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>36.04264110002873</c:v>
+                  <c:v>23.19846758348954</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>92.38556079343709</c:v>
+                  <c:v>27.23048939996038</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>71.18779042441385</c:v>
+                  <c:v>82.26752450939006</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>20.76933036991323</c:v>
+                  <c:v>91.5395257005772</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>44.80565879912822</c:v>
+                  <c:v>24.93096678610969</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>64.33528018698142</c:v>
+                  <c:v>12.76905835068699</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>17.23000498539299</c:v>
+                  <c:v>50.43270643671538</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -487,301 +487,301 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>46.14415187022824</c:v>
+                  <c:v>35.32351749671892</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21.86930110831001</c:v>
+                  <c:v>48.59043903859323</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45.02492643413355</c:v>
+                  <c:v>29.39735491120404</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21.4903944617991</c:v>
+                  <c:v>39.98971127865011</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>27.31191038732908</c:v>
+                  <c:v>26.35575959584065</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>47.76817316660357</c:v>
+                  <c:v>45.56571233306018</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>39.68155321661563</c:v>
+                  <c:v>36.74349197966676</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44.1149322975678</c:v>
+                  <c:v>30.73047997963084</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>33.39706948133013</c:v>
+                  <c:v>30.47307291881778</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>36.08088115117796</c:v>
+                  <c:v>29.0926437417246</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>36.93885076752986</c:v>
+                  <c:v>34.31337712018382</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>46.66438961399433</c:v>
+                  <c:v>38.15572023421463</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>21.49606484080551</c:v>
+                  <c:v>27.05784028991505</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>21.90650100086372</c:v>
+                  <c:v>35.10640939756806</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>24.27193458748658</c:v>
+                  <c:v>31.67957948711766</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>43.56215044085071</c:v>
+                  <c:v>32.36722215317463</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>49.28469024587305</c:v>
+                  <c:v>30.4901201283147</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>26.62909187602288</c:v>
+                  <c:v>29.32516621551628</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>38.99846293990072</c:v>
+                  <c:v>49.76260449226426</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>24.48806827193964</c:v>
+                  <c:v>28.95237864834928</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>37.4851073649771</c:v>
+                  <c:v>26.02059362639322</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>46.07017618103497</c:v>
+                  <c:v>20.07223526007333</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>21.47396579885932</c:v>
+                  <c:v>46.66831482143404</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>44.89630000034278</c:v>
+                  <c:v>30.57005576147951</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>27.53113598258869</c:v>
+                  <c:v>39.37708483265504</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>34.07019972825265</c:v>
+                  <c:v>21.53429846416705</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>29.8350130269216</c:v>
+                  <c:v>26.56009755937174</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>43.7882732953534</c:v>
+                  <c:v>38.28852223142752</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>28.5035389506936</c:v>
+                  <c:v>31.06747854866153</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>22.38156967862919</c:v>
+                  <c:v>25.56271862420945</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>42.66646245248962</c:v>
+                  <c:v>41.72158751584436</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>21.11905954344345</c:v>
+                  <c:v>41.89266495100822</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>38.69565099288999</c:v>
+                  <c:v>22.5238286613601</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>24.04343548842038</c:v>
+                  <c:v>26.96647858875153</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>44.18239480355679</c:v>
+                  <c:v>35.11613960002817</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>45.20082595735566</c:v>
+                  <c:v>41.66113865995591</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>44.63466687640662</c:v>
+                  <c:v>27.10272628694432</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>20.56964570266301</c:v>
+                  <c:v>48.60390942079331</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>29.40281800945333</c:v>
+                  <c:v>42.65326161136599</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>33.11528675888238</c:v>
+                  <c:v>22.25847174167748</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>49.86019969292119</c:v>
+                  <c:v>24.78162390434712</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>42.95372949087071</c:v>
+                  <c:v>40.97365566401493</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>39.71477181274251</c:v>
+                  <c:v>37.24112570738428</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>36.00299689743234</c:v>
+                  <c:v>38.08416466274306</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>47.3792708729621</c:v>
+                  <c:v>37.51183193294469</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>43.67384695877426</c:v>
+                  <c:v>34.87314885198666</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>39.62199864149981</c:v>
+                  <c:v>35.54821987651991</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>49.04966370332728</c:v>
+                  <c:v>30.8117625989488</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>33.29759258619927</c:v>
+                  <c:v>22.94954760145049</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>24.90153942033135</c:v>
+                  <c:v>44.06957843243036</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>21.38781751546623</c:v>
+                  <c:v>46.07375963906532</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>46.67689076442312</c:v>
+                  <c:v>35.21944047916285</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>41.57095037162335</c:v>
+                  <c:v>37.2242725327834</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>47.58204450929922</c:v>
+                  <c:v>21.19613835010363</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>21.06932717036621</c:v>
+                  <c:v>36.2230211392057</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>29.11353828032132</c:v>
+                  <c:v>43.94602261460444</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>44.20127191311028</c:v>
+                  <c:v>25.31478846089233</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>40.32808974333413</c:v>
+                  <c:v>21.0670677863061</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>29.15332647513609</c:v>
+                  <c:v>46.66233818596569</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>24.98134855086931</c:v>
+                  <c:v>38.71795616027429</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>49.56430141605482</c:v>
+                  <c:v>42.75718004147608</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>21.00744388693728</c:v>
+                  <c:v>31.01193778487139</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>26.6571171180895</c:v>
+                  <c:v>46.72583266994989</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>39.4374738188215</c:v>
+                  <c:v>33.99804296537653</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>44.74103173150262</c:v>
+                  <c:v>49.22259676296645</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>31.59859222573578</c:v>
+                  <c:v>38.17830535042888</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>45.45526910704308</c:v>
+                  <c:v>28.99993659817905</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>44.59751723634808</c:v>
+                  <c:v>46.82998670524306</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>36.73190919927164</c:v>
+                  <c:v>41.2748268815048</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>39.11279640448383</c:v>
+                  <c:v>42.90476382257405</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>45.5961727345108</c:v>
+                  <c:v>47.5931515922525</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>37.88107554762965</c:v>
+                  <c:v>35.81266013900036</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>44.26818657978437</c:v>
+                  <c:v>43.6380467270385</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>39.44103815366661</c:v>
+                  <c:v>49.76755877396103</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>35.32767806937952</c:v>
+                  <c:v>41.5660933342122</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>20.14380859744289</c:v>
+                  <c:v>30.6380621254733</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>25.37512120196692</c:v>
+                  <c:v>42.87555082822938</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>30.90249229669778</c:v>
+                  <c:v>30.39421075114827</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>31.1298442018327</c:v>
+                  <c:v>31.4538070272948</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>33.27430067868696</c:v>
+                  <c:v>35.56427909343731</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>23.7458393965966</c:v>
+                  <c:v>38.04659974377612</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>29.19936610381896</c:v>
+                  <c:v>29.93742852408839</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>42.64476890553476</c:v>
+                  <c:v>36.69327371868724</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>33.65160918378083</c:v>
+                  <c:v>40.87822858841232</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>30.68123463086603</c:v>
+                  <c:v>40.47764663559587</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>35.6421320766806</c:v>
+                  <c:v>44.69772414562434</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>26.87686920860737</c:v>
+                  <c:v>27.28898156361082</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>38.62413044533848</c:v>
+                  <c:v>42.60781568095033</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>43.62198508309881</c:v>
+                  <c:v>31.22357892451548</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>49.16584917828359</c:v>
+                  <c:v>43.11513203959835</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>45.36906340631556</c:v>
+                  <c:v>31.02534310461225</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>34.43264970515354</c:v>
+                  <c:v>39.1557324611184</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>32.03287229709257</c:v>
+                  <c:v>30.88579634951858</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>29.7336365469858</c:v>
+                  <c:v>21.91031414349136</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>49.17402139938724</c:v>
+                  <c:v>24.90038595856405</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>26.23696407745236</c:v>
+                  <c:v>34.37866664678569</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>32.30746122770167</c:v>
+                  <c:v>39.04419492790517</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>43.06824537536422</c:v>
+                  <c:v>33.82071170696412</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>46.03006658811603</c:v>
+                  <c:v>25.46216079466463</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1225,10 +1225,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>72.98480421306419</v>
+        <v>81.69937672963491</v>
       </c>
       <c r="C3" s="3">
-        <v>46.14415187022824</v>
+        <v>35.32351749671892</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1236,10 +1236,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="3">
-        <v>12.87523696569257</v>
+        <v>20.88049100315784</v>
       </c>
       <c r="C4" s="3">
-        <v>21.86930110831001</v>
+        <v>48.59043903859323</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1247,10 +1247,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="3">
-        <v>23.41411781807617</v>
+        <v>52.32825101853283</v>
       </c>
       <c r="C5" s="3">
-        <v>45.02492643413355</v>
+        <v>29.39735491120404</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1258,10 +1258,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="3">
-        <v>70.92305559944944</v>
+        <v>50.01763946744937</v>
       </c>
       <c r="C6" s="3">
-        <v>21.4903944617991</v>
+        <v>39.98971127865011</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1269,10 +1269,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="3">
-        <v>66.25088776746024</v>
+        <v>33.97075383266573</v>
       </c>
       <c r="C7" s="3">
-        <v>27.31191038732908</v>
+        <v>26.35575959584065</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1280,10 +1280,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="3">
-        <v>16.65067135279649</v>
+        <v>14.58906189867574</v>
       </c>
       <c r="C8" s="3">
-        <v>47.76817316660357</v>
+        <v>45.56571233306018</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1291,10 +1291,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="3">
-        <v>48.26335242313255</v>
+        <v>14.45706607755189</v>
       </c>
       <c r="C9" s="3">
-        <v>39.68155321661563</v>
+        <v>36.74349197966676</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1302,10 +1302,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="3">
-        <v>61.76736817906589</v>
+        <v>55.41255681517993</v>
       </c>
       <c r="C10" s="3">
-        <v>44.1149322975678</v>
+        <v>30.73047997963084</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1313,10 +1313,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="3">
-        <v>91.86455242517003</v>
+        <v>76.46318718823449</v>
       </c>
       <c r="C11" s="3">
-        <v>33.39706948133013</v>
+        <v>30.47307291881778</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1324,10 +1324,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="3">
-        <v>26.16587920535992</v>
+        <v>46.67931028850435</v>
       </c>
       <c r="C12" s="3">
-        <v>36.08088115117796</v>
+        <v>29.0926437417246</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1335,10 +1335,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="3">
-        <v>41.11812349163978</v>
+        <v>50.98567401664162</v>
       </c>
       <c r="C13" s="3">
-        <v>36.93885076752986</v>
+        <v>34.31337712018382</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1346,10 +1346,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="3">
-        <v>32.62297449050504</v>
+        <v>17.406819939051</v>
       </c>
       <c r="C14" s="3">
-        <v>46.66438961399433</v>
+        <v>38.15572023421463</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1357,10 +1357,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="3">
-        <v>30.80382838685408</v>
+        <v>83.12055361325025</v>
       </c>
       <c r="C15" s="3">
-        <v>21.49606484080551</v>
+        <v>27.05784028991505</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1368,10 +1368,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="3">
-        <v>75.28835216160645</v>
+        <v>93.38394294522369</v>
       </c>
       <c r="C16" s="3">
-        <v>21.90650100086372</v>
+        <v>35.10640939756806</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1379,10 +1379,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="3">
-        <v>16.06997932822003</v>
+        <v>84.0703241085285</v>
       </c>
       <c r="C17" s="3">
-        <v>24.27193458748658</v>
+        <v>31.67957948711766</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1390,10 +1390,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="3">
-        <v>90.85126787785808</v>
+        <v>57.18135493844682</v>
       </c>
       <c r="C18" s="3">
-        <v>43.56215044085071</v>
+        <v>32.36722215317463</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1401,10 +1401,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="3">
-        <v>38.13363565187912</v>
+        <v>70.84777631328267</v>
       </c>
       <c r="C19" s="3">
-        <v>49.28469024587305</v>
+        <v>30.4901201283147</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1412,10 +1412,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="3">
-        <v>42.91641717374947</v>
+        <v>85.58356312103081</v>
       </c>
       <c r="C20" s="3">
-        <v>26.62909187602288</v>
+        <v>29.32516621551628</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1423,10 +1423,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="3">
-        <v>87.02014835862791</v>
+        <v>58.86061344349162</v>
       </c>
       <c r="C21" s="3">
-        <v>38.99846293990072</v>
+        <v>49.76260449226426</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1434,10 +1434,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="3">
-        <v>20.77744472345713</v>
+        <v>17.1789196878305</v>
       </c>
       <c r="C22" s="3">
-        <v>24.48806827193964</v>
+        <v>28.95237864834928</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1445,10 +1445,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="3">
-        <v>23.12734790464717</v>
+        <v>74.65896018630437</v>
       </c>
       <c r="C23" s="3">
-        <v>37.4851073649771</v>
+        <v>26.02059362639322</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1456,10 +1456,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="3">
-        <v>28.9350171283177</v>
+        <v>50.13824997666068</v>
       </c>
       <c r="C24" s="3">
-        <v>46.07017618103497</v>
+        <v>20.07223526007333</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1467,10 +1467,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="3">
-        <v>53.69914784193531</v>
+        <v>98.95462808172329</v>
       </c>
       <c r="C25" s="3">
-        <v>21.47396579885932</v>
+        <v>46.66831482143404</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1478,10 +1478,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="3">
-        <v>87.55511300396803</v>
+        <v>30.5842401516426</v>
       </c>
       <c r="C26" s="3">
-        <v>44.89630000034278</v>
+        <v>30.57005576147951</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1489,10 +1489,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="3">
-        <v>57.56735960167017</v>
+        <v>86.78564003245614</v>
       </c>
       <c r="C27" s="3">
-        <v>27.53113598258869</v>
+        <v>39.37708483265504</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1500,10 +1500,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="3">
-        <v>60.2335044474201</v>
+        <v>66.98760625143524</v>
       </c>
       <c r="C28" s="3">
-        <v>34.07019972825265</v>
+        <v>21.53429846416705</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1511,10 +1511,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="3">
-        <v>56.74363299118642</v>
+        <v>86.3866111545878</v>
       </c>
       <c r="C29" s="3">
-        <v>29.8350130269216</v>
+        <v>26.56009755937174</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1522,10 +1522,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="3">
-        <v>98.35451945277634</v>
+        <v>87.89244677979089</v>
       </c>
       <c r="C30" s="3">
-        <v>43.7882732953534</v>
+        <v>38.28852223142752</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1533,10 +1533,10 @@
         <v>29</v>
       </c>
       <c r="B31" s="3">
-        <v>70.10784737469443</v>
+        <v>28.11547218389643</v>
       </c>
       <c r="C31" s="3">
-        <v>28.5035389506936</v>
+        <v>31.06747854866153</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1544,10 +1544,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="3">
-        <v>39.62416088810002</v>
+        <v>37.89085446029965</v>
       </c>
       <c r="C32" s="3">
-        <v>22.38156967862919</v>
+        <v>25.56271862420945</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1555,10 +1555,10 @@
         <v>31</v>
       </c>
       <c r="B33" s="3">
-        <v>60.13615701930365</v>
+        <v>66.65247327905075</v>
       </c>
       <c r="C33" s="3">
-        <v>42.66646245248962</v>
+        <v>41.72158751584436</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1566,10 +1566,10 @@
         <v>32</v>
       </c>
       <c r="B34" s="3">
-        <v>33.66287585621234</v>
+        <v>28.25020123935135</v>
       </c>
       <c r="C34" s="3">
-        <v>21.11905954344345</v>
+        <v>41.89266495100822</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1577,10 +1577,10 @@
         <v>33</v>
       </c>
       <c r="B35" s="3">
-        <v>17.04402372520179</v>
+        <v>75.74650205158299</v>
       </c>
       <c r="C35" s="3">
-        <v>38.69565099288999</v>
+        <v>22.5238286613601</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1588,10 +1588,10 @@
         <v>34</v>
       </c>
       <c r="B36" s="3">
-        <v>71.66582176903381</v>
+        <v>34.16920823132904</v>
       </c>
       <c r="C36" s="3">
-        <v>24.04343548842038</v>
+        <v>26.96647858875153</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1599,10 +1599,10 @@
         <v>35</v>
       </c>
       <c r="B37" s="3">
-        <v>82.33907103376953</v>
+        <v>62.55187120494409</v>
       </c>
       <c r="C37" s="3">
-        <v>44.18239480355679</v>
+        <v>35.11613960002817</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1610,10 +1610,10 @@
         <v>36</v>
       </c>
       <c r="B38" s="3">
-        <v>83.02444235581765</v>
+        <v>50.38324297908451</v>
       </c>
       <c r="C38" s="3">
-        <v>45.20082595735566</v>
+        <v>41.66113865995591</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1621,10 +1621,10 @@
         <v>37</v>
       </c>
       <c r="B39" s="3">
-        <v>92.01864024630633</v>
+        <v>38.08525179778542</v>
       </c>
       <c r="C39" s="3">
-        <v>44.63466687640662</v>
+        <v>27.10272628694432</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1632,10 +1632,10 @@
         <v>38</v>
       </c>
       <c r="B40" s="3">
-        <v>70.61035348413024</v>
+        <v>30.11539333237082</v>
       </c>
       <c r="C40" s="3">
-        <v>20.56964570266301</v>
+        <v>48.60390942079331</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1643,10 +1643,10 @@
         <v>39</v>
       </c>
       <c r="B41" s="3">
-        <v>46.04117836190497</v>
+        <v>65.40891874061087</v>
       </c>
       <c r="C41" s="3">
-        <v>29.40281800945333</v>
+        <v>42.65326161136599</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1654,10 +1654,10 @@
         <v>40</v>
       </c>
       <c r="B42" s="3">
-        <v>52.10913459166155</v>
+        <v>44.15112118951343</v>
       </c>
       <c r="C42" s="3">
-        <v>33.11528675888238</v>
+        <v>22.25847174167748</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1665,10 +1665,10 @@
         <v>41</v>
       </c>
       <c r="B43" s="3">
-        <v>92.93832806555618</v>
+        <v>94.34223026593781</v>
       </c>
       <c r="C43" s="3">
-        <v>49.86019969292119</v>
+        <v>24.78162390434712</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1676,10 +1676,10 @@
         <v>42</v>
       </c>
       <c r="B44" s="3">
-        <v>60.21492682839688</v>
+        <v>82.0452365808993</v>
       </c>
       <c r="C44" s="3">
-        <v>42.95372949087071</v>
+        <v>40.97365566401493</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1687,10 +1687,10 @@
         <v>43</v>
       </c>
       <c r="B45" s="3">
-        <v>74.75777725120467</v>
+        <v>98.2158887404448</v>
       </c>
       <c r="C45" s="3">
-        <v>39.71477181274251</v>
+        <v>37.24112570738428</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1698,10 +1698,10 @@
         <v>44</v>
       </c>
       <c r="B46" s="3">
-        <v>45.77843759160107</v>
+        <v>84.57007383224351</v>
       </c>
       <c r="C46" s="3">
-        <v>36.00299689743234</v>
+        <v>38.08416466274306</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1709,10 +1709,10 @@
         <v>45</v>
       </c>
       <c r="B47" s="3">
-        <v>27.94072910046069</v>
+        <v>28.30634935256842</v>
       </c>
       <c r="C47" s="3">
-        <v>47.3792708729621</v>
+        <v>37.51183193294469</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1720,10 +1720,10 @@
         <v>46</v>
       </c>
       <c r="B48" s="3">
-        <v>71.90003033974678</v>
+        <v>30.3845396979224</v>
       </c>
       <c r="C48" s="3">
-        <v>43.67384695877426</v>
+        <v>34.87314885198666</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1731,10 +1731,10 @@
         <v>47</v>
       </c>
       <c r="B49" s="3">
-        <v>92.32917744967244</v>
+        <v>98.32846864756388</v>
       </c>
       <c r="C49" s="3">
-        <v>39.62199864149981</v>
+        <v>35.54821987651991</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1742,10 +1742,10 @@
         <v>48</v>
       </c>
       <c r="B50" s="3">
-        <v>95.5394718490878</v>
+        <v>27.61862311889467</v>
       </c>
       <c r="C50" s="3">
-        <v>49.04966370332728</v>
+        <v>30.8117625989488</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1753,10 +1753,10 @@
         <v>49</v>
       </c>
       <c r="B51" s="3">
-        <v>78.45608112851578</v>
+        <v>63.89975826955598</v>
       </c>
       <c r="C51" s="3">
-        <v>33.29759258619927</v>
+        <v>22.94954760145049</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1764,10 +1764,10 @@
         <v>50</v>
       </c>
       <c r="B52" s="3">
-        <v>18.18552564492981</v>
+        <v>50.55212168555547</v>
       </c>
       <c r="C52" s="3">
-        <v>24.90153942033135</v>
+        <v>44.06957843243036</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1775,10 +1775,10 @@
         <v>51</v>
       </c>
       <c r="B53" s="3">
-        <v>76.42231067467469</v>
+        <v>22.13830686020021</v>
       </c>
       <c r="C53" s="3">
-        <v>21.38781751546623</v>
+        <v>46.07375963906532</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1786,10 +1786,10 @@
         <v>52</v>
       </c>
       <c r="B54" s="3">
-        <v>18.8938004028689</v>
+        <v>62.82219407787589</v>
       </c>
       <c r="C54" s="3">
-        <v>46.67689076442312</v>
+        <v>35.21944047916285</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1797,10 +1797,10 @@
         <v>53</v>
       </c>
       <c r="B55" s="3">
-        <v>77.87549409213864</v>
+        <v>55.6308331325931</v>
       </c>
       <c r="C55" s="3">
-        <v>41.57095037162335</v>
+        <v>37.2242725327834</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1808,10 +1808,10 @@
         <v>54</v>
       </c>
       <c r="B56" s="3">
-        <v>23.12731108149582</v>
+        <v>97.85462626322966</v>
       </c>
       <c r="C56" s="3">
-        <v>47.58204450929922</v>
+        <v>21.19613835010363</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1819,10 +1819,10 @@
         <v>55</v>
       </c>
       <c r="B57" s="3">
-        <v>21.35161101622733</v>
+        <v>71.07735413469867</v>
       </c>
       <c r="C57" s="3">
-        <v>21.06932717036621</v>
+        <v>36.2230211392057</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1830,10 +1830,10 @@
         <v>56</v>
       </c>
       <c r="B58" s="3">
-        <v>40.55821562355922</v>
+        <v>17.40546508997478</v>
       </c>
       <c r="C58" s="3">
-        <v>29.11353828032132</v>
+        <v>43.94602261460444</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1841,10 +1841,10 @@
         <v>57</v>
       </c>
       <c r="B59" s="3">
-        <v>56.7456277342116</v>
+        <v>11.22633541342599</v>
       </c>
       <c r="C59" s="3">
-        <v>44.20127191311028</v>
+        <v>25.31478846089233</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1852,10 +1852,10 @@
         <v>58</v>
       </c>
       <c r="B60" s="3">
-        <v>88.59423669183683</v>
+        <v>71.75857687103309</v>
       </c>
       <c r="C60" s="3">
-        <v>40.32808974333413</v>
+        <v>21.0670677863061</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1863,10 +1863,10 @@
         <v>59</v>
       </c>
       <c r="B61" s="3">
-        <v>47.02178350816753</v>
+        <v>56.9107724013063</v>
       </c>
       <c r="C61" s="3">
-        <v>29.15332647513609</v>
+        <v>46.66233818596569</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1874,10 +1874,10 @@
         <v>60</v>
       </c>
       <c r="B62" s="3">
-        <v>76.96777386622813</v>
+        <v>41.47477450305941</v>
       </c>
       <c r="C62" s="3">
-        <v>24.98134855086931</v>
+        <v>38.71795616027429</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1885,10 +1885,10 @@
         <v>61</v>
       </c>
       <c r="B63" s="3">
-        <v>31.99045843650539</v>
+        <v>42.82514113572447</v>
       </c>
       <c r="C63" s="3">
-        <v>49.56430141605482</v>
+        <v>42.75718004147608</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1896,10 +1896,10 @@
         <v>62</v>
       </c>
       <c r="B64" s="3">
-        <v>86.60442726558838</v>
+        <v>91.1431433955598</v>
       </c>
       <c r="C64" s="3">
-        <v>21.00744388693728</v>
+        <v>31.01193778487139</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1907,10 +1907,10 @@
         <v>63</v>
       </c>
       <c r="B65" s="3">
-        <v>75.16168770515139</v>
+        <v>51.74377392612084</v>
       </c>
       <c r="C65" s="3">
-        <v>26.6571171180895</v>
+        <v>46.72583266994989</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1918,10 +1918,10 @@
         <v>64</v>
       </c>
       <c r="B66" s="3">
-        <v>72.86522228293123</v>
+        <v>38.06794795275241</v>
       </c>
       <c r="C66" s="3">
-        <v>39.4374738188215</v>
+        <v>33.99804296537653</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1929,10 +1929,10 @@
         <v>65</v>
       </c>
       <c r="B67" s="3">
-        <v>57.86463606572191</v>
+        <v>80.86315420054748</v>
       </c>
       <c r="C67" s="3">
-        <v>44.74103173150262</v>
+        <v>49.22259676296645</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1940,10 +1940,10 @@
         <v>66</v>
       </c>
       <c r="B68" s="3">
-        <v>63.7003581374619</v>
+        <v>10.05850855450161</v>
       </c>
       <c r="C68" s="3">
-        <v>31.59859222573578</v>
+        <v>38.17830535042888</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1951,10 +1951,10 @@
         <v>67</v>
       </c>
       <c r="B69" s="3">
-        <v>53.14706143419547</v>
+        <v>51.58753254791964</v>
       </c>
       <c r="C69" s="3">
-        <v>45.45526910704308</v>
+        <v>28.99993659817905</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1962,10 +1962,10 @@
         <v>68</v>
       </c>
       <c r="B70" s="3">
-        <v>89.34011209631322</v>
+        <v>91.97109895340311</v>
       </c>
       <c r="C70" s="3">
-        <v>44.59751723634808</v>
+        <v>46.82998670524306</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1973,10 +1973,10 @@
         <v>69</v>
       </c>
       <c r="B71" s="3">
-        <v>95.81655162642919</v>
+        <v>93.84883575201893</v>
       </c>
       <c r="C71" s="3">
-        <v>36.73190919927164</v>
+        <v>41.2748268815048</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1984,10 +1984,10 @@
         <v>70</v>
       </c>
       <c r="B72" s="3">
-        <v>80.91561097280714</v>
+        <v>44.78400706481897</v>
       </c>
       <c r="C72" s="3">
-        <v>39.11279640448383</v>
+        <v>42.90476382257405</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1995,10 +1995,10 @@
         <v>71</v>
       </c>
       <c r="B73" s="3">
-        <v>90.49292052509853</v>
+        <v>80.88395812173677</v>
       </c>
       <c r="C73" s="3">
-        <v>45.5961727345108</v>
+        <v>47.5931515922525</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -2006,10 +2006,10 @@
         <v>72</v>
       </c>
       <c r="B74" s="3">
-        <v>43.62056002103892</v>
+        <v>83.29337472833689</v>
       </c>
       <c r="C74" s="3">
-        <v>37.88107554762965</v>
+        <v>35.81266013900036</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -2017,10 +2017,10 @@
         <v>73</v>
       </c>
       <c r="B75" s="3">
-        <v>77.03501400720616</v>
+        <v>69.39405668615105</v>
       </c>
       <c r="C75" s="3">
-        <v>44.26818657978437</v>
+        <v>43.6380467270385</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -2028,10 +2028,10 @@
         <v>74</v>
       </c>
       <c r="B76" s="3">
-        <v>92.19467032317634</v>
+        <v>12.01935643146963</v>
       </c>
       <c r="C76" s="3">
-        <v>39.44103815366661</v>
+        <v>49.76755877396103</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -2039,10 +2039,10 @@
         <v>75</v>
       </c>
       <c r="B77" s="3">
-        <v>37.72501450447604</v>
+        <v>33.35298738391277</v>
       </c>
       <c r="C77" s="3">
-        <v>35.32767806937952</v>
+        <v>41.5660933342122</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -2050,10 +2050,10 @@
         <v>76</v>
       </c>
       <c r="B78" s="3">
-        <v>24.74915345886221</v>
+        <v>37.6118550004407</v>
       </c>
       <c r="C78" s="3">
-        <v>20.14380859744289</v>
+        <v>30.6380621254733</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -2061,10 +2061,10 @@
         <v>77</v>
       </c>
       <c r="B79" s="3">
-        <v>62.90276210741445</v>
+        <v>75.38541815281447</v>
       </c>
       <c r="C79" s="3">
-        <v>25.37512120196692</v>
+        <v>42.87555082822938</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -2072,10 +2072,10 @@
         <v>78</v>
       </c>
       <c r="B80" s="3">
-        <v>29.45535959717423</v>
+        <v>59.0607464908521</v>
       </c>
       <c r="C80" s="3">
-        <v>30.90249229669778</v>
+        <v>30.39421075114827</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -2083,10 +2083,10 @@
         <v>79</v>
       </c>
       <c r="B81" s="3">
-        <v>97.34095216877344</v>
+        <v>63.52027195225843</v>
       </c>
       <c r="C81" s="3">
-        <v>31.1298442018327</v>
+        <v>31.4538070272948</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -2094,10 +2094,10 @@
         <v>80</v>
       </c>
       <c r="B82" s="3">
-        <v>82.93259353678886</v>
+        <v>53.25468041329064</v>
       </c>
       <c r="C82" s="3">
-        <v>33.27430067868696</v>
+        <v>35.56427909343731</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -2105,10 +2105,10 @@
         <v>81</v>
       </c>
       <c r="B83" s="3">
-        <v>84.49388507516602</v>
+        <v>91.97298409274342</v>
       </c>
       <c r="C83" s="3">
-        <v>23.7458393965966</v>
+        <v>38.04659974377612</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -2116,10 +2116,10 @@
         <v>82</v>
       </c>
       <c r="B84" s="3">
-        <v>40.78151176135094</v>
+        <v>96.26350243543048</v>
       </c>
       <c r="C84" s="3">
-        <v>29.19936610381896</v>
+        <v>29.93742852408839</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -2127,10 +2127,10 @@
         <v>83</v>
       </c>
       <c r="B85" s="3">
-        <v>32.29885570558822</v>
+        <v>53.3618661417859</v>
       </c>
       <c r="C85" s="3">
-        <v>42.64476890553476</v>
+        <v>36.69327371868724</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -2138,10 +2138,10 @@
         <v>84</v>
       </c>
       <c r="B86" s="3">
-        <v>85.16431011035105</v>
+        <v>87.73527799318308</v>
       </c>
       <c r="C86" s="3">
-        <v>33.65160918378083</v>
+        <v>40.87822858841232</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -2149,10 +2149,10 @@
         <v>85</v>
       </c>
       <c r="B87" s="3">
-        <v>18.94951285527994</v>
+        <v>82.18481486518682</v>
       </c>
       <c r="C87" s="3">
-        <v>30.68123463086603</v>
+        <v>40.47764663559587</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -2160,10 +2160,10 @@
         <v>86</v>
       </c>
       <c r="B88" s="3">
-        <v>65.34628135819065</v>
+        <v>21.09081568532132</v>
       </c>
       <c r="C88" s="3">
-        <v>35.6421320766806</v>
+        <v>44.69772414562434</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -2171,10 +2171,10 @@
         <v>87</v>
       </c>
       <c r="B89" s="3">
-        <v>96.72707998510077</v>
+        <v>37.1373539347405</v>
       </c>
       <c r="C89" s="3">
-        <v>26.87686920860737</v>
+        <v>27.28898156361082</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -2182,10 +2182,10 @@
         <v>88</v>
       </c>
       <c r="B90" s="3">
-        <v>18.796959348638</v>
+        <v>62.94537739699331</v>
       </c>
       <c r="C90" s="3">
-        <v>38.62413044533848</v>
+        <v>42.60781568095033</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -2193,10 +2193,10 @@
         <v>89</v>
       </c>
       <c r="B91" s="3">
-        <v>83.18661617581128</v>
+        <v>37.41852063198462</v>
       </c>
       <c r="C91" s="3">
-        <v>43.62198508309881</v>
+        <v>31.22357892451548</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -2204,10 +2204,10 @@
         <v>90</v>
       </c>
       <c r="B92" s="3">
-        <v>78.73252800490522</v>
+        <v>69.57648902348365</v>
       </c>
       <c r="C92" s="3">
-        <v>49.16584917828359</v>
+        <v>43.11513203959835</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -2215,10 +2215,10 @@
         <v>91</v>
       </c>
       <c r="B93" s="3">
-        <v>75.18801459674593</v>
+        <v>31.48469477238967</v>
       </c>
       <c r="C93" s="3">
-        <v>45.36906340631556</v>
+        <v>31.02534310461225</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -2226,10 +2226,10 @@
         <v>92</v>
       </c>
       <c r="B94" s="3">
-        <v>59.03616452080994</v>
+        <v>91.72278473146478</v>
       </c>
       <c r="C94" s="3">
-        <v>34.43264970515354</v>
+        <v>39.1557324611184</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -2237,10 +2237,10 @@
         <v>93</v>
       </c>
       <c r="B95" s="3">
-        <v>36.04264110002873</v>
+        <v>23.19846758348954</v>
       </c>
       <c r="C95" s="3">
-        <v>32.03287229709257</v>
+        <v>30.88579634951858</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -2248,10 +2248,10 @@
         <v>94</v>
       </c>
       <c r="B96" s="3">
-        <v>92.38556079343709</v>
+        <v>27.23048939996038</v>
       </c>
       <c r="C96" s="3">
-        <v>29.7336365469858</v>
+        <v>21.91031414349136</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2259,10 +2259,10 @@
         <v>95</v>
       </c>
       <c r="B97" s="3">
-        <v>71.18779042441385</v>
+        <v>82.26752450939006</v>
       </c>
       <c r="C97" s="3">
-        <v>49.17402139938724</v>
+        <v>24.90038595856405</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2270,10 +2270,10 @@
         <v>96</v>
       </c>
       <c r="B98" s="3">
-        <v>20.76933036991323</v>
+        <v>91.5395257005772</v>
       </c>
       <c r="C98" s="3">
-        <v>26.23696407745236</v>
+        <v>34.37866664678569</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -2281,10 +2281,10 @@
         <v>97</v>
       </c>
       <c r="B99" s="3">
-        <v>44.80565879912822</v>
+        <v>24.93096678610969</v>
       </c>
       <c r="C99" s="3">
-        <v>32.30746122770167</v>
+        <v>39.04419492790517</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -2292,10 +2292,10 @@
         <v>98</v>
       </c>
       <c r="B100" s="3">
-        <v>64.33528018698142</v>
+        <v>12.76905835068699</v>
       </c>
       <c r="C100" s="3">
-        <v>43.06824537536422</v>
+        <v>33.82071170696412</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -2303,10 +2303,10 @@
         <v>99</v>
       </c>
       <c r="B101" s="3">
-        <v>17.23000498539299</v>
+        <v>50.43270643671538</v>
       </c>
       <c r="C101" s="3">
-        <v>46.03006658811603</v>
+        <v>25.46216079466463</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -2314,10 +2314,10 @@
         <v>100</v>
       </c>
       <c r="B102" s="3">
-        <v>60.10973563981763</v>
+        <v>59.47873339196725</v>
       </c>
       <c r="C102" s="3">
-        <v>31.63855682744039</v>
+        <v>47.42860708406002</v>
       </c>
     </row>
   </sheetData>

--- a/demo.xlsx
+++ b/demo.xlsx
@@ -33,7 +33,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -45,13 +45,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -100,10 +93,10 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -134,7 +127,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Batch 1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -160,301 +153,301 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>81.69937672963491</c:v>
+                  <c:v>68.60966037404884</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.88049100315784</c:v>
+                  <c:v>29.64592865212219</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>52.32825101853283</c:v>
+                  <c:v>99.30783012513064</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50.01763946744937</c:v>
+                  <c:v>98.01277155162673</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>33.97075383266573</c:v>
+                  <c:v>10.56156501751727</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14.58906189867574</c:v>
+                  <c:v>12.43269508403306</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14.45706607755189</c:v>
+                  <c:v>30.05803620391759</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>55.41255681517993</c:v>
+                  <c:v>84.25724272475</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>76.46318718823449</c:v>
+                  <c:v>61.58163091631476</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>46.67931028850435</c:v>
+                  <c:v>13.68817317312448</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>50.98567401664162</c:v>
+                  <c:v>62.6359066813536</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>17.406819939051</c:v>
+                  <c:v>60.94221763636764</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>83.12055361325025</c:v>
+                  <c:v>40.62818569681687</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>93.38394294522369</c:v>
+                  <c:v>40.34272460823216</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>84.0703241085285</c:v>
+                  <c:v>43.0564913116247</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>57.18135493844682</c:v>
+                  <c:v>76.25013737341037</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>70.84777631328267</c:v>
+                  <c:v>91.90029123199044</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>85.58356312103081</c:v>
+                  <c:v>55.01082657096406</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>58.86061344349162</c:v>
+                  <c:v>19.78285781970295</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>17.1789196878305</c:v>
+                  <c:v>35.45985938824237</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>74.65896018630437</c:v>
+                  <c:v>91.29797588399498</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>50.13824997666068</c:v>
+                  <c:v>63.86263436063707</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>98.95462808172329</c:v>
+                  <c:v>37.28936041526933</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>30.5842401516426</c:v>
+                  <c:v>26.91120718948853</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>86.78564003245614</c:v>
+                  <c:v>15.95085227286263</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>66.98760625143524</c:v>
+                  <c:v>43.36226556338076</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>86.3866111545878</c:v>
+                  <c:v>71.61509223803652</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>87.89244677979089</c:v>
+                  <c:v>70.59911065934618</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>28.11547218389643</c:v>
+                  <c:v>68.43768667576167</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>37.89085446029965</c:v>
+                  <c:v>21.33443310542808</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>66.65247327905075</c:v>
+                  <c:v>74.82171111784254</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>28.25020123935135</c:v>
+                  <c:v>78.98003773961912</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>75.74650205158299</c:v>
+                  <c:v>90.02341087777251</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>34.16920823132904</c:v>
+                  <c:v>98.05897068201891</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>62.55187120494409</c:v>
+                  <c:v>71.18483054944127</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>50.38324297908451</c:v>
+                  <c:v>80.54742775670195</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>38.08525179778542</c:v>
+                  <c:v>17.6215699319453</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>30.11539333237082</c:v>
+                  <c:v>84.5454747201137</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>65.40891874061087</c:v>
+                  <c:v>38.36308196035429</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>44.15112118951343</c:v>
+                  <c:v>40.34306353977752</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>94.34223026593781</c:v>
+                  <c:v>69.44183327396303</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>82.0452365808993</c:v>
+                  <c:v>53.43317962184632</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>98.2158887404448</c:v>
+                  <c:v>32.31766073408757</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>84.57007383224351</c:v>
+                  <c:v>87.16944731105117</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>28.30634935256842</c:v>
+                  <c:v>81.27480720404887</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>30.3845396979224</c:v>
+                  <c:v>84.15701981381237</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>98.32846864756388</c:v>
+                  <c:v>84.42081120224883</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>27.61862311889467</c:v>
+                  <c:v>86.68133465124829</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>63.89975826955598</c:v>
+                  <c:v>71.67224727410704</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>50.55212168555547</c:v>
+                  <c:v>89.98419380391204</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>22.13830686020021</c:v>
+                  <c:v>13.48911222983744</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>62.82219407787589</c:v>
+                  <c:v>69.45968840049585</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>55.6308331325931</c:v>
+                  <c:v>85.58007284393152</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>97.85462626322966</c:v>
+                  <c:v>30.68567531893252</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>71.07735413469867</c:v>
+                  <c:v>82.1353865958031</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>17.40546508997478</c:v>
+                  <c:v>83.73198638118075</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>11.22633541342599</c:v>
+                  <c:v>54.10922834715919</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>71.75857687103309</c:v>
+                  <c:v>97.20698879854655</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>56.9107724013063</c:v>
+                  <c:v>71.06405034721172</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>41.47477450305941</c:v>
+                  <c:v>80.49342650973878</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>42.82514113572447</c:v>
+                  <c:v>15.41650028238796</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>91.1431433955598</c:v>
+                  <c:v>15.75824804848915</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>51.74377392612084</c:v>
+                  <c:v>37.46682772785269</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>38.06794795275241</c:v>
+                  <c:v>98.94052097817737</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>80.86315420054748</c:v>
+                  <c:v>94.44283273796185</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>10.05850855450161</c:v>
+                  <c:v>25.72139139985678</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>51.58753254791964</c:v>
+                  <c:v>30.27815725792198</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>91.97109895340311</c:v>
+                  <c:v>13.85626395265158</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>93.84883575201893</c:v>
+                  <c:v>29.20912579357996</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>44.78400706481897</c:v>
+                  <c:v>71.45313050479862</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>80.88395812173677</c:v>
+                  <c:v>69.62257514910868</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>83.29337472833689</c:v>
+                  <c:v>13.36765835448523</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>69.39405668615105</c:v>
+                  <c:v>32.8404190708543</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>12.01935643146963</c:v>
+                  <c:v>89.02993026424228</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>33.35298738391277</c:v>
+                  <c:v>18.72759286905944</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>37.6118550004407</c:v>
+                  <c:v>56.19305276458238</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>75.38541815281447</c:v>
+                  <c:v>76.63119758027631</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>59.0607464908521</c:v>
+                  <c:v>22.2208611514948</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>63.52027195225843</c:v>
+                  <c:v>50.0411703587709</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>53.25468041329064</c:v>
+                  <c:v>13.13180923938958</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>91.97298409274342</c:v>
+                  <c:v>41.63540744354347</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>96.26350243543048</c:v>
+                  <c:v>87.90057723946444</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>53.3618661417859</c:v>
+                  <c:v>37.36371266812308</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>87.73527799318308</c:v>
+                  <c:v>75.34695289104954</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>82.18481486518682</c:v>
+                  <c:v>50.49804490816395</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>21.09081568532132</c:v>
+                  <c:v>12.67870795199642</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>37.1373539347405</c:v>
+                  <c:v>23.00433761220323</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>62.94537739699331</c:v>
+                  <c:v>87.74808961281212</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>37.41852063198462</c:v>
+                  <c:v>19.36882212444291</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>69.57648902348365</c:v>
+                  <c:v>29.53047767907153</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>31.48469477238967</c:v>
+                  <c:v>22.97826949831859</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>91.72278473146478</c:v>
+                  <c:v>42.54071588611612</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>23.19846758348954</c:v>
+                  <c:v>20.08850461184007</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>27.23048939996038</c:v>
+                  <c:v>50.7597801678674</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>82.26752450939006</c:v>
+                  <c:v>67.65237522137195</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>91.5395257005772</c:v>
+                  <c:v>19.13293828513796</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>24.93096678610969</c:v>
+                  <c:v>89.64156666404769</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>12.76905835068699</c:v>
+                  <c:v>65.48433467891617</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>50.43270643671538</c:v>
+                  <c:v>54.75687269224247</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -469,7 +462,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Batch 2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -487,301 +480,301 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>35.32351749671892</c:v>
+                  <c:v>42.62395714004155</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>48.59043903859323</c:v>
+                  <c:v>43.98390663145312</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>29.39735491120404</c:v>
+                  <c:v>32.37200629408105</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>39.98971127865011</c:v>
+                  <c:v>36.46312576293139</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>26.35575959584065</c:v>
+                  <c:v>49.16361718138103</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45.56571233306018</c:v>
+                  <c:v>45.0414252255642</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>36.74349197966676</c:v>
+                  <c:v>36.89791858084303</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>30.73047997963084</c:v>
+                  <c:v>43.63080031616366</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>30.47307291881778</c:v>
+                  <c:v>34.45124307432703</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>29.0926437417246</c:v>
+                  <c:v>25.41888599512477</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>34.31337712018382</c:v>
+                  <c:v>20.26623922069783</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>38.15572023421463</c:v>
+                  <c:v>20.57590371038324</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>27.05784028991505</c:v>
+                  <c:v>26.83872482719606</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>35.10640939756806</c:v>
+                  <c:v>26.61522227586713</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>31.67957948711766</c:v>
+                  <c:v>43.41953316805605</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>32.36722215317463</c:v>
+                  <c:v>21.63748265863266</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>30.4901201283147</c:v>
+                  <c:v>31.54888095677815</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>29.32516621551628</c:v>
+                  <c:v>47.3000961746756</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>49.76260449226426</c:v>
+                  <c:v>36.28703484580373</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>28.95237864834928</c:v>
+                  <c:v>41.83755428316373</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>26.02059362639322</c:v>
+                  <c:v>48.63747513171319</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>20.07223526007333</c:v>
+                  <c:v>20.75878025871666</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>46.66831482143404</c:v>
+                  <c:v>23.64365451343006</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>30.57005576147951</c:v>
+                  <c:v>27.53872226607867</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>39.37708483265504</c:v>
+                  <c:v>44.3603816265365</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>21.53429846416705</c:v>
+                  <c:v>20.93985103728155</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>26.56009755937174</c:v>
+                  <c:v>32.43366589204312</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>38.28852223142752</c:v>
+                  <c:v>21.49372940395521</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>31.06747854866153</c:v>
+                  <c:v>31.28792393418296</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>25.56271862420945</c:v>
+                  <c:v>46.78342821049788</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>41.72158751584436</c:v>
+                  <c:v>45.7557934344269</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>41.89266495100822</c:v>
+                  <c:v>34.86252889919491</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>22.5238286613601</c:v>
+                  <c:v>26.01798811920965</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>26.96647858875153</c:v>
+                  <c:v>45.08314566856344</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>35.11613960002817</c:v>
+                  <c:v>37.14426771099296</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>41.66113865995591</c:v>
+                  <c:v>31.3125481578923</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>27.10272628694432</c:v>
+                  <c:v>23.18195399170667</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>48.60390942079331</c:v>
+                  <c:v>49.26914646425998</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>42.65326161136599</c:v>
+                  <c:v>25.89805744591756</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>22.25847174167748</c:v>
+                  <c:v>30.10876127203888</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>24.78162390434712</c:v>
+                  <c:v>41.29361663423967</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>40.97365566401493</c:v>
+                  <c:v>42.41023309609574</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>37.24112570738428</c:v>
+                  <c:v>31.59895017316055</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>38.08416466274306</c:v>
+                  <c:v>23.38366446044731</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>37.51183193294469</c:v>
+                  <c:v>23.38201145331303</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>34.87314885198666</c:v>
+                  <c:v>20.8650725951025</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>35.54821987651991</c:v>
+                  <c:v>37.13368368333187</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>30.8117625989488</c:v>
+                  <c:v>27.99141458227083</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>22.94954760145049</c:v>
+                  <c:v>42.97131066401221</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>44.06957843243036</c:v>
+                  <c:v>23.43473058445689</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>46.07375963906532</c:v>
+                  <c:v>35.27040563218181</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>35.21944047916285</c:v>
+                  <c:v>33.65998742484521</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>37.2242725327834</c:v>
+                  <c:v>22.64509139892418</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>21.19613835010363</c:v>
+                  <c:v>46.02033079739959</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>36.2230211392057</c:v>
+                  <c:v>32.4718787567905</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>43.94602261460444</c:v>
+                  <c:v>25.58561541243099</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>25.31478846089233</c:v>
+                  <c:v>38.82564435056884</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>21.0670677863061</c:v>
+                  <c:v>28.33661800814257</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>46.66233818596569</c:v>
+                  <c:v>36.58517677156686</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>38.71795616027429</c:v>
+                  <c:v>37.12968558758173</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>42.75718004147608</c:v>
+                  <c:v>27.50849760142278</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>31.01193778487139</c:v>
+                  <c:v>38.78955167595831</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>46.72583266994989</c:v>
+                  <c:v>20.64960154819268</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>33.99804296537653</c:v>
+                  <c:v>49.64236922632684</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>49.22259676296645</c:v>
+                  <c:v>34.6165078185053</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>38.17830535042888</c:v>
+                  <c:v>44.87982928506753</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>28.99993659817905</c:v>
+                  <c:v>24.25999368816884</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>46.82998670524306</c:v>
+                  <c:v>49.47979851138874</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>41.2748268815048</c:v>
+                  <c:v>22.17161638308782</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>42.90476382257405</c:v>
+                  <c:v>23.41717703447151</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>47.5931515922525</c:v>
+                  <c:v>37.60682815895967</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>35.81266013900036</c:v>
+                  <c:v>24.53275998695528</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>43.6380467270385</c:v>
+                  <c:v>28.78836750735752</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>49.76755877396103</c:v>
+                  <c:v>25.04393401831031</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>41.5660933342122</c:v>
+                  <c:v>31.7398152704694</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>30.6380621254733</c:v>
+                  <c:v>24.03812918914274</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>42.87555082822938</c:v>
+                  <c:v>22.83911154199838</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>30.39421075114827</c:v>
+                  <c:v>30.02214852309255</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>31.4538070272948</c:v>
+                  <c:v>25.58419446707475</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>35.56427909343731</c:v>
+                  <c:v>28.36524563098796</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>38.04659974377612</c:v>
+                  <c:v>32.52356409383724</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>29.93742852408839</c:v>
+                  <c:v>21.35548383219962</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>36.69327371868724</c:v>
+                  <c:v>27.99740477454724</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>40.87822858841232</c:v>
+                  <c:v>46.35483361503537</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>40.47764663559587</c:v>
+                  <c:v>44.30863948382931</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>44.69772414562434</c:v>
+                  <c:v>21.69914143546837</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>27.28898156361082</c:v>
+                  <c:v>44.09060071804553</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>42.60781568095033</c:v>
+                  <c:v>28.80786820277745</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>31.22357892451548</c:v>
+                  <c:v>48.82695419092115</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>43.11513203959835</c:v>
+                  <c:v>39.04075292723662</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>31.02534310461225</c:v>
+                  <c:v>24.45937280951547</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>39.1557324611184</c:v>
+                  <c:v>23.32181323850114</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>30.88579634951858</c:v>
+                  <c:v>30.97073780368585</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>21.91031414349136</c:v>
+                  <c:v>24.88496621634372</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>24.90038595856405</c:v>
+                  <c:v>48.41019881168057</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>34.37866664678569</c:v>
+                  <c:v>29.60504151077456</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>39.04419492790517</c:v>
+                  <c:v>45.14383640474323</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>33.82071170696412</c:v>
+                  <c:v>22.93400340049954</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>25.46216079466463</c:v>
+                  <c:v>24.47206428903686</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1194,184 +1187,173 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-    </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:3">
       <c r="A3" s="3">
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>81.69937672963491</v>
+        <v>68.60966037404884</v>
       </c>
       <c r="C3" s="3">
-        <v>35.32351749671892</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>42.62395714004155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="3">
         <v>2</v>
       </c>
       <c r="B4" s="3">
-        <v>20.88049100315784</v>
+        <v>29.64592865212219</v>
       </c>
       <c r="C4" s="3">
-        <v>48.59043903859323</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>43.98390663145312</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="3">
         <v>3</v>
       </c>
       <c r="B5" s="3">
-        <v>52.32825101853283</v>
+        <v>99.30783012513064</v>
       </c>
       <c r="C5" s="3">
-        <v>29.39735491120404</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>32.37200629408105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="3">
         <v>4</v>
       </c>
       <c r="B6" s="3">
-        <v>50.01763946744937</v>
+        <v>98.01277155162673</v>
       </c>
       <c r="C6" s="3">
-        <v>39.98971127865011</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>36.46312576293139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="3">
         <v>5</v>
       </c>
       <c r="B7" s="3">
-        <v>33.97075383266573</v>
+        <v>10.56156501751727</v>
       </c>
       <c r="C7" s="3">
-        <v>26.35575959584065</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>49.16361718138103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="3">
         <v>6</v>
       </c>
       <c r="B8" s="3">
-        <v>14.58906189867574</v>
+        <v>12.43269508403306</v>
       </c>
       <c r="C8" s="3">
-        <v>45.56571233306018</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>45.0414252255642</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="3">
         <v>7</v>
       </c>
       <c r="B9" s="3">
-        <v>14.45706607755189</v>
+        <v>30.05803620391759</v>
       </c>
       <c r="C9" s="3">
-        <v>36.74349197966676</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>36.89791858084303</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" s="3">
         <v>8</v>
       </c>
       <c r="B10" s="3">
-        <v>55.41255681517993</v>
+        <v>84.25724272475</v>
       </c>
       <c r="C10" s="3">
-        <v>30.73047997963084</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>43.63080031616366</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" s="3">
         <v>9</v>
       </c>
       <c r="B11" s="3">
-        <v>76.46318718823449</v>
+        <v>61.58163091631476</v>
       </c>
       <c r="C11" s="3">
-        <v>30.47307291881778</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+        <v>34.45124307432703</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" s="3">
         <v>10</v>
       </c>
       <c r="B12" s="3">
-        <v>46.67931028850435</v>
+        <v>13.68817317312448</v>
       </c>
       <c r="C12" s="3">
-        <v>29.0926437417246</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+        <v>25.41888599512477</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" s="3">
         <v>11</v>
       </c>
       <c r="B13" s="3">
-        <v>50.98567401664162</v>
+        <v>62.6359066813536</v>
       </c>
       <c r="C13" s="3">
-        <v>34.31337712018382</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+        <v>20.26623922069783</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" s="3">
         <v>12</v>
       </c>
       <c r="B14" s="3">
-        <v>17.406819939051</v>
+        <v>60.94221763636764</v>
       </c>
       <c r="C14" s="3">
-        <v>38.15572023421463</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+        <v>20.57590371038324</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" s="3">
         <v>13</v>
       </c>
       <c r="B15" s="3">
-        <v>83.12055361325025</v>
+        <v>40.62818569681687</v>
       </c>
       <c r="C15" s="3">
-        <v>27.05784028991505</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+        <v>26.83872482719606</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" s="3">
         <v>14</v>
       </c>
       <c r="B16" s="3">
-        <v>93.38394294522369</v>
+        <v>40.34272460823216</v>
       </c>
       <c r="C16" s="3">
-        <v>35.10640939756806</v>
+        <v>26.61522227586713</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1379,10 +1361,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="3">
-        <v>84.0703241085285</v>
+        <v>43.0564913116247</v>
       </c>
       <c r="C17" s="3">
-        <v>31.67957948711766</v>
+        <v>43.41953316805605</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1390,10 +1372,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="3">
-        <v>57.18135493844682</v>
+        <v>76.25013737341037</v>
       </c>
       <c r="C18" s="3">
-        <v>32.36722215317463</v>
+        <v>21.63748265863266</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1401,10 +1383,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="3">
-        <v>70.84777631328267</v>
+        <v>91.90029123199044</v>
       </c>
       <c r="C19" s="3">
-        <v>30.4901201283147</v>
+        <v>31.54888095677815</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1412,10 +1394,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="3">
-        <v>85.58356312103081</v>
+        <v>55.01082657096406</v>
       </c>
       <c r="C20" s="3">
-        <v>29.32516621551628</v>
+        <v>47.3000961746756</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1423,10 +1405,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="3">
-        <v>58.86061344349162</v>
+        <v>19.78285781970295</v>
       </c>
       <c r="C21" s="3">
-        <v>49.76260449226426</v>
+        <v>36.28703484580373</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1434,10 +1416,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="3">
-        <v>17.1789196878305</v>
+        <v>35.45985938824237</v>
       </c>
       <c r="C22" s="3">
-        <v>28.95237864834928</v>
+        <v>41.83755428316373</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1445,10 +1427,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="3">
-        <v>74.65896018630437</v>
+        <v>91.29797588399498</v>
       </c>
       <c r="C23" s="3">
-        <v>26.02059362639322</v>
+        <v>48.63747513171319</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1456,10 +1438,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="3">
-        <v>50.13824997666068</v>
+        <v>63.86263436063707</v>
       </c>
       <c r="C24" s="3">
-        <v>20.07223526007333</v>
+        <v>20.75878025871666</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1467,10 +1449,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="3">
-        <v>98.95462808172329</v>
+        <v>37.28936041526933</v>
       </c>
       <c r="C25" s="3">
-        <v>46.66831482143404</v>
+        <v>23.64365451343006</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1478,10 +1460,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="3">
-        <v>30.5842401516426</v>
+        <v>26.91120718948853</v>
       </c>
       <c r="C26" s="3">
-        <v>30.57005576147951</v>
+        <v>27.53872226607867</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1489,10 +1471,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="3">
-        <v>86.78564003245614</v>
+        <v>15.95085227286263</v>
       </c>
       <c r="C27" s="3">
-        <v>39.37708483265504</v>
+        <v>44.3603816265365</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1500,10 +1482,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="3">
-        <v>66.98760625143524</v>
+        <v>43.36226556338076</v>
       </c>
       <c r="C28" s="3">
-        <v>21.53429846416705</v>
+        <v>20.93985103728155</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1511,10 +1493,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="3">
-        <v>86.3866111545878</v>
+        <v>71.61509223803652</v>
       </c>
       <c r="C29" s="3">
-        <v>26.56009755937174</v>
+        <v>32.43366589204312</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1522,10 +1504,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="3">
-        <v>87.89244677979089</v>
+        <v>70.59911065934618</v>
       </c>
       <c r="C30" s="3">
-        <v>38.28852223142752</v>
+        <v>21.49372940395521</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1533,10 +1515,10 @@
         <v>29</v>
       </c>
       <c r="B31" s="3">
-        <v>28.11547218389643</v>
+        <v>68.43768667576167</v>
       </c>
       <c r="C31" s="3">
-        <v>31.06747854866153</v>
+        <v>31.28792393418296</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1544,10 +1526,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="3">
-        <v>37.89085446029965</v>
+        <v>21.33443310542808</v>
       </c>
       <c r="C32" s="3">
-        <v>25.56271862420945</v>
+        <v>46.78342821049788</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1555,10 +1537,10 @@
         <v>31</v>
       </c>
       <c r="B33" s="3">
-        <v>66.65247327905075</v>
+        <v>74.82171111784254</v>
       </c>
       <c r="C33" s="3">
-        <v>41.72158751584436</v>
+        <v>45.7557934344269</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1566,10 +1548,10 @@
         <v>32</v>
       </c>
       <c r="B34" s="3">
-        <v>28.25020123935135</v>
+        <v>78.98003773961912</v>
       </c>
       <c r="C34" s="3">
-        <v>41.89266495100822</v>
+        <v>34.86252889919491</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1577,10 +1559,10 @@
         <v>33</v>
       </c>
       <c r="B35" s="3">
-        <v>75.74650205158299</v>
+        <v>90.02341087777251</v>
       </c>
       <c r="C35" s="3">
-        <v>22.5238286613601</v>
+        <v>26.01798811920965</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1588,10 +1570,10 @@
         <v>34</v>
       </c>
       <c r="B36" s="3">
-        <v>34.16920823132904</v>
+        <v>98.05897068201891</v>
       </c>
       <c r="C36" s="3">
-        <v>26.96647858875153</v>
+        <v>45.08314566856344</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1599,10 +1581,10 @@
         <v>35</v>
       </c>
       <c r="B37" s="3">
-        <v>62.55187120494409</v>
+        <v>71.18483054944127</v>
       </c>
       <c r="C37" s="3">
-        <v>35.11613960002817</v>
+        <v>37.14426771099296</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1610,10 +1592,10 @@
         <v>36</v>
       </c>
       <c r="B38" s="3">
-        <v>50.38324297908451</v>
+        <v>80.54742775670195</v>
       </c>
       <c r="C38" s="3">
-        <v>41.66113865995591</v>
+        <v>31.3125481578923</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1621,10 +1603,10 @@
         <v>37</v>
       </c>
       <c r="B39" s="3">
-        <v>38.08525179778542</v>
+        <v>17.6215699319453</v>
       </c>
       <c r="C39" s="3">
-        <v>27.10272628694432</v>
+        <v>23.18195399170667</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1632,10 +1614,10 @@
         <v>38</v>
       </c>
       <c r="B40" s="3">
-        <v>30.11539333237082</v>
+        <v>84.5454747201137</v>
       </c>
       <c r="C40" s="3">
-        <v>48.60390942079331</v>
+        <v>49.26914646425998</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1643,10 +1625,10 @@
         <v>39</v>
       </c>
       <c r="B41" s="3">
-        <v>65.40891874061087</v>
+        <v>38.36308196035429</v>
       </c>
       <c r="C41" s="3">
-        <v>42.65326161136599</v>
+        <v>25.89805744591756</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1654,10 +1636,10 @@
         <v>40</v>
       </c>
       <c r="B42" s="3">
-        <v>44.15112118951343</v>
+        <v>40.34306353977752</v>
       </c>
       <c r="C42" s="3">
-        <v>22.25847174167748</v>
+        <v>30.10876127203888</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1665,10 +1647,10 @@
         <v>41</v>
       </c>
       <c r="B43" s="3">
-        <v>94.34223026593781</v>
+        <v>69.44183327396303</v>
       </c>
       <c r="C43" s="3">
-        <v>24.78162390434712</v>
+        <v>41.29361663423967</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1676,10 +1658,10 @@
         <v>42</v>
       </c>
       <c r="B44" s="3">
-        <v>82.0452365808993</v>
+        <v>53.43317962184632</v>
       </c>
       <c r="C44" s="3">
-        <v>40.97365566401493</v>
+        <v>42.41023309609574</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1687,10 +1669,10 @@
         <v>43</v>
       </c>
       <c r="B45" s="3">
-        <v>98.2158887404448</v>
+        <v>32.31766073408757</v>
       </c>
       <c r="C45" s="3">
-        <v>37.24112570738428</v>
+        <v>31.59895017316055</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1698,10 +1680,10 @@
         <v>44</v>
       </c>
       <c r="B46" s="3">
-        <v>84.57007383224351</v>
+        <v>87.16944731105117</v>
       </c>
       <c r="C46" s="3">
-        <v>38.08416466274306</v>
+        <v>23.38366446044731</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1709,10 +1691,10 @@
         <v>45</v>
       </c>
       <c r="B47" s="3">
-        <v>28.30634935256842</v>
+        <v>81.27480720404887</v>
       </c>
       <c r="C47" s="3">
-        <v>37.51183193294469</v>
+        <v>23.38201145331303</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1720,10 +1702,10 @@
         <v>46</v>
       </c>
       <c r="B48" s="3">
-        <v>30.3845396979224</v>
+        <v>84.15701981381237</v>
       </c>
       <c r="C48" s="3">
-        <v>34.87314885198666</v>
+        <v>20.8650725951025</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1731,10 +1713,10 @@
         <v>47</v>
       </c>
       <c r="B49" s="3">
-        <v>98.32846864756388</v>
+        <v>84.42081120224883</v>
       </c>
       <c r="C49" s="3">
-        <v>35.54821987651991</v>
+        <v>37.13368368333187</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1742,10 +1724,10 @@
         <v>48</v>
       </c>
       <c r="B50" s="3">
-        <v>27.61862311889467</v>
+        <v>86.68133465124829</v>
       </c>
       <c r="C50" s="3">
-        <v>30.8117625989488</v>
+        <v>27.99141458227083</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1753,10 +1735,10 @@
         <v>49</v>
       </c>
       <c r="B51" s="3">
-        <v>63.89975826955598</v>
+        <v>71.67224727410704</v>
       </c>
       <c r="C51" s="3">
-        <v>22.94954760145049</v>
+        <v>42.97131066401221</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1764,10 +1746,10 @@
         <v>50</v>
       </c>
       <c r="B52" s="3">
-        <v>50.55212168555547</v>
+        <v>89.98419380391204</v>
       </c>
       <c r="C52" s="3">
-        <v>44.06957843243036</v>
+        <v>23.43473058445689</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1775,10 +1757,10 @@
         <v>51</v>
       </c>
       <c r="B53" s="3">
-        <v>22.13830686020021</v>
+        <v>13.48911222983744</v>
       </c>
       <c r="C53" s="3">
-        <v>46.07375963906532</v>
+        <v>35.27040563218181</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1786,10 +1768,10 @@
         <v>52</v>
       </c>
       <c r="B54" s="3">
-        <v>62.82219407787589</v>
+        <v>69.45968840049585</v>
       </c>
       <c r="C54" s="3">
-        <v>35.21944047916285</v>
+        <v>33.65998742484521</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1797,10 +1779,10 @@
         <v>53</v>
       </c>
       <c r="B55" s="3">
-        <v>55.6308331325931</v>
+        <v>85.58007284393152</v>
       </c>
       <c r="C55" s="3">
-        <v>37.2242725327834</v>
+        <v>22.64509139892418</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1808,10 +1790,10 @@
         <v>54</v>
       </c>
       <c r="B56" s="3">
-        <v>97.85462626322966</v>
+        <v>30.68567531893252</v>
       </c>
       <c r="C56" s="3">
-        <v>21.19613835010363</v>
+        <v>46.02033079739959</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1819,10 +1801,10 @@
         <v>55</v>
       </c>
       <c r="B57" s="3">
-        <v>71.07735413469867</v>
+        <v>82.1353865958031</v>
       </c>
       <c r="C57" s="3">
-        <v>36.2230211392057</v>
+        <v>32.4718787567905</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1830,10 +1812,10 @@
         <v>56</v>
       </c>
       <c r="B58" s="3">
-        <v>17.40546508997478</v>
+        <v>83.73198638118075</v>
       </c>
       <c r="C58" s="3">
-        <v>43.94602261460444</v>
+        <v>25.58561541243099</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1841,10 +1823,10 @@
         <v>57</v>
       </c>
       <c r="B59" s="3">
-        <v>11.22633541342599</v>
+        <v>54.10922834715919</v>
       </c>
       <c r="C59" s="3">
-        <v>25.31478846089233</v>
+        <v>38.82564435056884</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1852,10 +1834,10 @@
         <v>58</v>
       </c>
       <c r="B60" s="3">
-        <v>71.75857687103309</v>
+        <v>97.20698879854655</v>
       </c>
       <c r="C60" s="3">
-        <v>21.0670677863061</v>
+        <v>28.33661800814257</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1863,10 +1845,10 @@
         <v>59</v>
       </c>
       <c r="B61" s="3">
-        <v>56.9107724013063</v>
+        <v>71.06405034721172</v>
       </c>
       <c r="C61" s="3">
-        <v>46.66233818596569</v>
+        <v>36.58517677156686</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1874,10 +1856,10 @@
         <v>60</v>
       </c>
       <c r="B62" s="3">
-        <v>41.47477450305941</v>
+        <v>80.49342650973878</v>
       </c>
       <c r="C62" s="3">
-        <v>38.71795616027429</v>
+        <v>37.12968558758173</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1885,10 +1867,10 @@
         <v>61</v>
       </c>
       <c r="B63" s="3">
-        <v>42.82514113572447</v>
+        <v>15.41650028238796</v>
       </c>
       <c r="C63" s="3">
-        <v>42.75718004147608</v>
+        <v>27.50849760142278</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1896,10 +1878,10 @@
         <v>62</v>
       </c>
       <c r="B64" s="3">
-        <v>91.1431433955598</v>
+        <v>15.75824804848915</v>
       </c>
       <c r="C64" s="3">
-        <v>31.01193778487139</v>
+        <v>38.78955167595831</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1907,10 +1889,10 @@
         <v>63</v>
       </c>
       <c r="B65" s="3">
-        <v>51.74377392612084</v>
+        <v>37.46682772785269</v>
       </c>
       <c r="C65" s="3">
-        <v>46.72583266994989</v>
+        <v>20.64960154819268</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1918,10 +1900,10 @@
         <v>64</v>
       </c>
       <c r="B66" s="3">
-        <v>38.06794795275241</v>
+        <v>98.94052097817737</v>
       </c>
       <c r="C66" s="3">
-        <v>33.99804296537653</v>
+        <v>49.64236922632684</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1929,10 +1911,10 @@
         <v>65</v>
       </c>
       <c r="B67" s="3">
-        <v>80.86315420054748</v>
+        <v>94.44283273796185</v>
       </c>
       <c r="C67" s="3">
-        <v>49.22259676296645</v>
+        <v>34.6165078185053</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1940,10 +1922,10 @@
         <v>66</v>
       </c>
       <c r="B68" s="3">
-        <v>10.05850855450161</v>
+        <v>25.72139139985678</v>
       </c>
       <c r="C68" s="3">
-        <v>38.17830535042888</v>
+        <v>44.87982928506753</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1951,10 +1933,10 @@
         <v>67</v>
       </c>
       <c r="B69" s="3">
-        <v>51.58753254791964</v>
+        <v>30.27815725792198</v>
       </c>
       <c r="C69" s="3">
-        <v>28.99993659817905</v>
+        <v>24.25999368816884</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1962,10 +1944,10 @@
         <v>68</v>
       </c>
       <c r="B70" s="3">
-        <v>91.97109895340311</v>
+        <v>13.85626395265158</v>
       </c>
       <c r="C70" s="3">
-        <v>46.82998670524306</v>
+        <v>49.47979851138874</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1973,10 +1955,10 @@
         <v>69</v>
       </c>
       <c r="B71" s="3">
-        <v>93.84883575201893</v>
+        <v>29.20912579357996</v>
       </c>
       <c r="C71" s="3">
-        <v>41.2748268815048</v>
+        <v>22.17161638308782</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1984,10 +1966,10 @@
         <v>70</v>
       </c>
       <c r="B72" s="3">
-        <v>44.78400706481897</v>
+        <v>71.45313050479862</v>
       </c>
       <c r="C72" s="3">
-        <v>42.90476382257405</v>
+        <v>23.41717703447151</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1995,10 +1977,10 @@
         <v>71</v>
       </c>
       <c r="B73" s="3">
-        <v>80.88395812173677</v>
+        <v>69.62257514910868</v>
       </c>
       <c r="C73" s="3">
-        <v>47.5931515922525</v>
+        <v>37.60682815895967</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -2006,10 +1988,10 @@
         <v>72</v>
       </c>
       <c r="B74" s="3">
-        <v>83.29337472833689</v>
+        <v>13.36765835448523</v>
       </c>
       <c r="C74" s="3">
-        <v>35.81266013900036</v>
+        <v>24.53275998695528</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -2017,10 +1999,10 @@
         <v>73</v>
       </c>
       <c r="B75" s="3">
-        <v>69.39405668615105</v>
+        <v>32.8404190708543</v>
       </c>
       <c r="C75" s="3">
-        <v>43.6380467270385</v>
+        <v>28.78836750735752</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -2028,10 +2010,10 @@
         <v>74</v>
       </c>
       <c r="B76" s="3">
-        <v>12.01935643146963</v>
+        <v>89.02993026424228</v>
       </c>
       <c r="C76" s="3">
-        <v>49.76755877396103</v>
+        <v>25.04393401831031</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -2039,10 +2021,10 @@
         <v>75</v>
       </c>
       <c r="B77" s="3">
-        <v>33.35298738391277</v>
+        <v>18.72759286905944</v>
       </c>
       <c r="C77" s="3">
-        <v>41.5660933342122</v>
+        <v>31.7398152704694</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -2050,10 +2032,10 @@
         <v>76</v>
       </c>
       <c r="B78" s="3">
-        <v>37.6118550004407</v>
+        <v>56.19305276458238</v>
       </c>
       <c r="C78" s="3">
-        <v>30.6380621254733</v>
+        <v>24.03812918914274</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -2061,10 +2043,10 @@
         <v>77</v>
       </c>
       <c r="B79" s="3">
-        <v>75.38541815281447</v>
+        <v>76.63119758027631</v>
       </c>
       <c r="C79" s="3">
-        <v>42.87555082822938</v>
+        <v>22.83911154199838</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -2072,10 +2054,10 @@
         <v>78</v>
       </c>
       <c r="B80" s="3">
-        <v>59.0607464908521</v>
+        <v>22.2208611514948</v>
       </c>
       <c r="C80" s="3">
-        <v>30.39421075114827</v>
+        <v>30.02214852309255</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -2083,10 +2065,10 @@
         <v>79</v>
       </c>
       <c r="B81" s="3">
-        <v>63.52027195225843</v>
+        <v>50.0411703587709</v>
       </c>
       <c r="C81" s="3">
-        <v>31.4538070272948</v>
+        <v>25.58419446707475</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -2094,10 +2076,10 @@
         <v>80</v>
       </c>
       <c r="B82" s="3">
-        <v>53.25468041329064</v>
+        <v>13.13180923938958</v>
       </c>
       <c r="C82" s="3">
-        <v>35.56427909343731</v>
+        <v>28.36524563098796</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -2105,10 +2087,10 @@
         <v>81</v>
       </c>
       <c r="B83" s="3">
-        <v>91.97298409274342</v>
+        <v>41.63540744354347</v>
       </c>
       <c r="C83" s="3">
-        <v>38.04659974377612</v>
+        <v>32.52356409383724</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -2116,10 +2098,10 @@
         <v>82</v>
       </c>
       <c r="B84" s="3">
-        <v>96.26350243543048</v>
+        <v>87.90057723946444</v>
       </c>
       <c r="C84" s="3">
-        <v>29.93742852408839</v>
+        <v>21.35548383219962</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -2127,10 +2109,10 @@
         <v>83</v>
       </c>
       <c r="B85" s="3">
-        <v>53.3618661417859</v>
+        <v>37.36371266812308</v>
       </c>
       <c r="C85" s="3">
-        <v>36.69327371868724</v>
+        <v>27.99740477454724</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -2138,10 +2120,10 @@
         <v>84</v>
       </c>
       <c r="B86" s="3">
-        <v>87.73527799318308</v>
+        <v>75.34695289104954</v>
       </c>
       <c r="C86" s="3">
-        <v>40.87822858841232</v>
+        <v>46.35483361503537</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -2149,10 +2131,10 @@
         <v>85</v>
       </c>
       <c r="B87" s="3">
-        <v>82.18481486518682</v>
+        <v>50.49804490816395</v>
       </c>
       <c r="C87" s="3">
-        <v>40.47764663559587</v>
+        <v>44.30863948382931</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -2160,10 +2142,10 @@
         <v>86</v>
       </c>
       <c r="B88" s="3">
-        <v>21.09081568532132</v>
+        <v>12.67870795199642</v>
       </c>
       <c r="C88" s="3">
-        <v>44.69772414562434</v>
+        <v>21.69914143546837</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -2171,10 +2153,10 @@
         <v>87</v>
       </c>
       <c r="B89" s="3">
-        <v>37.1373539347405</v>
+        <v>23.00433761220323</v>
       </c>
       <c r="C89" s="3">
-        <v>27.28898156361082</v>
+        <v>44.09060071804553</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -2182,10 +2164,10 @@
         <v>88</v>
       </c>
       <c r="B90" s="3">
-        <v>62.94537739699331</v>
+        <v>87.74808961281212</v>
       </c>
       <c r="C90" s="3">
-        <v>42.60781568095033</v>
+        <v>28.80786820277745</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -2193,10 +2175,10 @@
         <v>89</v>
       </c>
       <c r="B91" s="3">
-        <v>37.41852063198462</v>
+        <v>19.36882212444291</v>
       </c>
       <c r="C91" s="3">
-        <v>31.22357892451548</v>
+        <v>48.82695419092115</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -2204,10 +2186,10 @@
         <v>90</v>
       </c>
       <c r="B92" s="3">
-        <v>69.57648902348365</v>
+        <v>29.53047767907153</v>
       </c>
       <c r="C92" s="3">
-        <v>43.11513203959835</v>
+        <v>39.04075292723662</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -2215,10 +2197,10 @@
         <v>91</v>
       </c>
       <c r="B93" s="3">
-        <v>31.48469477238967</v>
+        <v>22.97826949831859</v>
       </c>
       <c r="C93" s="3">
-        <v>31.02534310461225</v>
+        <v>24.45937280951547</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -2226,10 +2208,10 @@
         <v>92</v>
       </c>
       <c r="B94" s="3">
-        <v>91.72278473146478</v>
+        <v>42.54071588611612</v>
       </c>
       <c r="C94" s="3">
-        <v>39.1557324611184</v>
+        <v>23.32181323850114</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -2237,10 +2219,10 @@
         <v>93</v>
       </c>
       <c r="B95" s="3">
-        <v>23.19846758348954</v>
+        <v>20.08850461184007</v>
       </c>
       <c r="C95" s="3">
-        <v>30.88579634951858</v>
+        <v>30.97073780368585</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -2248,10 +2230,10 @@
         <v>94</v>
       </c>
       <c r="B96" s="3">
-        <v>27.23048939996038</v>
+        <v>50.7597801678674</v>
       </c>
       <c r="C96" s="3">
-        <v>21.91031414349136</v>
+        <v>24.88496621634372</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2259,10 +2241,10 @@
         <v>95</v>
       </c>
       <c r="B97" s="3">
-        <v>82.26752450939006</v>
+        <v>67.65237522137195</v>
       </c>
       <c r="C97" s="3">
-        <v>24.90038595856405</v>
+        <v>48.41019881168057</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2270,10 +2252,10 @@
         <v>96</v>
       </c>
       <c r="B98" s="3">
-        <v>91.5395257005772</v>
+        <v>19.13293828513796</v>
       </c>
       <c r="C98" s="3">
-        <v>34.37866664678569</v>
+        <v>29.60504151077456</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -2281,10 +2263,10 @@
         <v>97</v>
       </c>
       <c r="B99" s="3">
-        <v>24.93096678610969</v>
+        <v>89.64156666404769</v>
       </c>
       <c r="C99" s="3">
-        <v>39.04419492790517</v>
+        <v>45.14383640474323</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -2292,10 +2274,10 @@
         <v>98</v>
       </c>
       <c r="B100" s="3">
-        <v>12.76905835068699</v>
+        <v>65.48433467891617</v>
       </c>
       <c r="C100" s="3">
-        <v>33.82071170696412</v>
+        <v>22.93400340049954</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -2303,10 +2285,10 @@
         <v>99</v>
       </c>
       <c r="B101" s="3">
-        <v>50.43270643671538</v>
+        <v>54.75687269224247</v>
       </c>
       <c r="C101" s="3">
-        <v>25.46216079466463</v>
+        <v>24.47206428903686</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -2314,10 +2296,10 @@
         <v>100</v>
       </c>
       <c r="B102" s="3">
-        <v>59.47873339196725</v>
+        <v>48.27727148077753</v>
       </c>
       <c r="C102" s="3">
-        <v>47.42860708406002</v>
+        <v>33.76548877584225</v>
       </c>
     </row>
   </sheetData>

--- a/demo.xlsx
+++ b/demo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -60,6 +60,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFBAFB29"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD700"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -94,7 +100,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -153,301 +159,301 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>68.60966037404884</c:v>
+                  <c:v>63.77786081381775</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29.64592865212219</c:v>
+                  <c:v>75.24456844982601</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>99.30783012513064</c:v>
+                  <c:v>78.62604213366528</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>98.01277155162673</c:v>
+                  <c:v>38.98914621966713</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.56156501751727</c:v>
+                  <c:v>59.8462853666454</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12.43269508403306</c:v>
+                  <c:v>58.83756162022095</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>30.05803620391759</c:v>
+                  <c:v>16.99324156864383</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>84.25724272475</c:v>
+                  <c:v>15.00468248533961</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>61.58163091631476</c:v>
+                  <c:v>21.31111808825453</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13.68817317312448</c:v>
+                  <c:v>82.10537294506855</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>62.6359066813536</c:v>
+                  <c:v>73.03082773983714</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>60.94221763636764</c:v>
+                  <c:v>68.8211949925294</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>40.62818569681687</c:v>
+                  <c:v>64.10316534343258</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>40.34272460823216</c:v>
+                  <c:v>42.67896957116195</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>43.0564913116247</c:v>
+                  <c:v>11.12208828170072</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>76.25013737341037</c:v>
+                  <c:v>83.87987627160526</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>91.90029123199044</c:v>
+                  <c:v>19.72597674834911</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>55.01082657096406</c:v>
+                  <c:v>25.75203095028016</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>19.78285781970295</c:v>
+                  <c:v>98.22116184250052</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>35.45985938824237</c:v>
+                  <c:v>48.40031412269865</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>91.29797588399498</c:v>
+                  <c:v>46.44191744560407</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>63.86263436063707</c:v>
+                  <c:v>53.73364204941037</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>37.28936041526933</c:v>
+                  <c:v>81.32538979053309</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>26.91120718948853</c:v>
+                  <c:v>45.27162519843023</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>15.95085227286263</c:v>
+                  <c:v>36.92198660976109</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>43.36226556338076</c:v>
+                  <c:v>29.4595568632436</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>71.61509223803652</c:v>
+                  <c:v>60.18957180285244</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>70.59911065934618</c:v>
+                  <c:v>60.11773913693889</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>68.43768667576167</c:v>
+                  <c:v>36.20413282495683</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>21.33443310542808</c:v>
+                  <c:v>45.48220390356786</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>74.82171111784254</c:v>
+                  <c:v>10.49755727552663</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>78.98003773961912</c:v>
+                  <c:v>38.38967615676184</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>90.02341087777251</c:v>
+                  <c:v>25.78251481397595</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>98.05897068201891</c:v>
+                  <c:v>74.05376981101455</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>71.18483054944127</c:v>
+                  <c:v>23.60502130416298</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>80.54742775670195</c:v>
+                  <c:v>17.2834300694751</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>17.6215699319453</c:v>
+                  <c:v>32.47164385388609</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>84.5454747201137</c:v>
+                  <c:v>74.5056444459304</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>38.36308196035429</c:v>
+                  <c:v>51.37903719181384</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>40.34306353977752</c:v>
+                  <c:v>12.50180437282797</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>69.44183327396303</c:v>
+                  <c:v>18.9507204621048</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>53.43317962184632</c:v>
+                  <c:v>26.56050725273226</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>32.31766073408757</c:v>
+                  <c:v>96.0642778579922</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>87.16944731105117</c:v>
+                  <c:v>84.70191087530225</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>81.27480720404887</c:v>
+                  <c:v>53.68225062559689</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>84.15701981381237</c:v>
+                  <c:v>12.00472440112382</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>84.42081120224883</c:v>
+                  <c:v>55.18610533587206</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>86.68133465124829</c:v>
+                  <c:v>21.98357134243537</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>71.67224727410704</c:v>
+                  <c:v>74.84096326027863</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>89.98419380391204</c:v>
+                  <c:v>26.18839956620117</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>13.48911222983744</c:v>
+                  <c:v>95.31201631660016</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>69.45968840049585</c:v>
+                  <c:v>14.64600287615499</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>85.58007284393152</c:v>
+                  <c:v>11.49854799969996</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>30.68567531893252</c:v>
+                  <c:v>32.05052085829024</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>82.1353865958031</c:v>
+                  <c:v>33.91578362204661</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>83.73198638118075</c:v>
+                  <c:v>82.00473659679679</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>54.10922834715919</c:v>
+                  <c:v>35.45048359499893</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>97.20698879854655</c:v>
+                  <c:v>56.65017751053413</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>71.06405034721172</c:v>
+                  <c:v>69.39773233948841</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>80.49342650973878</c:v>
+                  <c:v>63.78159653407446</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>15.41650028238796</c:v>
+                  <c:v>57.38651043983784</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>15.75824804848915</c:v>
+                  <c:v>91.39153948097781</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>37.46682772785269</c:v>
+                  <c:v>82.44232907423536</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>98.94052097817737</c:v>
+                  <c:v>85.55579949630557</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>94.44283273796185</c:v>
+                  <c:v>97.62230196883591</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>25.72139139985678</c:v>
+                  <c:v>30.03502627596297</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>30.27815725792198</c:v>
+                  <c:v>67.43759149722285</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>13.85626395265158</c:v>
+                  <c:v>16.5718420066316</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>29.20912579357996</c:v>
+                  <c:v>91.99803453550341</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>71.45313050479862</c:v>
+                  <c:v>71.86254583463739</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>69.62257514910868</c:v>
+                  <c:v>16.97743615511661</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>13.36765835448523</c:v>
+                  <c:v>74.66535363645043</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>32.8404190708543</c:v>
+                  <c:v>48.82306269543692</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>89.02993026424228</c:v>
+                  <c:v>43.66443334079312</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>18.72759286905944</c:v>
+                  <c:v>36.01759336807612</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>56.19305276458238</c:v>
+                  <c:v>77.93319242918979</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>76.63119758027631</c:v>
+                  <c:v>26.27980872660242</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>22.2208611514948</c:v>
+                  <c:v>64.25240213682032</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>50.0411703587709</c:v>
+                  <c:v>38.70554005994449</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>13.13180923938958</c:v>
+                  <c:v>13.4951326627052</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>41.63540744354347</c:v>
+                  <c:v>98.92100822703279</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>87.90057723946444</c:v>
+                  <c:v>16.52588841320051</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>37.36371266812308</c:v>
+                  <c:v>84.90300595447169</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>75.34695289104954</c:v>
+                  <c:v>59.39171970315611</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>50.49804490816395</c:v>
+                  <c:v>85.41107359096929</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>12.67870795199642</c:v>
+                  <c:v>30.38789491131549</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>23.00433761220323</c:v>
+                  <c:v>44.03707346676923</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>87.74808961281212</c:v>
+                  <c:v>44.2397561376895</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>19.36882212444291</c:v>
+                  <c:v>58.05147169232443</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>29.53047767907153</c:v>
+                  <c:v>70.22523394613563</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>22.97826949831859</c:v>
+                  <c:v>82.57554544251717</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>42.54071588611612</c:v>
+                  <c:v>81.69881401056051</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>20.08850461184007</c:v>
+                  <c:v>81.75208902216052</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>50.7597801678674</c:v>
+                  <c:v>25.24990358710982</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>67.65237522137195</c:v>
+                  <c:v>38.99866304749109</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>19.13293828513796</c:v>
+                  <c:v>96.74752702026674</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>89.64156666404769</c:v>
+                  <c:v>97.67479566796013</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>65.48433467891617</c:v>
+                  <c:v>21.42397654725216</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>54.75687269224247</c:v>
+                  <c:v>36.38344054381744</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -480,301 +486,301 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42.62395714004155</c:v>
+                  <c:v>46.23910942536789</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43.98390663145312</c:v>
+                  <c:v>27.3283665498617</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>32.37200629408105</c:v>
+                  <c:v>44.61818369206586</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>36.46312576293139</c:v>
+                  <c:v>22.82625630743741</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>49.16361718138103</c:v>
+                  <c:v>48.72931826316933</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45.0414252255642</c:v>
+                  <c:v>35.49446290371855</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>36.89791858084303</c:v>
+                  <c:v>32.85313979309085</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43.63080031616366</c:v>
+                  <c:v>47.14357100043348</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>34.45124307432703</c:v>
+                  <c:v>42.60040478842112</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>25.41888599512477</c:v>
+                  <c:v>35.03530541833902</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>20.26623922069783</c:v>
+                  <c:v>20.26208805084391</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>20.57590371038324</c:v>
+                  <c:v>34.57431501036975</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>26.83872482719606</c:v>
+                  <c:v>29.31239813842117</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>26.61522227586713</c:v>
+                  <c:v>26.69664313585239</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>43.41953316805605</c:v>
+                  <c:v>42.10112107250798</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>21.63748265863266</c:v>
+                  <c:v>36.20419437831171</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>31.54888095677815</c:v>
+                  <c:v>37.06553741002297</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>47.3000961746756</c:v>
+                  <c:v>33.24651860111794</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>36.28703484580373</c:v>
+                  <c:v>32.29934197082943</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>41.83755428316373</c:v>
+                  <c:v>25.53644028127794</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>48.63747513171319</c:v>
+                  <c:v>36.71257649056834</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>20.75878025871666</c:v>
+                  <c:v>22.59171174730587</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>23.64365451343006</c:v>
+                  <c:v>21.2433063032482</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>27.53872226607867</c:v>
+                  <c:v>33.59782712296497</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>44.3603816265365</c:v>
+                  <c:v>46.98533606232824</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>20.93985103728155</c:v>
+                  <c:v>31.70866784019437</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>32.43366589204312</c:v>
+                  <c:v>46.56619301610162</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>21.49372940395521</c:v>
+                  <c:v>34.30357690583025</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>31.28792393418296</c:v>
+                  <c:v>38.60972492263086</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>46.78342821049788</c:v>
+                  <c:v>47.70669121181673</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>45.7557934344269</c:v>
+                  <c:v>48.83422648856164</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>34.86252889919491</c:v>
+                  <c:v>47.97249154310236</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>26.01798811920965</c:v>
+                  <c:v>43.68896976594193</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>45.08314566856344</c:v>
+                  <c:v>36.82475958353173</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>37.14426771099296</c:v>
+                  <c:v>31.58380688213985</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>31.3125481578923</c:v>
+                  <c:v>32.94973071264945</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>23.18195399170667</c:v>
+                  <c:v>36.24967382901082</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>49.26914646425998</c:v>
+                  <c:v>36.39232693383022</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>25.89805744591756</c:v>
+                  <c:v>32.8377718464432</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>30.10876127203888</c:v>
+                  <c:v>42.39385952097193</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>41.29361663423967</c:v>
+                  <c:v>31.76035740456929</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>42.41023309609574</c:v>
+                  <c:v>25.29397306429127</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>31.59895017316055</c:v>
+                  <c:v>43.22902281310689</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>23.38366446044731</c:v>
+                  <c:v>43.60985440261393</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>23.38201145331303</c:v>
+                  <c:v>25.52561947294912</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>20.8650725951025</c:v>
+                  <c:v>28.01616720309955</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>37.13368368333187</c:v>
+                  <c:v>34.21806759707012</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>27.99141458227083</c:v>
+                  <c:v>26.33626605863313</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>42.97131066401221</c:v>
+                  <c:v>24.0523591483547</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>23.43473058445689</c:v>
+                  <c:v>27.65311229558434</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>35.27040563218181</c:v>
+                  <c:v>43.23911098892167</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>33.65998742484521</c:v>
+                  <c:v>25.39066600038688</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>22.64509139892418</c:v>
+                  <c:v>23.97684742679279</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>46.02033079739959</c:v>
+                  <c:v>38.32033691413723</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>32.4718787567905</c:v>
+                  <c:v>25.39216832253657</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>25.58561541243099</c:v>
+                  <c:v>45.44164919797605</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>38.82564435056884</c:v>
+                  <c:v>28.48344981210804</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>28.33661800814257</c:v>
+                  <c:v>23.96511327281302</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>36.58517677156686</c:v>
+                  <c:v>40.17004351352732</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>37.12968558758173</c:v>
+                  <c:v>29.10839481503969</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>27.50849760142278</c:v>
+                  <c:v>29.97709486929819</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>38.78955167595831</c:v>
+                  <c:v>22.52807975521509</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>20.64960154819268</c:v>
+                  <c:v>31.07622894429159</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>49.64236922632684</c:v>
+                  <c:v>39.49210229218328</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>34.6165078185053</c:v>
+                  <c:v>41.45822210156745</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>44.87982928506753</c:v>
+                  <c:v>47.61561581212808</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>24.25999368816884</c:v>
+                  <c:v>21.99080753544053</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>49.47979851138874</c:v>
+                  <c:v>35.00532999351201</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>22.17161638308782</c:v>
+                  <c:v>39.59952108407992</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>23.41717703447151</c:v>
+                  <c:v>48.12326801391792</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>37.60682815895967</c:v>
+                  <c:v>47.33811479336237</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>24.53275998695528</c:v>
+                  <c:v>40.83126471793781</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>28.78836750735752</c:v>
+                  <c:v>49.82694999227491</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>25.04393401831031</c:v>
+                  <c:v>39.54698964047625</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>31.7398152704694</c:v>
+                  <c:v>22.70866699683088</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>24.03812918914274</c:v>
+                  <c:v>28.94747135277474</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>22.83911154199838</c:v>
+                  <c:v>32.7758649500287</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>30.02214852309255</c:v>
+                  <c:v>24.99340655000994</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>25.58419446707475</c:v>
+                  <c:v>30.2196379104883</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>28.36524563098796</c:v>
+                  <c:v>46.31775768003602</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>32.52356409383724</c:v>
+                  <c:v>44.34262145791438</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>21.35548383219962</c:v>
+                  <c:v>32.01300694246312</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>27.99740477454724</c:v>
+                  <c:v>30.43660397475138</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>46.35483361503537</c:v>
+                  <c:v>30.7314802870655</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>44.30863948382931</c:v>
+                  <c:v>49.91753971123874</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>21.69914143546837</c:v>
+                  <c:v>46.78818539313826</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>44.09060071804553</c:v>
+                  <c:v>37.98691586808751</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>28.80786820277745</c:v>
+                  <c:v>39.97333660199769</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>48.82695419092115</c:v>
+                  <c:v>40.25776630649885</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>39.04075292723662</c:v>
+                  <c:v>27.72860786195213</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>24.45937280951547</c:v>
+                  <c:v>23.02150614135514</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>23.32181323850114</c:v>
+                  <c:v>35.03210226256803</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>30.97073780368585</c:v>
+                  <c:v>30.69348997500409</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>24.88496621634372</c:v>
+                  <c:v>45.70221167311468</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>48.41019881168057</c:v>
+                  <c:v>39.83988265689284</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>29.60504151077456</c:v>
+                  <c:v>42.07244731206877</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>45.14383640474323</c:v>
+                  <c:v>48.50684963820355</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>22.93400340049954</c:v>
+                  <c:v>29.47912468024867</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>24.47206428903686</c:v>
+                  <c:v>20.35939911931354</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -861,7 +867,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0"/>
+    <sheetView zoomScale="150" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" orientation="landscape"/>
@@ -1183,7 +1189,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -1207,10 +1213,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>68.60966037404884</v>
+        <v>63.77786081381775</v>
       </c>
       <c r="C3" s="3">
-        <v>42.62395714004155</v>
+        <v>46.23910942536789</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1218,10 +1224,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="3">
-        <v>29.64592865212219</v>
+        <v>75.24456844982601</v>
       </c>
       <c r="C4" s="3">
-        <v>43.98390663145312</v>
+        <v>27.3283665498617</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1229,10 +1235,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="3">
-        <v>99.30783012513064</v>
+        <v>78.62604213366528</v>
       </c>
       <c r="C5" s="3">
-        <v>32.37200629408105</v>
+        <v>44.61818369206586</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1240,10 +1246,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="3">
-        <v>98.01277155162673</v>
+        <v>38.98914621966713</v>
       </c>
       <c r="C6" s="3">
-        <v>36.46312576293139</v>
+        <v>22.82625630743741</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1251,10 +1257,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="3">
-        <v>10.56156501751727</v>
+        <v>59.8462853666454</v>
       </c>
       <c r="C7" s="3">
-        <v>49.16361718138103</v>
+        <v>48.72931826316933</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1262,10 +1268,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="3">
-        <v>12.43269508403306</v>
+        <v>58.83756162022095</v>
       </c>
       <c r="C8" s="3">
-        <v>45.0414252255642</v>
+        <v>35.49446290371855</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1273,10 +1279,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="3">
-        <v>30.05803620391759</v>
+        <v>16.99324156864383</v>
       </c>
       <c r="C9" s="3">
-        <v>36.89791858084303</v>
+        <v>32.85313979309085</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1284,10 +1290,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="3">
-        <v>84.25724272475</v>
+        <v>15.00468248533961</v>
       </c>
       <c r="C10" s="3">
-        <v>43.63080031616366</v>
+        <v>47.14357100043348</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1295,10 +1301,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="3">
-        <v>61.58163091631476</v>
+        <v>21.31111808825453</v>
       </c>
       <c r="C11" s="3">
-        <v>34.45124307432703</v>
+        <v>42.60040478842112</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1306,10 +1312,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="3">
-        <v>13.68817317312448</v>
+        <v>82.10537294506855</v>
       </c>
       <c r="C12" s="3">
-        <v>25.41888599512477</v>
+        <v>35.03530541833902</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1317,10 +1323,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="3">
-        <v>62.6359066813536</v>
+        <v>73.03082773983714</v>
       </c>
       <c r="C13" s="3">
-        <v>20.26623922069783</v>
+        <v>20.26208805084391</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1328,10 +1334,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="3">
-        <v>60.94221763636764</v>
+        <v>68.8211949925294</v>
       </c>
       <c r="C14" s="3">
-        <v>20.57590371038324</v>
+        <v>34.57431501036975</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1339,10 +1345,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="3">
-        <v>40.62818569681687</v>
+        <v>64.10316534343258</v>
       </c>
       <c r="C15" s="3">
-        <v>26.83872482719606</v>
+        <v>29.31239813842117</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1350,10 +1356,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="3">
-        <v>40.34272460823216</v>
+        <v>42.67896957116195</v>
       </c>
       <c r="C16" s="3">
-        <v>26.61522227586713</v>
+        <v>26.69664313585239</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1361,10 +1367,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="3">
-        <v>43.0564913116247</v>
+        <v>11.12208828170072</v>
       </c>
       <c r="C17" s="3">
-        <v>43.41953316805605</v>
+        <v>42.10112107250798</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1372,10 +1378,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="3">
-        <v>76.25013737341037</v>
+        <v>83.87987627160526</v>
       </c>
       <c r="C18" s="3">
-        <v>21.63748265863266</v>
+        <v>36.20419437831171</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1383,10 +1389,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="3">
-        <v>91.90029123199044</v>
+        <v>19.72597674834911</v>
       </c>
       <c r="C19" s="3">
-        <v>31.54888095677815</v>
+        <v>37.06553741002297</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1394,10 +1400,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="3">
-        <v>55.01082657096406</v>
+        <v>25.75203095028016</v>
       </c>
       <c r="C20" s="3">
-        <v>47.3000961746756</v>
+        <v>33.24651860111794</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1405,10 +1411,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="3">
-        <v>19.78285781970295</v>
+        <v>98.22116184250052</v>
       </c>
       <c r="C21" s="3">
-        <v>36.28703484580373</v>
+        <v>32.29934197082943</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1416,10 +1422,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="3">
-        <v>35.45985938824237</v>
+        <v>48.40031412269865</v>
       </c>
       <c r="C22" s="3">
-        <v>41.83755428316373</v>
+        <v>25.53644028127794</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1427,10 +1433,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="3">
-        <v>91.29797588399498</v>
+        <v>46.44191744560407</v>
       </c>
       <c r="C23" s="3">
-        <v>48.63747513171319</v>
+        <v>36.71257649056834</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1438,10 +1444,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="3">
-        <v>63.86263436063707</v>
+        <v>53.73364204941037</v>
       </c>
       <c r="C24" s="3">
-        <v>20.75878025871666</v>
+        <v>22.59171174730587</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1449,10 +1455,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="3">
-        <v>37.28936041526933</v>
+        <v>81.32538979053309</v>
       </c>
       <c r="C25" s="3">
-        <v>23.64365451343006</v>
+        <v>21.2433063032482</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1460,10 +1466,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="3">
-        <v>26.91120718948853</v>
+        <v>45.27162519843023</v>
       </c>
       <c r="C26" s="3">
-        <v>27.53872226607867</v>
+        <v>33.59782712296497</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1471,10 +1477,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="3">
-        <v>15.95085227286263</v>
+        <v>36.92198660976109</v>
       </c>
       <c r="C27" s="3">
-        <v>44.3603816265365</v>
+        <v>46.98533606232824</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1482,10 +1488,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="3">
-        <v>43.36226556338076</v>
+        <v>29.4595568632436</v>
       </c>
       <c r="C28" s="3">
-        <v>20.93985103728155</v>
+        <v>31.70866784019437</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1493,10 +1499,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="3">
-        <v>71.61509223803652</v>
+        <v>60.18957180285244</v>
       </c>
       <c r="C29" s="3">
-        <v>32.43366589204312</v>
+        <v>46.56619301610162</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1504,10 +1510,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="3">
-        <v>70.59911065934618</v>
+        <v>60.11773913693889</v>
       </c>
       <c r="C30" s="3">
-        <v>21.49372940395521</v>
+        <v>34.30357690583025</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1515,10 +1521,10 @@
         <v>29</v>
       </c>
       <c r="B31" s="3">
-        <v>68.43768667576167</v>
+        <v>36.20413282495683</v>
       </c>
       <c r="C31" s="3">
-        <v>31.28792393418296</v>
+        <v>38.60972492263086</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1526,10 +1532,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="3">
-        <v>21.33443310542808</v>
+        <v>45.48220390356786</v>
       </c>
       <c r="C32" s="3">
-        <v>46.78342821049788</v>
+        <v>47.70669121181673</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1537,10 +1543,10 @@
         <v>31</v>
       </c>
       <c r="B33" s="3">
-        <v>74.82171111784254</v>
+        <v>10.49755727552663</v>
       </c>
       <c r="C33" s="3">
-        <v>45.7557934344269</v>
+        <v>48.83422648856164</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1548,10 +1554,10 @@
         <v>32</v>
       </c>
       <c r="B34" s="3">
-        <v>78.98003773961912</v>
+        <v>38.38967615676184</v>
       </c>
       <c r="C34" s="3">
-        <v>34.86252889919491</v>
+        <v>47.97249154310236</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1559,10 +1565,10 @@
         <v>33</v>
       </c>
       <c r="B35" s="3">
-        <v>90.02341087777251</v>
+        <v>25.78251481397595</v>
       </c>
       <c r="C35" s="3">
-        <v>26.01798811920965</v>
+        <v>43.68896976594193</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1570,10 +1576,10 @@
         <v>34</v>
       </c>
       <c r="B36" s="3">
-        <v>98.05897068201891</v>
+        <v>74.05376981101455</v>
       </c>
       <c r="C36" s="3">
-        <v>45.08314566856344</v>
+        <v>36.82475958353173</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1581,10 +1587,10 @@
         <v>35</v>
       </c>
       <c r="B37" s="3">
-        <v>71.18483054944127</v>
+        <v>23.60502130416298</v>
       </c>
       <c r="C37" s="3">
-        <v>37.14426771099296</v>
+        <v>31.58380688213985</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1592,10 +1598,10 @@
         <v>36</v>
       </c>
       <c r="B38" s="3">
-        <v>80.54742775670195</v>
+        <v>17.2834300694751</v>
       </c>
       <c r="C38" s="3">
-        <v>31.3125481578923</v>
+        <v>32.94973071264945</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1603,10 +1609,10 @@
         <v>37</v>
       </c>
       <c r="B39" s="3">
-        <v>17.6215699319453</v>
+        <v>32.47164385388609</v>
       </c>
       <c r="C39" s="3">
-        <v>23.18195399170667</v>
+        <v>36.24967382901082</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1614,10 +1620,10 @@
         <v>38</v>
       </c>
       <c r="B40" s="3">
-        <v>84.5454747201137</v>
+        <v>74.5056444459304</v>
       </c>
       <c r="C40" s="3">
-        <v>49.26914646425998</v>
+        <v>36.39232693383022</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1625,10 +1631,10 @@
         <v>39</v>
       </c>
       <c r="B41" s="3">
-        <v>38.36308196035429</v>
+        <v>51.37903719181384</v>
       </c>
       <c r="C41" s="3">
-        <v>25.89805744591756</v>
+        <v>32.8377718464432</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1636,10 +1642,10 @@
         <v>40</v>
       </c>
       <c r="B42" s="3">
-        <v>40.34306353977752</v>
+        <v>12.50180437282797</v>
       </c>
       <c r="C42" s="3">
-        <v>30.10876127203888</v>
+        <v>42.39385952097193</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1647,10 +1653,10 @@
         <v>41</v>
       </c>
       <c r="B43" s="3">
-        <v>69.44183327396303</v>
+        <v>18.9507204621048</v>
       </c>
       <c r="C43" s="3">
-        <v>41.29361663423967</v>
+        <v>31.76035740456929</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1658,10 +1664,10 @@
         <v>42</v>
       </c>
       <c r="B44" s="3">
-        <v>53.43317962184632</v>
+        <v>26.56050725273226</v>
       </c>
       <c r="C44" s="3">
-        <v>42.41023309609574</v>
+        <v>25.29397306429127</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1669,10 +1675,10 @@
         <v>43</v>
       </c>
       <c r="B45" s="3">
-        <v>32.31766073408757</v>
+        <v>96.0642778579922</v>
       </c>
       <c r="C45" s="3">
-        <v>31.59895017316055</v>
+        <v>43.22902281310689</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1680,10 +1686,10 @@
         <v>44</v>
       </c>
       <c r="B46" s="3">
-        <v>87.16944731105117</v>
+        <v>84.70191087530225</v>
       </c>
       <c r="C46" s="3">
-        <v>23.38366446044731</v>
+        <v>43.60985440261393</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1691,10 +1697,10 @@
         <v>45</v>
       </c>
       <c r="B47" s="3">
-        <v>81.27480720404887</v>
+        <v>53.68225062559689</v>
       </c>
       <c r="C47" s="3">
-        <v>23.38201145331303</v>
+        <v>25.52561947294912</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1702,10 +1708,10 @@
         <v>46</v>
       </c>
       <c r="B48" s="3">
-        <v>84.15701981381237</v>
+        <v>12.00472440112382</v>
       </c>
       <c r="C48" s="3">
-        <v>20.8650725951025</v>
+        <v>28.01616720309955</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1713,10 +1719,10 @@
         <v>47</v>
       </c>
       <c r="B49" s="3">
-        <v>84.42081120224883</v>
+        <v>55.18610533587206</v>
       </c>
       <c r="C49" s="3">
-        <v>37.13368368333187</v>
+        <v>34.21806759707012</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1724,10 +1730,10 @@
         <v>48</v>
       </c>
       <c r="B50" s="3">
-        <v>86.68133465124829</v>
+        <v>21.98357134243537</v>
       </c>
       <c r="C50" s="3">
-        <v>27.99141458227083</v>
+        <v>26.33626605863313</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1735,10 +1741,10 @@
         <v>49</v>
       </c>
       <c r="B51" s="3">
-        <v>71.67224727410704</v>
+        <v>74.84096326027863</v>
       </c>
       <c r="C51" s="3">
-        <v>42.97131066401221</v>
+        <v>24.0523591483547</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1746,10 +1752,10 @@
         <v>50</v>
       </c>
       <c r="B52" s="3">
-        <v>89.98419380391204</v>
+        <v>26.18839956620117</v>
       </c>
       <c r="C52" s="3">
-        <v>23.43473058445689</v>
+        <v>27.65311229558434</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1757,10 +1763,10 @@
         <v>51</v>
       </c>
       <c r="B53" s="3">
-        <v>13.48911222983744</v>
+        <v>95.31201631660016</v>
       </c>
       <c r="C53" s="3">
-        <v>35.27040563218181</v>
+        <v>43.23911098892167</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1768,10 +1774,10 @@
         <v>52</v>
       </c>
       <c r="B54" s="3">
-        <v>69.45968840049585</v>
+        <v>14.64600287615499</v>
       </c>
       <c r="C54" s="3">
-        <v>33.65998742484521</v>
+        <v>25.39066600038688</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1779,10 +1785,10 @@
         <v>53</v>
       </c>
       <c r="B55" s="3">
-        <v>85.58007284393152</v>
+        <v>11.49854799969996</v>
       </c>
       <c r="C55" s="3">
-        <v>22.64509139892418</v>
+        <v>23.97684742679279</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1790,10 +1796,10 @@
         <v>54</v>
       </c>
       <c r="B56" s="3">
-        <v>30.68567531893252</v>
+        <v>32.05052085829024</v>
       </c>
       <c r="C56" s="3">
-        <v>46.02033079739959</v>
+        <v>38.32033691413723</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1801,10 +1807,10 @@
         <v>55</v>
       </c>
       <c r="B57" s="3">
-        <v>82.1353865958031</v>
+        <v>33.91578362204661</v>
       </c>
       <c r="C57" s="3">
-        <v>32.4718787567905</v>
+        <v>25.39216832253657</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1812,10 +1818,10 @@
         <v>56</v>
       </c>
       <c r="B58" s="3">
-        <v>83.73198638118075</v>
+        <v>82.00473659679679</v>
       </c>
       <c r="C58" s="3">
-        <v>25.58561541243099</v>
+        <v>45.44164919797605</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1823,10 +1829,10 @@
         <v>57</v>
       </c>
       <c r="B59" s="3">
-        <v>54.10922834715919</v>
+        <v>35.45048359499893</v>
       </c>
       <c r="C59" s="3">
-        <v>38.82564435056884</v>
+        <v>28.48344981210804</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1834,10 +1840,10 @@
         <v>58</v>
       </c>
       <c r="B60" s="3">
-        <v>97.20698879854655</v>
+        <v>56.65017751053413</v>
       </c>
       <c r="C60" s="3">
-        <v>28.33661800814257</v>
+        <v>23.96511327281302</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1845,10 +1851,10 @@
         <v>59</v>
       </c>
       <c r="B61" s="3">
-        <v>71.06405034721172</v>
+        <v>69.39773233948841</v>
       </c>
       <c r="C61" s="3">
-        <v>36.58517677156686</v>
+        <v>40.17004351352732</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1856,10 +1862,10 @@
         <v>60</v>
       </c>
       <c r="B62" s="3">
-        <v>80.49342650973878</v>
+        <v>63.78159653407446</v>
       </c>
       <c r="C62" s="3">
-        <v>37.12968558758173</v>
+        <v>29.10839481503969</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1867,10 +1873,10 @@
         <v>61</v>
       </c>
       <c r="B63" s="3">
-        <v>15.41650028238796</v>
+        <v>57.38651043983784</v>
       </c>
       <c r="C63" s="3">
-        <v>27.50849760142278</v>
+        <v>29.97709486929819</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1878,10 +1884,10 @@
         <v>62</v>
       </c>
       <c r="B64" s="3">
-        <v>15.75824804848915</v>
+        <v>91.39153948097781</v>
       </c>
       <c r="C64" s="3">
-        <v>38.78955167595831</v>
+        <v>22.52807975521509</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1889,10 +1895,10 @@
         <v>63</v>
       </c>
       <c r="B65" s="3">
-        <v>37.46682772785269</v>
+        <v>82.44232907423536</v>
       </c>
       <c r="C65" s="3">
-        <v>20.64960154819268</v>
+        <v>31.07622894429159</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1900,10 +1906,10 @@
         <v>64</v>
       </c>
       <c r="B66" s="3">
-        <v>98.94052097817737</v>
+        <v>85.55579949630557</v>
       </c>
       <c r="C66" s="3">
-        <v>49.64236922632684</v>
+        <v>39.49210229218328</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1911,10 +1917,10 @@
         <v>65</v>
       </c>
       <c r="B67" s="3">
-        <v>94.44283273796185</v>
+        <v>97.62230196883591</v>
       </c>
       <c r="C67" s="3">
-        <v>34.6165078185053</v>
+        <v>41.45822210156745</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1922,10 +1928,10 @@
         <v>66</v>
       </c>
       <c r="B68" s="3">
-        <v>25.72139139985678</v>
+        <v>30.03502627596297</v>
       </c>
       <c r="C68" s="3">
-        <v>44.87982928506753</v>
+        <v>47.61561581212808</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1933,10 +1939,10 @@
         <v>67</v>
       </c>
       <c r="B69" s="3">
-        <v>30.27815725792198</v>
+        <v>67.43759149722285</v>
       </c>
       <c r="C69" s="3">
-        <v>24.25999368816884</v>
+        <v>21.99080753544053</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1944,10 +1950,10 @@
         <v>68</v>
       </c>
       <c r="B70" s="3">
-        <v>13.85626395265158</v>
+        <v>16.5718420066316</v>
       </c>
       <c r="C70" s="3">
-        <v>49.47979851138874</v>
+        <v>35.00532999351201</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1955,10 +1961,10 @@
         <v>69</v>
       </c>
       <c r="B71" s="3">
-        <v>29.20912579357996</v>
+        <v>91.99803453550341</v>
       </c>
       <c r="C71" s="3">
-        <v>22.17161638308782</v>
+        <v>39.59952108407992</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1966,10 +1972,10 @@
         <v>70</v>
       </c>
       <c r="B72" s="3">
-        <v>71.45313050479862</v>
+        <v>71.86254583463739</v>
       </c>
       <c r="C72" s="3">
-        <v>23.41717703447151</v>
+        <v>48.12326801391792</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1977,10 +1983,10 @@
         <v>71</v>
       </c>
       <c r="B73" s="3">
-        <v>69.62257514910868</v>
+        <v>16.97743615511661</v>
       </c>
       <c r="C73" s="3">
-        <v>37.60682815895967</v>
+        <v>47.33811479336237</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1988,10 +1994,10 @@
         <v>72</v>
       </c>
       <c r="B74" s="3">
-        <v>13.36765835448523</v>
+        <v>74.66535363645043</v>
       </c>
       <c r="C74" s="3">
-        <v>24.53275998695528</v>
+        <v>40.83126471793781</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1999,10 +2005,10 @@
         <v>73</v>
       </c>
       <c r="B75" s="3">
-        <v>32.8404190708543</v>
+        <v>48.82306269543692</v>
       </c>
       <c r="C75" s="3">
-        <v>28.78836750735752</v>
+        <v>49.82694999227491</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -2010,10 +2016,10 @@
         <v>74</v>
       </c>
       <c r="B76" s="3">
-        <v>89.02993026424228</v>
+        <v>43.66443334079312</v>
       </c>
       <c r="C76" s="3">
-        <v>25.04393401831031</v>
+        <v>39.54698964047625</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -2021,10 +2027,10 @@
         <v>75</v>
       </c>
       <c r="B77" s="3">
-        <v>18.72759286905944</v>
+        <v>36.01759336807612</v>
       </c>
       <c r="C77" s="3">
-        <v>31.7398152704694</v>
+        <v>22.70866699683088</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -2032,10 +2038,10 @@
         <v>76</v>
       </c>
       <c r="B78" s="3">
-        <v>56.19305276458238</v>
+        <v>77.93319242918979</v>
       </c>
       <c r="C78" s="3">
-        <v>24.03812918914274</v>
+        <v>28.94747135277474</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -2043,10 +2049,10 @@
         <v>77</v>
       </c>
       <c r="B79" s="3">
-        <v>76.63119758027631</v>
+        <v>26.27980872660242</v>
       </c>
       <c r="C79" s="3">
-        <v>22.83911154199838</v>
+        <v>32.7758649500287</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -2054,10 +2060,10 @@
         <v>78</v>
       </c>
       <c r="B80" s="3">
-        <v>22.2208611514948</v>
+        <v>64.25240213682032</v>
       </c>
       <c r="C80" s="3">
-        <v>30.02214852309255</v>
+        <v>24.99340655000994</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -2065,10 +2071,10 @@
         <v>79</v>
       </c>
       <c r="B81" s="3">
-        <v>50.0411703587709</v>
+        <v>38.70554005994449</v>
       </c>
       <c r="C81" s="3">
-        <v>25.58419446707475</v>
+        <v>30.2196379104883</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -2076,10 +2082,10 @@
         <v>80</v>
       </c>
       <c r="B82" s="3">
-        <v>13.13180923938958</v>
+        <v>13.4951326627052</v>
       </c>
       <c r="C82" s="3">
-        <v>28.36524563098796</v>
+        <v>46.31775768003602</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -2087,10 +2093,10 @@
         <v>81</v>
       </c>
       <c r="B83" s="3">
-        <v>41.63540744354347</v>
+        <v>98.92100822703279</v>
       </c>
       <c r="C83" s="3">
-        <v>32.52356409383724</v>
+        <v>44.34262145791438</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -2098,10 +2104,10 @@
         <v>82</v>
       </c>
       <c r="B84" s="3">
-        <v>87.90057723946444</v>
+        <v>16.52588841320051</v>
       </c>
       <c r="C84" s="3">
-        <v>21.35548383219962</v>
+        <v>32.01300694246312</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -2109,10 +2115,10 @@
         <v>83</v>
       </c>
       <c r="B85" s="3">
-        <v>37.36371266812308</v>
+        <v>84.90300595447169</v>
       </c>
       <c r="C85" s="3">
-        <v>27.99740477454724</v>
+        <v>30.43660397475138</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -2120,10 +2126,10 @@
         <v>84</v>
       </c>
       <c r="B86" s="3">
-        <v>75.34695289104954</v>
+        <v>59.39171970315611</v>
       </c>
       <c r="C86" s="3">
-        <v>46.35483361503537</v>
+        <v>30.7314802870655</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -2131,10 +2137,10 @@
         <v>85</v>
       </c>
       <c r="B87" s="3">
-        <v>50.49804490816395</v>
+        <v>85.41107359096929</v>
       </c>
       <c r="C87" s="3">
-        <v>44.30863948382931</v>
+        <v>49.91753971123874</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -2142,10 +2148,10 @@
         <v>86</v>
       </c>
       <c r="B88" s="3">
-        <v>12.67870795199642</v>
+        <v>30.38789491131549</v>
       </c>
       <c r="C88" s="3">
-        <v>21.69914143546837</v>
+        <v>46.78818539313826</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -2153,10 +2159,10 @@
         <v>87</v>
       </c>
       <c r="B89" s="3">
-        <v>23.00433761220323</v>
+        <v>44.03707346676923</v>
       </c>
       <c r="C89" s="3">
-        <v>44.09060071804553</v>
+        <v>37.98691586808751</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -2164,10 +2170,10 @@
         <v>88</v>
       </c>
       <c r="B90" s="3">
-        <v>87.74808961281212</v>
+        <v>44.2397561376895</v>
       </c>
       <c r="C90" s="3">
-        <v>28.80786820277745</v>
+        <v>39.97333660199769</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -2175,10 +2181,10 @@
         <v>89</v>
       </c>
       <c r="B91" s="3">
-        <v>19.36882212444291</v>
+        <v>58.05147169232443</v>
       </c>
       <c r="C91" s="3">
-        <v>48.82695419092115</v>
+        <v>40.25776630649885</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -2186,10 +2192,10 @@
         <v>90</v>
       </c>
       <c r="B92" s="3">
-        <v>29.53047767907153</v>
+        <v>70.22523394613563</v>
       </c>
       <c r="C92" s="3">
-        <v>39.04075292723662</v>
+        <v>27.72860786195213</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -2197,10 +2203,10 @@
         <v>91</v>
       </c>
       <c r="B93" s="3">
-        <v>22.97826949831859</v>
+        <v>82.57554544251717</v>
       </c>
       <c r="C93" s="3">
-        <v>24.45937280951547</v>
+        <v>23.02150614135514</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -2208,10 +2214,10 @@
         <v>92</v>
       </c>
       <c r="B94" s="3">
-        <v>42.54071588611612</v>
+        <v>81.69881401056051</v>
       </c>
       <c r="C94" s="3">
-        <v>23.32181323850114</v>
+        <v>35.03210226256803</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -2219,10 +2225,10 @@
         <v>93</v>
       </c>
       <c r="B95" s="3">
-        <v>20.08850461184007</v>
+        <v>81.75208902216052</v>
       </c>
       <c r="C95" s="3">
-        <v>30.97073780368585</v>
+        <v>30.69348997500409</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -2230,10 +2236,10 @@
         <v>94</v>
       </c>
       <c r="B96" s="3">
-        <v>50.7597801678674</v>
+        <v>25.24990358710982</v>
       </c>
       <c r="C96" s="3">
-        <v>24.88496621634372</v>
+        <v>45.70221167311468</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2241,10 +2247,10 @@
         <v>95</v>
       </c>
       <c r="B97" s="3">
-        <v>67.65237522137195</v>
+        <v>38.99866304749109</v>
       </c>
       <c r="C97" s="3">
-        <v>48.41019881168057</v>
+        <v>39.83988265689284</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2252,10 +2258,10 @@
         <v>96</v>
       </c>
       <c r="B98" s="3">
-        <v>19.13293828513796</v>
+        <v>96.74752702026674</v>
       </c>
       <c r="C98" s="3">
-        <v>29.60504151077456</v>
+        <v>42.07244731206877</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -2263,10 +2269,10 @@
         <v>97</v>
       </c>
       <c r="B99" s="3">
-        <v>89.64156666404769</v>
+        <v>97.67479566796013</v>
       </c>
       <c r="C99" s="3">
-        <v>45.14383640474323</v>
+        <v>48.50684963820355</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -2274,10 +2280,10 @@
         <v>98</v>
       </c>
       <c r="B100" s="3">
-        <v>65.48433467891617</v>
+        <v>21.42397654725216</v>
       </c>
       <c r="C100" s="3">
-        <v>22.93400340049954</v>
+        <v>29.47912468024867</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -2285,10 +2291,10 @@
         <v>99</v>
       </c>
       <c r="B101" s="3">
-        <v>54.75687269224247</v>
+        <v>36.38344054381744</v>
       </c>
       <c r="C101" s="3">
-        <v>24.47206428903686</v>
+        <v>20.35939911931354</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -2296,10 +2302,10 @@
         <v>100</v>
       </c>
       <c r="B102" s="3">
-        <v>48.27727148077753</v>
+        <v>36.56104392763887</v>
       </c>
       <c r="C102" s="3">
-        <v>33.76548877584225</v>
+        <v>43.35632740069563</v>
       </c>
     </row>
   </sheetData>

--- a/demo.xlsx
+++ b/demo.xlsx
@@ -159,301 +159,301 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>63.77786081381775</c:v>
+                  <c:v>81.51029213993675</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>75.24456844982601</c:v>
+                  <c:v>54.935252595441</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>78.62604213366528</c:v>
+                  <c:v>62.44495384024493</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>38.98914621966713</c:v>
+                  <c:v>33.39449140590666</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>59.8462853666454</c:v>
+                  <c:v>85.97156756556275</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>58.83756162022095</c:v>
+                  <c:v>88.94662949860435</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16.99324156864383</c:v>
+                  <c:v>34.48023019500894</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15.00468248533961</c:v>
+                  <c:v>58.92337013558122</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>21.31111808825453</c:v>
+                  <c:v>23.80751282444042</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>82.10537294506855</c:v>
+                  <c:v>23.24773782702459</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>73.03082773983714</c:v>
+                  <c:v>41.22010274976878</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>68.8211949925294</c:v>
+                  <c:v>28.65391666812049</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>64.10316534343258</c:v>
+                  <c:v>21.35318463670789</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>42.67896957116195</c:v>
+                  <c:v>90.28738064807969</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>11.12208828170072</c:v>
+                  <c:v>92.47368243603849</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>83.87987627160526</c:v>
+                  <c:v>87.59878795728463</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>19.72597674834911</c:v>
+                  <c:v>63.42656502006234</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>25.75203095028016</c:v>
+                  <c:v>40.04743291967469</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>98.22116184250052</c:v>
+                  <c:v>78.77860763364684</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>48.40031412269865</c:v>
+                  <c:v>83.90846092951708</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>46.44191744560407</c:v>
+                  <c:v>38.93656338460327</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>53.73364204941037</c:v>
+                  <c:v>59.82864017162742</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>81.32538979053309</c:v>
+                  <c:v>62.69344768275408</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>45.27162519843023</c:v>
+                  <c:v>80.42702445493714</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>36.92198660976109</c:v>
+                  <c:v>49.33641349800264</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>29.4595568632436</c:v>
+                  <c:v>47.10969158131987</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>60.18957180285244</c:v>
+                  <c:v>17.38540360781067</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>60.11773913693889</c:v>
+                  <c:v>87.08174173925046</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>36.20413282495683</c:v>
+                  <c:v>17.24906485015797</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>45.48220390356786</c:v>
+                  <c:v>35.37952560474651</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>10.49755727552663</c:v>
+                  <c:v>49.01430881979898</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>38.38967615676184</c:v>
+                  <c:v>57.02606335388793</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>25.78251481397595</c:v>
+                  <c:v>26.18885981289793</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>74.05376981101455</c:v>
+                  <c:v>48.79315005908936</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>23.60502130416298</c:v>
+                  <c:v>32.91801276187759</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>17.2834300694751</c:v>
+                  <c:v>30.14836163193293</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>32.47164385388609</c:v>
+                  <c:v>29.54170926971512</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>74.5056444459304</c:v>
+                  <c:v>64.99312761929758</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>51.37903719181384</c:v>
+                  <c:v>74.55982364094628</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>12.50180437282797</c:v>
+                  <c:v>16.71348987102612</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>18.9507204621048</c:v>
+                  <c:v>43.87836167021464</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>26.56050725273226</c:v>
+                  <c:v>56.1270438062541</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>96.0642778579922</c:v>
+                  <c:v>12.54310913882016</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>84.70191087530225</c:v>
+                  <c:v>72.12208303777766</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>53.68225062559689</c:v>
+                  <c:v>80.33075573087851</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>12.00472440112382</c:v>
+                  <c:v>57.51473244051044</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>55.18610533587206</c:v>
+                  <c:v>70.22712773373273</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>21.98357134243537</c:v>
+                  <c:v>71.74408047400577</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>74.84096326027863</c:v>
+                  <c:v>29.48795226350687</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>26.18839956620117</c:v>
+                  <c:v>84.88430804804067</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>95.31201631660016</c:v>
+                  <c:v>66.17818079257867</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>14.64600287615499</c:v>
+                  <c:v>54.47026046316122</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>11.49854799969996</c:v>
+                  <c:v>48.22791376152568</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>32.05052085829024</c:v>
+                  <c:v>95.38808359894077</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>33.91578362204661</c:v>
+                  <c:v>28.20259942759337</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>82.00473659679679</c:v>
+                  <c:v>73.84855782833267</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>35.45048359499893</c:v>
+                  <c:v>27.89096429966776</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>56.65017751053413</c:v>
+                  <c:v>13.20824585296085</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>69.39773233948841</c:v>
+                  <c:v>35.61897555373744</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>63.78159653407446</c:v>
+                  <c:v>59.41602780542911</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>57.38651043983784</c:v>
+                  <c:v>84.08500464077584</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>91.39153948097781</c:v>
+                  <c:v>20.95681591260257</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>82.44232907423536</c:v>
+                  <c:v>89.88493321635042</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>85.55579949630557</c:v>
+                  <c:v>56.02497844464156</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>97.62230196883591</c:v>
+                  <c:v>79.53281428809348</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>30.03502627596297</c:v>
+                  <c:v>28.05409513593031</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>67.43759149722285</c:v>
+                  <c:v>93.42825752486584</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>16.5718420066316</c:v>
+                  <c:v>31.91852731059503</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>91.99803453550341</c:v>
+                  <c:v>98.40818547170464</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>71.86254583463739</c:v>
+                  <c:v>69.45108028335156</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>16.97743615511661</c:v>
+                  <c:v>89.20443404017691</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>74.66535363645043</c:v>
+                  <c:v>57.47062694970173</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>48.82306269543692</c:v>
+                  <c:v>75.7440692491828</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>43.66443334079312</c:v>
+                  <c:v>25.71121321673801</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>36.01759336807612</c:v>
+                  <c:v>47.58583930948637</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>77.93319242918979</c:v>
+                  <c:v>82.67566513052611</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>26.27980872660242</c:v>
+                  <c:v>95.14139192213898</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>64.25240213682032</c:v>
+                  <c:v>23.63865696951055</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>38.70554005994449</c:v>
+                  <c:v>70.12594307076026</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>13.4951326627052</c:v>
+                  <c:v>38.53793681999725</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>98.92100822703279</c:v>
+                  <c:v>10.03186111210694</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>16.52588841320051</c:v>
+                  <c:v>50.9068672011451</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>84.90300595447169</c:v>
+                  <c:v>59.53123634971251</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>59.39171970315611</c:v>
+                  <c:v>92.56063843886757</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>85.41107359096929</c:v>
+                  <c:v>24.06831585781753</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>30.38789491131549</c:v>
+                  <c:v>31.53769869449346</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>44.03707346676923</c:v>
+                  <c:v>42.45341314014924</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>44.2397561376895</c:v>
+                  <c:v>78.01404130606612</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>58.05147169232443</c:v>
+                  <c:v>18.80706271833698</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>70.22523394613563</c:v>
+                  <c:v>53.89623855639362</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>82.57554544251717</c:v>
+                  <c:v>81.717603380193</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>81.69881401056051</c:v>
+                  <c:v>80.7696711681123</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>81.75208902216052</c:v>
+                  <c:v>93.5350542680129</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>25.24990358710982</c:v>
+                  <c:v>98.49129598932576</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>38.99866304749109</c:v>
+                  <c:v>84.25665609954358</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>96.74752702026674</c:v>
+                  <c:v>40.47150235847234</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>97.67479566796013</c:v>
+                  <c:v>88.32543182059527</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>21.42397654725216</c:v>
+                  <c:v>29.62883995707206</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>36.38344054381744</c:v>
+                  <c:v>67.51982970847226</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -486,301 +486,301 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>46.23910942536789</c:v>
+                  <c:v>42.13655307250384</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27.3283665498617</c:v>
+                  <c:v>36.56191776120718</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44.61818369206586</c:v>
+                  <c:v>42.92382372192289</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22.82625630743741</c:v>
+                  <c:v>25.75752893946548</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>48.72931826316933</c:v>
+                  <c:v>24.44967396383147</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>35.49446290371855</c:v>
+                  <c:v>36.86656951248898</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>32.85313979309085</c:v>
+                  <c:v>28.00072290330951</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>47.14357100043348</c:v>
+                  <c:v>38.74009114250009</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>42.60040478842112</c:v>
+                  <c:v>34.83813280649287</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>35.03530541833902</c:v>
+                  <c:v>29.75972984606531</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>20.26208805084391</c:v>
+                  <c:v>34.47961239807871</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>34.57431501036975</c:v>
+                  <c:v>39.74800873943785</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>29.31239813842117</c:v>
+                  <c:v>23.2858541699486</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>26.69664313585239</c:v>
+                  <c:v>29.32188520454997</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>42.10112107250798</c:v>
+                  <c:v>35.79916614022138</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>36.20419437831171</c:v>
+                  <c:v>22.70044416365948</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>37.06553741002297</c:v>
+                  <c:v>44.81723833819818</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>33.24651860111794</c:v>
+                  <c:v>29.14767479581269</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>32.29934197082943</c:v>
+                  <c:v>28.63023105415767</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>25.53644028127794</c:v>
+                  <c:v>39.78571346165128</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>36.71257649056834</c:v>
+                  <c:v>33.71725212696881</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>22.59171174730587</c:v>
+                  <c:v>30.70134094038154</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>21.2433063032482</c:v>
+                  <c:v>43.46361902447785</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>33.59782712296497</c:v>
+                  <c:v>32.96530685537181</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>46.98533606232824</c:v>
+                  <c:v>21.74603838907559</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>31.70866784019437</c:v>
+                  <c:v>27.83813407596057</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>46.56619301610162</c:v>
+                  <c:v>25.06975220643055</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>34.30357690583025</c:v>
+                  <c:v>25.34252459525396</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>38.60972492263086</c:v>
+                  <c:v>47.56363402949021</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>47.70669121181673</c:v>
+                  <c:v>30.78981780313143</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>48.83422648856164</c:v>
+                  <c:v>39.52693434215422</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>47.97249154310236</c:v>
+                  <c:v>20.51619428145216</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>43.68896976594193</c:v>
+                  <c:v>22.51299619969776</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>36.82475958353173</c:v>
+                  <c:v>45.50305540181841</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>31.58380688213985</c:v>
+                  <c:v>48.87388208198344</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>32.94973071264945</c:v>
+                  <c:v>44.17028727977908</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>36.24967382901082</c:v>
+                  <c:v>43.71218860512102</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>36.39232693383022</c:v>
+                  <c:v>43.5839505486812</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>32.8377718464432</c:v>
+                  <c:v>32.56980949436424</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>42.39385952097193</c:v>
+                  <c:v>48.92372903837585</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>31.76035740456929</c:v>
+                  <c:v>45.00642759181463</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>25.29397306429127</c:v>
+                  <c:v>31.85813100593011</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>43.22902281310689</c:v>
+                  <c:v>27.79510119722862</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>43.60985440261393</c:v>
+                  <c:v>37.16566529150038</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>25.52561947294912</c:v>
+                  <c:v>47.75422292234192</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>28.01616720309955</c:v>
+                  <c:v>45.88635359205396</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>34.21806759707012</c:v>
+                  <c:v>39.47220645283176</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>26.33626605863313</c:v>
+                  <c:v>41.76090892751102</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>24.0523591483547</c:v>
+                  <c:v>29.87824493772895</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>27.65311229558434</c:v>
+                  <c:v>32.49727489132427</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>43.23911098892167</c:v>
+                  <c:v>47.06888724446642</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>25.39066600038688</c:v>
+                  <c:v>31.01899257354693</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>23.97684742679279</c:v>
+                  <c:v>35.46780561476154</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>38.32033691413723</c:v>
+                  <c:v>47.472912960813</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>25.39216832253657</c:v>
+                  <c:v>38.64806388771593</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>45.44164919797605</c:v>
+                  <c:v>39.20370598914113</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>28.48344981210804</c:v>
+                  <c:v>39.67193923681244</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>23.96511327281302</c:v>
+                  <c:v>49.11264228419392</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>40.17004351352732</c:v>
+                  <c:v>35.75043149753937</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>29.10839481503969</c:v>
+                  <c:v>45.83302278974693</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>29.97709486929819</c:v>
+                  <c:v>34.01436381278001</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>22.52807975521509</c:v>
+                  <c:v>21.35586120661689</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>31.07622894429159</c:v>
+                  <c:v>45.17802466847803</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>39.49210229218328</c:v>
+                  <c:v>44.85062708015374</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>41.45822210156745</c:v>
+                  <c:v>24.6082169539262</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>47.61561581212808</c:v>
+                  <c:v>27.65555202950654</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>21.99080753544053</c:v>
+                  <c:v>39.61724325582557</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>35.00532999351201</c:v>
+                  <c:v>27.65384480253001</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>39.59952108407992</c:v>
+                  <c:v>20.95634316098931</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>48.12326801391792</c:v>
+                  <c:v>41.12878540658745</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>47.33811479336237</c:v>
+                  <c:v>26.02188261137276</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>40.83126471793781</c:v>
+                  <c:v>42.96123785849555</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>49.82694999227491</c:v>
+                  <c:v>31.35055326620931</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>39.54698964047625</c:v>
+                  <c:v>29.07966613984809</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>22.70866699683088</c:v>
+                  <c:v>46.41816985936698</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>28.94747135277474</c:v>
+                  <c:v>43.28193452369797</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>32.7758649500287</c:v>
+                  <c:v>41.7246233159825</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>24.99340655000994</c:v>
+                  <c:v>39.19782063109199</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>30.2196379104883</c:v>
+                  <c:v>36.05275506260346</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>46.31775768003602</c:v>
+                  <c:v>33.30904253892519</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>44.34262145791438</c:v>
+                  <c:v>41.13361041789317</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>32.01300694246312</c:v>
+                  <c:v>21.79013924225168</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>30.43660397475138</c:v>
+                  <c:v>22.38985148748911</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>30.7314802870655</c:v>
+                  <c:v>45.10547885342945</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>49.91753971123874</c:v>
+                  <c:v>39.23809285055155</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>46.78818539313826</c:v>
+                  <c:v>37.88557732501745</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>37.98691586808751</c:v>
+                  <c:v>33.96463223028324</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>39.97333660199769</c:v>
+                  <c:v>30.82544385250151</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>40.25776630649885</c:v>
+                  <c:v>26.67657102897489</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>27.72860786195213</c:v>
+                  <c:v>23.90971637686974</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>23.02150614135514</c:v>
+                  <c:v>40.46821189815625</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>35.03210226256803</c:v>
+                  <c:v>28.99724076470698</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>30.69348997500409</c:v>
+                  <c:v>29.70857280080264</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>45.70221167311468</c:v>
+                  <c:v>37.11184436819499</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>39.83988265689284</c:v>
+                  <c:v>35.1890582964963</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>42.07244731206877</c:v>
+                  <c:v>21.83829335844722</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>48.50684963820355</c:v>
+                  <c:v>48.97533404856586</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>29.47912468024867</c:v>
+                  <c:v>23.77406528420537</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>20.35939911931354</c:v>
+                  <c:v>47.07034489162371</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1213,10 +1213,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>63.77786081381775</v>
+        <v>81.51029213993675</v>
       </c>
       <c r="C3" s="3">
-        <v>46.23910942536789</v>
+        <v>42.13655307250384</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1224,10 +1224,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="3">
-        <v>75.24456844982601</v>
+        <v>54.935252595441</v>
       </c>
       <c r="C4" s="3">
-        <v>27.3283665498617</v>
+        <v>36.56191776120718</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1235,10 +1235,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="3">
-        <v>78.62604213366528</v>
+        <v>62.44495384024493</v>
       </c>
       <c r="C5" s="3">
-        <v>44.61818369206586</v>
+        <v>42.92382372192289</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1246,10 +1246,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="3">
-        <v>38.98914621966713</v>
+        <v>33.39449140590666</v>
       </c>
       <c r="C6" s="3">
-        <v>22.82625630743741</v>
+        <v>25.75752893946548</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1257,10 +1257,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="3">
-        <v>59.8462853666454</v>
+        <v>85.97156756556275</v>
       </c>
       <c r="C7" s="3">
-        <v>48.72931826316933</v>
+        <v>24.44967396383147</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1268,10 +1268,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="3">
-        <v>58.83756162022095</v>
+        <v>88.94662949860435</v>
       </c>
       <c r="C8" s="3">
-        <v>35.49446290371855</v>
+        <v>36.86656951248898</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1279,10 +1279,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="3">
-        <v>16.99324156864383</v>
+        <v>34.48023019500894</v>
       </c>
       <c r="C9" s="3">
-        <v>32.85313979309085</v>
+        <v>28.00072290330951</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1290,10 +1290,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="3">
-        <v>15.00468248533961</v>
+        <v>58.92337013558122</v>
       </c>
       <c r="C10" s="3">
-        <v>47.14357100043348</v>
+        <v>38.74009114250009</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1301,10 +1301,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="3">
-        <v>21.31111808825453</v>
+        <v>23.80751282444042</v>
       </c>
       <c r="C11" s="3">
-        <v>42.60040478842112</v>
+        <v>34.83813280649287</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1312,10 +1312,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="3">
-        <v>82.10537294506855</v>
+        <v>23.24773782702459</v>
       </c>
       <c r="C12" s="3">
-        <v>35.03530541833902</v>
+        <v>29.75972984606531</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1323,10 +1323,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="3">
-        <v>73.03082773983714</v>
+        <v>41.22010274976878</v>
       </c>
       <c r="C13" s="3">
-        <v>20.26208805084391</v>
+        <v>34.47961239807871</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1334,10 +1334,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="3">
-        <v>68.8211949925294</v>
+        <v>28.65391666812049</v>
       </c>
       <c r="C14" s="3">
-        <v>34.57431501036975</v>
+        <v>39.74800873943785</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1345,10 +1345,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="3">
-        <v>64.10316534343258</v>
+        <v>21.35318463670789</v>
       </c>
       <c r="C15" s="3">
-        <v>29.31239813842117</v>
+        <v>23.2858541699486</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1356,10 +1356,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="3">
-        <v>42.67896957116195</v>
+        <v>90.28738064807969</v>
       </c>
       <c r="C16" s="3">
-        <v>26.69664313585239</v>
+        <v>29.32188520454997</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1367,10 +1367,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="3">
-        <v>11.12208828170072</v>
+        <v>92.47368243603849</v>
       </c>
       <c r="C17" s="3">
-        <v>42.10112107250798</v>
+        <v>35.79916614022138</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1378,10 +1378,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="3">
-        <v>83.87987627160526</v>
+        <v>87.59878795728463</v>
       </c>
       <c r="C18" s="3">
-        <v>36.20419437831171</v>
+        <v>22.70044416365948</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1389,10 +1389,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="3">
-        <v>19.72597674834911</v>
+        <v>63.42656502006234</v>
       </c>
       <c r="C19" s="3">
-        <v>37.06553741002297</v>
+        <v>44.81723833819818</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1400,10 +1400,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="3">
-        <v>25.75203095028016</v>
+        <v>40.04743291967469</v>
       </c>
       <c r="C20" s="3">
-        <v>33.24651860111794</v>
+        <v>29.14767479581269</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1411,10 +1411,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="3">
-        <v>98.22116184250052</v>
+        <v>78.77860763364684</v>
       </c>
       <c r="C21" s="3">
-        <v>32.29934197082943</v>
+        <v>28.63023105415767</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1422,10 +1422,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="3">
-        <v>48.40031412269865</v>
+        <v>83.90846092951708</v>
       </c>
       <c r="C22" s="3">
-        <v>25.53644028127794</v>
+        <v>39.78571346165128</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1433,10 +1433,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="3">
-        <v>46.44191744560407</v>
+        <v>38.93656338460327</v>
       </c>
       <c r="C23" s="3">
-        <v>36.71257649056834</v>
+        <v>33.71725212696881</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1444,10 +1444,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="3">
-        <v>53.73364204941037</v>
+        <v>59.82864017162742</v>
       </c>
       <c r="C24" s="3">
-        <v>22.59171174730587</v>
+        <v>30.70134094038154</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1455,10 +1455,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="3">
-        <v>81.32538979053309</v>
+        <v>62.69344768275408</v>
       </c>
       <c r="C25" s="3">
-        <v>21.2433063032482</v>
+        <v>43.46361902447785</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1466,10 +1466,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="3">
-        <v>45.27162519843023</v>
+        <v>80.42702445493714</v>
       </c>
       <c r="C26" s="3">
-        <v>33.59782712296497</v>
+        <v>32.96530685537181</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1477,10 +1477,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="3">
-        <v>36.92198660976109</v>
+        <v>49.33641349800264</v>
       </c>
       <c r="C27" s="3">
-        <v>46.98533606232824</v>
+        <v>21.74603838907559</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1488,10 +1488,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="3">
-        <v>29.4595568632436</v>
+        <v>47.10969158131987</v>
       </c>
       <c r="C28" s="3">
-        <v>31.70866784019437</v>
+        <v>27.83813407596057</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1499,10 +1499,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="3">
-        <v>60.18957180285244</v>
+        <v>17.38540360781067</v>
       </c>
       <c r="C29" s="3">
-        <v>46.56619301610162</v>
+        <v>25.06975220643055</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1510,10 +1510,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="3">
-        <v>60.11773913693889</v>
+        <v>87.08174173925046</v>
       </c>
       <c r="C30" s="3">
-        <v>34.30357690583025</v>
+        <v>25.34252459525396</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1521,10 +1521,10 @@
         <v>29</v>
       </c>
       <c r="B31" s="3">
-        <v>36.20413282495683</v>
+        <v>17.24906485015797</v>
       </c>
       <c r="C31" s="3">
-        <v>38.60972492263086</v>
+        <v>47.56363402949021</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1532,10 +1532,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="3">
-        <v>45.48220390356786</v>
+        <v>35.37952560474651</v>
       </c>
       <c r="C32" s="3">
-        <v>47.70669121181673</v>
+        <v>30.78981780313143</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1543,10 +1543,10 @@
         <v>31</v>
       </c>
       <c r="B33" s="3">
-        <v>10.49755727552663</v>
+        <v>49.01430881979898</v>
       </c>
       <c r="C33" s="3">
-        <v>48.83422648856164</v>
+        <v>39.52693434215422</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1554,10 +1554,10 @@
         <v>32</v>
       </c>
       <c r="B34" s="3">
-        <v>38.38967615676184</v>
+        <v>57.02606335388793</v>
       </c>
       <c r="C34" s="3">
-        <v>47.97249154310236</v>
+        <v>20.51619428145216</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1565,10 +1565,10 @@
         <v>33</v>
       </c>
       <c r="B35" s="3">
-        <v>25.78251481397595</v>
+        <v>26.18885981289793</v>
       </c>
       <c r="C35" s="3">
-        <v>43.68896976594193</v>
+        <v>22.51299619969776</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1576,10 +1576,10 @@
         <v>34</v>
       </c>
       <c r="B36" s="3">
-        <v>74.05376981101455</v>
+        <v>48.79315005908936</v>
       </c>
       <c r="C36" s="3">
-        <v>36.82475958353173</v>
+        <v>45.50305540181841</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1587,10 +1587,10 @@
         <v>35</v>
       </c>
       <c r="B37" s="3">
-        <v>23.60502130416298</v>
+        <v>32.91801276187759</v>
       </c>
       <c r="C37" s="3">
-        <v>31.58380688213985</v>
+        <v>48.87388208198344</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1598,10 +1598,10 @@
         <v>36</v>
       </c>
       <c r="B38" s="3">
-        <v>17.2834300694751</v>
+        <v>30.14836163193293</v>
       </c>
       <c r="C38" s="3">
-        <v>32.94973071264945</v>
+        <v>44.17028727977908</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1609,10 +1609,10 @@
         <v>37</v>
       </c>
       <c r="B39" s="3">
-        <v>32.47164385388609</v>
+        <v>29.54170926971512</v>
       </c>
       <c r="C39" s="3">
-        <v>36.24967382901082</v>
+        <v>43.71218860512102</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1620,10 +1620,10 @@
         <v>38</v>
       </c>
       <c r="B40" s="3">
-        <v>74.5056444459304</v>
+        <v>64.99312761929758</v>
       </c>
       <c r="C40" s="3">
-        <v>36.39232693383022</v>
+        <v>43.5839505486812</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1631,10 +1631,10 @@
         <v>39</v>
       </c>
       <c r="B41" s="3">
-        <v>51.37903719181384</v>
+        <v>74.55982364094628</v>
       </c>
       <c r="C41" s="3">
-        <v>32.8377718464432</v>
+        <v>32.56980949436424</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1642,10 +1642,10 @@
         <v>40</v>
       </c>
       <c r="B42" s="3">
-        <v>12.50180437282797</v>
+        <v>16.71348987102612</v>
       </c>
       <c r="C42" s="3">
-        <v>42.39385952097193</v>
+        <v>48.92372903837585</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1653,10 +1653,10 @@
         <v>41</v>
       </c>
       <c r="B43" s="3">
-        <v>18.9507204621048</v>
+        <v>43.87836167021464</v>
       </c>
       <c r="C43" s="3">
-        <v>31.76035740456929</v>
+        <v>45.00642759181463</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1664,10 +1664,10 @@
         <v>42</v>
       </c>
       <c r="B44" s="3">
-        <v>26.56050725273226</v>
+        <v>56.1270438062541</v>
       </c>
       <c r="C44" s="3">
-        <v>25.29397306429127</v>
+        <v>31.85813100593011</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1675,10 +1675,10 @@
         <v>43</v>
       </c>
       <c r="B45" s="3">
-        <v>96.0642778579922</v>
+        <v>12.54310913882016</v>
       </c>
       <c r="C45" s="3">
-        <v>43.22902281310689</v>
+        <v>27.79510119722862</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1686,10 +1686,10 @@
         <v>44</v>
       </c>
       <c r="B46" s="3">
-        <v>84.70191087530225</v>
+        <v>72.12208303777766</v>
       </c>
       <c r="C46" s="3">
-        <v>43.60985440261393</v>
+        <v>37.16566529150038</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1697,10 +1697,10 @@
         <v>45</v>
       </c>
       <c r="B47" s="3">
-        <v>53.68225062559689</v>
+        <v>80.33075573087851</v>
       </c>
       <c r="C47" s="3">
-        <v>25.52561947294912</v>
+        <v>47.75422292234192</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1708,10 +1708,10 @@
         <v>46</v>
       </c>
       <c r="B48" s="3">
-        <v>12.00472440112382</v>
+        <v>57.51473244051044</v>
       </c>
       <c r="C48" s="3">
-        <v>28.01616720309955</v>
+        <v>45.88635359205396</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1719,10 +1719,10 @@
         <v>47</v>
       </c>
       <c r="B49" s="3">
-        <v>55.18610533587206</v>
+        <v>70.22712773373273</v>
       </c>
       <c r="C49" s="3">
-        <v>34.21806759707012</v>
+        <v>39.47220645283176</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1730,10 +1730,10 @@
         <v>48</v>
       </c>
       <c r="B50" s="3">
-        <v>21.98357134243537</v>
+        <v>71.74408047400577</v>
       </c>
       <c r="C50" s="3">
-        <v>26.33626605863313</v>
+        <v>41.76090892751102</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1741,10 +1741,10 @@
         <v>49</v>
       </c>
       <c r="B51" s="3">
-        <v>74.84096326027863</v>
+        <v>29.48795226350687</v>
       </c>
       <c r="C51" s="3">
-        <v>24.0523591483547</v>
+        <v>29.87824493772895</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1752,10 +1752,10 @@
         <v>50</v>
       </c>
       <c r="B52" s="3">
-        <v>26.18839956620117</v>
+        <v>84.88430804804067</v>
       </c>
       <c r="C52" s="3">
-        <v>27.65311229558434</v>
+        <v>32.49727489132427</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1763,10 +1763,10 @@
         <v>51</v>
       </c>
       <c r="B53" s="3">
-        <v>95.31201631660016</v>
+        <v>66.17818079257867</v>
       </c>
       <c r="C53" s="3">
-        <v>43.23911098892167</v>
+        <v>47.06888724446642</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1774,10 +1774,10 @@
         <v>52</v>
       </c>
       <c r="B54" s="3">
-        <v>14.64600287615499</v>
+        <v>54.47026046316122</v>
       </c>
       <c r="C54" s="3">
-        <v>25.39066600038688</v>
+        <v>31.01899257354693</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1785,10 +1785,10 @@
         <v>53</v>
       </c>
       <c r="B55" s="3">
-        <v>11.49854799969996</v>
+        <v>48.22791376152568</v>
       </c>
       <c r="C55" s="3">
-        <v>23.97684742679279</v>
+        <v>35.46780561476154</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1796,10 +1796,10 @@
         <v>54</v>
       </c>
       <c r="B56" s="3">
-        <v>32.05052085829024</v>
+        <v>95.38808359894077</v>
       </c>
       <c r="C56" s="3">
-        <v>38.32033691413723</v>
+        <v>47.472912960813</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1807,10 +1807,10 @@
         <v>55</v>
       </c>
       <c r="B57" s="3">
-        <v>33.91578362204661</v>
+        <v>28.20259942759337</v>
       </c>
       <c r="C57" s="3">
-        <v>25.39216832253657</v>
+        <v>38.64806388771593</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1818,10 +1818,10 @@
         <v>56</v>
       </c>
       <c r="B58" s="3">
-        <v>82.00473659679679</v>
+        <v>73.84855782833267</v>
       </c>
       <c r="C58" s="3">
-        <v>45.44164919797605</v>
+        <v>39.20370598914113</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1829,10 +1829,10 @@
         <v>57</v>
       </c>
       <c r="B59" s="3">
-        <v>35.45048359499893</v>
+        <v>27.89096429966776</v>
       </c>
       <c r="C59" s="3">
-        <v>28.48344981210804</v>
+        <v>39.67193923681244</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1840,10 +1840,10 @@
         <v>58</v>
       </c>
       <c r="B60" s="3">
-        <v>56.65017751053413</v>
+        <v>13.20824585296085</v>
       </c>
       <c r="C60" s="3">
-        <v>23.96511327281302</v>
+        <v>49.11264228419392</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1851,10 +1851,10 @@
         <v>59</v>
       </c>
       <c r="B61" s="3">
-        <v>69.39773233948841</v>
+        <v>35.61897555373744</v>
       </c>
       <c r="C61" s="3">
-        <v>40.17004351352732</v>
+        <v>35.75043149753937</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1862,10 +1862,10 @@
         <v>60</v>
       </c>
       <c r="B62" s="3">
-        <v>63.78159653407446</v>
+        <v>59.41602780542911</v>
       </c>
       <c r="C62" s="3">
-        <v>29.10839481503969</v>
+        <v>45.83302278974693</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1873,10 +1873,10 @@
         <v>61</v>
       </c>
       <c r="B63" s="3">
-        <v>57.38651043983784</v>
+        <v>84.08500464077584</v>
       </c>
       <c r="C63" s="3">
-        <v>29.97709486929819</v>
+        <v>34.01436381278001</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1884,10 +1884,10 @@
         <v>62</v>
       </c>
       <c r="B64" s="3">
-        <v>91.39153948097781</v>
+        <v>20.95681591260257</v>
       </c>
       <c r="C64" s="3">
-        <v>22.52807975521509</v>
+        <v>21.35586120661689</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1895,10 +1895,10 @@
         <v>63</v>
       </c>
       <c r="B65" s="3">
-        <v>82.44232907423536</v>
+        <v>89.88493321635042</v>
       </c>
       <c r="C65" s="3">
-        <v>31.07622894429159</v>
+        <v>45.17802466847803</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1906,10 +1906,10 @@
         <v>64</v>
       </c>
       <c r="B66" s="3">
-        <v>85.55579949630557</v>
+        <v>56.02497844464156</v>
       </c>
       <c r="C66" s="3">
-        <v>39.49210229218328</v>
+        <v>44.85062708015374</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1917,10 +1917,10 @@
         <v>65</v>
       </c>
       <c r="B67" s="3">
-        <v>97.62230196883591</v>
+        <v>79.53281428809348</v>
       </c>
       <c r="C67" s="3">
-        <v>41.45822210156745</v>
+        <v>24.6082169539262</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1928,10 +1928,10 @@
         <v>66</v>
       </c>
       <c r="B68" s="3">
-        <v>30.03502627596297</v>
+        <v>28.05409513593031</v>
       </c>
       <c r="C68" s="3">
-        <v>47.61561581212808</v>
+        <v>27.65555202950654</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1939,10 +1939,10 @@
         <v>67</v>
       </c>
       <c r="B69" s="3">
-        <v>67.43759149722285</v>
+        <v>93.42825752486584</v>
       </c>
       <c r="C69" s="3">
-        <v>21.99080753544053</v>
+        <v>39.61724325582557</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1950,10 +1950,10 @@
         <v>68</v>
       </c>
       <c r="B70" s="3">
-        <v>16.5718420066316</v>
+        <v>31.91852731059503</v>
       </c>
       <c r="C70" s="3">
-        <v>35.00532999351201</v>
+        <v>27.65384480253001</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1961,10 +1961,10 @@
         <v>69</v>
       </c>
       <c r="B71" s="3">
-        <v>91.99803453550341</v>
+        <v>98.40818547170464</v>
       </c>
       <c r="C71" s="3">
-        <v>39.59952108407992</v>
+        <v>20.95634316098931</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1972,10 +1972,10 @@
         <v>70</v>
       </c>
       <c r="B72" s="3">
-        <v>71.86254583463739</v>
+        <v>69.45108028335156</v>
       </c>
       <c r="C72" s="3">
-        <v>48.12326801391792</v>
+        <v>41.12878540658745</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1983,10 +1983,10 @@
         <v>71</v>
       </c>
       <c r="B73" s="3">
-        <v>16.97743615511661</v>
+        <v>89.20443404017691</v>
       </c>
       <c r="C73" s="3">
-        <v>47.33811479336237</v>
+        <v>26.02188261137276</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1994,10 +1994,10 @@
         <v>72</v>
       </c>
       <c r="B74" s="3">
-        <v>74.66535363645043</v>
+        <v>57.47062694970173</v>
       </c>
       <c r="C74" s="3">
-        <v>40.83126471793781</v>
+        <v>42.96123785849555</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -2005,10 +2005,10 @@
         <v>73</v>
       </c>
       <c r="B75" s="3">
-        <v>48.82306269543692</v>
+        <v>75.7440692491828</v>
       </c>
       <c r="C75" s="3">
-        <v>49.82694999227491</v>
+        <v>31.35055326620931</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -2016,10 +2016,10 @@
         <v>74</v>
       </c>
       <c r="B76" s="3">
-        <v>43.66443334079312</v>
+        <v>25.71121321673801</v>
       </c>
       <c r="C76" s="3">
-        <v>39.54698964047625</v>
+        <v>29.07966613984809</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -2027,10 +2027,10 @@
         <v>75</v>
       </c>
       <c r="B77" s="3">
-        <v>36.01759336807612</v>
+        <v>47.58583930948637</v>
       </c>
       <c r="C77" s="3">
-        <v>22.70866699683088</v>
+        <v>46.41816985936698</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -2038,10 +2038,10 @@
         <v>76</v>
       </c>
       <c r="B78" s="3">
-        <v>77.93319242918979</v>
+        <v>82.67566513052611</v>
       </c>
       <c r="C78" s="3">
-        <v>28.94747135277474</v>
+        <v>43.28193452369797</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -2049,10 +2049,10 @@
         <v>77</v>
       </c>
       <c r="B79" s="3">
-        <v>26.27980872660242</v>
+        <v>95.14139192213898</v>
       </c>
       <c r="C79" s="3">
-        <v>32.7758649500287</v>
+        <v>41.7246233159825</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -2060,10 +2060,10 @@
         <v>78</v>
       </c>
       <c r="B80" s="3">
-        <v>64.25240213682032</v>
+        <v>23.63865696951055</v>
       </c>
       <c r="C80" s="3">
-        <v>24.99340655000994</v>
+        <v>39.19782063109199</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -2071,10 +2071,10 @@
         <v>79</v>
       </c>
       <c r="B81" s="3">
-        <v>38.70554005994449</v>
+        <v>70.12594307076026</v>
       </c>
       <c r="C81" s="3">
-        <v>30.2196379104883</v>
+        <v>36.05275506260346</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -2082,10 +2082,10 @@
         <v>80</v>
       </c>
       <c r="B82" s="3">
-        <v>13.4951326627052</v>
+        <v>38.53793681999725</v>
       </c>
       <c r="C82" s="3">
-        <v>46.31775768003602</v>
+        <v>33.30904253892519</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -2093,10 +2093,10 @@
         <v>81</v>
       </c>
       <c r="B83" s="3">
-        <v>98.92100822703279</v>
+        <v>10.03186111210694</v>
       </c>
       <c r="C83" s="3">
-        <v>44.34262145791438</v>
+        <v>41.13361041789317</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -2104,10 +2104,10 @@
         <v>82</v>
       </c>
       <c r="B84" s="3">
-        <v>16.52588841320051</v>
+        <v>50.9068672011451</v>
       </c>
       <c r="C84" s="3">
-        <v>32.01300694246312</v>
+        <v>21.79013924225168</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -2115,10 +2115,10 @@
         <v>83</v>
       </c>
       <c r="B85" s="3">
-        <v>84.90300595447169</v>
+        <v>59.53123634971251</v>
       </c>
       <c r="C85" s="3">
-        <v>30.43660397475138</v>
+        <v>22.38985148748911</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -2126,10 +2126,10 @@
         <v>84</v>
       </c>
       <c r="B86" s="3">
-        <v>59.39171970315611</v>
+        <v>92.56063843886757</v>
       </c>
       <c r="C86" s="3">
-        <v>30.7314802870655</v>
+        <v>45.10547885342945</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -2137,10 +2137,10 @@
         <v>85</v>
       </c>
       <c r="B87" s="3">
-        <v>85.41107359096929</v>
+        <v>24.06831585781753</v>
       </c>
       <c r="C87" s="3">
-        <v>49.91753971123874</v>
+        <v>39.23809285055155</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -2148,10 +2148,10 @@
         <v>86</v>
       </c>
       <c r="B88" s="3">
-        <v>30.38789491131549</v>
+        <v>31.53769869449346</v>
       </c>
       <c r="C88" s="3">
-        <v>46.78818539313826</v>
+        <v>37.88557732501745</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -2159,10 +2159,10 @@
         <v>87</v>
       </c>
       <c r="B89" s="3">
-        <v>44.03707346676923</v>
+        <v>42.45341314014924</v>
       </c>
       <c r="C89" s="3">
-        <v>37.98691586808751</v>
+        <v>33.96463223028324</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -2170,10 +2170,10 @@
         <v>88</v>
       </c>
       <c r="B90" s="3">
-        <v>44.2397561376895</v>
+        <v>78.01404130606612</v>
       </c>
       <c r="C90" s="3">
-        <v>39.97333660199769</v>
+        <v>30.82544385250151</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -2181,10 +2181,10 @@
         <v>89</v>
       </c>
       <c r="B91" s="3">
-        <v>58.05147169232443</v>
+        <v>18.80706271833698</v>
       </c>
       <c r="C91" s="3">
-        <v>40.25776630649885</v>
+        <v>26.67657102897489</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -2192,10 +2192,10 @@
         <v>90</v>
       </c>
       <c r="B92" s="3">
-        <v>70.22523394613563</v>
+        <v>53.89623855639362</v>
       </c>
       <c r="C92" s="3">
-        <v>27.72860786195213</v>
+        <v>23.90971637686974</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -2203,10 +2203,10 @@
         <v>91</v>
       </c>
       <c r="B93" s="3">
-        <v>82.57554544251717</v>
+        <v>81.717603380193</v>
       </c>
       <c r="C93" s="3">
-        <v>23.02150614135514</v>
+        <v>40.46821189815625</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -2214,10 +2214,10 @@
         <v>92</v>
       </c>
       <c r="B94" s="3">
-        <v>81.69881401056051</v>
+        <v>80.7696711681123</v>
       </c>
       <c r="C94" s="3">
-        <v>35.03210226256803</v>
+        <v>28.99724076470698</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -2225,10 +2225,10 @@
         <v>93</v>
       </c>
       <c r="B95" s="3">
-        <v>81.75208902216052</v>
+        <v>93.5350542680129</v>
       </c>
       <c r="C95" s="3">
-        <v>30.69348997500409</v>
+        <v>29.70857280080264</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -2236,10 +2236,10 @@
         <v>94</v>
       </c>
       <c r="B96" s="3">
-        <v>25.24990358710982</v>
+        <v>98.49129598932576</v>
       </c>
       <c r="C96" s="3">
-        <v>45.70221167311468</v>
+        <v>37.11184436819499</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2247,10 +2247,10 @@
         <v>95</v>
       </c>
       <c r="B97" s="3">
-        <v>38.99866304749109</v>
+        <v>84.25665609954358</v>
       </c>
       <c r="C97" s="3">
-        <v>39.83988265689284</v>
+        <v>35.1890582964963</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2258,10 +2258,10 @@
         <v>96</v>
       </c>
       <c r="B98" s="3">
-        <v>96.74752702026674</v>
+        <v>40.47150235847234</v>
       </c>
       <c r="C98" s="3">
-        <v>42.07244731206877</v>
+        <v>21.83829335844722</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -2269,10 +2269,10 @@
         <v>97</v>
       </c>
       <c r="B99" s="3">
-        <v>97.67479566796013</v>
+        <v>88.32543182059527</v>
       </c>
       <c r="C99" s="3">
-        <v>48.50684963820355</v>
+        <v>48.97533404856586</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -2280,10 +2280,10 @@
         <v>98</v>
       </c>
       <c r="B100" s="3">
-        <v>21.42397654725216</v>
+        <v>29.62883995707206</v>
       </c>
       <c r="C100" s="3">
-        <v>29.47912468024867</v>
+        <v>23.77406528420537</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -2291,10 +2291,10 @@
         <v>99</v>
       </c>
       <c r="B101" s="3">
-        <v>36.38344054381744</v>
+        <v>67.51982970847226</v>
       </c>
       <c r="C101" s="3">
-        <v>20.35939911931354</v>
+        <v>47.07034489162371</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -2302,10 +2302,10 @@
         <v>100</v>
       </c>
       <c r="B102" s="3">
-        <v>36.56104392763887</v>
+        <v>49.52511946083341</v>
       </c>
       <c r="C102" s="3">
-        <v>43.35632740069563</v>
+        <v>45.64360017873227</v>
       </c>
     </row>
   </sheetData>

--- a/demo.xlsx
+++ b/demo.xlsx
@@ -195,301 +195,301 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>56.86011132862276</c:v>
+                  <c:v>92.59547972908288</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>98.1160187904821</c:v>
+                  <c:v>46.21637465916076</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>78.0187643236949</c:v>
+                  <c:v>35.56634559967843</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.74687489674853</c:v>
+                  <c:v>90.47635403819784</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11.70612244766553</c:v>
+                  <c:v>74.48896487972469</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>55.92669881648153</c:v>
+                  <c:v>13.80951524016359</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>26.298364576158</c:v>
+                  <c:v>44.87964740414982</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>83.54416963333725</c:v>
+                  <c:v>82.91190179689224</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>95.99770847108633</c:v>
+                  <c:v>30.57505479709431</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>37.65772281254405</c:v>
+                  <c:v>64.42919233460356</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.39815559955567</c:v>
+                  <c:v>76.50592468567464</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>67.29440040714579</c:v>
+                  <c:v>92.11266340102807</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>80.75092425945437</c:v>
+                  <c:v>68.16617848797988</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>25.29515459718554</c:v>
+                  <c:v>72.47615534800914</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>77.42369385536236</c:v>
+                  <c:v>67.39069339821171</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>13.88168455545371</c:v>
+                  <c:v>74.84026767194322</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>48.40496210724285</c:v>
+                  <c:v>26.03388682620968</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>55.48264991128853</c:v>
+                  <c:v>42.14323058720343</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>46.9688682666502</c:v>
+                  <c:v>55.60175868182192</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>22.36548997031733</c:v>
+                  <c:v>50.89271806956806</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>42.17807290391421</c:v>
+                  <c:v>99.02748549503501</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>38.53476535823175</c:v>
+                  <c:v>39.94664459014778</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>34.84938557312302</c:v>
+                  <c:v>94.25494326689073</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>67.14357588216473</c:v>
+                  <c:v>48.5148008839425</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>22.41269402733534</c:v>
+                  <c:v>30.39745918217563</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>65.13498450137328</c:v>
+                  <c:v>44.63428949351355</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>10.21434596658834</c:v>
+                  <c:v>60.4700677201614</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>87.37757620016075</c:v>
+                  <c:v>13.34269292288011</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>36.47726303692158</c:v>
+                  <c:v>54.98251021293606</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>91.79370874414357</c:v>
+                  <c:v>74.8449065815621</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>75.72830069452297</c:v>
+                  <c:v>93.20812570361279</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>92.42134642702204</c:v>
+                  <c:v>39.17960673379682</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>75.56405007757904</c:v>
+                  <c:v>45.579359581712</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>45.20820728934531</c:v>
+                  <c:v>70.67186610586548</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>66.09448290552209</c:v>
+                  <c:v>89.21843071953431</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>37.62991603720747</c:v>
+                  <c:v>25.94967113469148</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>18.43486474150514</c:v>
+                  <c:v>75.40341065854065</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>30.10853979089623</c:v>
+                  <c:v>77.95178327892694</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>36.24757169963796</c:v>
+                  <c:v>52.40143283730393</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>48.97165877173575</c:v>
+                  <c:v>75.90716278681676</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>90.49389867413592</c:v>
+                  <c:v>31.23692486288219</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>69.37586916896019</c:v>
+                  <c:v>45.24248109987553</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>97.64546952305062</c:v>
+                  <c:v>95.97766736176277</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>86.91670526193545</c:v>
+                  <c:v>25.37849670703179</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>91.51609098883903</c:v>
+                  <c:v>37.23106132533247</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>17.36342249368627</c:v>
+                  <c:v>43.51249755350476</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>95.70771896390497</c:v>
+                  <c:v>35.64976577313411</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>42.29097254039717</c:v>
+                  <c:v>63.27418129091357</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>43.72716303614628</c:v>
+                  <c:v>23.78687840582943</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>85.0407696127124</c:v>
+                  <c:v>55.54373397260604</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>87.65042943281415</c:v>
+                  <c:v>25.87826929995304</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>57.89599534841764</c:v>
+                  <c:v>39.52231955806513</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>47.49294388678276</c:v>
+                  <c:v>47.08133009946522</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>65.74791925187841</c:v>
+                  <c:v>36.26438610239788</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>30.34183017680427</c:v>
+                  <c:v>41.4480214409684</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>32.67230546499259</c:v>
+                  <c:v>31.25422007519659</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>79.64040051112839</c:v>
+                  <c:v>94.97117287674112</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>90.43131269857814</c:v>
+                  <c:v>69.53721250154106</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>11.05198869788881</c:v>
+                  <c:v>80.30761719760501</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>74.71065646110407</c:v>
+                  <c:v>21.24055947543514</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>87.85699292805374</c:v>
+                  <c:v>91.92405314240514</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>88.27392846801594</c:v>
+                  <c:v>42.76004000159421</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>38.1480764093656</c:v>
+                  <c:v>16.1897391856612</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>81.43315680199632</c:v>
+                  <c:v>60.17550034145273</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>44.68056634411366</c:v>
+                  <c:v>64.95662088289018</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>43.09035906191884</c:v>
+                  <c:v>86.16078382164304</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>20.9859936516884</c:v>
+                  <c:v>71.63517359121283</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>63.05743021642249</c:v>
+                  <c:v>51.23792371587827</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>45.66545384662339</c:v>
+                  <c:v>11.03440653853974</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>68.91515562209804</c:v>
+                  <c:v>90.93032827861751</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>96.10970856721691</c:v>
+                  <c:v>13.3079927231062</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>63.1494621603286</c:v>
+                  <c:v>49.03985821957799</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>89.57420476809385</c:v>
+                  <c:v>70.03779338969201</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>18.59053623595889</c:v>
+                  <c:v>68.72104504633255</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>31.41945975827811</c:v>
+                  <c:v>95.5760132304258</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>48.51030301726073</c:v>
+                  <c:v>22.18369832227422</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>18.32093330221868</c:v>
+                  <c:v>68.16216129629295</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>71.31995841781952</c:v>
+                  <c:v>12.19388055464436</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>48.9713504622413</c:v>
+                  <c:v>56.9926680807573</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>14.11130639707538</c:v>
+                  <c:v>25.17281530629879</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>21.75050770796418</c:v>
+                  <c:v>89.42752715878974</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>17.78818178922285</c:v>
+                  <c:v>25.55424822561882</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>14.89542534697938</c:v>
+                  <c:v>77.59563723951774</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>55.25363223056841</c:v>
+                  <c:v>91.92948917238849</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>36.25822678755051</c:v>
+                  <c:v>37.02058187054544</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>46.65414882862201</c:v>
+                  <c:v>74.91626288728693</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>21.19308309540379</c:v>
+                  <c:v>72.81532245808376</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>38.09686901481459</c:v>
+                  <c:v>11.10229707914632</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>50.03333683125669</c:v>
+                  <c:v>11.22111645199692</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>83.58524267778576</c:v>
+                  <c:v>73.49410817359278</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>67.71265134690753</c:v>
+                  <c:v>84.87772872487753</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>58.99781130226013</c:v>
+                  <c:v>28.76804789321977</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>52.59098123505809</c:v>
+                  <c:v>81.22203404712161</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>35.78040690619113</c:v>
+                  <c:v>77.87327701740664</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>37.84868302548028</c:v>
+                  <c:v>91.93074524411857</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>46.74153666483679</c:v>
+                  <c:v>51.74904710456783</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>62.96766969978996</c:v>
+                  <c:v>48.17191931596935</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>43.60378191156131</c:v>
+                  <c:v>99.52784578629463</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>68.66066741199899</c:v>
+                  <c:v>98.65060772327435</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -522,301 +522,301 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>31.98188161127393</c:v>
+                  <c:v>34.88230900004402</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43.97132726538409</c:v>
+                  <c:v>24.73848560483307</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40.19140413521663</c:v>
+                  <c:v>24.19600498107386</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40.17168940869348</c:v>
+                  <c:v>36.68462511299219</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45.94883912153774</c:v>
+                  <c:v>25.98739442085699</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>29.282708628542</c:v>
+                  <c:v>46.04267203333261</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>22.67217797115056</c:v>
+                  <c:v>43.77191750303316</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>33.87921610441582</c:v>
+                  <c:v>30.4718280963254</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>22.47413664487704</c:v>
+                  <c:v>49.53564310446306</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>36.93214166063254</c:v>
+                  <c:v>37.53778261819809</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>33.68748728232114</c:v>
+                  <c:v>32.77586919920281</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>46.81293389958912</c:v>
+                  <c:v>39.78525828466455</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>23.02644866615329</c:v>
+                  <c:v>45.38042094962451</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>37.3863123722084</c:v>
+                  <c:v>37.12460045058518</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>28.03432287223301</c:v>
+                  <c:v>36.52924838715754</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>32.3498373278042</c:v>
+                  <c:v>36.49733789713838</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>40.21083505012613</c:v>
+                  <c:v>47.67679492114787</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>41.47562264951603</c:v>
+                  <c:v>25.54888008741622</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>31.75770745696525</c:v>
+                  <c:v>44.60704251203624</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>26.26563560974406</c:v>
+                  <c:v>42.26395441334979</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>39.46152598847239</c:v>
+                  <c:v>42.1877430295479</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>36.93580622071643</c:v>
+                  <c:v>38.90298550284687</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>42.79007019289319</c:v>
+                  <c:v>48.27958283086201</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>26.33043353311312</c:v>
+                  <c:v>46.29069601390842</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>31.62886937722708</c:v>
+                  <c:v>23.14894810917368</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>40.69406800268236</c:v>
+                  <c:v>33.55076598974664</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>41.5921035544657</c:v>
+                  <c:v>48.7689889426257</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>26.97296815051291</c:v>
+                  <c:v>39.11239183730388</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>47.665166454001</c:v>
+                  <c:v>35.3268528462868</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>34.46032758424588</c:v>
+                  <c:v>26.68891532515095</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>49.44034278557766</c:v>
+                  <c:v>45.93218670603795</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>34.78744220969524</c:v>
+                  <c:v>46.8248618293409</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>30.056768838703</c:v>
+                  <c:v>22.73210060116011</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>37.18625080404456</c:v>
+                  <c:v>26.36666471287116</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>44.07739893566426</c:v>
+                  <c:v>26.56071301662971</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>36.93760106733743</c:v>
+                  <c:v>45.88038011189128</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>30.0087211516399</c:v>
+                  <c:v>42.54103201317056</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>43.17304807231916</c:v>
+                  <c:v>36.92236800721408</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>40.64142253681337</c:v>
+                  <c:v>40.22909704058196</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>30.70944526243988</c:v>
+                  <c:v>30.61836835801515</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>41.69073572770305</c:v>
+                  <c:v>45.19528762945879</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>44.69786568993561</c:v>
+                  <c:v>31.20911384090931</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>22.6656475348327</c:v>
+                  <c:v>22.617208839465</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>36.6880692216258</c:v>
+                  <c:v>46.06448803867581</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>31.66745483542008</c:v>
+                  <c:v>27.4896101535394</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>45.64447691411803</c:v>
+                  <c:v>34.2324847178801</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>39.87351666067886</c:v>
+                  <c:v>37.6863051586676</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>34.23337554982446</c:v>
+                  <c:v>28.06512192074223</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>25.67851044035122</c:v>
+                  <c:v>39.66830667157376</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>30.09146667871065</c:v>
+                  <c:v>44.55545506641199</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>39.32053180902416</c:v>
+                  <c:v>39.71170170608384</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>42.27498024194988</c:v>
+                  <c:v>40.34254116720169</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>26.45639941517206</c:v>
+                  <c:v>47.37007654831571</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>41.19640559004737</c:v>
+                  <c:v>43.54105703768717</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>24.9308292056427</c:v>
+                  <c:v>39.33020322831906</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>29.62880542490988</c:v>
+                  <c:v>29.9406303787802</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>26.25470101139486</c:v>
+                  <c:v>48.85943945124775</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>43.12911142637171</c:v>
+                  <c:v>28.33920798152554</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>26.61471167824321</c:v>
+                  <c:v>44.48234800207869</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>49.28243163175195</c:v>
+                  <c:v>36.05391935121961</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>20.2624886028828</c:v>
+                  <c:v>31.03319533754433</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>36.82402227471756</c:v>
+                  <c:v>40.35910829079675</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>33.17771997684684</c:v>
+                  <c:v>36.79524493706191</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>47.79288459975373</c:v>
+                  <c:v>32.76841111946016</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>48.45349445196194</c:v>
+                  <c:v>48.10544744933499</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>37.1038531926969</c:v>
+                  <c:v>31.41073138154854</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>35.9660326878573</c:v>
+                  <c:v>25.01545455650428</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>48.4071796586043</c:v>
+                  <c:v>33.15266433186826</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>21.76506292680836</c:v>
+                  <c:v>31.28033786298252</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>46.78374125903574</c:v>
+                  <c:v>25.82019117454778</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>44.6917975769972</c:v>
+                  <c:v>33.91390555332961</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>35.19629184100046</c:v>
+                  <c:v>24.52723567106501</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>36.80055508502026</c:v>
+                  <c:v>41.17832696366575</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>35.67368254977206</c:v>
+                  <c:v>30.99260524196599</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>39.4922507676775</c:v>
+                  <c:v>37.39713989419185</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>40.81991446096313</c:v>
+                  <c:v>21.54015520570242</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>32.26920369463517</c:v>
+                  <c:v>49.62991883613437</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>38.05063241362971</c:v>
+                  <c:v>46.59014920318278</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>41.83684332018267</c:v>
+                  <c:v>33.21884861859435</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>45.56012280501153</c:v>
+                  <c:v>28.55035237458102</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>41.26095681995848</c:v>
+                  <c:v>26.15735964476016</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>47.51316892426765</c:v>
+                  <c:v>42.10976399870128</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>30.50978824020351</c:v>
+                  <c:v>23.08414387769436</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>34.45157802917628</c:v>
+                  <c:v>20.97156676879904</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>30.20978775692394</c:v>
+                  <c:v>41.78583246159229</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>30.72808720061189</c:v>
+                  <c:v>32.22514826398893</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>20.30417536721647</c:v>
+                  <c:v>24.74424179364503</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>27.07359700662369</c:v>
+                  <c:v>45.51488523767814</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>20.5352362428468</c:v>
+                  <c:v>45.08894549757687</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>37.42863064309035</c:v>
+                  <c:v>34.87890136315234</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>43.55075372874785</c:v>
+                  <c:v>35.39076402621015</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>25.52558482099794</c:v>
+                  <c:v>39.46329414552275</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>49.9032323277383</c:v>
+                  <c:v>39.09877315077529</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>48.76563945369058</c:v>
+                  <c:v>49.40818023256351</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>44.42915279749174</c:v>
+                  <c:v>49.19643897012769</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>27.56130845557152</c:v>
+                  <c:v>42.15693544796777</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>41.25448493465304</c:v>
+                  <c:v>32.54115377278826</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>26.94109896890773</c:v>
+                  <c:v>34.00631824945106</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>25.47021802206579</c:v>
+                  <c:v>37.68758140603866</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1261,7 +1261,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="4">
-        <v>44699.3633170217</v>
+        <v>44706.37526723391</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -1272,10 +1272,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="5">
-        <v>56.86011132862276</v>
+        <v>92.59547972908288</v>
       </c>
       <c r="C3" s="5">
-        <v>31.98188161127393</v>
+        <v>34.88230900004402</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="25" customHeight="1">
@@ -1283,10 +1283,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="5">
-        <v>98.1160187904821</v>
+        <v>46.21637465916076</v>
       </c>
       <c r="C4" s="5">
-        <v>43.97132726538409</v>
+        <v>24.73848560483307</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="25" customHeight="1">
@@ -1294,10 +1294,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="5">
-        <v>78.0187643236949</v>
+        <v>35.56634559967843</v>
       </c>
       <c r="C5" s="5">
-        <v>40.19140413521663</v>
+        <v>24.19600498107386</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="25" customHeight="1">
@@ -1305,10 +1305,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="5">
-        <v>16.74687489674853</v>
+        <v>90.47635403819784</v>
       </c>
       <c r="C6" s="5">
-        <v>40.17168940869348</v>
+        <v>36.68462511299219</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="25" customHeight="1">
@@ -1316,10 +1316,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="5">
-        <v>11.70612244766553</v>
+        <v>74.48896487972469</v>
       </c>
       <c r="C7" s="5">
-        <v>45.94883912153774</v>
+        <v>25.98739442085699</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="25" customHeight="1">
@@ -1327,10 +1327,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="5">
-        <v>55.92669881648153</v>
+        <v>13.80951524016359</v>
       </c>
       <c r="C8" s="5">
-        <v>29.282708628542</v>
+        <v>46.04267203333261</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="25" customHeight="1">
@@ -1338,10 +1338,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="5">
-        <v>26.298364576158</v>
+        <v>44.87964740414982</v>
       </c>
       <c r="C9" s="5">
-        <v>22.67217797115056</v>
+        <v>43.77191750303316</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="25" customHeight="1">
@@ -1349,10 +1349,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="5">
-        <v>83.54416963333725</v>
+        <v>82.91190179689224</v>
       </c>
       <c r="C10" s="5">
-        <v>33.87921610441582</v>
+        <v>30.4718280963254</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="25" customHeight="1">
@@ -1360,10 +1360,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="5">
-        <v>95.99770847108633</v>
+        <v>30.57505479709431</v>
       </c>
       <c r="C11" s="5">
-        <v>22.47413664487704</v>
+        <v>49.53564310446306</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="25" customHeight="1">
@@ -1371,10 +1371,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="5">
-        <v>37.65772281254405</v>
+        <v>64.42919233460356</v>
       </c>
       <c r="C12" s="5">
-        <v>36.93214166063254</v>
+        <v>37.53778261819809</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="25" customHeight="1">
@@ -1382,10 +1382,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="5">
-        <v>12.39815559955567</v>
+        <v>76.50592468567464</v>
       </c>
       <c r="C13" s="5">
-        <v>33.68748728232114</v>
+        <v>32.77586919920281</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="25" customHeight="1">
@@ -1393,10 +1393,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="5">
-        <v>67.29440040714579</v>
+        <v>92.11266340102807</v>
       </c>
       <c r="C14" s="5">
-        <v>46.81293389958912</v>
+        <v>39.78525828466455</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="25" customHeight="1">
@@ -1404,10 +1404,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="5">
-        <v>80.75092425945437</v>
+        <v>68.16617848797988</v>
       </c>
       <c r="C15" s="5">
-        <v>23.02644866615329</v>
+        <v>45.38042094962451</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="25" customHeight="1">
@@ -1415,10 +1415,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="5">
-        <v>25.29515459718554</v>
+        <v>72.47615534800914</v>
       </c>
       <c r="C16" s="5">
-        <v>37.3863123722084</v>
+        <v>37.12460045058518</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="25" customHeight="1">
@@ -1426,10 +1426,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="5">
-        <v>77.42369385536236</v>
+        <v>67.39069339821171</v>
       </c>
       <c r="C17" s="5">
-        <v>28.03432287223301</v>
+        <v>36.52924838715754</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="25" customHeight="1">
@@ -1437,10 +1437,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="5">
-        <v>13.88168455545371</v>
+        <v>74.84026767194322</v>
       </c>
       <c r="C18" s="5">
-        <v>32.3498373278042</v>
+        <v>36.49733789713838</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="25" customHeight="1">
@@ -1448,10 +1448,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="5">
-        <v>48.40496210724285</v>
+        <v>26.03388682620968</v>
       </c>
       <c r="C19" s="5">
-        <v>40.21083505012613</v>
+        <v>47.67679492114787</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="25" customHeight="1">
@@ -1459,10 +1459,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="5">
-        <v>55.48264991128853</v>
+        <v>42.14323058720343</v>
       </c>
       <c r="C20" s="5">
-        <v>41.47562264951603</v>
+        <v>25.54888008741622</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="25" customHeight="1">
@@ -1470,10 +1470,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="5">
-        <v>46.9688682666502</v>
+        <v>55.60175868182192</v>
       </c>
       <c r="C21" s="5">
-        <v>31.75770745696525</v>
+        <v>44.60704251203624</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="25" customHeight="1">
@@ -1481,10 +1481,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="5">
-        <v>22.36548997031733</v>
+        <v>50.89271806956806</v>
       </c>
       <c r="C22" s="5">
-        <v>26.26563560974406</v>
+        <v>42.26395441334979</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="25" customHeight="1">
@@ -1492,10 +1492,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="5">
-        <v>42.17807290391421</v>
+        <v>99.02748549503501</v>
       </c>
       <c r="C23" s="5">
-        <v>39.46152598847239</v>
+        <v>42.1877430295479</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="25" customHeight="1">
@@ -1503,10 +1503,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="5">
-        <v>38.53476535823175</v>
+        <v>39.94664459014778</v>
       </c>
       <c r="C24" s="5">
-        <v>36.93580622071643</v>
+        <v>38.90298550284687</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="25" customHeight="1">
@@ -1514,10 +1514,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="5">
-        <v>34.84938557312302</v>
+        <v>94.25494326689073</v>
       </c>
       <c r="C25" s="5">
-        <v>42.79007019289319</v>
+        <v>48.27958283086201</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="25" customHeight="1">
@@ -1525,10 +1525,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="5">
-        <v>67.14357588216473</v>
+        <v>48.5148008839425</v>
       </c>
       <c r="C26" s="5">
-        <v>26.33043353311312</v>
+        <v>46.29069601390842</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="25" customHeight="1">
@@ -1536,10 +1536,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="5">
-        <v>22.41269402733534</v>
+        <v>30.39745918217563</v>
       </c>
       <c r="C27" s="5">
-        <v>31.62886937722708</v>
+        <v>23.14894810917368</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="25" customHeight="1">
@@ -1547,10 +1547,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="5">
-        <v>65.13498450137328</v>
+        <v>44.63428949351355</v>
       </c>
       <c r="C28" s="5">
-        <v>40.69406800268236</v>
+        <v>33.55076598974664</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="25" customHeight="1">
@@ -1558,10 +1558,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="5">
-        <v>10.21434596658834</v>
+        <v>60.4700677201614</v>
       </c>
       <c r="C29" s="5">
-        <v>41.5921035544657</v>
+        <v>48.7689889426257</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="25" customHeight="1">
@@ -1569,10 +1569,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="5">
-        <v>87.37757620016075</v>
+        <v>13.34269292288011</v>
       </c>
       <c r="C30" s="5">
-        <v>26.97296815051291</v>
+        <v>39.11239183730388</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="25" customHeight="1">
@@ -1580,10 +1580,10 @@
         <v>29</v>
       </c>
       <c r="B31" s="5">
-        <v>36.47726303692158</v>
+        <v>54.98251021293606</v>
       </c>
       <c r="C31" s="5">
-        <v>47.665166454001</v>
+        <v>35.3268528462868</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="25" customHeight="1">
@@ -1591,10 +1591,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="5">
-        <v>91.79370874414357</v>
+        <v>74.8449065815621</v>
       </c>
       <c r="C32" s="5">
-        <v>34.46032758424588</v>
+        <v>26.68891532515095</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="25" customHeight="1">
@@ -1602,10 +1602,10 @@
         <v>31</v>
       </c>
       <c r="B33" s="5">
-        <v>75.72830069452297</v>
+        <v>93.20812570361279</v>
       </c>
       <c r="C33" s="5">
-        <v>49.44034278557766</v>
+        <v>45.93218670603795</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="25" customHeight="1">
@@ -1613,10 +1613,10 @@
         <v>32</v>
       </c>
       <c r="B34" s="5">
-        <v>92.42134642702204</v>
+        <v>39.17960673379682</v>
       </c>
       <c r="C34" s="5">
-        <v>34.78744220969524</v>
+        <v>46.8248618293409</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="25" customHeight="1">
@@ -1624,10 +1624,10 @@
         <v>33</v>
       </c>
       <c r="B35" s="5">
-        <v>75.56405007757904</v>
+        <v>45.579359581712</v>
       </c>
       <c r="C35" s="5">
-        <v>30.056768838703</v>
+        <v>22.73210060116011</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="25" customHeight="1">
@@ -1635,10 +1635,10 @@
         <v>34</v>
       </c>
       <c r="B36" s="5">
-        <v>45.20820728934531</v>
+        <v>70.67186610586548</v>
       </c>
       <c r="C36" s="5">
-        <v>37.18625080404456</v>
+        <v>26.36666471287116</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="25" customHeight="1">
@@ -1646,10 +1646,10 @@
         <v>35</v>
       </c>
       <c r="B37" s="5">
-        <v>66.09448290552209</v>
+        <v>89.21843071953431</v>
       </c>
       <c r="C37" s="5">
-        <v>44.07739893566426</v>
+        <v>26.56071301662971</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="25" customHeight="1">
@@ -1657,10 +1657,10 @@
         <v>36</v>
       </c>
       <c r="B38" s="5">
-        <v>37.62991603720747</v>
+        <v>25.94967113469148</v>
       </c>
       <c r="C38" s="5">
-        <v>36.93760106733743</v>
+        <v>45.88038011189128</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="25" customHeight="1">
@@ -1668,10 +1668,10 @@
         <v>37</v>
       </c>
       <c r="B39" s="5">
-        <v>18.43486474150514</v>
+        <v>75.40341065854065</v>
       </c>
       <c r="C39" s="5">
-        <v>30.0087211516399</v>
+        <v>42.54103201317056</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="25" customHeight="1">
@@ -1679,10 +1679,10 @@
         <v>38</v>
       </c>
       <c r="B40" s="5">
-        <v>30.10853979089623</v>
+        <v>77.95178327892694</v>
       </c>
       <c r="C40" s="5">
-        <v>43.17304807231916</v>
+        <v>36.92236800721408</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="25" customHeight="1">
@@ -1690,10 +1690,10 @@
         <v>39</v>
       </c>
       <c r="B41" s="5">
-        <v>36.24757169963796</v>
+        <v>52.40143283730393</v>
       </c>
       <c r="C41" s="5">
-        <v>40.64142253681337</v>
+        <v>40.22909704058196</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="25" customHeight="1">
@@ -1701,10 +1701,10 @@
         <v>40</v>
       </c>
       <c r="B42" s="5">
-        <v>48.97165877173575</v>
+        <v>75.90716278681676</v>
       </c>
       <c r="C42" s="5">
-        <v>30.70944526243988</v>
+        <v>30.61836835801515</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="25" customHeight="1">
@@ -1712,10 +1712,10 @@
         <v>41</v>
       </c>
       <c r="B43" s="5">
-        <v>90.49389867413592</v>
+        <v>31.23692486288219</v>
       </c>
       <c r="C43" s="5">
-        <v>41.69073572770305</v>
+        <v>45.19528762945879</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="25" customHeight="1">
@@ -1723,10 +1723,10 @@
         <v>42</v>
       </c>
       <c r="B44" s="5">
-        <v>69.37586916896019</v>
+        <v>45.24248109987553</v>
       </c>
       <c r="C44" s="5">
-        <v>44.69786568993561</v>
+        <v>31.20911384090931</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="25" customHeight="1">
@@ -1734,10 +1734,10 @@
         <v>43</v>
       </c>
       <c r="B45" s="5">
-        <v>97.64546952305062</v>
+        <v>95.97766736176277</v>
       </c>
       <c r="C45" s="5">
-        <v>22.6656475348327</v>
+        <v>22.617208839465</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="25" customHeight="1">
@@ -1745,10 +1745,10 @@
         <v>44</v>
       </c>
       <c r="B46" s="5">
-        <v>86.91670526193545</v>
+        <v>25.37849670703179</v>
       </c>
       <c r="C46" s="5">
-        <v>36.6880692216258</v>
+        <v>46.06448803867581</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="25" customHeight="1">
@@ -1756,10 +1756,10 @@
         <v>45</v>
       </c>
       <c r="B47" s="5">
-        <v>91.51609098883903</v>
+        <v>37.23106132533247</v>
       </c>
       <c r="C47" s="5">
-        <v>31.66745483542008</v>
+        <v>27.4896101535394</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="25" customHeight="1">
@@ -1767,10 +1767,10 @@
         <v>46</v>
       </c>
       <c r="B48" s="5">
-        <v>17.36342249368627</v>
+        <v>43.51249755350476</v>
       </c>
       <c r="C48" s="5">
-        <v>45.64447691411803</v>
+        <v>34.2324847178801</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="25" customHeight="1">
@@ -1778,10 +1778,10 @@
         <v>47</v>
       </c>
       <c r="B49" s="5">
-        <v>95.70771896390497</v>
+        <v>35.64976577313411</v>
       </c>
       <c r="C49" s="5">
-        <v>39.87351666067886</v>
+        <v>37.6863051586676</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="25" customHeight="1">
@@ -1789,10 +1789,10 @@
         <v>48</v>
       </c>
       <c r="B50" s="5">
-        <v>42.29097254039717</v>
+        <v>63.27418129091357</v>
       </c>
       <c r="C50" s="5">
-        <v>34.23337554982446</v>
+        <v>28.06512192074223</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="25" customHeight="1">
@@ -1800,10 +1800,10 @@
         <v>49</v>
       </c>
       <c r="B51" s="5">
-        <v>43.72716303614628</v>
+        <v>23.78687840582943</v>
       </c>
       <c r="C51" s="5">
-        <v>25.67851044035122</v>
+        <v>39.66830667157376</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="25" customHeight="1">
@@ -1811,10 +1811,10 @@
         <v>50</v>
       </c>
       <c r="B52" s="5">
-        <v>85.0407696127124</v>
+        <v>55.54373397260604</v>
       </c>
       <c r="C52" s="5">
-        <v>30.09146667871065</v>
+        <v>44.55545506641199</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="25" customHeight="1">
@@ -1822,10 +1822,10 @@
         <v>51</v>
       </c>
       <c r="B53" s="5">
-        <v>87.65042943281415</v>
+        <v>25.87826929995304</v>
       </c>
       <c r="C53" s="5">
-        <v>39.32053180902416</v>
+        <v>39.71170170608384</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="25" customHeight="1">
@@ -1833,10 +1833,10 @@
         <v>52</v>
       </c>
       <c r="B54" s="5">
-        <v>57.89599534841764</v>
+        <v>39.52231955806513</v>
       </c>
       <c r="C54" s="5">
-        <v>42.27498024194988</v>
+        <v>40.34254116720169</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="25" customHeight="1">
@@ -1844,10 +1844,10 @@
         <v>53</v>
       </c>
       <c r="B55" s="5">
-        <v>47.49294388678276</v>
+        <v>47.08133009946522</v>
       </c>
       <c r="C55" s="5">
-        <v>26.45639941517206</v>
+        <v>47.37007654831571</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="25" customHeight="1">
@@ -1855,10 +1855,10 @@
         <v>54</v>
       </c>
       <c r="B56" s="5">
-        <v>65.74791925187841</v>
+        <v>36.26438610239788</v>
       </c>
       <c r="C56" s="5">
-        <v>41.19640559004737</v>
+        <v>43.54105703768717</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="25" customHeight="1">
@@ -1866,10 +1866,10 @@
         <v>55</v>
       </c>
       <c r="B57" s="5">
-        <v>30.34183017680427</v>
+        <v>41.4480214409684</v>
       </c>
       <c r="C57" s="5">
-        <v>24.9308292056427</v>
+        <v>39.33020322831906</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="25" customHeight="1">
@@ -1877,10 +1877,10 @@
         <v>56</v>
       </c>
       <c r="B58" s="5">
-        <v>32.67230546499259</v>
+        <v>31.25422007519659</v>
       </c>
       <c r="C58" s="5">
-        <v>29.62880542490988</v>
+        <v>29.9406303787802</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="25" customHeight="1">
@@ -1888,10 +1888,10 @@
         <v>57</v>
       </c>
       <c r="B59" s="5">
-        <v>79.64040051112839</v>
+        <v>94.97117287674112</v>
       </c>
       <c r="C59" s="5">
-        <v>26.25470101139486</v>
+        <v>48.85943945124775</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="25" customHeight="1">
@@ -1899,10 +1899,10 @@
         <v>58</v>
       </c>
       <c r="B60" s="5">
-        <v>90.43131269857814</v>
+        <v>69.53721250154106</v>
       </c>
       <c r="C60" s="5">
-        <v>43.12911142637171</v>
+        <v>28.33920798152554</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="25" customHeight="1">
@@ -1910,10 +1910,10 @@
         <v>59</v>
       </c>
       <c r="B61" s="5">
-        <v>11.05198869788881</v>
+        <v>80.30761719760501</v>
       </c>
       <c r="C61" s="5">
-        <v>26.61471167824321</v>
+        <v>44.48234800207869</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="25" customHeight="1">
@@ -1921,10 +1921,10 @@
         <v>60</v>
       </c>
       <c r="B62" s="5">
-        <v>74.71065646110407</v>
+        <v>21.24055947543514</v>
       </c>
       <c r="C62" s="5">
-        <v>49.28243163175195</v>
+        <v>36.05391935121961</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="25" customHeight="1">
@@ -1932,10 +1932,10 @@
         <v>61</v>
       </c>
       <c r="B63" s="5">
-        <v>87.85699292805374</v>
+        <v>91.92405314240514</v>
       </c>
       <c r="C63" s="5">
-        <v>20.2624886028828</v>
+        <v>31.03319533754433</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="25" customHeight="1">
@@ -1943,10 +1943,10 @@
         <v>62</v>
       </c>
       <c r="B64" s="5">
-        <v>88.27392846801594</v>
+        <v>42.76004000159421</v>
       </c>
       <c r="C64" s="5">
-        <v>36.82402227471756</v>
+        <v>40.35910829079675</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="25" customHeight="1">
@@ -1954,10 +1954,10 @@
         <v>63</v>
       </c>
       <c r="B65" s="5">
-        <v>38.1480764093656</v>
+        <v>16.1897391856612</v>
       </c>
       <c r="C65" s="5">
-        <v>33.17771997684684</v>
+        <v>36.79524493706191</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="25" customHeight="1">
@@ -1965,10 +1965,10 @@
         <v>64</v>
       </c>
       <c r="B66" s="5">
-        <v>81.43315680199632</v>
+        <v>60.17550034145273</v>
       </c>
       <c r="C66" s="5">
-        <v>47.79288459975373</v>
+        <v>32.76841111946016</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="25" customHeight="1">
@@ -1976,10 +1976,10 @@
         <v>65</v>
       </c>
       <c r="B67" s="5">
-        <v>44.68056634411366</v>
+        <v>64.95662088289018</v>
       </c>
       <c r="C67" s="5">
-        <v>48.45349445196194</v>
+        <v>48.10544744933499</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="25" customHeight="1">
@@ -1987,10 +1987,10 @@
         <v>66</v>
       </c>
       <c r="B68" s="5">
-        <v>43.09035906191884</v>
+        <v>86.16078382164304</v>
       </c>
       <c r="C68" s="5">
-        <v>37.1038531926969</v>
+        <v>31.41073138154854</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="25" customHeight="1">
@@ -1998,10 +1998,10 @@
         <v>67</v>
       </c>
       <c r="B69" s="5">
-        <v>20.9859936516884</v>
+        <v>71.63517359121283</v>
       </c>
       <c r="C69" s="5">
-        <v>35.9660326878573</v>
+        <v>25.01545455650428</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="25" customHeight="1">
@@ -2009,10 +2009,10 @@
         <v>68</v>
       </c>
       <c r="B70" s="5">
-        <v>63.05743021642249</v>
+        <v>51.23792371587827</v>
       </c>
       <c r="C70" s="5">
-        <v>48.4071796586043</v>
+        <v>33.15266433186826</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="25" customHeight="1">
@@ -2020,10 +2020,10 @@
         <v>69</v>
       </c>
       <c r="B71" s="5">
-        <v>45.66545384662339</v>
+        <v>11.03440653853974</v>
       </c>
       <c r="C71" s="5">
-        <v>21.76506292680836</v>
+        <v>31.28033786298252</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="25" customHeight="1">
@@ -2031,10 +2031,10 @@
         <v>70</v>
       </c>
       <c r="B72" s="5">
-        <v>68.91515562209804</v>
+        <v>90.93032827861751</v>
       </c>
       <c r="C72" s="5">
-        <v>46.78374125903574</v>
+        <v>25.82019117454778</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="25" customHeight="1">
@@ -2042,10 +2042,10 @@
         <v>71</v>
       </c>
       <c r="B73" s="5">
-        <v>96.10970856721691</v>
+        <v>13.3079927231062</v>
       </c>
       <c r="C73" s="5">
-        <v>44.6917975769972</v>
+        <v>33.91390555332961</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="25" customHeight="1">
@@ -2053,10 +2053,10 @@
         <v>72</v>
       </c>
       <c r="B74" s="5">
-        <v>63.1494621603286</v>
+        <v>49.03985821957799</v>
       </c>
       <c r="C74" s="5">
-        <v>35.19629184100046</v>
+        <v>24.52723567106501</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="25" customHeight="1">
@@ -2064,10 +2064,10 @@
         <v>73</v>
       </c>
       <c r="B75" s="5">
-        <v>89.57420476809385</v>
+        <v>70.03779338969201</v>
       </c>
       <c r="C75" s="5">
-        <v>36.80055508502026</v>
+        <v>41.17832696366575</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="25" customHeight="1">
@@ -2075,10 +2075,10 @@
         <v>74</v>
       </c>
       <c r="B76" s="5">
-        <v>18.59053623595889</v>
+        <v>68.72104504633255</v>
       </c>
       <c r="C76" s="5">
-        <v>35.67368254977206</v>
+        <v>30.99260524196599</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="25" customHeight="1">
@@ -2086,10 +2086,10 @@
         <v>75</v>
       </c>
       <c r="B77" s="5">
-        <v>31.41945975827811</v>
+        <v>95.5760132304258</v>
       </c>
       <c r="C77" s="5">
-        <v>39.4922507676775</v>
+        <v>37.39713989419185</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="25" customHeight="1">
@@ -2097,10 +2097,10 @@
         <v>76</v>
       </c>
       <c r="B78" s="5">
-        <v>48.51030301726073</v>
+        <v>22.18369832227422</v>
       </c>
       <c r="C78" s="5">
-        <v>40.81991446096313</v>
+        <v>21.54015520570242</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="25" customHeight="1">
@@ -2108,10 +2108,10 @@
         <v>77</v>
       </c>
       <c r="B79" s="5">
-        <v>18.32093330221868</v>
+        <v>68.16216129629295</v>
       </c>
       <c r="C79" s="5">
-        <v>32.26920369463517</v>
+        <v>49.62991883613437</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="25" customHeight="1">
@@ -2119,10 +2119,10 @@
         <v>78</v>
       </c>
       <c r="B80" s="5">
-        <v>71.31995841781952</v>
+        <v>12.19388055464436</v>
       </c>
       <c r="C80" s="5">
-        <v>38.05063241362971</v>
+        <v>46.59014920318278</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="25" customHeight="1">
@@ -2130,10 +2130,10 @@
         <v>79</v>
       </c>
       <c r="B81" s="5">
-        <v>48.9713504622413</v>
+        <v>56.9926680807573</v>
       </c>
       <c r="C81" s="5">
-        <v>41.83684332018267</v>
+        <v>33.21884861859435</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="25" customHeight="1">
@@ -2141,10 +2141,10 @@
         <v>80</v>
       </c>
       <c r="B82" s="5">
-        <v>14.11130639707538</v>
+        <v>25.17281530629879</v>
       </c>
       <c r="C82" s="5">
-        <v>45.56012280501153</v>
+        <v>28.55035237458102</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="25" customHeight="1">
@@ -2152,10 +2152,10 @@
         <v>81</v>
       </c>
       <c r="B83" s="5">
-        <v>21.75050770796418</v>
+        <v>89.42752715878974</v>
       </c>
       <c r="C83" s="5">
-        <v>41.26095681995848</v>
+        <v>26.15735964476016</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="25" customHeight="1">
@@ -2163,10 +2163,10 @@
         <v>82</v>
       </c>
       <c r="B84" s="5">
-        <v>17.78818178922285</v>
+        <v>25.55424822561882</v>
       </c>
       <c r="C84" s="5">
-        <v>47.51316892426765</v>
+        <v>42.10976399870128</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="25" customHeight="1">
@@ -2174,10 +2174,10 @@
         <v>83</v>
       </c>
       <c r="B85" s="5">
-        <v>14.89542534697938</v>
+        <v>77.59563723951774</v>
       </c>
       <c r="C85" s="5">
-        <v>30.50978824020351</v>
+        <v>23.08414387769436</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="25" customHeight="1">
@@ -2185,10 +2185,10 @@
         <v>84</v>
       </c>
       <c r="B86" s="5">
-        <v>55.25363223056841</v>
+        <v>91.92948917238849</v>
       </c>
       <c r="C86" s="5">
-        <v>34.45157802917628</v>
+        <v>20.97156676879904</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="25" customHeight="1">
@@ -2196,10 +2196,10 @@
         <v>85</v>
       </c>
       <c r="B87" s="5">
-        <v>36.25822678755051</v>
+        <v>37.02058187054544</v>
       </c>
       <c r="C87" s="5">
-        <v>30.20978775692394</v>
+        <v>41.78583246159229</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="25" customHeight="1">
@@ -2207,10 +2207,10 @@
         <v>86</v>
       </c>
       <c r="B88" s="5">
-        <v>46.65414882862201</v>
+        <v>74.91626288728693</v>
       </c>
       <c r="C88" s="5">
-        <v>30.72808720061189</v>
+        <v>32.22514826398893</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="25" customHeight="1">
@@ -2218,10 +2218,10 @@
         <v>87</v>
       </c>
       <c r="B89" s="5">
-        <v>21.19308309540379</v>
+        <v>72.81532245808376</v>
       </c>
       <c r="C89" s="5">
-        <v>20.30417536721647</v>
+        <v>24.74424179364503</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="25" customHeight="1">
@@ -2229,10 +2229,10 @@
         <v>88</v>
       </c>
       <c r="B90" s="5">
-        <v>38.09686901481459</v>
+        <v>11.10229707914632</v>
       </c>
       <c r="C90" s="5">
-        <v>27.07359700662369</v>
+        <v>45.51488523767814</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="25" customHeight="1">
@@ -2240,10 +2240,10 @@
         <v>89</v>
       </c>
       <c r="B91" s="5">
-        <v>50.03333683125669</v>
+        <v>11.22111645199692</v>
       </c>
       <c r="C91" s="5">
-        <v>20.5352362428468</v>
+        <v>45.08894549757687</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="25" customHeight="1">
@@ -2251,10 +2251,10 @@
         <v>90</v>
       </c>
       <c r="B92" s="5">
-        <v>83.58524267778576</v>
+        <v>73.49410817359278</v>
       </c>
       <c r="C92" s="5">
-        <v>37.42863064309035</v>
+        <v>34.87890136315234</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="25" customHeight="1">
@@ -2262,10 +2262,10 @@
         <v>91</v>
       </c>
       <c r="B93" s="5">
-        <v>67.71265134690753</v>
+        <v>84.87772872487753</v>
       </c>
       <c r="C93" s="5">
-        <v>43.55075372874785</v>
+        <v>35.39076402621015</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="25" customHeight="1">
@@ -2273,10 +2273,10 @@
         <v>92</v>
       </c>
       <c r="B94" s="5">
-        <v>58.99781130226013</v>
+        <v>28.76804789321977</v>
       </c>
       <c r="C94" s="5">
-        <v>25.52558482099794</v>
+        <v>39.46329414552275</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="25" customHeight="1">
@@ -2284,10 +2284,10 @@
         <v>93</v>
       </c>
       <c r="B95" s="5">
-        <v>52.59098123505809</v>
+        <v>81.22203404712161</v>
       </c>
       <c r="C95" s="5">
-        <v>49.9032323277383</v>
+        <v>39.09877315077529</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="25" customHeight="1">
@@ -2295,10 +2295,10 @@
         <v>94</v>
       </c>
       <c r="B96" s="5">
-        <v>35.78040690619113</v>
+        <v>77.87327701740664</v>
       </c>
       <c r="C96" s="5">
-        <v>48.76563945369058</v>
+        <v>49.40818023256351</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="25" customHeight="1">
@@ -2306,10 +2306,10 @@
         <v>95</v>
       </c>
       <c r="B97" s="5">
-        <v>37.84868302548028</v>
+        <v>91.93074524411857</v>
       </c>
       <c r="C97" s="5">
-        <v>44.42915279749174</v>
+        <v>49.19643897012769</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="25" customHeight="1">
@@ -2317,10 +2317,10 @@
         <v>96</v>
       </c>
       <c r="B98" s="5">
-        <v>46.74153666483679</v>
+        <v>51.74904710456783</v>
       </c>
       <c r="C98" s="5">
-        <v>27.56130845557152</v>
+        <v>42.15693544796777</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="25" customHeight="1">
@@ -2328,10 +2328,10 @@
         <v>97</v>
       </c>
       <c r="B99" s="5">
-        <v>62.96766969978996</v>
+        <v>48.17191931596935</v>
       </c>
       <c r="C99" s="5">
-        <v>41.25448493465304</v>
+        <v>32.54115377278826</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="25" customHeight="1">
@@ -2339,10 +2339,10 @@
         <v>98</v>
       </c>
       <c r="B100" s="5">
-        <v>43.60378191156131</v>
+        <v>99.52784578629463</v>
       </c>
       <c r="C100" s="5">
-        <v>26.94109896890773</v>
+        <v>34.00631824945106</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="25" customHeight="1">
@@ -2350,10 +2350,10 @@
         <v>99</v>
       </c>
       <c r="B101" s="5">
-        <v>68.66066741199899</v>
+        <v>98.65060772327435</v>
       </c>
       <c r="C101" s="5">
-        <v>25.47021802206579</v>
+        <v>37.68758140603866</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="25" customHeight="1">
@@ -2361,10 +2361,10 @@
         <v>100</v>
       </c>
       <c r="B102" s="5">
-        <v>74.71180311651385</v>
+        <v>41.52129582749805</v>
       </c>
       <c r="C102" s="5">
-        <v>25.50941816588644</v>
+        <v>30.52723066326242</v>
       </c>
     </row>
   </sheetData>

--- a/demo.xlsx
+++ b/demo.xlsx
@@ -195,301 +195,301 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>92.59547972908288</c:v>
+                  <c:v>98.72620350476791</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>46.21637465916076</c:v>
+                  <c:v>27.22926389728535</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>35.56634559967843</c:v>
+                  <c:v>41.05990245496798</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>90.47635403819784</c:v>
+                  <c:v>17.89814708767021</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>74.48896487972469</c:v>
+                  <c:v>13.17489252878773</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13.80951524016359</c:v>
+                  <c:v>82.97071935149084</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44.87964740414982</c:v>
+                  <c:v>31.96984392520621</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>82.91190179689224</c:v>
+                  <c:v>13.10875442090353</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>30.57505479709431</c:v>
+                  <c:v>12.73923625288</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>64.42919233460356</c:v>
+                  <c:v>75.15556363463044</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>76.50592468567464</c:v>
+                  <c:v>82.43129272195452</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>92.11266340102807</c:v>
+                  <c:v>29.31666389428934</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>68.16617848797988</c:v>
+                  <c:v>46.11801968223435</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>72.47615534800914</c:v>
+                  <c:v>70.38284409039076</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>67.39069339821171</c:v>
+                  <c:v>20.2976163994222</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>74.84026767194322</c:v>
+                  <c:v>56.42221213684174</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>26.03388682620968</c:v>
+                  <c:v>67.99814590013187</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>42.14323058720343</c:v>
+                  <c:v>79.00992656102609</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>55.60175868182192</c:v>
+                  <c:v>69.62571144669568</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>50.89271806956806</c:v>
+                  <c:v>67.37820779100397</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>99.02748549503501</c:v>
+                  <c:v>13.36582550464268</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>39.94664459014778</c:v>
+                  <c:v>60.8234200191268</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>94.25494326689073</c:v>
+                  <c:v>93.59764040899913</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>48.5148008839425</c:v>
+                  <c:v>17.67850434481169</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>30.39745918217563</c:v>
+                  <c:v>30.85437914639758</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>44.63428949351355</c:v>
+                  <c:v>44.2309058410931</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>60.4700677201614</c:v>
+                  <c:v>60.45594175480065</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>13.34269292288011</c:v>
+                  <c:v>47.43025931122958</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>54.98251021293606</c:v>
+                  <c:v>11.63280732905356</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>74.8449065815621</c:v>
+                  <c:v>34.71298857061812</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>93.20812570361279</c:v>
+                  <c:v>62.55030592070987</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>39.17960673379682</c:v>
+                  <c:v>88.59312678822857</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>45.579359581712</c:v>
+                  <c:v>70.15034583155679</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>70.67186610586548</c:v>
+                  <c:v>20.92263509826043</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>89.21843071953431</c:v>
+                  <c:v>46.07899945570743</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>25.94967113469148</c:v>
+                  <c:v>45.02867551851094</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>75.40341065854065</c:v>
+                  <c:v>69.15032458957367</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>77.95178327892694</c:v>
+                  <c:v>10.62379872166837</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>52.40143283730393</c:v>
+                  <c:v>70.30902228316052</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>75.90716278681676</c:v>
+                  <c:v>98.06709692499282</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>31.23692486288219</c:v>
+                  <c:v>38.31555890481265</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>45.24248109987553</c:v>
+                  <c:v>14.32637675162228</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>95.97766736176277</c:v>
+                  <c:v>35.57152412580098</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>25.37849670703179</c:v>
+                  <c:v>57.37758075479942</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>37.23106132533247</c:v>
+                  <c:v>94.44058930456649</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>43.51249755350476</c:v>
+                  <c:v>79.0243117699416</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>35.64976577313411</c:v>
+                  <c:v>39.11938703817275</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>63.27418129091357</c:v>
+                  <c:v>28.36255217530812</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>23.78687840582943</c:v>
+                  <c:v>78.12946291812895</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>55.54373397260604</c:v>
+                  <c:v>47.61216535711191</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>25.87826929995304</c:v>
+                  <c:v>68.35017485220834</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>39.52231955806513</c:v>
+                  <c:v>40.71933055074788</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>47.08133009946522</c:v>
+                  <c:v>40.23630200141083</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>36.26438610239788</c:v>
+                  <c:v>19.6422662064464</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>41.4480214409684</c:v>
+                  <c:v>10.57001543186032</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>31.25422007519659</c:v>
+                  <c:v>19.77831818538166</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>94.97117287674112</c:v>
+                  <c:v>91.88072541269052</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>69.53721250154106</c:v>
+                  <c:v>96.67101680860969</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>80.30761719760501</c:v>
+                  <c:v>88.94398285129422</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>21.24055947543514</c:v>
+                  <c:v>23.00379425707998</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>91.92405314240514</c:v>
+                  <c:v>92.13251305394634</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>42.76004000159421</c:v>
+                  <c:v>52.33685588958648</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>16.1897391856612</c:v>
+                  <c:v>60.66044048513264</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>60.17550034145273</c:v>
+                  <c:v>67.75413305448572</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>64.95662088289018</c:v>
+                  <c:v>98.80703693281464</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>86.16078382164304</c:v>
+                  <c:v>92.63605262105231</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>71.63517359121283</c:v>
+                  <c:v>89.42070303686829</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>51.23792371587827</c:v>
+                  <c:v>58.54740910524733</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>11.03440653853974</c:v>
+                  <c:v>19.12733042307109</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>90.93032827861751</c:v>
+                  <c:v>78.91911346923176</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>13.3079927231062</c:v>
+                  <c:v>27.63273321533393</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>49.03985821957799</c:v>
+                  <c:v>35.63991644046332</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>70.03779338969201</c:v>
+                  <c:v>46.22800334008042</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>68.72104504633255</c:v>
+                  <c:v>58.39275056849316</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>95.5760132304258</c:v>
+                  <c:v>23.23660224076547</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>22.18369832227422</c:v>
+                  <c:v>84.31567985330052</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>68.16216129629295</c:v>
+                  <c:v>72.56219933823742</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>12.19388055464436</c:v>
+                  <c:v>71.75726166492065</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>56.9926680807573</c:v>
+                  <c:v>15.12021160294686</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>25.17281530629879</c:v>
+                  <c:v>35.00100474539818</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>89.42752715878974</c:v>
+                  <c:v>90.4261574952376</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>25.55424822561882</c:v>
+                  <c:v>78.97851150868553</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>77.59563723951774</c:v>
+                  <c:v>27.44391066563944</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>91.92948917238849</c:v>
+                  <c:v>59.7188330948894</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>37.02058187054544</c:v>
+                  <c:v>99.43248600081122</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>74.91626288728693</c:v>
+                  <c:v>30.25206774569718</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>72.81532245808376</c:v>
+                  <c:v>60.47580608562649</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>11.10229707914632</c:v>
+                  <c:v>55.6024458570828</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>11.22111645199692</c:v>
+                  <c:v>63.58797412984399</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>73.49410817359278</c:v>
+                  <c:v>65.95538656208745</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>84.87772872487753</c:v>
+                  <c:v>26.97336712854953</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>28.76804789321977</c:v>
+                  <c:v>82.36675056441304</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>81.22203404712161</c:v>
+                  <c:v>83.89285788818198</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>77.87327701740664</c:v>
+                  <c:v>15.91550211097665</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>91.93074524411857</c:v>
+                  <c:v>49.74644874285806</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>51.74904710456783</c:v>
+                  <c:v>73.81327828238437</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>48.17191931596935</c:v>
+                  <c:v>80.77947170103995</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>99.52784578629463</c:v>
+                  <c:v>97.70144453413602</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>98.65060772327435</c:v>
+                  <c:v>91.37028887895875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -522,301 +522,301 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>34.88230900004402</c:v>
+                  <c:v>32.69580419695862</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24.73848560483307</c:v>
+                  <c:v>49.80186891045599</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24.19600498107386</c:v>
+                  <c:v>21.09789530073936</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>36.68462511299219</c:v>
+                  <c:v>23.96395755953467</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25.98739442085699</c:v>
+                  <c:v>39.20373836040556</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>46.04267203333261</c:v>
+                  <c:v>49.68374987647803</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43.77191750303316</c:v>
+                  <c:v>21.19757523755762</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>30.4718280963254</c:v>
+                  <c:v>33.15033078654381</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>49.53564310446306</c:v>
+                  <c:v>45.24183069190981</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>37.53778261819809</c:v>
+                  <c:v>30.26726974956695</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>32.77586919920281</c:v>
+                  <c:v>37.92452239368933</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>39.78525828466455</c:v>
+                  <c:v>41.70536556470998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>45.38042094962451</c:v>
+                  <c:v>23.49329626653741</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>37.12460045058518</c:v>
+                  <c:v>21.72462560278191</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>36.52924838715754</c:v>
+                  <c:v>48.13899061692118</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>36.49733789713838</c:v>
+                  <c:v>47.76324008224983</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>47.67679492114787</c:v>
+                  <c:v>33.94463653678061</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>25.54888008741622</c:v>
+                  <c:v>26.58998036531401</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44.60704251203624</c:v>
+                  <c:v>26.24724097613291</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>42.26395441334979</c:v>
+                  <c:v>43.92661118584243</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>42.1877430295479</c:v>
+                  <c:v>26.14181751167408</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>38.90298550284687</c:v>
+                  <c:v>38.49301357021946</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>48.27958283086201</c:v>
+                  <c:v>27.87357298358693</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>46.29069601390842</c:v>
+                  <c:v>36.45988975645228</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>23.14894810917368</c:v>
+                  <c:v>27.71086171059332</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>33.55076598974664</c:v>
+                  <c:v>34.35887394066489</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>48.7689889426257</c:v>
+                  <c:v>33.70405557824918</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>39.11239183730388</c:v>
+                  <c:v>42.41882500146655</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>35.3268528462868</c:v>
+                  <c:v>38.82895940584911</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>26.68891532515095</c:v>
+                  <c:v>41.8316738676377</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>45.93218670603795</c:v>
+                  <c:v>29.13764254857753</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>46.8248618293409</c:v>
+                  <c:v>45.98121247404963</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>22.73210060116011</c:v>
+                  <c:v>35.96206469415254</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>26.36666471287116</c:v>
+                  <c:v>30.28706775568257</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>26.56071301662971</c:v>
+                  <c:v>49.43163452496906</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>45.88038011189128</c:v>
+                  <c:v>21.46550533331953</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>42.54103201317056</c:v>
+                  <c:v>28.38740172419521</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>36.92236800721408</c:v>
+                  <c:v>45.09679762713749</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>40.22909704058196</c:v>
+                  <c:v>35.83391585562021</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>30.61836835801515</c:v>
+                  <c:v>38.17660634199964</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>45.19528762945879</c:v>
+                  <c:v>24.61356320247712</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>31.20911384090931</c:v>
+                  <c:v>43.27559693309289</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>22.617208839465</c:v>
+                  <c:v>42.87851453282855</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>46.06448803867581</c:v>
+                  <c:v>32.30533571996015</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>27.4896101535394</c:v>
+                  <c:v>37.81947497423334</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>34.2324847178801</c:v>
+                  <c:v>25.3755627993019</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>37.6863051586676</c:v>
+                  <c:v>48.94551603163349</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>28.06512192074223</c:v>
+                  <c:v>29.4006100061474</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>39.66830667157376</c:v>
+                  <c:v>34.96178962513394</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>44.55545506641199</c:v>
+                  <c:v>20.58645309584385</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>39.71170170608384</c:v>
+                  <c:v>48.00792918337162</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>40.34254116720169</c:v>
+                  <c:v>31.59283881646342</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>47.37007654831571</c:v>
+                  <c:v>33.1070780315972</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>43.54105703768717</c:v>
+                  <c:v>34.79460443816551</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>39.33020322831906</c:v>
+                  <c:v>46.67072384009563</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>29.9406303787802</c:v>
+                  <c:v>26.77112994822195</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>48.85943945124775</c:v>
+                  <c:v>22.42855735418052</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>28.33920798152554</c:v>
+                  <c:v>41.56827923257941</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>44.48234800207869</c:v>
+                  <c:v>35.39036478829544</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>36.05391935121961</c:v>
+                  <c:v>22.54631701283591</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>31.03319533754433</c:v>
+                  <c:v>49.26515432281101</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>40.35910829079675</c:v>
+                  <c:v>22.9301068319389</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>36.79524493706191</c:v>
+                  <c:v>20.65298907856255</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>32.76841111946016</c:v>
+                  <c:v>26.9118083798006</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>48.10544744933499</c:v>
+                  <c:v>25.39708445625952</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>31.41073138154854</c:v>
+                  <c:v>21.69837134755807</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>25.01545455650428</c:v>
+                  <c:v>33.24408683329244</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>33.15266433186826</c:v>
+                  <c:v>25.73695382116594</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>31.28033786298252</c:v>
+                  <c:v>20.71190392365274</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>25.82019117454778</c:v>
+                  <c:v>43.31576721677122</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>33.91390555332961</c:v>
+                  <c:v>34.76033807588449</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>24.52723567106501</c:v>
+                  <c:v>34.34778254449974</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>41.17832696366575</c:v>
+                  <c:v>43.03624439449511</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>30.99260524196599</c:v>
+                  <c:v>42.56114027390289</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>37.39713989419185</c:v>
+                  <c:v>45.85469421948602</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>21.54015520570242</c:v>
+                  <c:v>28.6997790438447</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>49.62991883613437</c:v>
+                  <c:v>25.1172462655583</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>46.59014920318278</c:v>
+                  <c:v>44.43822687703231</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>33.21884861859435</c:v>
+                  <c:v>23.24071551779556</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>28.55035237458102</c:v>
+                  <c:v>47.05490225939967</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>26.15735964476016</c:v>
+                  <c:v>29.20224847667605</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>42.10976399870128</c:v>
+                  <c:v>37.7885206276068</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>23.08414387769436</c:v>
+                  <c:v>28.02073215028308</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>20.97156676879904</c:v>
+                  <c:v>31.92333283677003</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>41.78583246159229</c:v>
+                  <c:v>29.13342104616553</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>32.22514826398893</c:v>
+                  <c:v>43.06326744764141</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>24.74424179364503</c:v>
+                  <c:v>22.84041745210299</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>45.51488523767814</c:v>
+                  <c:v>21.95839787926133</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>45.08894549757687</c:v>
+                  <c:v>25.77924127281915</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>34.87890136315234</c:v>
+                  <c:v>35.24726659400268</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>35.39076402621015</c:v>
+                  <c:v>24.93569747480665</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>39.46329414552275</c:v>
+                  <c:v>22.8299942181758</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>39.09877315077529</c:v>
+                  <c:v>33.43829041171388</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>49.40818023256351</c:v>
+                  <c:v>28.05191294123265</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>49.19643897012769</c:v>
+                  <c:v>42.07241173836366</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>42.15693544796777</c:v>
+                  <c:v>49.41914674160547</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>32.54115377278826</c:v>
+                  <c:v>44.470232454333</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>34.00631824945106</c:v>
+                  <c:v>36.98928879391141</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>37.68758140603866</c:v>
+                  <c:v>36.65383431358242</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1261,7 +1261,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="4">
-        <v>44706.37526723391</v>
+        <v>44712.36161354526</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -1272,10 +1272,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="5">
-        <v>92.59547972908288</v>
+        <v>98.72620350476791</v>
       </c>
       <c r="C3" s="5">
-        <v>34.88230900004402</v>
+        <v>32.69580419695862</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="25" customHeight="1">
@@ -1283,10 +1283,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="5">
-        <v>46.21637465916076</v>
+        <v>27.22926389728535</v>
       </c>
       <c r="C4" s="5">
-        <v>24.73848560483307</v>
+        <v>49.80186891045599</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="25" customHeight="1">
@@ -1294,10 +1294,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="5">
-        <v>35.56634559967843</v>
+        <v>41.05990245496798</v>
       </c>
       <c r="C5" s="5">
-        <v>24.19600498107386</v>
+        <v>21.09789530073936</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="25" customHeight="1">
@@ -1305,10 +1305,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="5">
-        <v>90.47635403819784</v>
+        <v>17.89814708767021</v>
       </c>
       <c r="C6" s="5">
-        <v>36.68462511299219</v>
+        <v>23.96395755953467</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="25" customHeight="1">
@@ -1316,10 +1316,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="5">
-        <v>74.48896487972469</v>
+        <v>13.17489252878773</v>
       </c>
       <c r="C7" s="5">
-        <v>25.98739442085699</v>
+        <v>39.20373836040556</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="25" customHeight="1">
@@ -1327,10 +1327,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="5">
-        <v>13.80951524016359</v>
+        <v>82.97071935149084</v>
       </c>
       <c r="C8" s="5">
-        <v>46.04267203333261</v>
+        <v>49.68374987647803</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="25" customHeight="1">
@@ -1338,10 +1338,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="5">
-        <v>44.87964740414982</v>
+        <v>31.96984392520621</v>
       </c>
       <c r="C9" s="5">
-        <v>43.77191750303316</v>
+        <v>21.19757523755762</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="25" customHeight="1">
@@ -1349,10 +1349,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="5">
-        <v>82.91190179689224</v>
+        <v>13.10875442090353</v>
       </c>
       <c r="C10" s="5">
-        <v>30.4718280963254</v>
+        <v>33.15033078654381</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="25" customHeight="1">
@@ -1360,10 +1360,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="5">
-        <v>30.57505479709431</v>
+        <v>12.73923625288</v>
       </c>
       <c r="C11" s="5">
-        <v>49.53564310446306</v>
+        <v>45.24183069190981</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="25" customHeight="1">
@@ -1371,10 +1371,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="5">
-        <v>64.42919233460356</v>
+        <v>75.15556363463044</v>
       </c>
       <c r="C12" s="5">
-        <v>37.53778261819809</v>
+        <v>30.26726974956695</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="25" customHeight="1">
@@ -1382,10 +1382,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="5">
-        <v>76.50592468567464</v>
+        <v>82.43129272195452</v>
       </c>
       <c r="C13" s="5">
-        <v>32.77586919920281</v>
+        <v>37.92452239368933</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="25" customHeight="1">
@@ -1393,10 +1393,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="5">
-        <v>92.11266340102807</v>
+        <v>29.31666389428934</v>
       </c>
       <c r="C14" s="5">
-        <v>39.78525828466455</v>
+        <v>41.70536556470998</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="25" customHeight="1">
@@ -1404,10 +1404,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="5">
-        <v>68.16617848797988</v>
+        <v>46.11801968223435</v>
       </c>
       <c r="C15" s="5">
-        <v>45.38042094962451</v>
+        <v>23.49329626653741</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="25" customHeight="1">
@@ -1415,10 +1415,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="5">
-        <v>72.47615534800914</v>
+        <v>70.38284409039076</v>
       </c>
       <c r="C16" s="5">
-        <v>37.12460045058518</v>
+        <v>21.72462560278191</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="25" customHeight="1">
@@ -1426,10 +1426,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="5">
-        <v>67.39069339821171</v>
+        <v>20.2976163994222</v>
       </c>
       <c r="C17" s="5">
-        <v>36.52924838715754</v>
+        <v>48.13899061692118</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="25" customHeight="1">
@@ -1437,10 +1437,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="5">
-        <v>74.84026767194322</v>
+        <v>56.42221213684174</v>
       </c>
       <c r="C18" s="5">
-        <v>36.49733789713838</v>
+        <v>47.76324008224983</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="25" customHeight="1">
@@ -1448,10 +1448,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="5">
-        <v>26.03388682620968</v>
+        <v>67.99814590013187</v>
       </c>
       <c r="C19" s="5">
-        <v>47.67679492114787</v>
+        <v>33.94463653678061</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="25" customHeight="1">
@@ -1459,10 +1459,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="5">
-        <v>42.14323058720343</v>
+        <v>79.00992656102609</v>
       </c>
       <c r="C20" s="5">
-        <v>25.54888008741622</v>
+        <v>26.58998036531401</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="25" customHeight="1">
@@ -1470,10 +1470,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="5">
-        <v>55.60175868182192</v>
+        <v>69.62571144669568</v>
       </c>
       <c r="C21" s="5">
-        <v>44.60704251203624</v>
+        <v>26.24724097613291</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="25" customHeight="1">
@@ -1481,10 +1481,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="5">
-        <v>50.89271806956806</v>
+        <v>67.37820779100397</v>
       </c>
       <c r="C22" s="5">
-        <v>42.26395441334979</v>
+        <v>43.92661118584243</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="25" customHeight="1">
@@ -1492,10 +1492,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="5">
-        <v>99.02748549503501</v>
+        <v>13.36582550464268</v>
       </c>
       <c r="C23" s="5">
-        <v>42.1877430295479</v>
+        <v>26.14181751167408</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="25" customHeight="1">
@@ -1503,10 +1503,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="5">
-        <v>39.94664459014778</v>
+        <v>60.8234200191268</v>
       </c>
       <c r="C24" s="5">
-        <v>38.90298550284687</v>
+        <v>38.49301357021946</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="25" customHeight="1">
@@ -1514,10 +1514,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="5">
-        <v>94.25494326689073</v>
+        <v>93.59764040899913</v>
       </c>
       <c r="C25" s="5">
-        <v>48.27958283086201</v>
+        <v>27.87357298358693</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="25" customHeight="1">
@@ -1525,10 +1525,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="5">
-        <v>48.5148008839425</v>
+        <v>17.67850434481169</v>
       </c>
       <c r="C26" s="5">
-        <v>46.29069601390842</v>
+        <v>36.45988975645228</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="25" customHeight="1">
@@ -1536,10 +1536,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="5">
-        <v>30.39745918217563</v>
+        <v>30.85437914639758</v>
       </c>
       <c r="C27" s="5">
-        <v>23.14894810917368</v>
+        <v>27.71086171059332</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="25" customHeight="1">
@@ -1547,10 +1547,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="5">
-        <v>44.63428949351355</v>
+        <v>44.2309058410931</v>
       </c>
       <c r="C28" s="5">
-        <v>33.55076598974664</v>
+        <v>34.35887394066489</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="25" customHeight="1">
@@ -1558,10 +1558,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="5">
-        <v>60.4700677201614</v>
+        <v>60.45594175480065</v>
       </c>
       <c r="C29" s="5">
-        <v>48.7689889426257</v>
+        <v>33.70405557824918</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="25" customHeight="1">
@@ -1569,10 +1569,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="5">
-        <v>13.34269292288011</v>
+        <v>47.43025931122958</v>
       </c>
       <c r="C30" s="5">
-        <v>39.11239183730388</v>
+        <v>42.41882500146655</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="25" customHeight="1">
@@ -1580,10 +1580,10 @@
         <v>29</v>
       </c>
       <c r="B31" s="5">
-        <v>54.98251021293606</v>
+        <v>11.63280732905356</v>
       </c>
       <c r="C31" s="5">
-        <v>35.3268528462868</v>
+        <v>38.82895940584911</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="25" customHeight="1">
@@ -1591,10 +1591,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="5">
-        <v>74.8449065815621</v>
+        <v>34.71298857061812</v>
       </c>
       <c r="C32" s="5">
-        <v>26.68891532515095</v>
+        <v>41.8316738676377</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="25" customHeight="1">
@@ -1602,10 +1602,10 @@
         <v>31</v>
       </c>
       <c r="B33" s="5">
-        <v>93.20812570361279</v>
+        <v>62.55030592070987</v>
       </c>
       <c r="C33" s="5">
-        <v>45.93218670603795</v>
+        <v>29.13764254857753</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="25" customHeight="1">
@@ -1613,10 +1613,10 @@
         <v>32</v>
       </c>
       <c r="B34" s="5">
-        <v>39.17960673379682</v>
+        <v>88.59312678822857</v>
       </c>
       <c r="C34" s="5">
-        <v>46.8248618293409</v>
+        <v>45.98121247404963</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="25" customHeight="1">
@@ -1624,10 +1624,10 @@
         <v>33</v>
       </c>
       <c r="B35" s="5">
-        <v>45.579359581712</v>
+        <v>70.15034583155679</v>
       </c>
       <c r="C35" s="5">
-        <v>22.73210060116011</v>
+        <v>35.96206469415254</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="25" customHeight="1">
@@ -1635,10 +1635,10 @@
         <v>34</v>
       </c>
       <c r="B36" s="5">
-        <v>70.67186610586548</v>
+        <v>20.92263509826043</v>
       </c>
       <c r="C36" s="5">
-        <v>26.36666471287116</v>
+        <v>30.28706775568257</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="25" customHeight="1">
@@ -1646,10 +1646,10 @@
         <v>35</v>
       </c>
       <c r="B37" s="5">
-        <v>89.21843071953431</v>
+        <v>46.07899945570743</v>
       </c>
       <c r="C37" s="5">
-        <v>26.56071301662971</v>
+        <v>49.43163452496906</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="25" customHeight="1">
@@ -1657,10 +1657,10 @@
         <v>36</v>
       </c>
       <c r="B38" s="5">
-        <v>25.94967113469148</v>
+        <v>45.02867551851094</v>
       </c>
       <c r="C38" s="5">
-        <v>45.88038011189128</v>
+        <v>21.46550533331953</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="25" customHeight="1">
@@ -1668,10 +1668,10 @@
         <v>37</v>
       </c>
       <c r="B39" s="5">
-        <v>75.40341065854065</v>
+        <v>69.15032458957367</v>
       </c>
       <c r="C39" s="5">
-        <v>42.54103201317056</v>
+        <v>28.38740172419521</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="25" customHeight="1">
@@ -1679,10 +1679,10 @@
         <v>38</v>
       </c>
       <c r="B40" s="5">
-        <v>77.95178327892694</v>
+        <v>10.62379872166837</v>
       </c>
       <c r="C40" s="5">
-        <v>36.92236800721408</v>
+        <v>45.09679762713749</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="25" customHeight="1">
@@ -1690,10 +1690,10 @@
         <v>39</v>
       </c>
       <c r="B41" s="5">
-        <v>52.40143283730393</v>
+        <v>70.30902228316052</v>
       </c>
       <c r="C41" s="5">
-        <v>40.22909704058196</v>
+        <v>35.83391585562021</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="25" customHeight="1">
@@ -1701,10 +1701,10 @@
         <v>40</v>
       </c>
       <c r="B42" s="5">
-        <v>75.90716278681676</v>
+        <v>98.06709692499282</v>
       </c>
       <c r="C42" s="5">
-        <v>30.61836835801515</v>
+        <v>38.17660634199964</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="25" customHeight="1">
@@ -1712,10 +1712,10 @@
         <v>41</v>
       </c>
       <c r="B43" s="5">
-        <v>31.23692486288219</v>
+        <v>38.31555890481265</v>
       </c>
       <c r="C43" s="5">
-        <v>45.19528762945879</v>
+        <v>24.61356320247712</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="25" customHeight="1">
@@ -1723,10 +1723,10 @@
         <v>42</v>
       </c>
       <c r="B44" s="5">
-        <v>45.24248109987553</v>
+        <v>14.32637675162228</v>
       </c>
       <c r="C44" s="5">
-        <v>31.20911384090931</v>
+        <v>43.27559693309289</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="25" customHeight="1">
@@ -1734,10 +1734,10 @@
         <v>43</v>
       </c>
       <c r="B45" s="5">
-        <v>95.97766736176277</v>
+        <v>35.57152412580098</v>
       </c>
       <c r="C45" s="5">
-        <v>22.617208839465</v>
+        <v>42.87851453282855</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="25" customHeight="1">
@@ -1745,10 +1745,10 @@
         <v>44</v>
       </c>
       <c r="B46" s="5">
-        <v>25.37849670703179</v>
+        <v>57.37758075479942</v>
       </c>
       <c r="C46" s="5">
-        <v>46.06448803867581</v>
+        <v>32.30533571996015</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="25" customHeight="1">
@@ -1756,10 +1756,10 @@
         <v>45</v>
       </c>
       <c r="B47" s="5">
-        <v>37.23106132533247</v>
+        <v>94.44058930456649</v>
       </c>
       <c r="C47" s="5">
-        <v>27.4896101535394</v>
+        <v>37.81947497423334</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="25" customHeight="1">
@@ -1767,10 +1767,10 @@
         <v>46</v>
       </c>
       <c r="B48" s="5">
-        <v>43.51249755350476</v>
+        <v>79.0243117699416</v>
       </c>
       <c r="C48" s="5">
-        <v>34.2324847178801</v>
+        <v>25.3755627993019</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="25" customHeight="1">
@@ -1778,10 +1778,10 @@
         <v>47</v>
       </c>
       <c r="B49" s="5">
-        <v>35.64976577313411</v>
+        <v>39.11938703817275</v>
       </c>
       <c r="C49" s="5">
-        <v>37.6863051586676</v>
+        <v>48.94551603163349</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="25" customHeight="1">
@@ -1789,10 +1789,10 @@
         <v>48</v>
       </c>
       <c r="B50" s="5">
-        <v>63.27418129091357</v>
+        <v>28.36255217530812</v>
       </c>
       <c r="C50" s="5">
-        <v>28.06512192074223</v>
+        <v>29.4006100061474</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="25" customHeight="1">
@@ -1800,10 +1800,10 @@
         <v>49</v>
       </c>
       <c r="B51" s="5">
-        <v>23.78687840582943</v>
+        <v>78.12946291812895</v>
       </c>
       <c r="C51" s="5">
-        <v>39.66830667157376</v>
+        <v>34.96178962513394</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="25" customHeight="1">
@@ -1811,10 +1811,10 @@
         <v>50</v>
       </c>
       <c r="B52" s="5">
-        <v>55.54373397260604</v>
+        <v>47.61216535711191</v>
       </c>
       <c r="C52" s="5">
-        <v>44.55545506641199</v>
+        <v>20.58645309584385</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="25" customHeight="1">
@@ -1822,10 +1822,10 @@
         <v>51</v>
       </c>
       <c r="B53" s="5">
-        <v>25.87826929995304</v>
+        <v>68.35017485220834</v>
       </c>
       <c r="C53" s="5">
-        <v>39.71170170608384</v>
+        <v>48.00792918337162</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="25" customHeight="1">
@@ -1833,10 +1833,10 @@
         <v>52</v>
       </c>
       <c r="B54" s="5">
-        <v>39.52231955806513</v>
+        <v>40.71933055074788</v>
       </c>
       <c r="C54" s="5">
-        <v>40.34254116720169</v>
+        <v>31.59283881646342</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="25" customHeight="1">
@@ -1844,10 +1844,10 @@
         <v>53</v>
       </c>
       <c r="B55" s="5">
-        <v>47.08133009946522</v>
+        <v>40.23630200141083</v>
       </c>
       <c r="C55" s="5">
-        <v>47.37007654831571</v>
+        <v>33.1070780315972</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="25" customHeight="1">
@@ -1855,10 +1855,10 @@
         <v>54</v>
       </c>
       <c r="B56" s="5">
-        <v>36.26438610239788</v>
+        <v>19.6422662064464</v>
       </c>
       <c r="C56" s="5">
-        <v>43.54105703768717</v>
+        <v>34.79460443816551</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="25" customHeight="1">
@@ -1866,10 +1866,10 @@
         <v>55</v>
       </c>
       <c r="B57" s="5">
-        <v>41.4480214409684</v>
+        <v>10.57001543186032</v>
       </c>
       <c r="C57" s="5">
-        <v>39.33020322831906</v>
+        <v>46.67072384009563</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="25" customHeight="1">
@@ -1877,10 +1877,10 @@
         <v>56</v>
       </c>
       <c r="B58" s="5">
-        <v>31.25422007519659</v>
+        <v>19.77831818538166</v>
       </c>
       <c r="C58" s="5">
-        <v>29.9406303787802</v>
+        <v>26.77112994822195</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="25" customHeight="1">
@@ -1888,10 +1888,10 @@
         <v>57</v>
       </c>
       <c r="B59" s="5">
-        <v>94.97117287674112</v>
+        <v>91.88072541269052</v>
       </c>
       <c r="C59" s="5">
-        <v>48.85943945124775</v>
+        <v>22.42855735418052</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="25" customHeight="1">
@@ -1899,10 +1899,10 @@
         <v>58</v>
       </c>
       <c r="B60" s="5">
-        <v>69.53721250154106</v>
+        <v>96.67101680860969</v>
       </c>
       <c r="C60" s="5">
-        <v>28.33920798152554</v>
+        <v>41.56827923257941</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="25" customHeight="1">
@@ -1910,10 +1910,10 @@
         <v>59</v>
       </c>
       <c r="B61" s="5">
-        <v>80.30761719760501</v>
+        <v>88.94398285129422</v>
       </c>
       <c r="C61" s="5">
-        <v>44.48234800207869</v>
+        <v>35.39036478829544</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="25" customHeight="1">
@@ -1921,10 +1921,10 @@
         <v>60</v>
       </c>
       <c r="B62" s="5">
-        <v>21.24055947543514</v>
+        <v>23.00379425707998</v>
       </c>
       <c r="C62" s="5">
-        <v>36.05391935121961</v>
+        <v>22.54631701283591</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="25" customHeight="1">
@@ -1932,10 +1932,10 @@
         <v>61</v>
       </c>
       <c r="B63" s="5">
-        <v>91.92405314240514</v>
+        <v>92.13251305394634</v>
       </c>
       <c r="C63" s="5">
-        <v>31.03319533754433</v>
+        <v>49.26515432281101</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="25" customHeight="1">
@@ -1943,10 +1943,10 @@
         <v>62</v>
       </c>
       <c r="B64" s="5">
-        <v>42.76004000159421</v>
+        <v>52.33685588958648</v>
       </c>
       <c r="C64" s="5">
-        <v>40.35910829079675</v>
+        <v>22.9301068319389</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="25" customHeight="1">
@@ -1954,10 +1954,10 @@
         <v>63</v>
       </c>
       <c r="B65" s="5">
-        <v>16.1897391856612</v>
+        <v>60.66044048513264</v>
       </c>
       <c r="C65" s="5">
-        <v>36.79524493706191</v>
+        <v>20.65298907856255</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="25" customHeight="1">
@@ -1965,10 +1965,10 @@
         <v>64</v>
       </c>
       <c r="B66" s="5">
-        <v>60.17550034145273</v>
+        <v>67.75413305448572</v>
       </c>
       <c r="C66" s="5">
-        <v>32.76841111946016</v>
+        <v>26.9118083798006</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="25" customHeight="1">
@@ -1976,10 +1976,10 @@
         <v>65</v>
       </c>
       <c r="B67" s="5">
-        <v>64.95662088289018</v>
+        <v>98.80703693281464</v>
       </c>
       <c r="C67" s="5">
-        <v>48.10544744933499</v>
+        <v>25.39708445625952</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="25" customHeight="1">
@@ -1987,10 +1987,10 @@
         <v>66</v>
       </c>
       <c r="B68" s="5">
-        <v>86.16078382164304</v>
+        <v>92.63605262105231</v>
       </c>
       <c r="C68" s="5">
-        <v>31.41073138154854</v>
+        <v>21.69837134755807</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="25" customHeight="1">
@@ -1998,10 +1998,10 @@
         <v>67</v>
       </c>
       <c r="B69" s="5">
-        <v>71.63517359121283</v>
+        <v>89.42070303686829</v>
       </c>
       <c r="C69" s="5">
-        <v>25.01545455650428</v>
+        <v>33.24408683329244</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="25" customHeight="1">
@@ -2009,10 +2009,10 @@
         <v>68</v>
       </c>
       <c r="B70" s="5">
-        <v>51.23792371587827</v>
+        <v>58.54740910524733</v>
       </c>
       <c r="C70" s="5">
-        <v>33.15266433186826</v>
+        <v>25.73695382116594</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="25" customHeight="1">
@@ -2020,10 +2020,10 @@
         <v>69</v>
       </c>
       <c r="B71" s="5">
-        <v>11.03440653853974</v>
+        <v>19.12733042307109</v>
       </c>
       <c r="C71" s="5">
-        <v>31.28033786298252</v>
+        <v>20.71190392365274</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="25" customHeight="1">
@@ -2031,10 +2031,10 @@
         <v>70</v>
       </c>
       <c r="B72" s="5">
-        <v>90.93032827861751</v>
+        <v>78.91911346923176</v>
       </c>
       <c r="C72" s="5">
-        <v>25.82019117454778</v>
+        <v>43.31576721677122</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="25" customHeight="1">
@@ -2042,10 +2042,10 @@
         <v>71</v>
       </c>
       <c r="B73" s="5">
-        <v>13.3079927231062</v>
+        <v>27.63273321533393</v>
       </c>
       <c r="C73" s="5">
-        <v>33.91390555332961</v>
+        <v>34.76033807588449</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="25" customHeight="1">
@@ -2053,10 +2053,10 @@
         <v>72</v>
       </c>
       <c r="B74" s="5">
-        <v>49.03985821957799</v>
+        <v>35.63991644046332</v>
       </c>
       <c r="C74" s="5">
-        <v>24.52723567106501</v>
+        <v>34.34778254449974</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="25" customHeight="1">
@@ -2064,10 +2064,10 @@
         <v>73</v>
       </c>
       <c r="B75" s="5">
-        <v>70.03779338969201</v>
+        <v>46.22800334008042</v>
       </c>
       <c r="C75" s="5">
-        <v>41.17832696366575</v>
+        <v>43.03624439449511</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="25" customHeight="1">
@@ -2075,10 +2075,10 @@
         <v>74</v>
       </c>
       <c r="B76" s="5">
-        <v>68.72104504633255</v>
+        <v>58.39275056849316</v>
       </c>
       <c r="C76" s="5">
-        <v>30.99260524196599</v>
+        <v>42.56114027390289</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="25" customHeight="1">
@@ -2086,10 +2086,10 @@
         <v>75</v>
       </c>
       <c r="B77" s="5">
-        <v>95.5760132304258</v>
+        <v>23.23660224076547</v>
       </c>
       <c r="C77" s="5">
-        <v>37.39713989419185</v>
+        <v>45.85469421948602</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="25" customHeight="1">
@@ -2097,10 +2097,10 @@
         <v>76</v>
       </c>
       <c r="B78" s="5">
-        <v>22.18369832227422</v>
+        <v>84.31567985330052</v>
       </c>
       <c r="C78" s="5">
-        <v>21.54015520570242</v>
+        <v>28.6997790438447</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="25" customHeight="1">
@@ -2108,10 +2108,10 @@
         <v>77</v>
       </c>
       <c r="B79" s="5">
-        <v>68.16216129629295</v>
+        <v>72.56219933823742</v>
       </c>
       <c r="C79" s="5">
-        <v>49.62991883613437</v>
+        <v>25.1172462655583</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="25" customHeight="1">
@@ -2119,10 +2119,10 @@
         <v>78</v>
       </c>
       <c r="B80" s="5">
-        <v>12.19388055464436</v>
+        <v>71.75726166492065</v>
       </c>
       <c r="C80" s="5">
-        <v>46.59014920318278</v>
+        <v>44.43822687703231</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="25" customHeight="1">
@@ -2130,10 +2130,10 @@
         <v>79</v>
       </c>
       <c r="B81" s="5">
-        <v>56.9926680807573</v>
+        <v>15.12021160294686</v>
       </c>
       <c r="C81" s="5">
-        <v>33.21884861859435</v>
+        <v>23.24071551779556</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="25" customHeight="1">
@@ -2141,10 +2141,10 @@
         <v>80</v>
       </c>
       <c r="B82" s="5">
-        <v>25.17281530629879</v>
+        <v>35.00100474539818</v>
       </c>
       <c r="C82" s="5">
-        <v>28.55035237458102</v>
+        <v>47.05490225939967</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="25" customHeight="1">
@@ -2152,10 +2152,10 @@
         <v>81</v>
       </c>
       <c r="B83" s="5">
-        <v>89.42752715878974</v>
+        <v>90.4261574952376</v>
       </c>
       <c r="C83" s="5">
-        <v>26.15735964476016</v>
+        <v>29.20224847667605</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="25" customHeight="1">
@@ -2163,10 +2163,10 @@
         <v>82</v>
       </c>
       <c r="B84" s="5">
-        <v>25.55424822561882</v>
+        <v>78.97851150868553</v>
       </c>
       <c r="C84" s="5">
-        <v>42.10976399870128</v>
+        <v>37.7885206276068</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="25" customHeight="1">
@@ -2174,10 +2174,10 @@
         <v>83</v>
       </c>
       <c r="B85" s="5">
-        <v>77.59563723951774</v>
+        <v>27.44391066563944</v>
       </c>
       <c r="C85" s="5">
-        <v>23.08414387769436</v>
+        <v>28.02073215028308</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="25" customHeight="1">
@@ -2185,10 +2185,10 @@
         <v>84</v>
       </c>
       <c r="B86" s="5">
-        <v>91.92948917238849</v>
+        <v>59.7188330948894</v>
       </c>
       <c r="C86" s="5">
-        <v>20.97156676879904</v>
+        <v>31.92333283677003</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="25" customHeight="1">
@@ -2196,10 +2196,10 @@
         <v>85</v>
       </c>
       <c r="B87" s="5">
-        <v>37.02058187054544</v>
+        <v>99.43248600081122</v>
       </c>
       <c r="C87" s="5">
-        <v>41.78583246159229</v>
+        <v>29.13342104616553</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="25" customHeight="1">
@@ -2207,10 +2207,10 @@
         <v>86</v>
       </c>
       <c r="B88" s="5">
-        <v>74.91626288728693</v>
+        <v>30.25206774569718</v>
       </c>
       <c r="C88" s="5">
-        <v>32.22514826398893</v>
+        <v>43.06326744764141</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="25" customHeight="1">
@@ -2218,10 +2218,10 @@
         <v>87</v>
       </c>
       <c r="B89" s="5">
-        <v>72.81532245808376</v>
+        <v>60.47580608562649</v>
       </c>
       <c r="C89" s="5">
-        <v>24.74424179364503</v>
+        <v>22.84041745210299</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="25" customHeight="1">
@@ -2229,10 +2229,10 @@
         <v>88</v>
       </c>
       <c r="B90" s="5">
-        <v>11.10229707914632</v>
+        <v>55.6024458570828</v>
       </c>
       <c r="C90" s="5">
-        <v>45.51488523767814</v>
+        <v>21.95839787926133</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="25" customHeight="1">
@@ -2240,10 +2240,10 @@
         <v>89</v>
       </c>
       <c r="B91" s="5">
-        <v>11.22111645199692</v>
+        <v>63.58797412984399</v>
       </c>
       <c r="C91" s="5">
-        <v>45.08894549757687</v>
+        <v>25.77924127281915</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="25" customHeight="1">
@@ -2251,10 +2251,10 @@
         <v>90</v>
       </c>
       <c r="B92" s="5">
-        <v>73.49410817359278</v>
+        <v>65.95538656208745</v>
       </c>
       <c r="C92" s="5">
-        <v>34.87890136315234</v>
+        <v>35.24726659400268</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="25" customHeight="1">
@@ -2262,10 +2262,10 @@
         <v>91</v>
       </c>
       <c r="B93" s="5">
-        <v>84.87772872487753</v>
+        <v>26.97336712854953</v>
       </c>
       <c r="C93" s="5">
-        <v>35.39076402621015</v>
+        <v>24.93569747480665</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="25" customHeight="1">
@@ -2273,10 +2273,10 @@
         <v>92</v>
       </c>
       <c r="B94" s="5">
-        <v>28.76804789321977</v>
+        <v>82.36675056441304</v>
       </c>
       <c r="C94" s="5">
-        <v>39.46329414552275</v>
+        <v>22.8299942181758</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="25" customHeight="1">
@@ -2284,10 +2284,10 @@
         <v>93</v>
       </c>
       <c r="B95" s="5">
-        <v>81.22203404712161</v>
+        <v>83.89285788818198</v>
       </c>
       <c r="C95" s="5">
-        <v>39.09877315077529</v>
+        <v>33.43829041171388</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="25" customHeight="1">
@@ -2295,10 +2295,10 @@
         <v>94</v>
       </c>
       <c r="B96" s="5">
-        <v>77.87327701740664</v>
+        <v>15.91550211097665</v>
       </c>
       <c r="C96" s="5">
-        <v>49.40818023256351</v>
+        <v>28.05191294123265</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="25" customHeight="1">
@@ -2306,10 +2306,10 @@
         <v>95</v>
       </c>
       <c r="B97" s="5">
-        <v>91.93074524411857</v>
+        <v>49.74644874285806</v>
       </c>
       <c r="C97" s="5">
-        <v>49.19643897012769</v>
+        <v>42.07241173836366</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="25" customHeight="1">
@@ -2317,10 +2317,10 @@
         <v>96</v>
       </c>
       <c r="B98" s="5">
-        <v>51.74904710456783</v>
+        <v>73.81327828238437</v>
       </c>
       <c r="C98" s="5">
-        <v>42.15693544796777</v>
+        <v>49.41914674160547</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="25" customHeight="1">
@@ -2328,10 +2328,10 @@
         <v>97</v>
       </c>
       <c r="B99" s="5">
-        <v>48.17191931596935</v>
+        <v>80.77947170103995</v>
       </c>
       <c r="C99" s="5">
-        <v>32.54115377278826</v>
+        <v>44.470232454333</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="25" customHeight="1">
@@ -2339,10 +2339,10 @@
         <v>98</v>
       </c>
       <c r="B100" s="5">
-        <v>99.52784578629463</v>
+        <v>97.70144453413602</v>
       </c>
       <c r="C100" s="5">
-        <v>34.00631824945106</v>
+        <v>36.98928879391141</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="25" customHeight="1">
@@ -2350,10 +2350,10 @@
         <v>99</v>
       </c>
       <c r="B101" s="5">
-        <v>98.65060772327435</v>
+        <v>91.37028887895875</v>
       </c>
       <c r="C101" s="5">
-        <v>37.68758140603866</v>
+        <v>36.65383431358242</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="25" customHeight="1">
@@ -2361,10 +2361,10 @@
         <v>100</v>
       </c>
       <c r="B102" s="5">
-        <v>41.52129582749805</v>
+        <v>82.04092612672157</v>
       </c>
       <c r="C102" s="5">
-        <v>30.52723066326242</v>
+        <v>28.79417040288597</v>
       </c>
     </row>
   </sheetData>

--- a/demo.xlsx
+++ b/demo.xlsx
@@ -195,301 +195,301 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>98.72620350476791</c:v>
+                  <c:v>17.41412075116687</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27.22926389728535</c:v>
+                  <c:v>54.60577432838866</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41.05990245496798</c:v>
+                  <c:v>32.86164982768997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17.89814708767021</c:v>
+                  <c:v>45.10819546828927</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.17489252878773</c:v>
+                  <c:v>63.82908239803041</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>82.97071935149084</c:v>
+                  <c:v>20.13544064450758</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>31.96984392520621</c:v>
+                  <c:v>21.86310839477903</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13.10875442090353</c:v>
+                  <c:v>94.48320611846626</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12.73923625288</c:v>
+                  <c:v>80.69824666770874</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>75.15556363463044</c:v>
+                  <c:v>91.55620961387433</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>82.43129272195452</c:v>
+                  <c:v>97.78253706071661</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>29.31666389428934</c:v>
+                  <c:v>11.75934627413885</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>46.11801968223435</c:v>
+                  <c:v>56.15501329933942</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>70.38284409039076</c:v>
+                  <c:v>53.57238442290854</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>20.2976163994222</c:v>
+                  <c:v>91.43897129128207</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>56.42221213684174</c:v>
+                  <c:v>64.52006515001406</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>67.99814590013187</c:v>
+                  <c:v>17.65318517227427</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>79.00992656102609</c:v>
+                  <c:v>80.71547237803348</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>69.62571144669568</c:v>
+                  <c:v>48.92119824402967</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>67.37820779100397</c:v>
+                  <c:v>34.39932692182817</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>13.36582550464268</c:v>
+                  <c:v>98.33135724503627</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>60.8234200191268</c:v>
+                  <c:v>54.82883459397822</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>93.59764040899913</c:v>
+                  <c:v>25.7073872406811</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>17.67850434481169</c:v>
+                  <c:v>13.35705141999135</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>30.85437914639758</c:v>
+                  <c:v>28.70460938511786</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>44.2309058410931</c:v>
+                  <c:v>22.98766606747883</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>60.45594175480065</c:v>
+                  <c:v>35.02669319566701</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>47.43025931122958</c:v>
+                  <c:v>65.57505777090424</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>11.63280732905356</c:v>
+                  <c:v>31.05835146002052</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>34.71298857061812</c:v>
+                  <c:v>85.98928913734376</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>62.55030592070987</c:v>
+                  <c:v>41.10631464038931</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>88.59312678822857</c:v>
+                  <c:v>43.148350074906</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>70.15034583155679</c:v>
+                  <c:v>98.51337457495354</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>20.92263509826043</c:v>
+                  <c:v>82.66776467175059</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>46.07899945570743</c:v>
+                  <c:v>88.92917386827921</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>45.02867551851094</c:v>
+                  <c:v>63.3801328420361</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>69.15032458957367</c:v>
+                  <c:v>48.26747630574906</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>10.62379872166837</c:v>
+                  <c:v>88.49206632655904</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>70.30902228316052</c:v>
+                  <c:v>37.80926247621932</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>98.06709692499282</c:v>
+                  <c:v>37.26275589556938</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>38.31555890481265</c:v>
+                  <c:v>74.91213601594797</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>14.32637675162228</c:v>
+                  <c:v>31.6165898682456</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>35.57152412580098</c:v>
+                  <c:v>67.04405583483305</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>57.37758075479942</c:v>
+                  <c:v>87.04856714936163</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>94.44058930456649</c:v>
+                  <c:v>17.10437657849702</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>79.0243117699416</c:v>
+                  <c:v>89.21197152763422</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>39.11938703817275</c:v>
+                  <c:v>65.62184915132931</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>28.36255217530812</c:v>
+                  <c:v>85.01080662013995</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>78.12946291812895</c:v>
+                  <c:v>96.88734424569662</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>47.61216535711191</c:v>
+                  <c:v>15.24630803519446</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>68.35017485220834</c:v>
+                  <c:v>69.27686106446912</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>40.71933055074788</c:v>
+                  <c:v>27.92181186681905</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>40.23630200141083</c:v>
+                  <c:v>96.43310225971372</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>19.6422662064464</c:v>
+                  <c:v>85.10661832200449</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>10.57001543186032</c:v>
+                  <c:v>58.22746212134533</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>19.77831818538166</c:v>
+                  <c:v>93.22123700918986</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>91.88072541269052</c:v>
+                  <c:v>74.75789317351305</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>96.67101680860969</c:v>
+                  <c:v>45.23290926661142</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>88.94398285129422</c:v>
+                  <c:v>60.41601511402811</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>23.00379425707998</c:v>
+                  <c:v>77.96809498895173</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>92.13251305394634</c:v>
+                  <c:v>65.34078159423765</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>52.33685588958648</c:v>
+                  <c:v>20.7098834135634</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>60.66044048513264</c:v>
+                  <c:v>51.46918279483572</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>67.75413305448572</c:v>
+                  <c:v>68.04748780438229</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>98.80703693281464</c:v>
+                  <c:v>66.55121123946293</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>92.63605262105231</c:v>
+                  <c:v>66.32398802887391</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>89.42070303686829</c:v>
+                  <c:v>41.81190575922527</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>58.54740910524733</c:v>
+                  <c:v>55.44928739336507</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>19.12733042307109</c:v>
+                  <c:v>47.57134140166727</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>78.91911346923176</c:v>
+                  <c:v>71.88168214230734</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>27.63273321533393</c:v>
+                  <c:v>84.94527735370484</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>35.63991644046332</c:v>
+                  <c:v>46.30009680049713</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>46.22800334008042</c:v>
+                  <c:v>82.25062356421014</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>58.39275056849316</c:v>
+                  <c:v>45.22017028672904</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>23.23660224076547</c:v>
+                  <c:v>13.31953595450318</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>84.31567985330052</c:v>
+                  <c:v>32.08805570836807</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>72.56219933823742</c:v>
+                  <c:v>75.13263231436133</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>71.75726166492065</c:v>
+                  <c:v>41.86510406680362</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>15.12021160294686</c:v>
+                  <c:v>61.8289816756105</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>35.00100474539818</c:v>
+                  <c:v>62.44348791533223</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>90.4261574952376</c:v>
+                  <c:v>36.89876136965296</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>78.97851150868553</c:v>
+                  <c:v>87.76967977561476</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>27.44391066563944</c:v>
+                  <c:v>99.62727575083916</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>59.7188330948894</c:v>
+                  <c:v>83.88200239211103</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>99.43248600081122</c:v>
+                  <c:v>25.53455234078083</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>30.25206774569718</c:v>
+                  <c:v>81.07460486078175</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>60.47580608562649</c:v>
+                  <c:v>14.22598457438631</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>55.6024458570828</c:v>
+                  <c:v>49.01703443424642</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>63.58797412984399</c:v>
+                  <c:v>74.85049957508537</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>65.95538656208745</c:v>
+                  <c:v>89.02064753963727</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>26.97336712854953</c:v>
+                  <c:v>61.49618711468226</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>82.36675056441304</c:v>
+                  <c:v>12.39080528749609</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>83.89285788818198</c:v>
+                  <c:v>44.83938569763383</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>15.91550211097665</c:v>
+                  <c:v>49.12720288395594</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>49.74644874285806</c:v>
+                  <c:v>99.44966630979218</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>73.81327828238437</c:v>
+                  <c:v>78.03935535127388</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>80.77947170103995</c:v>
+                  <c:v>15.93430327984005</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>97.70144453413602</c:v>
+                  <c:v>13.7737350655745</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>91.37028887895875</c:v>
+                  <c:v>60.61205298646618</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -522,301 +522,301 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>32.69580419695862</c:v>
+                  <c:v>45.43736772945083</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>49.80186891045599</c:v>
+                  <c:v>45.8666080715562</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21.09789530073936</c:v>
+                  <c:v>24.0098534659312</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23.96395755953467</c:v>
+                  <c:v>41.24982256404495</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>39.20373836040556</c:v>
+                  <c:v>34.79734256806742</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>49.68374987647803</c:v>
+                  <c:v>41.17640948390419</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>21.19757523755762</c:v>
+                  <c:v>42.96485127944659</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>33.15033078654381</c:v>
+                  <c:v>28.19312959773364</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45.24183069190981</c:v>
+                  <c:v>38.95494453891558</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>30.26726974956695</c:v>
+                  <c:v>44.4902096432379</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>37.92452239368933</c:v>
+                  <c:v>20.62176227303386</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>41.70536556470998</c:v>
+                  <c:v>34.29875536701547</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>23.49329626653741</c:v>
+                  <c:v>34.93141481235602</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>21.72462560278191</c:v>
+                  <c:v>26.13932539828897</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>48.13899061692118</c:v>
+                  <c:v>48.98218149376055</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>47.76324008224983</c:v>
+                  <c:v>41.81924243481902</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>33.94463653678061</c:v>
+                  <c:v>39.68323167812477</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>26.58998036531401</c:v>
+                  <c:v>33.42095993706862</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>26.24724097613291</c:v>
+                  <c:v>42.14185221231942</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>43.92661118584243</c:v>
+                  <c:v>21.62283881861835</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>26.14181751167408</c:v>
+                  <c:v>36.2506357945379</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>38.49301357021946</c:v>
+                  <c:v>32.31804479188378</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>27.87357298358693</c:v>
+                  <c:v>21.4447060622322</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>36.45988975645228</c:v>
+                  <c:v>27.75153514620848</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>27.71086171059332</c:v>
+                  <c:v>23.16740210817215</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>34.35887394066489</c:v>
+                  <c:v>39.28925655090516</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>33.70405557824918</c:v>
+                  <c:v>35.97711382703811</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>42.41882500146655</c:v>
+                  <c:v>35.1987009457011</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>38.82895940584911</c:v>
+                  <c:v>44.21963973386097</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>41.8316738676377</c:v>
+                  <c:v>44.33713497794149</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>29.13764254857753</c:v>
+                  <c:v>38.10214688250489</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>45.98121247404963</c:v>
+                  <c:v>45.40149935353156</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>35.96206469415254</c:v>
+                  <c:v>30.52909785175164</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>30.28706775568257</c:v>
+                  <c:v>46.60067387685232</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>49.43163452496906</c:v>
+                  <c:v>41.4853003773641</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>21.46550533331953</c:v>
+                  <c:v>23.94506701187959</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>28.38740172419521</c:v>
+                  <c:v>21.53440175997565</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>45.09679762713749</c:v>
+                  <c:v>46.5310341799087</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>35.83391585562021</c:v>
+                  <c:v>41.49630520223178</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>38.17660634199964</c:v>
+                  <c:v>21.61588730149817</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>24.61356320247712</c:v>
+                  <c:v>28.02741755691645</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>43.27559693309289</c:v>
+                  <c:v>23.65231198195699</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>42.87851453282855</c:v>
+                  <c:v>44.33441388492212</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>32.30533571996015</c:v>
+                  <c:v>27.43844416014642</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>37.81947497423334</c:v>
+                  <c:v>36.46152276682773</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>25.3755627993019</c:v>
+                  <c:v>35.80825970841263</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>48.94551603163349</c:v>
+                  <c:v>44.27688573004824</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>29.4006100061474</c:v>
+                  <c:v>27.21325543635639</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>34.96178962513394</c:v>
+                  <c:v>49.91720004482544</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>20.58645309584385</c:v>
+                  <c:v>45.45173293704691</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>48.00792918337162</c:v>
+                  <c:v>44.37965340181504</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>31.59283881646342</c:v>
+                  <c:v>22.67455971896079</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>33.1070780315972</c:v>
+                  <c:v>37.86169714211749</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>34.79460443816551</c:v>
+                  <c:v>41.79614382112379</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>46.67072384009563</c:v>
+                  <c:v>46.89542685644493</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>26.77112994822195</c:v>
+                  <c:v>21.99079707538657</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>22.42855735418052</c:v>
+                  <c:v>34.63212647589994</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>41.56827923257941</c:v>
+                  <c:v>39.30768734859186</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>35.39036478829544</c:v>
+                  <c:v>35.72392732089682</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>22.54631701283591</c:v>
+                  <c:v>42.52372826937928</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>49.26515432281101</c:v>
+                  <c:v>46.92147864995712</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>22.9301068319389</c:v>
+                  <c:v>31.49823780244953</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>20.65298907856255</c:v>
+                  <c:v>26.34478368462304</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>26.9118083798006</c:v>
+                  <c:v>22.24634606716904</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>25.39708445625952</c:v>
+                  <c:v>34.54135777330647</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>21.69837134755807</c:v>
+                  <c:v>24.91467105670048</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>33.24408683329244</c:v>
+                  <c:v>49.17131261283389</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>25.73695382116594</c:v>
+                  <c:v>25.04089706142801</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>20.71190392365274</c:v>
+                  <c:v>48.54890248068621</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>43.31576721677122</c:v>
+                  <c:v>49.54804613482372</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>34.76033807588449</c:v>
+                  <c:v>37.95210486755072</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>34.34778254449974</c:v>
+                  <c:v>34.1171560540112</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>43.03624439449511</c:v>
+                  <c:v>30.22715493226665</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>42.56114027390289</c:v>
+                  <c:v>38.2721325496727</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>45.85469421948602</c:v>
+                  <c:v>40.05589640766648</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>28.6997790438447</c:v>
+                  <c:v>43.00910658446792</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>25.1172462655583</c:v>
+                  <c:v>33.51692995754623</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>44.43822687703231</c:v>
+                  <c:v>45.92028414179168</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>23.24071551779556</c:v>
+                  <c:v>23.65158504235312</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>47.05490225939967</c:v>
+                  <c:v>24.26487995069563</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>29.20224847667605</c:v>
+                  <c:v>31.62333390781066</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>37.7885206276068</c:v>
+                  <c:v>27.30605170733878</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>28.02073215028308</c:v>
+                  <c:v>34.55615294939682</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>31.92333283677003</c:v>
+                  <c:v>21.1936237938373</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>29.13342104616553</c:v>
+                  <c:v>30.96942667715138</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>43.06326744764141</c:v>
+                  <c:v>38.06282141275959</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>22.84041745210299</c:v>
+                  <c:v>33.39906205074502</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>21.95839787926133</c:v>
+                  <c:v>29.81896251083168</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>25.77924127281915</c:v>
+                  <c:v>24.08727260751641</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>35.24726659400268</c:v>
+                  <c:v>23.61009558259297</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>24.93569747480665</c:v>
+                  <c:v>37.91019310956415</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>22.8299942181758</c:v>
+                  <c:v>34.29258704921702</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>33.43829041171388</c:v>
+                  <c:v>38.81170240616618</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>28.05191294123265</c:v>
+                  <c:v>49.81545448714261</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>42.07241173836366</c:v>
+                  <c:v>33.073543082788</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>49.41914674160547</c:v>
+                  <c:v>20.35187289214509</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>44.470232454333</c:v>
+                  <c:v>30.60112970670375</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>36.98928879391141</c:v>
+                  <c:v>36.30119695524621</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>36.65383431358242</c:v>
+                  <c:v>20.72427378240467</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1261,7 +1261,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="4">
-        <v>44712.36161354526</v>
+        <v>44713.15238124723</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -1272,10 +1272,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="5">
-        <v>98.72620350476791</v>
+        <v>17.41412075116687</v>
       </c>
       <c r="C3" s="5">
-        <v>32.69580419695862</v>
+        <v>45.43736772945083</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="25" customHeight="1">
@@ -1283,10 +1283,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="5">
-        <v>27.22926389728535</v>
+        <v>54.60577432838866</v>
       </c>
       <c r="C4" s="5">
-        <v>49.80186891045599</v>
+        <v>45.8666080715562</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="25" customHeight="1">
@@ -1294,10 +1294,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="5">
-        <v>41.05990245496798</v>
+        <v>32.86164982768997</v>
       </c>
       <c r="C5" s="5">
-        <v>21.09789530073936</v>
+        <v>24.0098534659312</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="25" customHeight="1">
@@ -1305,10 +1305,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="5">
-        <v>17.89814708767021</v>
+        <v>45.10819546828927</v>
       </c>
       <c r="C6" s="5">
-        <v>23.96395755953467</v>
+        <v>41.24982256404495</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="25" customHeight="1">
@@ -1316,10 +1316,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="5">
-        <v>13.17489252878773</v>
+        <v>63.82908239803041</v>
       </c>
       <c r="C7" s="5">
-        <v>39.20373836040556</v>
+        <v>34.79734256806742</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="25" customHeight="1">
@@ -1327,10 +1327,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="5">
-        <v>82.97071935149084</v>
+        <v>20.13544064450758</v>
       </c>
       <c r="C8" s="5">
-        <v>49.68374987647803</v>
+        <v>41.17640948390419</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="25" customHeight="1">
@@ -1338,10 +1338,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="5">
-        <v>31.96984392520621</v>
+        <v>21.86310839477903</v>
       </c>
       <c r="C9" s="5">
-        <v>21.19757523755762</v>
+        <v>42.96485127944659</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="25" customHeight="1">
@@ -1349,10 +1349,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="5">
-        <v>13.10875442090353</v>
+        <v>94.48320611846626</v>
       </c>
       <c r="C10" s="5">
-        <v>33.15033078654381</v>
+        <v>28.19312959773364</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="25" customHeight="1">
@@ -1360,10 +1360,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="5">
-        <v>12.73923625288</v>
+        <v>80.69824666770874</v>
       </c>
       <c r="C11" s="5">
-        <v>45.24183069190981</v>
+        <v>38.95494453891558</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="25" customHeight="1">
@@ -1371,10 +1371,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="5">
-        <v>75.15556363463044</v>
+        <v>91.55620961387433</v>
       </c>
       <c r="C12" s="5">
-        <v>30.26726974956695</v>
+        <v>44.4902096432379</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="25" customHeight="1">
@@ -1382,10 +1382,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="5">
-        <v>82.43129272195452</v>
+        <v>97.78253706071661</v>
       </c>
       <c r="C13" s="5">
-        <v>37.92452239368933</v>
+        <v>20.62176227303386</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="25" customHeight="1">
@@ -1393,10 +1393,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="5">
-        <v>29.31666389428934</v>
+        <v>11.75934627413885</v>
       </c>
       <c r="C14" s="5">
-        <v>41.70536556470998</v>
+        <v>34.29875536701547</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="25" customHeight="1">
@@ -1404,10 +1404,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="5">
-        <v>46.11801968223435</v>
+        <v>56.15501329933942</v>
       </c>
       <c r="C15" s="5">
-        <v>23.49329626653741</v>
+        <v>34.93141481235602</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="25" customHeight="1">
@@ -1415,10 +1415,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="5">
-        <v>70.38284409039076</v>
+        <v>53.57238442290854</v>
       </c>
       <c r="C16" s="5">
-        <v>21.72462560278191</v>
+        <v>26.13932539828897</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="25" customHeight="1">
@@ -1426,10 +1426,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="5">
-        <v>20.2976163994222</v>
+        <v>91.43897129128207</v>
       </c>
       <c r="C17" s="5">
-        <v>48.13899061692118</v>
+        <v>48.98218149376055</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="25" customHeight="1">
@@ -1437,10 +1437,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="5">
-        <v>56.42221213684174</v>
+        <v>64.52006515001406</v>
       </c>
       <c r="C18" s="5">
-        <v>47.76324008224983</v>
+        <v>41.81924243481902</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="25" customHeight="1">
@@ -1448,10 +1448,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="5">
-        <v>67.99814590013187</v>
+        <v>17.65318517227427</v>
       </c>
       <c r="C19" s="5">
-        <v>33.94463653678061</v>
+        <v>39.68323167812477</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="25" customHeight="1">
@@ -1459,10 +1459,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="5">
-        <v>79.00992656102609</v>
+        <v>80.71547237803348</v>
       </c>
       <c r="C20" s="5">
-        <v>26.58998036531401</v>
+        <v>33.42095993706862</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="25" customHeight="1">
@@ -1470,10 +1470,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="5">
-        <v>69.62571144669568</v>
+        <v>48.92119824402967</v>
       </c>
       <c r="C21" s="5">
-        <v>26.24724097613291</v>
+        <v>42.14185221231942</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="25" customHeight="1">
@@ -1481,10 +1481,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="5">
-        <v>67.37820779100397</v>
+        <v>34.39932692182817</v>
       </c>
       <c r="C22" s="5">
-        <v>43.92661118584243</v>
+        <v>21.62283881861835</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="25" customHeight="1">
@@ -1492,10 +1492,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="5">
-        <v>13.36582550464268</v>
+        <v>98.33135724503627</v>
       </c>
       <c r="C23" s="5">
-        <v>26.14181751167408</v>
+        <v>36.2506357945379</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="25" customHeight="1">
@@ -1503,10 +1503,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="5">
-        <v>60.8234200191268</v>
+        <v>54.82883459397822</v>
       </c>
       <c r="C24" s="5">
-        <v>38.49301357021946</v>
+        <v>32.31804479188378</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="25" customHeight="1">
@@ -1514,10 +1514,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="5">
-        <v>93.59764040899913</v>
+        <v>25.7073872406811</v>
       </c>
       <c r="C25" s="5">
-        <v>27.87357298358693</v>
+        <v>21.4447060622322</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="25" customHeight="1">
@@ -1525,10 +1525,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="5">
-        <v>17.67850434481169</v>
+        <v>13.35705141999135</v>
       </c>
       <c r="C26" s="5">
-        <v>36.45988975645228</v>
+        <v>27.75153514620848</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="25" customHeight="1">
@@ -1536,10 +1536,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="5">
-        <v>30.85437914639758</v>
+        <v>28.70460938511786</v>
       </c>
       <c r="C27" s="5">
-        <v>27.71086171059332</v>
+        <v>23.16740210817215</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="25" customHeight="1">
@@ -1547,10 +1547,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="5">
-        <v>44.2309058410931</v>
+        <v>22.98766606747883</v>
       </c>
       <c r="C28" s="5">
-        <v>34.35887394066489</v>
+        <v>39.28925655090516</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="25" customHeight="1">
@@ -1558,10 +1558,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="5">
-        <v>60.45594175480065</v>
+        <v>35.02669319566701</v>
       </c>
       <c r="C29" s="5">
-        <v>33.70405557824918</v>
+        <v>35.97711382703811</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="25" customHeight="1">
@@ -1569,10 +1569,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="5">
-        <v>47.43025931122958</v>
+        <v>65.57505777090424</v>
       </c>
       <c r="C30" s="5">
-        <v>42.41882500146655</v>
+        <v>35.1987009457011</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="25" customHeight="1">
@@ -1580,10 +1580,10 @@
         <v>29</v>
       </c>
       <c r="B31" s="5">
-        <v>11.63280732905356</v>
+        <v>31.05835146002052</v>
       </c>
       <c r="C31" s="5">
-        <v>38.82895940584911</v>
+        <v>44.21963973386097</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="25" customHeight="1">
@@ -1591,10 +1591,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="5">
-        <v>34.71298857061812</v>
+        <v>85.98928913734376</v>
       </c>
       <c r="C32" s="5">
-        <v>41.8316738676377</v>
+        <v>44.33713497794149</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="25" customHeight="1">
@@ -1602,10 +1602,10 @@
         <v>31</v>
       </c>
       <c r="B33" s="5">
-        <v>62.55030592070987</v>
+        <v>41.10631464038931</v>
       </c>
       <c r="C33" s="5">
-        <v>29.13764254857753</v>
+        <v>38.10214688250489</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="25" customHeight="1">
@@ -1613,10 +1613,10 @@
         <v>32</v>
       </c>
       <c r="B34" s="5">
-        <v>88.59312678822857</v>
+        <v>43.148350074906</v>
       </c>
       <c r="C34" s="5">
-        <v>45.98121247404963</v>
+        <v>45.40149935353156</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="25" customHeight="1">
@@ -1624,10 +1624,10 @@
         <v>33</v>
       </c>
       <c r="B35" s="5">
-        <v>70.15034583155679</v>
+        <v>98.51337457495354</v>
       </c>
       <c r="C35" s="5">
-        <v>35.96206469415254</v>
+        <v>30.52909785175164</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="25" customHeight="1">
@@ -1635,10 +1635,10 @@
         <v>34</v>
       </c>
       <c r="B36" s="5">
-        <v>20.92263509826043</v>
+        <v>82.66776467175059</v>
       </c>
       <c r="C36" s="5">
-        <v>30.28706775568257</v>
+        <v>46.60067387685232</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="25" customHeight="1">
@@ -1646,10 +1646,10 @@
         <v>35</v>
       </c>
       <c r="B37" s="5">
-        <v>46.07899945570743</v>
+        <v>88.92917386827921</v>
       </c>
       <c r="C37" s="5">
-        <v>49.43163452496906</v>
+        <v>41.4853003773641</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="25" customHeight="1">
@@ -1657,10 +1657,10 @@
         <v>36</v>
       </c>
       <c r="B38" s="5">
-        <v>45.02867551851094</v>
+        <v>63.3801328420361</v>
       </c>
       <c r="C38" s="5">
-        <v>21.46550533331953</v>
+        <v>23.94506701187959</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="25" customHeight="1">
@@ -1668,10 +1668,10 @@
         <v>37</v>
       </c>
       <c r="B39" s="5">
-        <v>69.15032458957367</v>
+        <v>48.26747630574906</v>
       </c>
       <c r="C39" s="5">
-        <v>28.38740172419521</v>
+        <v>21.53440175997565</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="25" customHeight="1">
@@ -1679,10 +1679,10 @@
         <v>38</v>
       </c>
       <c r="B40" s="5">
-        <v>10.62379872166837</v>
+        <v>88.49206632655904</v>
       </c>
       <c r="C40" s="5">
-        <v>45.09679762713749</v>
+        <v>46.5310341799087</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="25" customHeight="1">
@@ -1690,10 +1690,10 @@
         <v>39</v>
       </c>
       <c r="B41" s="5">
-        <v>70.30902228316052</v>
+        <v>37.80926247621932</v>
       </c>
       <c r="C41" s="5">
-        <v>35.83391585562021</v>
+        <v>41.49630520223178</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="25" customHeight="1">
@@ -1701,10 +1701,10 @@
         <v>40</v>
       </c>
       <c r="B42" s="5">
-        <v>98.06709692499282</v>
+        <v>37.26275589556938</v>
       </c>
       <c r="C42" s="5">
-        <v>38.17660634199964</v>
+        <v>21.61588730149817</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="25" customHeight="1">
@@ -1712,10 +1712,10 @@
         <v>41</v>
       </c>
       <c r="B43" s="5">
-        <v>38.31555890481265</v>
+        <v>74.91213601594797</v>
       </c>
       <c r="C43" s="5">
-        <v>24.61356320247712</v>
+        <v>28.02741755691645</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="25" customHeight="1">
@@ -1723,10 +1723,10 @@
         <v>42</v>
       </c>
       <c r="B44" s="5">
-        <v>14.32637675162228</v>
+        <v>31.6165898682456</v>
       </c>
       <c r="C44" s="5">
-        <v>43.27559693309289</v>
+        <v>23.65231198195699</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="25" customHeight="1">
@@ -1734,10 +1734,10 @@
         <v>43</v>
       </c>
       <c r="B45" s="5">
-        <v>35.57152412580098</v>
+        <v>67.04405583483305</v>
       </c>
       <c r="C45" s="5">
-        <v>42.87851453282855</v>
+        <v>44.33441388492212</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="25" customHeight="1">
@@ -1745,10 +1745,10 @@
         <v>44</v>
       </c>
       <c r="B46" s="5">
-        <v>57.37758075479942</v>
+        <v>87.04856714936163</v>
       </c>
       <c r="C46" s="5">
-        <v>32.30533571996015</v>
+        <v>27.43844416014642</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="25" customHeight="1">
@@ -1756,10 +1756,10 @@
         <v>45</v>
       </c>
       <c r="B47" s="5">
-        <v>94.44058930456649</v>
+        <v>17.10437657849702</v>
       </c>
       <c r="C47" s="5">
-        <v>37.81947497423334</v>
+        <v>36.46152276682773</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="25" customHeight="1">
@@ -1767,10 +1767,10 @@
         <v>46</v>
       </c>
       <c r="B48" s="5">
-        <v>79.0243117699416</v>
+        <v>89.21197152763422</v>
       </c>
       <c r="C48" s="5">
-        <v>25.3755627993019</v>
+        <v>35.80825970841263</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="25" customHeight="1">
@@ -1778,10 +1778,10 @@
         <v>47</v>
       </c>
       <c r="B49" s="5">
-        <v>39.11938703817275</v>
+        <v>65.62184915132931</v>
       </c>
       <c r="C49" s="5">
-        <v>48.94551603163349</v>
+        <v>44.27688573004824</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="25" customHeight="1">
@@ -1789,10 +1789,10 @@
         <v>48</v>
       </c>
       <c r="B50" s="5">
-        <v>28.36255217530812</v>
+        <v>85.01080662013995</v>
       </c>
       <c r="C50" s="5">
-        <v>29.4006100061474</v>
+        <v>27.21325543635639</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="25" customHeight="1">
@@ -1800,10 +1800,10 @@
         <v>49</v>
       </c>
       <c r="B51" s="5">
-        <v>78.12946291812895</v>
+        <v>96.88734424569662</v>
       </c>
       <c r="C51" s="5">
-        <v>34.96178962513394</v>
+        <v>49.91720004482544</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="25" customHeight="1">
@@ -1811,10 +1811,10 @@
         <v>50</v>
       </c>
       <c r="B52" s="5">
-        <v>47.61216535711191</v>
+        <v>15.24630803519446</v>
       </c>
       <c r="C52" s="5">
-        <v>20.58645309584385</v>
+        <v>45.45173293704691</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="25" customHeight="1">
@@ -1822,10 +1822,10 @@
         <v>51</v>
       </c>
       <c r="B53" s="5">
-        <v>68.35017485220834</v>
+        <v>69.27686106446912</v>
       </c>
       <c r="C53" s="5">
-        <v>48.00792918337162</v>
+        <v>44.37965340181504</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="25" customHeight="1">
@@ -1833,10 +1833,10 @@
         <v>52</v>
       </c>
       <c r="B54" s="5">
-        <v>40.71933055074788</v>
+        <v>27.92181186681905</v>
       </c>
       <c r="C54" s="5">
-        <v>31.59283881646342</v>
+        <v>22.67455971896079</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="25" customHeight="1">
@@ -1844,10 +1844,10 @@
         <v>53</v>
       </c>
       <c r="B55" s="5">
-        <v>40.23630200141083</v>
+        <v>96.43310225971372</v>
       </c>
       <c r="C55" s="5">
-        <v>33.1070780315972</v>
+        <v>37.86169714211749</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="25" customHeight="1">
@@ -1855,10 +1855,10 @@
         <v>54</v>
       </c>
       <c r="B56" s="5">
-        <v>19.6422662064464</v>
+        <v>85.10661832200449</v>
       </c>
       <c r="C56" s="5">
-        <v>34.79460443816551</v>
+        <v>41.79614382112379</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="25" customHeight="1">
@@ -1866,10 +1866,10 @@
         <v>55</v>
       </c>
       <c r="B57" s="5">
-        <v>10.57001543186032</v>
+        <v>58.22746212134533</v>
       </c>
       <c r="C57" s="5">
-        <v>46.67072384009563</v>
+        <v>46.89542685644493</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="25" customHeight="1">
@@ -1877,10 +1877,10 @@
         <v>56</v>
       </c>
       <c r="B58" s="5">
-        <v>19.77831818538166</v>
+        <v>93.22123700918986</v>
       </c>
       <c r="C58" s="5">
-        <v>26.77112994822195</v>
+        <v>21.99079707538657</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="25" customHeight="1">
@@ -1888,10 +1888,10 @@
         <v>57</v>
       </c>
       <c r="B59" s="5">
-        <v>91.88072541269052</v>
+        <v>74.75789317351305</v>
       </c>
       <c r="C59" s="5">
-        <v>22.42855735418052</v>
+        <v>34.63212647589994</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="25" customHeight="1">
@@ -1899,10 +1899,10 @@
         <v>58</v>
       </c>
       <c r="B60" s="5">
-        <v>96.67101680860969</v>
+        <v>45.23290926661142</v>
       </c>
       <c r="C60" s="5">
-        <v>41.56827923257941</v>
+        <v>39.30768734859186</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="25" customHeight="1">
@@ -1910,10 +1910,10 @@
         <v>59</v>
       </c>
       <c r="B61" s="5">
-        <v>88.94398285129422</v>
+        <v>60.41601511402811</v>
       </c>
       <c r="C61" s="5">
-        <v>35.39036478829544</v>
+        <v>35.72392732089682</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="25" customHeight="1">
@@ -1921,10 +1921,10 @@
         <v>60</v>
       </c>
       <c r="B62" s="5">
-        <v>23.00379425707998</v>
+        <v>77.96809498895173</v>
       </c>
       <c r="C62" s="5">
-        <v>22.54631701283591</v>
+        <v>42.52372826937928</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="25" customHeight="1">
@@ -1932,10 +1932,10 @@
         <v>61</v>
       </c>
       <c r="B63" s="5">
-        <v>92.13251305394634</v>
+        <v>65.34078159423765</v>
       </c>
       <c r="C63" s="5">
-        <v>49.26515432281101</v>
+        <v>46.92147864995712</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="25" customHeight="1">
@@ -1943,10 +1943,10 @@
         <v>62</v>
       </c>
       <c r="B64" s="5">
-        <v>52.33685588958648</v>
+        <v>20.7098834135634</v>
       </c>
       <c r="C64" s="5">
-        <v>22.9301068319389</v>
+        <v>31.49823780244953</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="25" customHeight="1">
@@ -1954,10 +1954,10 @@
         <v>63</v>
       </c>
       <c r="B65" s="5">
-        <v>60.66044048513264</v>
+        <v>51.46918279483572</v>
       </c>
       <c r="C65" s="5">
-        <v>20.65298907856255</v>
+        <v>26.34478368462304</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="25" customHeight="1">
@@ -1965,10 +1965,10 @@
         <v>64</v>
       </c>
       <c r="B66" s="5">
-        <v>67.75413305448572</v>
+        <v>68.04748780438229</v>
       </c>
       <c r="C66" s="5">
-        <v>26.9118083798006</v>
+        <v>22.24634606716904</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="25" customHeight="1">
@@ -1976,10 +1976,10 @@
         <v>65</v>
       </c>
       <c r="B67" s="5">
-        <v>98.80703693281464</v>
+        <v>66.55121123946293</v>
       </c>
       <c r="C67" s="5">
-        <v>25.39708445625952</v>
+        <v>34.54135777330647</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="25" customHeight="1">
@@ -1987,10 +1987,10 @@
         <v>66</v>
       </c>
       <c r="B68" s="5">
-        <v>92.63605262105231</v>
+        <v>66.32398802887391</v>
       </c>
       <c r="C68" s="5">
-        <v>21.69837134755807</v>
+        <v>24.91467105670048</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="25" customHeight="1">
@@ -1998,10 +1998,10 @@
         <v>67</v>
       </c>
       <c r="B69" s="5">
-        <v>89.42070303686829</v>
+        <v>41.81190575922527</v>
       </c>
       <c r="C69" s="5">
-        <v>33.24408683329244</v>
+        <v>49.17131261283389</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="25" customHeight="1">
@@ -2009,10 +2009,10 @@
         <v>68</v>
       </c>
       <c r="B70" s="5">
-        <v>58.54740910524733</v>
+        <v>55.44928739336507</v>
       </c>
       <c r="C70" s="5">
-        <v>25.73695382116594</v>
+        <v>25.04089706142801</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="25" customHeight="1">
@@ -2020,10 +2020,10 @@
         <v>69</v>
       </c>
       <c r="B71" s="5">
-        <v>19.12733042307109</v>
+        <v>47.57134140166727</v>
       </c>
       <c r="C71" s="5">
-        <v>20.71190392365274</v>
+        <v>48.54890248068621</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="25" customHeight="1">
@@ -2031,10 +2031,10 @@
         <v>70</v>
       </c>
       <c r="B72" s="5">
-        <v>78.91911346923176</v>
+        <v>71.88168214230734</v>
       </c>
       <c r="C72" s="5">
-        <v>43.31576721677122</v>
+        <v>49.54804613482372</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="25" customHeight="1">
@@ -2042,10 +2042,10 @@
         <v>71</v>
       </c>
       <c r="B73" s="5">
-        <v>27.63273321533393</v>
+        <v>84.94527735370484</v>
       </c>
       <c r="C73" s="5">
-        <v>34.76033807588449</v>
+        <v>37.95210486755072</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="25" customHeight="1">
@@ -2053,10 +2053,10 @@
         <v>72</v>
       </c>
       <c r="B74" s="5">
-        <v>35.63991644046332</v>
+        <v>46.30009680049713</v>
       </c>
       <c r="C74" s="5">
-        <v>34.34778254449974</v>
+        <v>34.1171560540112</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="25" customHeight="1">
@@ -2064,10 +2064,10 @@
         <v>73</v>
       </c>
       <c r="B75" s="5">
-        <v>46.22800334008042</v>
+        <v>82.25062356421014</v>
       </c>
       <c r="C75" s="5">
-        <v>43.03624439449511</v>
+        <v>30.22715493226665</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="25" customHeight="1">
@@ -2075,10 +2075,10 @@
         <v>74</v>
       </c>
       <c r="B76" s="5">
-        <v>58.39275056849316</v>
+        <v>45.22017028672904</v>
       </c>
       <c r="C76" s="5">
-        <v>42.56114027390289</v>
+        <v>38.2721325496727</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="25" customHeight="1">
@@ -2086,10 +2086,10 @@
         <v>75</v>
       </c>
       <c r="B77" s="5">
-        <v>23.23660224076547</v>
+        <v>13.31953595450318</v>
       </c>
       <c r="C77" s="5">
-        <v>45.85469421948602</v>
+        <v>40.05589640766648</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="25" customHeight="1">
@@ -2097,10 +2097,10 @@
         <v>76</v>
       </c>
       <c r="B78" s="5">
-        <v>84.31567985330052</v>
+        <v>32.08805570836807</v>
       </c>
       <c r="C78" s="5">
-        <v>28.6997790438447</v>
+        <v>43.00910658446792</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="25" customHeight="1">
@@ -2108,10 +2108,10 @@
         <v>77</v>
       </c>
       <c r="B79" s="5">
-        <v>72.56219933823742</v>
+        <v>75.13263231436133</v>
       </c>
       <c r="C79" s="5">
-        <v>25.1172462655583</v>
+        <v>33.51692995754623</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="25" customHeight="1">
@@ -2119,10 +2119,10 @@
         <v>78</v>
       </c>
       <c r="B80" s="5">
-        <v>71.75726166492065</v>
+        <v>41.86510406680362</v>
       </c>
       <c r="C80" s="5">
-        <v>44.43822687703231</v>
+        <v>45.92028414179168</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="25" customHeight="1">
@@ -2130,10 +2130,10 @@
         <v>79</v>
       </c>
       <c r="B81" s="5">
-        <v>15.12021160294686</v>
+        <v>61.8289816756105</v>
       </c>
       <c r="C81" s="5">
-        <v>23.24071551779556</v>
+        <v>23.65158504235312</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="25" customHeight="1">
@@ -2141,10 +2141,10 @@
         <v>80</v>
       </c>
       <c r="B82" s="5">
-        <v>35.00100474539818</v>
+        <v>62.44348791533223</v>
       </c>
       <c r="C82" s="5">
-        <v>47.05490225939967</v>
+        <v>24.26487995069563</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="25" customHeight="1">
@@ -2152,10 +2152,10 @@
         <v>81</v>
       </c>
       <c r="B83" s="5">
-        <v>90.4261574952376</v>
+        <v>36.89876136965296</v>
       </c>
       <c r="C83" s="5">
-        <v>29.20224847667605</v>
+        <v>31.62333390781066</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="25" customHeight="1">
@@ -2163,10 +2163,10 @@
         <v>82</v>
       </c>
       <c r="B84" s="5">
-        <v>78.97851150868553</v>
+        <v>87.76967977561476</v>
       </c>
       <c r="C84" s="5">
-        <v>37.7885206276068</v>
+        <v>27.30605170733878</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="25" customHeight="1">
@@ -2174,10 +2174,10 @@
         <v>83</v>
       </c>
       <c r="B85" s="5">
-        <v>27.44391066563944</v>
+        <v>99.62727575083916</v>
       </c>
       <c r="C85" s="5">
-        <v>28.02073215028308</v>
+        <v>34.55615294939682</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="25" customHeight="1">
@@ -2185,10 +2185,10 @@
         <v>84</v>
       </c>
       <c r="B86" s="5">
-        <v>59.7188330948894</v>
+        <v>83.88200239211103</v>
       </c>
       <c r="C86" s="5">
-        <v>31.92333283677003</v>
+        <v>21.1936237938373</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="25" customHeight="1">
@@ -2196,10 +2196,10 @@
         <v>85</v>
       </c>
       <c r="B87" s="5">
-        <v>99.43248600081122</v>
+        <v>25.53455234078083</v>
       </c>
       <c r="C87" s="5">
-        <v>29.13342104616553</v>
+        <v>30.96942667715138</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="25" customHeight="1">
@@ -2207,10 +2207,10 @@
         <v>86</v>
       </c>
       <c r="B88" s="5">
-        <v>30.25206774569718</v>
+        <v>81.07460486078175</v>
       </c>
       <c r="C88" s="5">
-        <v>43.06326744764141</v>
+        <v>38.06282141275959</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="25" customHeight="1">
@@ -2218,10 +2218,10 @@
         <v>87</v>
       </c>
       <c r="B89" s="5">
-        <v>60.47580608562649</v>
+        <v>14.22598457438631</v>
       </c>
       <c r="C89" s="5">
-        <v>22.84041745210299</v>
+        <v>33.39906205074502</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="25" customHeight="1">
@@ -2229,10 +2229,10 @@
         <v>88</v>
       </c>
       <c r="B90" s="5">
-        <v>55.6024458570828</v>
+        <v>49.01703443424642</v>
       </c>
       <c r="C90" s="5">
-        <v>21.95839787926133</v>
+        <v>29.81896251083168</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="25" customHeight="1">
@@ -2240,10 +2240,10 @@
         <v>89</v>
       </c>
       <c r="B91" s="5">
-        <v>63.58797412984399</v>
+        <v>74.85049957508537</v>
       </c>
       <c r="C91" s="5">
-        <v>25.77924127281915</v>
+        <v>24.08727260751641</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="25" customHeight="1">
@@ -2251,10 +2251,10 @@
         <v>90</v>
       </c>
       <c r="B92" s="5">
-        <v>65.95538656208745</v>
+        <v>89.02064753963727</v>
       </c>
       <c r="C92" s="5">
-        <v>35.24726659400268</v>
+        <v>23.61009558259297</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="25" customHeight="1">
@@ -2262,10 +2262,10 @@
         <v>91</v>
       </c>
       <c r="B93" s="5">
-        <v>26.97336712854953</v>
+        <v>61.49618711468226</v>
       </c>
       <c r="C93" s="5">
-        <v>24.93569747480665</v>
+        <v>37.91019310956415</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="25" customHeight="1">
@@ -2273,10 +2273,10 @@
         <v>92</v>
       </c>
       <c r="B94" s="5">
-        <v>82.36675056441304</v>
+        <v>12.39080528749609</v>
       </c>
       <c r="C94" s="5">
-        <v>22.8299942181758</v>
+        <v>34.29258704921702</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="25" customHeight="1">
@@ -2284,10 +2284,10 @@
         <v>93</v>
       </c>
       <c r="B95" s="5">
-        <v>83.89285788818198</v>
+        <v>44.83938569763383</v>
       </c>
       <c r="C95" s="5">
-        <v>33.43829041171388</v>
+        <v>38.81170240616618</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="25" customHeight="1">
@@ -2295,10 +2295,10 @@
         <v>94</v>
       </c>
       <c r="B96" s="5">
-        <v>15.91550211097665</v>
+        <v>49.12720288395594</v>
       </c>
       <c r="C96" s="5">
-        <v>28.05191294123265</v>
+        <v>49.81545448714261</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="25" customHeight="1">
@@ -2306,10 +2306,10 @@
         <v>95</v>
       </c>
       <c r="B97" s="5">
-        <v>49.74644874285806</v>
+        <v>99.44966630979218</v>
       </c>
       <c r="C97" s="5">
-        <v>42.07241173836366</v>
+        <v>33.073543082788</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="25" customHeight="1">
@@ -2317,10 +2317,10 @@
         <v>96</v>
       </c>
       <c r="B98" s="5">
-        <v>73.81327828238437</v>
+        <v>78.03935535127388</v>
       </c>
       <c r="C98" s="5">
-        <v>49.41914674160547</v>
+        <v>20.35187289214509</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="25" customHeight="1">
@@ -2328,10 +2328,10 @@
         <v>97</v>
       </c>
       <c r="B99" s="5">
-        <v>80.77947170103995</v>
+        <v>15.93430327984005</v>
       </c>
       <c r="C99" s="5">
-        <v>44.470232454333</v>
+        <v>30.60112970670375</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="25" customHeight="1">
@@ -2339,10 +2339,10 @@
         <v>98</v>
       </c>
       <c r="B100" s="5">
-        <v>97.70144453413602</v>
+        <v>13.7737350655745</v>
       </c>
       <c r="C100" s="5">
-        <v>36.98928879391141</v>
+        <v>36.30119695524621</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="25" customHeight="1">
@@ -2350,10 +2350,10 @@
         <v>99</v>
       </c>
       <c r="B101" s="5">
-        <v>91.37028887895875</v>
+        <v>60.61205298646618</v>
       </c>
       <c r="C101" s="5">
-        <v>36.65383431358242</v>
+        <v>20.72427378240467</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="25" customHeight="1">
@@ -2361,10 +2361,10 @@
         <v>100</v>
       </c>
       <c r="B102" s="5">
-        <v>82.04092612672157</v>
+        <v>60.92513752710239</v>
       </c>
       <c r="C102" s="5">
-        <v>28.79417040288597</v>
+        <v>29.31457584859837</v>
       </c>
     </row>
   </sheetData>

--- a/demo.xlsx
+++ b/demo.xlsx
@@ -195,301 +195,301 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17.41412075116687</c:v>
+                  <c:v>39.23577335698774</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>54.60577432838866</c:v>
+                  <c:v>72.63286427042766</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>32.86164982768997</c:v>
+                  <c:v>85.48944977156091</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45.10819546828927</c:v>
+                  <c:v>66.27414717165985</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>63.82908239803041</c:v>
+                  <c:v>57.2292030243832</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>20.13544064450758</c:v>
+                  <c:v>81.21516868631056</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>21.86310839477903</c:v>
+                  <c:v>72.75954081781677</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>94.48320611846626</c:v>
+                  <c:v>67.10691517594549</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>80.69824666770874</c:v>
+                  <c:v>33.08534125355068</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>91.55620961387433</c:v>
+                  <c:v>84.19501281251148</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>97.78253706071661</c:v>
+                  <c:v>21.18723951678372</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>11.75934627413885</c:v>
+                  <c:v>46.72077180121665</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>56.15501329933942</c:v>
+                  <c:v>41.30944801969044</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>53.57238442290854</c:v>
+                  <c:v>91.06611566395077</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>91.43897129128207</c:v>
+                  <c:v>99.44301849449825</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>64.52006515001406</c:v>
+                  <c:v>76.41387318566319</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>17.65318517227427</c:v>
+                  <c:v>87.08676561992904</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>80.71547237803348</c:v>
+                  <c:v>43.64581803335272</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>48.92119824402967</c:v>
+                  <c:v>75.07158429322878</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>34.39932692182817</c:v>
+                  <c:v>29.36747211147364</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>98.33135724503627</c:v>
+                  <c:v>86.03807922132282</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>54.82883459397822</c:v>
+                  <c:v>79.6352259360348</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>25.7073872406811</c:v>
+                  <c:v>45.79773588904153</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>13.35705141999135</c:v>
+                  <c:v>30.82711705665798</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>28.70460938511786</c:v>
+                  <c:v>98.15933428582757</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>22.98766606747883</c:v>
+                  <c:v>17.79088403153667</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>35.02669319566701</c:v>
+                  <c:v>81.94773652082075</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>65.57505777090424</c:v>
+                  <c:v>52.3012613198811</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>31.05835146002052</c:v>
+                  <c:v>57.76705934511367</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>85.98928913734376</c:v>
+                  <c:v>28.36984480130013</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>41.10631464038931</c:v>
+                  <c:v>33.24156835964375</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>43.148350074906</c:v>
+                  <c:v>52.17883815289062</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>98.51337457495354</c:v>
+                  <c:v>99.45078309691065</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>82.66776467175059</c:v>
+                  <c:v>98.97000981774599</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>88.92917386827921</c:v>
+                  <c:v>92.77679089706085</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>63.3801328420361</c:v>
+                  <c:v>32.15435895003607</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>48.26747630574906</c:v>
+                  <c:v>26.31033094094217</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>88.49206632655904</c:v>
+                  <c:v>68.80863687596985</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>37.80926247621932</c:v>
+                  <c:v>24.57239170136759</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>37.26275589556938</c:v>
+                  <c:v>78.63197696252621</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>74.91213601594797</c:v>
+                  <c:v>73.58012591613694</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>31.6165898682456</c:v>
+                  <c:v>74.2664007906116</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>67.04405583483305</c:v>
+                  <c:v>24.55499502446218</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>87.04856714936163</c:v>
+                  <c:v>14.79394827326041</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>17.10437657849702</c:v>
+                  <c:v>63.61967702743886</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>89.21197152763422</c:v>
+                  <c:v>49.14570799301205</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>65.62184915132931</c:v>
+                  <c:v>47.53312286378706</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>85.01080662013995</c:v>
+                  <c:v>18.94494359783769</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>96.88734424569662</c:v>
+                  <c:v>25.515722229359</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>15.24630803519446</c:v>
+                  <c:v>31.77069605357499</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>69.27686106446912</c:v>
+                  <c:v>32.90011927135303</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>27.92181186681905</c:v>
+                  <c:v>33.06782993410243</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>96.43310225971372</c:v>
+                  <c:v>72.11066240882823</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>85.10661832200449</c:v>
+                  <c:v>18.30710781394842</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>58.22746212134533</c:v>
+                  <c:v>85.18471671809408</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>93.22123700918986</c:v>
+                  <c:v>17.76924925467925</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>74.75789317351305</c:v>
+                  <c:v>25.22775356497635</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>45.23290926661142</c:v>
+                  <c:v>25.6590116241461</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>60.41601511402811</c:v>
+                  <c:v>65.06902504046577</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>77.96809498895173</c:v>
+                  <c:v>84.15574674734648</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>65.34078159423765</c:v>
+                  <c:v>71.92361873116853</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>20.7098834135634</c:v>
+                  <c:v>61.11590107076167</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>51.46918279483572</c:v>
+                  <c:v>92.45551298503655</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>68.04748780438229</c:v>
+                  <c:v>52.31069226651419</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>66.55121123946293</c:v>
+                  <c:v>12.93560575858206</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>66.32398802887391</c:v>
+                  <c:v>83.48408408285165</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>41.81190575922527</c:v>
+                  <c:v>82.56645222691333</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>55.44928739336507</c:v>
+                  <c:v>82.75906502289928</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>47.57134140166727</c:v>
+                  <c:v>95.97865688784393</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>71.88168214230734</c:v>
+                  <c:v>31.96019631585754</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>84.94527735370484</c:v>
+                  <c:v>90.87687537356645</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>46.30009680049713</c:v>
+                  <c:v>55.75987911330556</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>82.25062356421014</c:v>
+                  <c:v>45.51763941169909</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>45.22017028672904</c:v>
+                  <c:v>14.29042509217282</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>13.31953595450318</c:v>
+                  <c:v>76.17623467420484</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>32.08805570836807</c:v>
+                  <c:v>75.44710850267617</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>75.13263231436133</c:v>
+                  <c:v>26.75451761951918</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>41.86510406680362</c:v>
+                  <c:v>59.66255752448487</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>61.8289816756105</c:v>
+                  <c:v>54.38090923712026</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>62.44348791533223</c:v>
+                  <c:v>30.89580250028337</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>36.89876136965296</c:v>
+                  <c:v>91.75111469592856</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>87.76967977561476</c:v>
+                  <c:v>10.4680778381256</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>99.62727575083916</c:v>
+                  <c:v>56.10115954983888</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>83.88200239211103</c:v>
+                  <c:v>20.29471488309852</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>25.53455234078083</c:v>
+                  <c:v>77.06430274114601</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>81.07460486078175</c:v>
+                  <c:v>75.78646766211354</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>14.22598457438631</c:v>
+                  <c:v>41.18284040293024</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>49.01703443424642</c:v>
+                  <c:v>24.68900822108959</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>74.85049957508537</c:v>
+                  <c:v>14.97319825809191</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>89.02064753963727</c:v>
+                  <c:v>41.77470635473715</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>61.49618711468226</c:v>
+                  <c:v>33.7577822330725</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>12.39080528749609</c:v>
+                  <c:v>35.95925633064175</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>44.83938569763383</c:v>
+                  <c:v>26.61164797653343</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>49.12720288395594</c:v>
+                  <c:v>90.60950945895202</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>99.44966630979218</c:v>
+                  <c:v>84.85104654073244</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>78.03935535127388</c:v>
+                  <c:v>58.38765191096734</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>15.93430327984005</c:v>
+                  <c:v>80.17905368822136</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>13.7737350655745</c:v>
+                  <c:v>75.82735267104459</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>60.61205298646618</c:v>
+                  <c:v>19.34325286952254</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -522,301 +522,301 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45.43736772945083</c:v>
+                  <c:v>47.04018127435583</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45.8666080715562</c:v>
+                  <c:v>42.18823360448647</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24.0098534659312</c:v>
+                  <c:v>23.14312885621474</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41.24982256404495</c:v>
+                  <c:v>46.62322222228221</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>34.79734256806742</c:v>
+                  <c:v>31.55686033938803</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>41.17640948390419</c:v>
+                  <c:v>20.72936827207329</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42.96485127944659</c:v>
+                  <c:v>20.08180396884948</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>28.19312959773364</c:v>
+                  <c:v>39.92294883566078</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>38.95494453891558</c:v>
+                  <c:v>28.94569384900687</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44.4902096432379</c:v>
+                  <c:v>39.97081034356781</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>20.62176227303386</c:v>
+                  <c:v>38.49597365175428</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>34.29875536701547</c:v>
+                  <c:v>38.3279215307469</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>34.93141481235602</c:v>
+                  <c:v>35.74057748598389</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>26.13932539828897</c:v>
+                  <c:v>46.23223490546113</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>48.98218149376055</c:v>
+                  <c:v>27.94081876111392</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>41.81924243481902</c:v>
+                  <c:v>24.24461985365533</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>39.68323167812477</c:v>
+                  <c:v>44.56512519598101</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>33.42095993706862</c:v>
+                  <c:v>24.03130894695769</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>42.14185221231942</c:v>
+                  <c:v>47.42177104118579</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>21.62283881861835</c:v>
+                  <c:v>48.25593746134354</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>36.2506357945379</c:v>
+                  <c:v>31.55723323540839</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>32.31804479188378</c:v>
+                  <c:v>40.32737443126655</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>21.4447060622322</c:v>
+                  <c:v>27.63845927973157</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>27.75153514620848</c:v>
+                  <c:v>29.36642243333629</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>23.16740210817215</c:v>
+                  <c:v>22.31389116642872</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>39.28925655090516</c:v>
+                  <c:v>42.04875835987896</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>35.97711382703811</c:v>
+                  <c:v>41.68085143190629</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>35.1987009457011</c:v>
+                  <c:v>40.98314813143119</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>44.21963973386097</c:v>
+                  <c:v>48.51142283063849</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>44.33713497794149</c:v>
+                  <c:v>37.5423529742573</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>38.10214688250489</c:v>
+                  <c:v>23.28958550639066</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>45.40149935353156</c:v>
+                  <c:v>20.92365008687104</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>30.52909785175164</c:v>
+                  <c:v>20.69627691745803</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>46.60067387685232</c:v>
+                  <c:v>25.51451589045954</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>41.4853003773641</c:v>
+                  <c:v>33.26000973825369</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>23.94506701187959</c:v>
+                  <c:v>26.41481369817257</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>21.53440175997565</c:v>
+                  <c:v>27.53140559713896</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>46.5310341799087</c:v>
+                  <c:v>44.07275859048771</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>41.49630520223178</c:v>
+                  <c:v>29.57546019842502</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>21.61588730149817</c:v>
+                  <c:v>43.67222380401253</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>28.02741755691645</c:v>
+                  <c:v>26.05291692331841</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>23.65231198195699</c:v>
+                  <c:v>30.54460383841781</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>44.33441388492212</c:v>
+                  <c:v>24.03136433009995</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>27.43844416014642</c:v>
+                  <c:v>27.87268538819498</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>36.46152276682773</c:v>
+                  <c:v>32.79120428066491</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>35.80825970841263</c:v>
+                  <c:v>26.34398742488648</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>44.27688573004824</c:v>
+                  <c:v>36.12039835334564</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>27.21325543635639</c:v>
+                  <c:v>37.14826115252241</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>49.91720004482544</c:v>
+                  <c:v>33.05296055167679</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>45.45173293704691</c:v>
+                  <c:v>37.56292079189016</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>44.37965340181504</c:v>
+                  <c:v>41.02086270083907</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>22.67455971896079</c:v>
+                  <c:v>46.65877912510312</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>37.86169714211749</c:v>
+                  <c:v>31.3512497033985</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>41.79614382112379</c:v>
+                  <c:v>49.13616891651313</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>46.89542685644493</c:v>
+                  <c:v>31.51760823921753</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>21.99079707538657</c:v>
+                  <c:v>21.99056507950483</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>34.63212647589994</c:v>
+                  <c:v>27.86162783882427</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>39.30768734859186</c:v>
+                  <c:v>40.72039143072105</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>35.72392732089682</c:v>
+                  <c:v>37.31452479111872</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>42.52372826937928</c:v>
+                  <c:v>37.52239868435721</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>46.92147864995712</c:v>
+                  <c:v>26.20801921078083</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>31.49823780244953</c:v>
+                  <c:v>42.31163977917407</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>26.34478368462304</c:v>
+                  <c:v>42.09420288963406</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>22.24634606716904</c:v>
+                  <c:v>26.76025746879534</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>34.54135777330647</c:v>
+                  <c:v>28.08062625651204</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>24.91467105670048</c:v>
+                  <c:v>33.28972417799283</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>49.17131261283389</c:v>
+                  <c:v>28.67752361455787</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>25.04089706142801</c:v>
+                  <c:v>40.46897422822042</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>48.54890248068621</c:v>
+                  <c:v>24.78545660990291</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>49.54804613482372</c:v>
+                  <c:v>43.94552396500203</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>37.95210486755072</c:v>
+                  <c:v>49.12870721054803</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>34.1171560540112</c:v>
+                  <c:v>27.10783829409558</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>30.22715493226665</c:v>
+                  <c:v>27.55779915452553</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>38.2721325496727</c:v>
+                  <c:v>46.60188675812946</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>40.05589640766648</c:v>
+                  <c:v>28.81752394603479</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>43.00910658446792</c:v>
+                  <c:v>44.81301561795043</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>33.51692995754623</c:v>
+                  <c:v>23.22758894871619</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>45.92028414179168</c:v>
+                  <c:v>36.23844869686091</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>23.65158504235312</c:v>
+                  <c:v>45.54772395871676</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>24.26487995069563</c:v>
+                  <c:v>28.52781043465851</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>31.62333390781066</c:v>
+                  <c:v>31.85163714677044</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>27.30605170733878</c:v>
+                  <c:v>42.17751393174115</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>34.55615294939682</c:v>
+                  <c:v>21.48219699532644</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>21.1936237938373</c:v>
+                  <c:v>27.57302724979548</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>30.96942667715138</c:v>
+                  <c:v>41.69351192645295</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>38.06282141275959</c:v>
+                  <c:v>43.8542624843478</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>33.39906205074502</c:v>
+                  <c:v>36.12807706212911</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>29.81896251083168</c:v>
+                  <c:v>26.73469467363554</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>24.08727260751641</c:v>
+                  <c:v>21.58491406660707</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>23.61009558259297</c:v>
+                  <c:v>33.77357401021008</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>37.91019310956415</c:v>
+                  <c:v>42.04054714039459</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>34.29258704921702</c:v>
+                  <c:v>22.34742493671132</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>38.81170240616618</c:v>
+                  <c:v>40.47026304634029</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>49.81545448714261</c:v>
+                  <c:v>37.63761255728356</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>33.073543082788</c:v>
+                  <c:v>40.77656780218561</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>20.35187289214509</c:v>
+                  <c:v>39.39373129558659</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>30.60112970670375</c:v>
+                  <c:v>49.01158066030919</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>36.30119695524621</c:v>
+                  <c:v>33.96058242001801</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>20.72427378240467</c:v>
+                  <c:v>25.05445152693918</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1261,7 +1261,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="4">
-        <v>44713.15238124723</v>
+        <v>44714.07562935339</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -1272,10 +1272,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="5">
-        <v>17.41412075116687</v>
+        <v>39.23577335698774</v>
       </c>
       <c r="C3" s="5">
-        <v>45.43736772945083</v>
+        <v>47.04018127435583</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="25" customHeight="1">
@@ -1283,10 +1283,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="5">
-        <v>54.60577432838866</v>
+        <v>72.63286427042766</v>
       </c>
       <c r="C4" s="5">
-        <v>45.8666080715562</v>
+        <v>42.18823360448647</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="25" customHeight="1">
@@ -1294,10 +1294,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="5">
-        <v>32.86164982768997</v>
+        <v>85.48944977156091</v>
       </c>
       <c r="C5" s="5">
-        <v>24.0098534659312</v>
+        <v>23.14312885621474</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="25" customHeight="1">
@@ -1305,10 +1305,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="5">
-        <v>45.10819546828927</v>
+        <v>66.27414717165985</v>
       </c>
       <c r="C6" s="5">
-        <v>41.24982256404495</v>
+        <v>46.62322222228221</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="25" customHeight="1">
@@ -1316,10 +1316,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="5">
-        <v>63.82908239803041</v>
+        <v>57.2292030243832</v>
       </c>
       <c r="C7" s="5">
-        <v>34.79734256806742</v>
+        <v>31.55686033938803</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="25" customHeight="1">
@@ -1327,10 +1327,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="5">
-        <v>20.13544064450758</v>
+        <v>81.21516868631056</v>
       </c>
       <c r="C8" s="5">
-        <v>41.17640948390419</v>
+        <v>20.72936827207329</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="25" customHeight="1">
@@ -1338,10 +1338,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="5">
-        <v>21.86310839477903</v>
+        <v>72.75954081781677</v>
       </c>
       <c r="C9" s="5">
-        <v>42.96485127944659</v>
+        <v>20.08180396884948</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="25" customHeight="1">
@@ -1349,10 +1349,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="5">
-        <v>94.48320611846626</v>
+        <v>67.10691517594549</v>
       </c>
       <c r="C10" s="5">
-        <v>28.19312959773364</v>
+        <v>39.92294883566078</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="25" customHeight="1">
@@ -1360,10 +1360,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="5">
-        <v>80.69824666770874</v>
+        <v>33.08534125355068</v>
       </c>
       <c r="C11" s="5">
-        <v>38.95494453891558</v>
+        <v>28.94569384900687</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="25" customHeight="1">
@@ -1371,10 +1371,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="5">
-        <v>91.55620961387433</v>
+        <v>84.19501281251148</v>
       </c>
       <c r="C12" s="5">
-        <v>44.4902096432379</v>
+        <v>39.97081034356781</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="25" customHeight="1">
@@ -1382,10 +1382,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="5">
-        <v>97.78253706071661</v>
+        <v>21.18723951678372</v>
       </c>
       <c r="C13" s="5">
-        <v>20.62176227303386</v>
+        <v>38.49597365175428</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="25" customHeight="1">
@@ -1393,10 +1393,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="5">
-        <v>11.75934627413885</v>
+        <v>46.72077180121665</v>
       </c>
       <c r="C14" s="5">
-        <v>34.29875536701547</v>
+        <v>38.3279215307469</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="25" customHeight="1">
@@ -1404,10 +1404,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="5">
-        <v>56.15501329933942</v>
+        <v>41.30944801969044</v>
       </c>
       <c r="C15" s="5">
-        <v>34.93141481235602</v>
+        <v>35.74057748598389</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="25" customHeight="1">
@@ -1415,10 +1415,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="5">
-        <v>53.57238442290854</v>
+        <v>91.06611566395077</v>
       </c>
       <c r="C16" s="5">
-        <v>26.13932539828897</v>
+        <v>46.23223490546113</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="25" customHeight="1">
@@ -1426,10 +1426,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="5">
-        <v>91.43897129128207</v>
+        <v>99.44301849449825</v>
       </c>
       <c r="C17" s="5">
-        <v>48.98218149376055</v>
+        <v>27.94081876111392</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="25" customHeight="1">
@@ -1437,10 +1437,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="5">
-        <v>64.52006515001406</v>
+        <v>76.41387318566319</v>
       </c>
       <c r="C18" s="5">
-        <v>41.81924243481902</v>
+        <v>24.24461985365533</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="25" customHeight="1">
@@ -1448,10 +1448,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="5">
-        <v>17.65318517227427</v>
+        <v>87.08676561992904</v>
       </c>
       <c r="C19" s="5">
-        <v>39.68323167812477</v>
+        <v>44.56512519598101</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="25" customHeight="1">
@@ -1459,10 +1459,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="5">
-        <v>80.71547237803348</v>
+        <v>43.64581803335272</v>
       </c>
       <c r="C20" s="5">
-        <v>33.42095993706862</v>
+        <v>24.03130894695769</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="25" customHeight="1">
@@ -1470,10 +1470,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="5">
-        <v>48.92119824402967</v>
+        <v>75.07158429322878</v>
       </c>
       <c r="C21" s="5">
-        <v>42.14185221231942</v>
+        <v>47.42177104118579</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="25" customHeight="1">
@@ -1481,10 +1481,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="5">
-        <v>34.39932692182817</v>
+        <v>29.36747211147364</v>
       </c>
       <c r="C22" s="5">
-        <v>21.62283881861835</v>
+        <v>48.25593746134354</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="25" customHeight="1">
@@ -1492,10 +1492,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="5">
-        <v>98.33135724503627</v>
+        <v>86.03807922132282</v>
       </c>
       <c r="C23" s="5">
-        <v>36.2506357945379</v>
+        <v>31.55723323540839</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="25" customHeight="1">
@@ -1503,10 +1503,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="5">
-        <v>54.82883459397822</v>
+        <v>79.6352259360348</v>
       </c>
       <c r="C24" s="5">
-        <v>32.31804479188378</v>
+        <v>40.32737443126655</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="25" customHeight="1">
@@ -1514,10 +1514,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="5">
-        <v>25.7073872406811</v>
+        <v>45.79773588904153</v>
       </c>
       <c r="C25" s="5">
-        <v>21.4447060622322</v>
+        <v>27.63845927973157</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="25" customHeight="1">
@@ -1525,10 +1525,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="5">
-        <v>13.35705141999135</v>
+        <v>30.82711705665798</v>
       </c>
       <c r="C26" s="5">
-        <v>27.75153514620848</v>
+        <v>29.36642243333629</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="25" customHeight="1">
@@ -1536,10 +1536,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="5">
-        <v>28.70460938511786</v>
+        <v>98.15933428582757</v>
       </c>
       <c r="C27" s="5">
-        <v>23.16740210817215</v>
+        <v>22.31389116642872</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="25" customHeight="1">
@@ -1547,10 +1547,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="5">
-        <v>22.98766606747883</v>
+        <v>17.79088403153667</v>
       </c>
       <c r="C28" s="5">
-        <v>39.28925655090516</v>
+        <v>42.04875835987896</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="25" customHeight="1">
@@ -1558,10 +1558,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="5">
-        <v>35.02669319566701</v>
+        <v>81.94773652082075</v>
       </c>
       <c r="C29" s="5">
-        <v>35.97711382703811</v>
+        <v>41.68085143190629</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="25" customHeight="1">
@@ -1569,10 +1569,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="5">
-        <v>65.57505777090424</v>
+        <v>52.3012613198811</v>
       </c>
       <c r="C30" s="5">
-        <v>35.1987009457011</v>
+        <v>40.98314813143119</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="25" customHeight="1">
@@ -1580,10 +1580,10 @@
         <v>29</v>
       </c>
       <c r="B31" s="5">
-        <v>31.05835146002052</v>
+        <v>57.76705934511367</v>
       </c>
       <c r="C31" s="5">
-        <v>44.21963973386097</v>
+        <v>48.51142283063849</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="25" customHeight="1">
@@ -1591,10 +1591,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="5">
-        <v>85.98928913734376</v>
+        <v>28.36984480130013</v>
       </c>
       <c r="C32" s="5">
-        <v>44.33713497794149</v>
+        <v>37.5423529742573</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="25" customHeight="1">
@@ -1602,10 +1602,10 @@
         <v>31</v>
       </c>
       <c r="B33" s="5">
-        <v>41.10631464038931</v>
+        <v>33.24156835964375</v>
       </c>
       <c r="C33" s="5">
-        <v>38.10214688250489</v>
+        <v>23.28958550639066</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="25" customHeight="1">
@@ -1613,10 +1613,10 @@
         <v>32</v>
       </c>
       <c r="B34" s="5">
-        <v>43.148350074906</v>
+        <v>52.17883815289062</v>
       </c>
       <c r="C34" s="5">
-        <v>45.40149935353156</v>
+        <v>20.92365008687104</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="25" customHeight="1">
@@ -1624,10 +1624,10 @@
         <v>33</v>
       </c>
       <c r="B35" s="5">
-        <v>98.51337457495354</v>
+        <v>99.45078309691065</v>
       </c>
       <c r="C35" s="5">
-        <v>30.52909785175164</v>
+        <v>20.69627691745803</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="25" customHeight="1">
@@ -1635,10 +1635,10 @@
         <v>34</v>
       </c>
       <c r="B36" s="5">
-        <v>82.66776467175059</v>
+        <v>98.97000981774599</v>
       </c>
       <c r="C36" s="5">
-        <v>46.60067387685232</v>
+        <v>25.51451589045954</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="25" customHeight="1">
@@ -1646,10 +1646,10 @@
         <v>35</v>
       </c>
       <c r="B37" s="5">
-        <v>88.92917386827921</v>
+        <v>92.77679089706085</v>
       </c>
       <c r="C37" s="5">
-        <v>41.4853003773641</v>
+        <v>33.26000973825369</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="25" customHeight="1">
@@ -1657,10 +1657,10 @@
         <v>36</v>
       </c>
       <c r="B38" s="5">
-        <v>63.3801328420361</v>
+        <v>32.15435895003607</v>
       </c>
       <c r="C38" s="5">
-        <v>23.94506701187959</v>
+        <v>26.41481369817257</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="25" customHeight="1">
@@ -1668,10 +1668,10 @@
         <v>37</v>
       </c>
       <c r="B39" s="5">
-        <v>48.26747630574906</v>
+        <v>26.31033094094217</v>
       </c>
       <c r="C39" s="5">
-        <v>21.53440175997565</v>
+        <v>27.53140559713896</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="25" customHeight="1">
@@ -1679,10 +1679,10 @@
         <v>38</v>
       </c>
       <c r="B40" s="5">
-        <v>88.49206632655904</v>
+        <v>68.80863687596985</v>
       </c>
       <c r="C40" s="5">
-        <v>46.5310341799087</v>
+        <v>44.07275859048771</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="25" customHeight="1">
@@ -1690,10 +1690,10 @@
         <v>39</v>
       </c>
       <c r="B41" s="5">
-        <v>37.80926247621932</v>
+        <v>24.57239170136759</v>
       </c>
       <c r="C41" s="5">
-        <v>41.49630520223178</v>
+        <v>29.57546019842502</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="25" customHeight="1">
@@ -1701,10 +1701,10 @@
         <v>40</v>
       </c>
       <c r="B42" s="5">
-        <v>37.26275589556938</v>
+        <v>78.63197696252621</v>
       </c>
       <c r="C42" s="5">
-        <v>21.61588730149817</v>
+        <v>43.67222380401253</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="25" customHeight="1">
@@ -1712,10 +1712,10 @@
         <v>41</v>
       </c>
       <c r="B43" s="5">
-        <v>74.91213601594797</v>
+        <v>73.58012591613694</v>
       </c>
       <c r="C43" s="5">
-        <v>28.02741755691645</v>
+        <v>26.05291692331841</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="25" customHeight="1">
@@ -1723,10 +1723,10 @@
         <v>42</v>
       </c>
       <c r="B44" s="5">
-        <v>31.6165898682456</v>
+        <v>74.2664007906116</v>
       </c>
       <c r="C44" s="5">
-        <v>23.65231198195699</v>
+        <v>30.54460383841781</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="25" customHeight="1">
@@ -1734,10 +1734,10 @@
         <v>43</v>
       </c>
       <c r="B45" s="5">
-        <v>67.04405583483305</v>
+        <v>24.55499502446218</v>
       </c>
       <c r="C45" s="5">
-        <v>44.33441388492212</v>
+        <v>24.03136433009995</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="25" customHeight="1">
@@ -1745,10 +1745,10 @@
         <v>44</v>
       </c>
       <c r="B46" s="5">
-        <v>87.04856714936163</v>
+        <v>14.79394827326041</v>
       </c>
       <c r="C46" s="5">
-        <v>27.43844416014642</v>
+        <v>27.87268538819498</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="25" customHeight="1">
@@ -1756,10 +1756,10 @@
         <v>45</v>
       </c>
       <c r="B47" s="5">
-        <v>17.10437657849702</v>
+        <v>63.61967702743886</v>
       </c>
       <c r="C47" s="5">
-        <v>36.46152276682773</v>
+        <v>32.79120428066491</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="25" customHeight="1">
@@ -1767,10 +1767,10 @@
         <v>46</v>
       </c>
       <c r="B48" s="5">
-        <v>89.21197152763422</v>
+        <v>49.14570799301205</v>
       </c>
       <c r="C48" s="5">
-        <v>35.80825970841263</v>
+        <v>26.34398742488648</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="25" customHeight="1">
@@ -1778,10 +1778,10 @@
         <v>47</v>
       </c>
       <c r="B49" s="5">
-        <v>65.62184915132931</v>
+        <v>47.53312286378706</v>
       </c>
       <c r="C49" s="5">
-        <v>44.27688573004824</v>
+        <v>36.12039835334564</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="25" customHeight="1">
@@ -1789,10 +1789,10 @@
         <v>48</v>
       </c>
       <c r="B50" s="5">
-        <v>85.01080662013995</v>
+        <v>18.94494359783769</v>
       </c>
       <c r="C50" s="5">
-        <v>27.21325543635639</v>
+        <v>37.14826115252241</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="25" customHeight="1">
@@ -1800,10 +1800,10 @@
         <v>49</v>
       </c>
       <c r="B51" s="5">
-        <v>96.88734424569662</v>
+        <v>25.515722229359</v>
       </c>
       <c r="C51" s="5">
-        <v>49.91720004482544</v>
+        <v>33.05296055167679</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="25" customHeight="1">
@@ -1811,10 +1811,10 @@
         <v>50</v>
       </c>
       <c r="B52" s="5">
-        <v>15.24630803519446</v>
+        <v>31.77069605357499</v>
       </c>
       <c r="C52" s="5">
-        <v>45.45173293704691</v>
+        <v>37.56292079189016</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="25" customHeight="1">
@@ -1822,10 +1822,10 @@
         <v>51</v>
       </c>
       <c r="B53" s="5">
-        <v>69.27686106446912</v>
+        <v>32.90011927135303</v>
       </c>
       <c r="C53" s="5">
-        <v>44.37965340181504</v>
+        <v>41.02086270083907</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="25" customHeight="1">
@@ -1833,10 +1833,10 @@
         <v>52</v>
       </c>
       <c r="B54" s="5">
-        <v>27.92181186681905</v>
+        <v>33.06782993410243</v>
       </c>
       <c r="C54" s="5">
-        <v>22.67455971896079</v>
+        <v>46.65877912510312</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="25" customHeight="1">
@@ -1844,10 +1844,10 @@
         <v>53</v>
       </c>
       <c r="B55" s="5">
-        <v>96.43310225971372</v>
+        <v>72.11066240882823</v>
       </c>
       <c r="C55" s="5">
-        <v>37.86169714211749</v>
+        <v>31.3512497033985</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="25" customHeight="1">
@@ -1855,10 +1855,10 @@
         <v>54</v>
       </c>
       <c r="B56" s="5">
-        <v>85.10661832200449</v>
+        <v>18.30710781394842</v>
       </c>
       <c r="C56" s="5">
-        <v>41.79614382112379</v>
+        <v>49.13616891651313</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="25" customHeight="1">
@@ -1866,10 +1866,10 @@
         <v>55</v>
       </c>
       <c r="B57" s="5">
-        <v>58.22746212134533</v>
+        <v>85.18471671809408</v>
       </c>
       <c r="C57" s="5">
-        <v>46.89542685644493</v>
+        <v>31.51760823921753</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="25" customHeight="1">
@@ -1877,10 +1877,10 @@
         <v>56</v>
       </c>
       <c r="B58" s="5">
-        <v>93.22123700918986</v>
+        <v>17.76924925467925</v>
       </c>
       <c r="C58" s="5">
-        <v>21.99079707538657</v>
+        <v>21.99056507950483</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="25" customHeight="1">
@@ -1888,10 +1888,10 @@
         <v>57</v>
       </c>
       <c r="B59" s="5">
-        <v>74.75789317351305</v>
+        <v>25.22775356497635</v>
       </c>
       <c r="C59" s="5">
-        <v>34.63212647589994</v>
+        <v>27.86162783882427</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="25" customHeight="1">
@@ -1899,10 +1899,10 @@
         <v>58</v>
       </c>
       <c r="B60" s="5">
-        <v>45.23290926661142</v>
+        <v>25.6590116241461</v>
       </c>
       <c r="C60" s="5">
-        <v>39.30768734859186</v>
+        <v>40.72039143072105</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="25" customHeight="1">
@@ -1910,10 +1910,10 @@
         <v>59</v>
       </c>
       <c r="B61" s="5">
-        <v>60.41601511402811</v>
+        <v>65.06902504046577</v>
       </c>
       <c r="C61" s="5">
-        <v>35.72392732089682</v>
+        <v>37.31452479111872</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="25" customHeight="1">
@@ -1921,10 +1921,10 @@
         <v>60</v>
       </c>
       <c r="B62" s="5">
-        <v>77.96809498895173</v>
+        <v>84.15574674734648</v>
       </c>
       <c r="C62" s="5">
-        <v>42.52372826937928</v>
+        <v>37.52239868435721</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="25" customHeight="1">
@@ -1932,10 +1932,10 @@
         <v>61</v>
       </c>
       <c r="B63" s="5">
-        <v>65.34078159423765</v>
+        <v>71.92361873116853</v>
       </c>
       <c r="C63" s="5">
-        <v>46.92147864995712</v>
+        <v>26.20801921078083</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="25" customHeight="1">
@@ -1943,10 +1943,10 @@
         <v>62</v>
       </c>
       <c r="B64" s="5">
-        <v>20.7098834135634</v>
+        <v>61.11590107076167</v>
       </c>
       <c r="C64" s="5">
-        <v>31.49823780244953</v>
+        <v>42.31163977917407</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="25" customHeight="1">
@@ -1954,10 +1954,10 @@
         <v>63</v>
       </c>
       <c r="B65" s="5">
-        <v>51.46918279483572</v>
+        <v>92.45551298503655</v>
       </c>
       <c r="C65" s="5">
-        <v>26.34478368462304</v>
+        <v>42.09420288963406</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="25" customHeight="1">
@@ -1965,10 +1965,10 @@
         <v>64</v>
       </c>
       <c r="B66" s="5">
-        <v>68.04748780438229</v>
+        <v>52.31069226651419</v>
       </c>
       <c r="C66" s="5">
-        <v>22.24634606716904</v>
+        <v>26.76025746879534</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="25" customHeight="1">
@@ -1976,10 +1976,10 @@
         <v>65</v>
       </c>
       <c r="B67" s="5">
-        <v>66.55121123946293</v>
+        <v>12.93560575858206</v>
       </c>
       <c r="C67" s="5">
-        <v>34.54135777330647</v>
+        <v>28.08062625651204</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="25" customHeight="1">
@@ -1987,10 +1987,10 @@
         <v>66</v>
       </c>
       <c r="B68" s="5">
-        <v>66.32398802887391</v>
+        <v>83.48408408285165</v>
       </c>
       <c r="C68" s="5">
-        <v>24.91467105670048</v>
+        <v>33.28972417799283</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="25" customHeight="1">
@@ -1998,10 +1998,10 @@
         <v>67</v>
       </c>
       <c r="B69" s="5">
-        <v>41.81190575922527</v>
+        <v>82.56645222691333</v>
       </c>
       <c r="C69" s="5">
-        <v>49.17131261283389</v>
+        <v>28.67752361455787</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="25" customHeight="1">
@@ -2009,10 +2009,10 @@
         <v>68</v>
       </c>
       <c r="B70" s="5">
-        <v>55.44928739336507</v>
+        <v>82.75906502289928</v>
       </c>
       <c r="C70" s="5">
-        <v>25.04089706142801</v>
+        <v>40.46897422822042</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="25" customHeight="1">
@@ -2020,10 +2020,10 @@
         <v>69</v>
       </c>
       <c r="B71" s="5">
-        <v>47.57134140166727</v>
+        <v>95.97865688784393</v>
       </c>
       <c r="C71" s="5">
-        <v>48.54890248068621</v>
+        <v>24.78545660990291</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="25" customHeight="1">
@@ -2031,10 +2031,10 @@
         <v>70</v>
       </c>
       <c r="B72" s="5">
-        <v>71.88168214230734</v>
+        <v>31.96019631585754</v>
       </c>
       <c r="C72" s="5">
-        <v>49.54804613482372</v>
+        <v>43.94552396500203</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="25" customHeight="1">
@@ -2042,10 +2042,10 @@
         <v>71</v>
       </c>
       <c r="B73" s="5">
-        <v>84.94527735370484</v>
+        <v>90.87687537356645</v>
       </c>
       <c r="C73" s="5">
-        <v>37.95210486755072</v>
+        <v>49.12870721054803</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="25" customHeight="1">
@@ -2053,10 +2053,10 @@
         <v>72</v>
       </c>
       <c r="B74" s="5">
-        <v>46.30009680049713</v>
+        <v>55.75987911330556</v>
       </c>
       <c r="C74" s="5">
-        <v>34.1171560540112</v>
+        <v>27.10783829409558</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="25" customHeight="1">
@@ -2064,10 +2064,10 @@
         <v>73</v>
       </c>
       <c r="B75" s="5">
-        <v>82.25062356421014</v>
+        <v>45.51763941169909</v>
       </c>
       <c r="C75" s="5">
-        <v>30.22715493226665</v>
+        <v>27.55779915452553</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="25" customHeight="1">
@@ -2075,10 +2075,10 @@
         <v>74</v>
       </c>
       <c r="B76" s="5">
-        <v>45.22017028672904</v>
+        <v>14.29042509217282</v>
       </c>
       <c r="C76" s="5">
-        <v>38.2721325496727</v>
+        <v>46.60188675812946</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="25" customHeight="1">
@@ -2086,10 +2086,10 @@
         <v>75</v>
       </c>
       <c r="B77" s="5">
-        <v>13.31953595450318</v>
+        <v>76.17623467420484</v>
       </c>
       <c r="C77" s="5">
-        <v>40.05589640766648</v>
+        <v>28.81752394603479</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="25" customHeight="1">
@@ -2097,10 +2097,10 @@
         <v>76</v>
       </c>
       <c r="B78" s="5">
-        <v>32.08805570836807</v>
+        <v>75.44710850267617</v>
       </c>
       <c r="C78" s="5">
-        <v>43.00910658446792</v>
+        <v>44.81301561795043</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="25" customHeight="1">
@@ -2108,10 +2108,10 @@
         <v>77</v>
       </c>
       <c r="B79" s="5">
-        <v>75.13263231436133</v>
+        <v>26.75451761951918</v>
       </c>
       <c r="C79" s="5">
-        <v>33.51692995754623</v>
+        <v>23.22758894871619</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="25" customHeight="1">
@@ -2119,10 +2119,10 @@
         <v>78</v>
       </c>
       <c r="B80" s="5">
-        <v>41.86510406680362</v>
+        <v>59.66255752448487</v>
       </c>
       <c r="C80" s="5">
-        <v>45.92028414179168</v>
+        <v>36.23844869686091</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="25" customHeight="1">
@@ -2130,10 +2130,10 @@
         <v>79</v>
       </c>
       <c r="B81" s="5">
-        <v>61.8289816756105</v>
+        <v>54.38090923712026</v>
       </c>
       <c r="C81" s="5">
-        <v>23.65158504235312</v>
+        <v>45.54772395871676</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="25" customHeight="1">
@@ -2141,10 +2141,10 @@
         <v>80</v>
       </c>
       <c r="B82" s="5">
-        <v>62.44348791533223</v>
+        <v>30.89580250028337</v>
       </c>
       <c r="C82" s="5">
-        <v>24.26487995069563</v>
+        <v>28.52781043465851</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="25" customHeight="1">
@@ -2152,10 +2152,10 @@
         <v>81</v>
       </c>
       <c r="B83" s="5">
-        <v>36.89876136965296</v>
+        <v>91.75111469592856</v>
       </c>
       <c r="C83" s="5">
-        <v>31.62333390781066</v>
+        <v>31.85163714677044</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="25" customHeight="1">
@@ -2163,10 +2163,10 @@
         <v>82</v>
       </c>
       <c r="B84" s="5">
-        <v>87.76967977561476</v>
+        <v>10.4680778381256</v>
       </c>
       <c r="C84" s="5">
-        <v>27.30605170733878</v>
+        <v>42.17751393174115</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="25" customHeight="1">
@@ -2174,10 +2174,10 @@
         <v>83</v>
       </c>
       <c r="B85" s="5">
-        <v>99.62727575083916</v>
+        <v>56.10115954983888</v>
       </c>
       <c r="C85" s="5">
-        <v>34.55615294939682</v>
+        <v>21.48219699532644</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="25" customHeight="1">
@@ -2185,10 +2185,10 @@
         <v>84</v>
       </c>
       <c r="B86" s="5">
-        <v>83.88200239211103</v>
+        <v>20.29471488309852</v>
       </c>
       <c r="C86" s="5">
-        <v>21.1936237938373</v>
+        <v>27.57302724979548</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="25" customHeight="1">
@@ -2196,10 +2196,10 @@
         <v>85</v>
       </c>
       <c r="B87" s="5">
-        <v>25.53455234078083</v>
+        <v>77.06430274114601</v>
       </c>
       <c r="C87" s="5">
-        <v>30.96942667715138</v>
+        <v>41.69351192645295</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="25" customHeight="1">
@@ -2207,10 +2207,10 @@
         <v>86</v>
       </c>
       <c r="B88" s="5">
-        <v>81.07460486078175</v>
+        <v>75.78646766211354</v>
       </c>
       <c r="C88" s="5">
-        <v>38.06282141275959</v>
+        <v>43.8542624843478</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="25" customHeight="1">
@@ -2218,10 +2218,10 @@
         <v>87</v>
       </c>
       <c r="B89" s="5">
-        <v>14.22598457438631</v>
+        <v>41.18284040293024</v>
       </c>
       <c r="C89" s="5">
-        <v>33.39906205074502</v>
+        <v>36.12807706212911</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="25" customHeight="1">
@@ -2229,10 +2229,10 @@
         <v>88</v>
       </c>
       <c r="B90" s="5">
-        <v>49.01703443424642</v>
+        <v>24.68900822108959</v>
       </c>
       <c r="C90" s="5">
-        <v>29.81896251083168</v>
+        <v>26.73469467363554</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="25" customHeight="1">
@@ -2240,10 +2240,10 @@
         <v>89</v>
       </c>
       <c r="B91" s="5">
-        <v>74.85049957508537</v>
+        <v>14.97319825809191</v>
       </c>
       <c r="C91" s="5">
-        <v>24.08727260751641</v>
+        <v>21.58491406660707</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="25" customHeight="1">
@@ -2251,10 +2251,10 @@
         <v>90</v>
       </c>
       <c r="B92" s="5">
-        <v>89.02064753963727</v>
+        <v>41.77470635473715</v>
       </c>
       <c r="C92" s="5">
-        <v>23.61009558259297</v>
+        <v>33.77357401021008</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="25" customHeight="1">
@@ -2262,10 +2262,10 @@
         <v>91</v>
       </c>
       <c r="B93" s="5">
-        <v>61.49618711468226</v>
+        <v>33.7577822330725</v>
       </c>
       <c r="C93" s="5">
-        <v>37.91019310956415</v>
+        <v>42.04054714039459</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="25" customHeight="1">
@@ -2273,10 +2273,10 @@
         <v>92</v>
       </c>
       <c r="B94" s="5">
-        <v>12.39080528749609</v>
+        <v>35.95925633064175</v>
       </c>
       <c r="C94" s="5">
-        <v>34.29258704921702</v>
+        <v>22.34742493671132</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="25" customHeight="1">
@@ -2284,10 +2284,10 @@
         <v>93</v>
       </c>
       <c r="B95" s="5">
-        <v>44.83938569763383</v>
+        <v>26.61164797653343</v>
       </c>
       <c r="C95" s="5">
-        <v>38.81170240616618</v>
+        <v>40.47026304634029</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="25" customHeight="1">
@@ -2295,10 +2295,10 @@
         <v>94</v>
       </c>
       <c r="B96" s="5">
-        <v>49.12720288395594</v>
+        <v>90.60950945895202</v>
       </c>
       <c r="C96" s="5">
-        <v>49.81545448714261</v>
+        <v>37.63761255728356</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="25" customHeight="1">
@@ -2306,10 +2306,10 @@
         <v>95</v>
       </c>
       <c r="B97" s="5">
-        <v>99.44966630979218</v>
+        <v>84.85104654073244</v>
       </c>
       <c r="C97" s="5">
-        <v>33.073543082788</v>
+        <v>40.77656780218561</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="25" customHeight="1">
@@ -2317,10 +2317,10 @@
         <v>96</v>
       </c>
       <c r="B98" s="5">
-        <v>78.03935535127388</v>
+        <v>58.38765191096734</v>
       </c>
       <c r="C98" s="5">
-        <v>20.35187289214509</v>
+        <v>39.39373129558659</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="25" customHeight="1">
@@ -2328,10 +2328,10 @@
         <v>97</v>
       </c>
       <c r="B99" s="5">
-        <v>15.93430327984005</v>
+        <v>80.17905368822136</v>
       </c>
       <c r="C99" s="5">
-        <v>30.60112970670375</v>
+        <v>49.01158066030919</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="25" customHeight="1">
@@ -2339,10 +2339,10 @@
         <v>98</v>
       </c>
       <c r="B100" s="5">
-        <v>13.7737350655745</v>
+        <v>75.82735267104459</v>
       </c>
       <c r="C100" s="5">
-        <v>36.30119695524621</v>
+        <v>33.96058242001801</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="25" customHeight="1">
@@ -2350,10 +2350,10 @@
         <v>99</v>
       </c>
       <c r="B101" s="5">
-        <v>60.61205298646618</v>
+        <v>19.34325286952254</v>
       </c>
       <c r="C101" s="5">
-        <v>20.72427378240467</v>
+        <v>25.05445152693918</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="25" customHeight="1">
@@ -2361,10 +2361,10 @@
         <v>100</v>
       </c>
       <c r="B102" s="5">
-        <v>60.92513752710239</v>
+        <v>32.85927714800223</v>
       </c>
       <c r="C102" s="5">
-        <v>29.31457584859837</v>
+        <v>33.49646907467381</v>
       </c>
     </row>
   </sheetData>

--- a/demo.xlsx
+++ b/demo.xlsx
@@ -195,301 +195,301 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>39.23577335698774</c:v>
+                  <c:v>52.22634547842436</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>72.63286427042766</c:v>
+                  <c:v>24.33502398053488</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>85.48944977156091</c:v>
+                  <c:v>88.10410779434851</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>66.27414717165985</c:v>
+                  <c:v>44.46495108474625</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>57.2292030243832</c:v>
+                  <c:v>33.60883210390214</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>81.21516868631056</c:v>
+                  <c:v>52.67587170416202</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>72.75954081781677</c:v>
+                  <c:v>78.57969306653223</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>67.10691517594549</c:v>
+                  <c:v>28.7978953441044</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>33.08534125355068</c:v>
+                  <c:v>15.50302076610182</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>84.19501281251148</c:v>
+                  <c:v>83.92484575098003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>21.18723951678372</c:v>
+                  <c:v>90.00703899509233</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>46.72077180121665</c:v>
+                  <c:v>26.76844872998425</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>41.30944801969044</c:v>
+                  <c:v>71.15476087476546</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>91.06611566395077</c:v>
+                  <c:v>37.65016753129042</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>99.44301849449825</c:v>
+                  <c:v>98.32205663648382</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>76.41387318566319</c:v>
+                  <c:v>66.44798405798159</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>87.08676561992904</c:v>
+                  <c:v>58.82115229314847</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>43.64581803335272</c:v>
+                  <c:v>97.06333196363131</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>75.07158429322878</c:v>
+                  <c:v>35.81100280116046</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>29.36747211147364</c:v>
+                  <c:v>96.4022286736996</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>86.03807922132282</c:v>
+                  <c:v>26.92294508733579</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>79.6352259360348</c:v>
+                  <c:v>55.40515487638112</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>45.79773588904153</c:v>
+                  <c:v>36.45589604058004</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>30.82711705665798</c:v>
+                  <c:v>70.74346042437838</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>98.15933428582757</c:v>
+                  <c:v>87.53211968566841</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>17.79088403153667</c:v>
+                  <c:v>97.18117549795041</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>81.94773652082075</c:v>
+                  <c:v>38.49710769224171</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>52.3012613198811</c:v>
+                  <c:v>12.32580701105268</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>57.76705934511367</c:v>
+                  <c:v>49.51064149889704</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>28.36984480130013</c:v>
+                  <c:v>57.35646864768822</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>33.24156835964375</c:v>
+                  <c:v>28.59026778588629</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>52.17883815289062</c:v>
+                  <c:v>58.52156914674199</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>99.45078309691065</c:v>
+                  <c:v>19.93071640810523</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>98.97000981774599</c:v>
+                  <c:v>54.81350461054532</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>92.77679089706085</c:v>
+                  <c:v>13.64624386493455</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>32.15435895003607</c:v>
+                  <c:v>82.78384127472829</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>26.31033094094217</c:v>
+                  <c:v>80.60557649283231</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>68.80863687596985</c:v>
+                  <c:v>57.88080967898171</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>24.57239170136759</c:v>
+                  <c:v>84.28813540629476</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>78.63197696252621</c:v>
+                  <c:v>38.07640124817209</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>73.58012591613694</c:v>
+                  <c:v>72.82179731642694</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>74.2664007906116</c:v>
+                  <c:v>47.22338481246765</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>24.55499502446218</c:v>
+                  <c:v>97.93970994182132</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>14.79394827326041</c:v>
+                  <c:v>49.16667750017669</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>63.61967702743886</c:v>
+                  <c:v>33.25744721531245</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>49.14570799301205</c:v>
+                  <c:v>95.04849758944425</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>47.53312286378706</c:v>
+                  <c:v>82.44950866926297</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>18.94494359783769</c:v>
+                  <c:v>78.15485417251595</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>25.515722229359</c:v>
+                  <c:v>32.13567711982236</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>31.77069605357499</c:v>
+                  <c:v>62.94084610342504</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>32.90011927135303</c:v>
+                  <c:v>72.31365240643848</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>33.06782993410243</c:v>
+                  <c:v>56.42057664658931</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>72.11066240882823</c:v>
+                  <c:v>60.48784058119268</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>18.30710781394842</c:v>
+                  <c:v>80.42259368484426</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>85.18471671809408</c:v>
+                  <c:v>62.10094475135074</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>17.76924925467925</c:v>
+                  <c:v>92.07981172906825</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>25.22775356497635</c:v>
+                  <c:v>37.5601118838706</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>25.6590116241461</c:v>
+                  <c:v>93.71403061197675</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>65.06902504046577</c:v>
+                  <c:v>45.20698426255795</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>84.15574674734648</c:v>
+                  <c:v>37.78103928593168</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>71.92361873116853</c:v>
+                  <c:v>15.87655644776742</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>61.11590107076167</c:v>
+                  <c:v>75.59293786126686</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>92.45551298503655</c:v>
+                  <c:v>82.58834167922231</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>52.31069226651419</c:v>
+                  <c:v>60.35695943201943</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>12.93560575858206</c:v>
+                  <c:v>25.85129829684913</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>83.48408408285165</c:v>
+                  <c:v>48.18440466613907</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>82.56645222691333</c:v>
+                  <c:v>45.96124419751332</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>82.75906502289928</c:v>
+                  <c:v>94.96464985924337</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>95.97865688784393</c:v>
+                  <c:v>93.13796665971226</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>31.96019631585754</c:v>
+                  <c:v>76.933051916105</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>90.87687537356645</c:v>
+                  <c:v>57.30249243580808</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>55.75987911330556</c:v>
+                  <c:v>80.13479047179085</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>45.51763941169909</c:v>
+                  <c:v>96.21450445669201</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>14.29042509217282</c:v>
+                  <c:v>57.90782322705255</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>76.17623467420484</c:v>
+                  <c:v>79.97510195768828</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>75.44710850267617</c:v>
+                  <c:v>35.33256081668532</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>26.75451761951918</c:v>
+                  <c:v>79.82450742428203</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>59.66255752448487</c:v>
+                  <c:v>90.64128459653044</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>54.38090923712026</c:v>
+                  <c:v>95.19622537206845</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>30.89580250028337</c:v>
+                  <c:v>27.39539880346758</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>91.75111469592856</c:v>
+                  <c:v>72.04067895121051</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>10.4680778381256</c:v>
+                  <c:v>92.71453001112802</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>56.10115954983888</c:v>
+                  <c:v>43.40658343247344</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>20.29471488309852</c:v>
+                  <c:v>88.48784292114912</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>77.06430274114601</c:v>
+                  <c:v>23.81544433216983</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>75.78646766211354</c:v>
+                  <c:v>93.86083850723298</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>41.18284040293024</c:v>
+                  <c:v>27.26256124347956</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>24.68900822108959</c:v>
+                  <c:v>46.13438782264661</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>14.97319825809191</c:v>
+                  <c:v>43.00324779252536</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>41.77470635473715</c:v>
+                  <c:v>29.00948499245904</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>33.7577822330725</c:v>
+                  <c:v>97.34335519619228</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>35.95925633064175</c:v>
+                  <c:v>93.43307626853999</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>26.61164797653343</c:v>
+                  <c:v>15.09740783081142</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>90.60950945895202</c:v>
+                  <c:v>30.50863867285946</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>84.85104654073244</c:v>
+                  <c:v>89.87983960761321</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>58.38765191096734</c:v>
+                  <c:v>19.49303493157207</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>80.17905368822136</c:v>
+                  <c:v>23.71269795023675</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>75.82735267104459</c:v>
+                  <c:v>66.23320166707506</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>19.34325286952254</c:v>
+                  <c:v>49.44658607668708</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -522,301 +522,301 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>47.04018127435583</c:v>
+                  <c:v>41.91679395758606</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42.18823360448647</c:v>
+                  <c:v>43.36723128455492</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23.14312885621474</c:v>
+                  <c:v>35.33784552821339</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>46.62322222228221</c:v>
+                  <c:v>46.12074437380982</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>31.55686033938803</c:v>
+                  <c:v>26.20640979151213</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>20.72936827207329</c:v>
+                  <c:v>40.7926817249532</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20.08180396884948</c:v>
+                  <c:v>45.83113178192799</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>39.92294883566078</c:v>
+                  <c:v>35.81078357254657</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>28.94569384900687</c:v>
+                  <c:v>25.51531798352209</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>39.97081034356781</c:v>
+                  <c:v>25.46854301474026</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>38.49597365175428</c:v>
+                  <c:v>48.14032587478415</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>38.3279215307469</c:v>
+                  <c:v>21.69602935758753</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>35.74057748598389</c:v>
+                  <c:v>34.99918281341039</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>46.23223490546113</c:v>
+                  <c:v>46.5488724263851</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>27.94081876111392</c:v>
+                  <c:v>40.77220937840009</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>24.24461985365533</c:v>
+                  <c:v>27.42427287044917</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44.56512519598101</c:v>
+                  <c:v>37.49781949925364</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>24.03130894695769</c:v>
+                  <c:v>20.42855594399366</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>47.42177104118579</c:v>
+                  <c:v>21.73833997689172</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>48.25593746134354</c:v>
+                  <c:v>23.93056234176079</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>31.55723323540839</c:v>
+                  <c:v>33.77881106885495</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>40.32737443126655</c:v>
+                  <c:v>32.9604208947638</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>27.63845927973157</c:v>
+                  <c:v>36.1713490110577</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>29.36642243333629</c:v>
+                  <c:v>29.88434835280639</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>22.31389116642872</c:v>
+                  <c:v>20.05416203065288</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>42.04875835987896</c:v>
+                  <c:v>35.83633700125259</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>41.68085143190629</c:v>
+                  <c:v>24.00036350458781</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>40.98314813143119</c:v>
+                  <c:v>26.60932256440239</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>48.51142283063849</c:v>
+                  <c:v>22.82695646517519</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>37.5423529742573</c:v>
+                  <c:v>46.16481583131603</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>23.28958550639066</c:v>
+                  <c:v>43.71386814602943</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>20.92365008687104</c:v>
+                  <c:v>45.94845189608085</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>20.69627691745803</c:v>
+                  <c:v>31.00412657245312</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>25.51451589045954</c:v>
+                  <c:v>36.10386622048688</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>33.26000973825369</c:v>
+                  <c:v>33.30292161336327</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>26.41481369817257</c:v>
+                  <c:v>26.57595818132034</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>27.53140559713896</c:v>
+                  <c:v>27.81157388498587</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>44.07275859048771</c:v>
+                  <c:v>32.62820025019901</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>29.57546019842502</c:v>
+                  <c:v>48.02444968747818</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>43.67222380401253</c:v>
+                  <c:v>29.62850800496535</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>26.05291692331841</c:v>
+                  <c:v>35.06902884103379</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>30.54460383841781</c:v>
+                  <c:v>40.58952620153475</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>24.03136433009995</c:v>
+                  <c:v>37.27713854981523</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>27.87268538819498</c:v>
+                  <c:v>32.33673601075748</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>32.79120428066491</c:v>
+                  <c:v>46.20763763899923</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>26.34398742488648</c:v>
+                  <c:v>24.62344496280175</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>36.12039835334564</c:v>
+                  <c:v>37.50857881242763</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>37.14826115252241</c:v>
+                  <c:v>30.60451734542193</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>33.05296055167679</c:v>
+                  <c:v>27.1104157780802</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>37.56292079189016</c:v>
+                  <c:v>30.8393402505176</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>41.02086270083907</c:v>
+                  <c:v>25.95410729274509</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>46.65877912510312</c:v>
+                  <c:v>36.22636116017198</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>31.3512497033985</c:v>
+                  <c:v>28.68785381225975</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>49.13616891651313</c:v>
+                  <c:v>22.10291651069229</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>31.51760823921753</c:v>
+                  <c:v>42.76704943429095</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>21.99056507950483</c:v>
+                  <c:v>30.0965768552852</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>27.86162783882427</c:v>
+                  <c:v>21.15035723368172</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>40.72039143072105</c:v>
+                  <c:v>29.85988575563188</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>37.31452479111872</c:v>
+                  <c:v>32.46545715128948</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>37.52239868435721</c:v>
+                  <c:v>48.03672925799893</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>26.20801921078083</c:v>
+                  <c:v>29.91371101933804</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>42.31163977917407</c:v>
+                  <c:v>46.97671730802555</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>42.09420288963406</c:v>
+                  <c:v>41.0426809621324</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>26.76025746879534</c:v>
+                  <c:v>25.82398048897474</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>28.08062625651204</c:v>
+                  <c:v>20.75247753610257</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>33.28972417799283</c:v>
+                  <c:v>37.71810841111516</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>28.67752361455787</c:v>
+                  <c:v>24.65353977261419</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>40.46897422822042</c:v>
+                  <c:v>36.241558885749</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>24.78545660990291</c:v>
+                  <c:v>35.81414685762267</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>43.94552396500203</c:v>
+                  <c:v>33.54571602310725</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>49.12870721054803</c:v>
+                  <c:v>20.33754664592575</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>27.10783829409558</c:v>
+                  <c:v>41.50201061072717</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>27.55779915452553</c:v>
+                  <c:v>36.06891788209413</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>46.60188675812946</c:v>
+                  <c:v>25.15530102680956</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>28.81752394603479</c:v>
+                  <c:v>21.51801726929299</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>44.81301561795043</c:v>
+                  <c:v>24.34628593571437</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>23.22758894871619</c:v>
+                  <c:v>31.03298728339804</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>36.23844869686091</c:v>
+                  <c:v>24.59007391239329</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>45.54772395871676</c:v>
+                  <c:v>33.98309969558537</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>28.52781043465851</c:v>
+                  <c:v>28.10358007380632</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>31.85163714677044</c:v>
+                  <c:v>36.35974669523979</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>42.17751393174115</c:v>
+                  <c:v>40.36066644573799</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>21.48219699532644</c:v>
+                  <c:v>46.8456158761225</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>27.57302724979548</c:v>
+                  <c:v>26.10799866099774</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>41.69351192645295</c:v>
+                  <c:v>49.22119951986329</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>43.8542624843478</c:v>
+                  <c:v>35.62778051742738</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>36.12807706212911</c:v>
+                  <c:v>20.52536787570187</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>26.73469467363554</c:v>
+                  <c:v>34.69079931811059</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>21.58491406660707</c:v>
+                  <c:v>37.0126710744666</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>33.77357401021008</c:v>
+                  <c:v>44.2047030599674</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>42.04054714039459</c:v>
+                  <c:v>40.49692997528553</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>22.34742493671132</c:v>
+                  <c:v>21.91330291914676</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>40.47026304634029</c:v>
+                  <c:v>47.13724667555906</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>37.63761255728356</c:v>
+                  <c:v>22.11690246264183</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>40.77656780218561</c:v>
+                  <c:v>21.95292164944991</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>39.39373129558659</c:v>
+                  <c:v>23.45635387765481</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>49.01158066030919</c:v>
+                  <c:v>33.30773825665688</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>33.96058242001801</c:v>
+                  <c:v>22.37679110714073</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>25.05445152693918</c:v>
+                  <c:v>46.10312748490767</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1261,7 +1261,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="4">
-        <v>44714.07562935339</v>
+        <v>44714.24843834269</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -1272,10 +1272,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="5">
-        <v>39.23577335698774</v>
+        <v>52.22634547842436</v>
       </c>
       <c r="C3" s="5">
-        <v>47.04018127435583</v>
+        <v>41.91679395758606</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="25" customHeight="1">
@@ -1283,10 +1283,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="5">
-        <v>72.63286427042766</v>
+        <v>24.33502398053488</v>
       </c>
       <c r="C4" s="5">
-        <v>42.18823360448647</v>
+        <v>43.36723128455492</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="25" customHeight="1">
@@ -1294,10 +1294,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="5">
-        <v>85.48944977156091</v>
+        <v>88.10410779434851</v>
       </c>
       <c r="C5" s="5">
-        <v>23.14312885621474</v>
+        <v>35.33784552821339</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="25" customHeight="1">
@@ -1305,10 +1305,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="5">
-        <v>66.27414717165985</v>
+        <v>44.46495108474625</v>
       </c>
       <c r="C6" s="5">
-        <v>46.62322222228221</v>
+        <v>46.12074437380982</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="25" customHeight="1">
@@ -1316,10 +1316,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="5">
-        <v>57.2292030243832</v>
+        <v>33.60883210390214</v>
       </c>
       <c r="C7" s="5">
-        <v>31.55686033938803</v>
+        <v>26.20640979151213</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="25" customHeight="1">
@@ -1327,10 +1327,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="5">
-        <v>81.21516868631056</v>
+        <v>52.67587170416202</v>
       </c>
       <c r="C8" s="5">
-        <v>20.72936827207329</v>
+        <v>40.7926817249532</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="25" customHeight="1">
@@ -1338,10 +1338,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="5">
-        <v>72.75954081781677</v>
+        <v>78.57969306653223</v>
       </c>
       <c r="C9" s="5">
-        <v>20.08180396884948</v>
+        <v>45.83113178192799</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="25" customHeight="1">
@@ -1349,10 +1349,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="5">
-        <v>67.10691517594549</v>
+        <v>28.7978953441044</v>
       </c>
       <c r="C10" s="5">
-        <v>39.92294883566078</v>
+        <v>35.81078357254657</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="25" customHeight="1">
@@ -1360,10 +1360,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="5">
-        <v>33.08534125355068</v>
+        <v>15.50302076610182</v>
       </c>
       <c r="C11" s="5">
-        <v>28.94569384900687</v>
+        <v>25.51531798352209</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="25" customHeight="1">
@@ -1371,10 +1371,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="5">
-        <v>84.19501281251148</v>
+        <v>83.92484575098003</v>
       </c>
       <c r="C12" s="5">
-        <v>39.97081034356781</v>
+        <v>25.46854301474026</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="25" customHeight="1">
@@ -1382,10 +1382,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="5">
-        <v>21.18723951678372</v>
+        <v>90.00703899509233</v>
       </c>
       <c r="C13" s="5">
-        <v>38.49597365175428</v>
+        <v>48.14032587478415</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="25" customHeight="1">
@@ -1393,10 +1393,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="5">
-        <v>46.72077180121665</v>
+        <v>26.76844872998425</v>
       </c>
       <c r="C14" s="5">
-        <v>38.3279215307469</v>
+        <v>21.69602935758753</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="25" customHeight="1">
@@ -1404,10 +1404,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="5">
-        <v>41.30944801969044</v>
+        <v>71.15476087476546</v>
       </c>
       <c r="C15" s="5">
-        <v>35.74057748598389</v>
+        <v>34.99918281341039</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="25" customHeight="1">
@@ -1415,10 +1415,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="5">
-        <v>91.06611566395077</v>
+        <v>37.65016753129042</v>
       </c>
       <c r="C16" s="5">
-        <v>46.23223490546113</v>
+        <v>46.5488724263851</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="25" customHeight="1">
@@ -1426,10 +1426,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="5">
-        <v>99.44301849449825</v>
+        <v>98.32205663648382</v>
       </c>
       <c r="C17" s="5">
-        <v>27.94081876111392</v>
+        <v>40.77220937840009</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="25" customHeight="1">
@@ -1437,10 +1437,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="5">
-        <v>76.41387318566319</v>
+        <v>66.44798405798159</v>
       </c>
       <c r="C18" s="5">
-        <v>24.24461985365533</v>
+        <v>27.42427287044917</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="25" customHeight="1">
@@ -1448,10 +1448,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="5">
-        <v>87.08676561992904</v>
+        <v>58.82115229314847</v>
       </c>
       <c r="C19" s="5">
-        <v>44.56512519598101</v>
+        <v>37.49781949925364</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="25" customHeight="1">
@@ -1459,10 +1459,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="5">
-        <v>43.64581803335272</v>
+        <v>97.06333196363131</v>
       </c>
       <c r="C20" s="5">
-        <v>24.03130894695769</v>
+        <v>20.42855594399366</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="25" customHeight="1">
@@ -1470,10 +1470,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="5">
-        <v>75.07158429322878</v>
+        <v>35.81100280116046</v>
       </c>
       <c r="C21" s="5">
-        <v>47.42177104118579</v>
+        <v>21.73833997689172</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="25" customHeight="1">
@@ -1481,10 +1481,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="5">
-        <v>29.36747211147364</v>
+        <v>96.4022286736996</v>
       </c>
       <c r="C22" s="5">
-        <v>48.25593746134354</v>
+        <v>23.93056234176079</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="25" customHeight="1">
@@ -1492,10 +1492,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="5">
-        <v>86.03807922132282</v>
+        <v>26.92294508733579</v>
       </c>
       <c r="C23" s="5">
-        <v>31.55723323540839</v>
+        <v>33.77881106885495</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="25" customHeight="1">
@@ -1503,10 +1503,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="5">
-        <v>79.6352259360348</v>
+        <v>55.40515487638112</v>
       </c>
       <c r="C24" s="5">
-        <v>40.32737443126655</v>
+        <v>32.9604208947638</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="25" customHeight="1">
@@ -1514,10 +1514,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="5">
-        <v>45.79773588904153</v>
+        <v>36.45589604058004</v>
       </c>
       <c r="C25" s="5">
-        <v>27.63845927973157</v>
+        <v>36.1713490110577</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="25" customHeight="1">
@@ -1525,10 +1525,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="5">
-        <v>30.82711705665798</v>
+        <v>70.74346042437838</v>
       </c>
       <c r="C26" s="5">
-        <v>29.36642243333629</v>
+        <v>29.88434835280639</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="25" customHeight="1">
@@ -1536,10 +1536,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="5">
-        <v>98.15933428582757</v>
+        <v>87.53211968566841</v>
       </c>
       <c r="C27" s="5">
-        <v>22.31389116642872</v>
+        <v>20.05416203065288</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="25" customHeight="1">
@@ -1547,10 +1547,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="5">
-        <v>17.79088403153667</v>
+        <v>97.18117549795041</v>
       </c>
       <c r="C28" s="5">
-        <v>42.04875835987896</v>
+        <v>35.83633700125259</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="25" customHeight="1">
@@ -1558,10 +1558,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="5">
-        <v>81.94773652082075</v>
+        <v>38.49710769224171</v>
       </c>
       <c r="C29" s="5">
-        <v>41.68085143190629</v>
+        <v>24.00036350458781</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="25" customHeight="1">
@@ -1569,10 +1569,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="5">
-        <v>52.3012613198811</v>
+        <v>12.32580701105268</v>
       </c>
       <c r="C30" s="5">
-        <v>40.98314813143119</v>
+        <v>26.60932256440239</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="25" customHeight="1">
@@ -1580,10 +1580,10 @@
         <v>29</v>
       </c>
       <c r="B31" s="5">
-        <v>57.76705934511367</v>
+        <v>49.51064149889704</v>
       </c>
       <c r="C31" s="5">
-        <v>48.51142283063849</v>
+        <v>22.82695646517519</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="25" customHeight="1">
@@ -1591,10 +1591,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="5">
-        <v>28.36984480130013</v>
+        <v>57.35646864768822</v>
       </c>
       <c r="C32" s="5">
-        <v>37.5423529742573</v>
+        <v>46.16481583131603</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="25" customHeight="1">
@@ -1602,10 +1602,10 @@
         <v>31</v>
       </c>
       <c r="B33" s="5">
-        <v>33.24156835964375</v>
+        <v>28.59026778588629</v>
       </c>
       <c r="C33" s="5">
-        <v>23.28958550639066</v>
+        <v>43.71386814602943</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="25" customHeight="1">
@@ -1613,10 +1613,10 @@
         <v>32</v>
       </c>
       <c r="B34" s="5">
-        <v>52.17883815289062</v>
+        <v>58.52156914674199</v>
       </c>
       <c r="C34" s="5">
-        <v>20.92365008687104</v>
+        <v>45.94845189608085</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="25" customHeight="1">
@@ -1624,10 +1624,10 @@
         <v>33</v>
       </c>
       <c r="B35" s="5">
-        <v>99.45078309691065</v>
+        <v>19.93071640810523</v>
       </c>
       <c r="C35" s="5">
-        <v>20.69627691745803</v>
+        <v>31.00412657245312</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="25" customHeight="1">
@@ -1635,10 +1635,10 @@
         <v>34</v>
       </c>
       <c r="B36" s="5">
-        <v>98.97000981774599</v>
+        <v>54.81350461054532</v>
       </c>
       <c r="C36" s="5">
-        <v>25.51451589045954</v>
+        <v>36.10386622048688</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="25" customHeight="1">
@@ -1646,10 +1646,10 @@
         <v>35</v>
       </c>
       <c r="B37" s="5">
-        <v>92.77679089706085</v>
+        <v>13.64624386493455</v>
       </c>
       <c r="C37" s="5">
-        <v>33.26000973825369</v>
+        <v>33.30292161336327</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="25" customHeight="1">
@@ -1657,10 +1657,10 @@
         <v>36</v>
       </c>
       <c r="B38" s="5">
-        <v>32.15435895003607</v>
+        <v>82.78384127472829</v>
       </c>
       <c r="C38" s="5">
-        <v>26.41481369817257</v>
+        <v>26.57595818132034</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="25" customHeight="1">
@@ -1668,10 +1668,10 @@
         <v>37</v>
       </c>
       <c r="B39" s="5">
-        <v>26.31033094094217</v>
+        <v>80.60557649283231</v>
       </c>
       <c r="C39" s="5">
-        <v>27.53140559713896</v>
+        <v>27.81157388498587</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="25" customHeight="1">
@@ -1679,10 +1679,10 @@
         <v>38</v>
       </c>
       <c r="B40" s="5">
-        <v>68.80863687596985</v>
+        <v>57.88080967898171</v>
       </c>
       <c r="C40" s="5">
-        <v>44.07275859048771</v>
+        <v>32.62820025019901</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="25" customHeight="1">
@@ -1690,10 +1690,10 @@
         <v>39</v>
       </c>
       <c r="B41" s="5">
-        <v>24.57239170136759</v>
+        <v>84.28813540629476</v>
       </c>
       <c r="C41" s="5">
-        <v>29.57546019842502</v>
+        <v>48.02444968747818</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="25" customHeight="1">
@@ -1701,10 +1701,10 @@
         <v>40</v>
       </c>
       <c r="B42" s="5">
-        <v>78.63197696252621</v>
+        <v>38.07640124817209</v>
       </c>
       <c r="C42" s="5">
-        <v>43.67222380401253</v>
+        <v>29.62850800496535</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="25" customHeight="1">
@@ -1712,10 +1712,10 @@
         <v>41</v>
       </c>
       <c r="B43" s="5">
-        <v>73.58012591613694</v>
+        <v>72.82179731642694</v>
       </c>
       <c r="C43" s="5">
-        <v>26.05291692331841</v>
+        <v>35.06902884103379</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="25" customHeight="1">
@@ -1723,10 +1723,10 @@
         <v>42</v>
       </c>
       <c r="B44" s="5">
-        <v>74.2664007906116</v>
+        <v>47.22338481246765</v>
       </c>
       <c r="C44" s="5">
-        <v>30.54460383841781</v>
+        <v>40.58952620153475</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="25" customHeight="1">
@@ -1734,10 +1734,10 @@
         <v>43</v>
       </c>
       <c r="B45" s="5">
-        <v>24.55499502446218</v>
+        <v>97.93970994182132</v>
       </c>
       <c r="C45" s="5">
-        <v>24.03136433009995</v>
+        <v>37.27713854981523</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="25" customHeight="1">
@@ -1745,10 +1745,10 @@
         <v>44</v>
       </c>
       <c r="B46" s="5">
-        <v>14.79394827326041</v>
+        <v>49.16667750017669</v>
       </c>
       <c r="C46" s="5">
-        <v>27.87268538819498</v>
+        <v>32.33673601075748</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="25" customHeight="1">
@@ -1756,10 +1756,10 @@
         <v>45</v>
       </c>
       <c r="B47" s="5">
-        <v>63.61967702743886</v>
+        <v>33.25744721531245</v>
       </c>
       <c r="C47" s="5">
-        <v>32.79120428066491</v>
+        <v>46.20763763899923</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="25" customHeight="1">
@@ -1767,10 +1767,10 @@
         <v>46</v>
       </c>
       <c r="B48" s="5">
-        <v>49.14570799301205</v>
+        <v>95.04849758944425</v>
       </c>
       <c r="C48" s="5">
-        <v>26.34398742488648</v>
+        <v>24.62344496280175</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="25" customHeight="1">
@@ -1778,10 +1778,10 @@
         <v>47</v>
       </c>
       <c r="B49" s="5">
-        <v>47.53312286378706</v>
+        <v>82.44950866926297</v>
       </c>
       <c r="C49" s="5">
-        <v>36.12039835334564</v>
+        <v>37.50857881242763</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="25" customHeight="1">
@@ -1789,10 +1789,10 @@
         <v>48</v>
       </c>
       <c r="B50" s="5">
-        <v>18.94494359783769</v>
+        <v>78.15485417251595</v>
       </c>
       <c r="C50" s="5">
-        <v>37.14826115252241</v>
+        <v>30.60451734542193</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="25" customHeight="1">
@@ -1800,10 +1800,10 @@
         <v>49</v>
       </c>
       <c r="B51" s="5">
-        <v>25.515722229359</v>
+        <v>32.13567711982236</v>
       </c>
       <c r="C51" s="5">
-        <v>33.05296055167679</v>
+        <v>27.1104157780802</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="25" customHeight="1">
@@ -1811,10 +1811,10 @@
         <v>50</v>
       </c>
       <c r="B52" s="5">
-        <v>31.77069605357499</v>
+        <v>62.94084610342504</v>
       </c>
       <c r="C52" s="5">
-        <v>37.56292079189016</v>
+        <v>30.8393402505176</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="25" customHeight="1">
@@ -1822,10 +1822,10 @@
         <v>51</v>
       </c>
       <c r="B53" s="5">
-        <v>32.90011927135303</v>
+        <v>72.31365240643848</v>
       </c>
       <c r="C53" s="5">
-        <v>41.02086270083907</v>
+        <v>25.95410729274509</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="25" customHeight="1">
@@ -1833,10 +1833,10 @@
         <v>52</v>
       </c>
       <c r="B54" s="5">
-        <v>33.06782993410243</v>
+        <v>56.42057664658931</v>
       </c>
       <c r="C54" s="5">
-        <v>46.65877912510312</v>
+        <v>36.22636116017198</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="25" customHeight="1">
@@ -1844,10 +1844,10 @@
         <v>53</v>
       </c>
       <c r="B55" s="5">
-        <v>72.11066240882823</v>
+        <v>60.48784058119268</v>
       </c>
       <c r="C55" s="5">
-        <v>31.3512497033985</v>
+        <v>28.68785381225975</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="25" customHeight="1">
@@ -1855,10 +1855,10 @@
         <v>54</v>
       </c>
       <c r="B56" s="5">
-        <v>18.30710781394842</v>
+        <v>80.42259368484426</v>
       </c>
       <c r="C56" s="5">
-        <v>49.13616891651313</v>
+        <v>22.10291651069229</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="25" customHeight="1">
@@ -1866,10 +1866,10 @@
         <v>55</v>
       </c>
       <c r="B57" s="5">
-        <v>85.18471671809408</v>
+        <v>62.10094475135074</v>
       </c>
       <c r="C57" s="5">
-        <v>31.51760823921753</v>
+        <v>42.76704943429095</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="25" customHeight="1">
@@ -1877,10 +1877,10 @@
         <v>56</v>
       </c>
       <c r="B58" s="5">
-        <v>17.76924925467925</v>
+        <v>92.07981172906825</v>
       </c>
       <c r="C58" s="5">
-        <v>21.99056507950483</v>
+        <v>30.0965768552852</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="25" customHeight="1">
@@ -1888,10 +1888,10 @@
         <v>57</v>
       </c>
       <c r="B59" s="5">
-        <v>25.22775356497635</v>
+        <v>37.5601118838706</v>
       </c>
       <c r="C59" s="5">
-        <v>27.86162783882427</v>
+        <v>21.15035723368172</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="25" customHeight="1">
@@ -1899,10 +1899,10 @@
         <v>58</v>
       </c>
       <c r="B60" s="5">
-        <v>25.6590116241461</v>
+        <v>93.71403061197675</v>
       </c>
       <c r="C60" s="5">
-        <v>40.72039143072105</v>
+        <v>29.85988575563188</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="25" customHeight="1">
@@ -1910,10 +1910,10 @@
         <v>59</v>
       </c>
       <c r="B61" s="5">
-        <v>65.06902504046577</v>
+        <v>45.20698426255795</v>
       </c>
       <c r="C61" s="5">
-        <v>37.31452479111872</v>
+        <v>32.46545715128948</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="25" customHeight="1">
@@ -1921,10 +1921,10 @@
         <v>60</v>
       </c>
       <c r="B62" s="5">
-        <v>84.15574674734648</v>
+        <v>37.78103928593168</v>
       </c>
       <c r="C62" s="5">
-        <v>37.52239868435721</v>
+        <v>48.03672925799893</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="25" customHeight="1">
@@ -1932,10 +1932,10 @@
         <v>61</v>
       </c>
       <c r="B63" s="5">
-        <v>71.92361873116853</v>
+        <v>15.87655644776742</v>
       </c>
       <c r="C63" s="5">
-        <v>26.20801921078083</v>
+        <v>29.91371101933804</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="25" customHeight="1">
@@ -1943,10 +1943,10 @@
         <v>62</v>
       </c>
       <c r="B64" s="5">
-        <v>61.11590107076167</v>
+        <v>75.59293786126686</v>
       </c>
       <c r="C64" s="5">
-        <v>42.31163977917407</v>
+        <v>46.97671730802555</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="25" customHeight="1">
@@ -1954,10 +1954,10 @@
         <v>63</v>
       </c>
       <c r="B65" s="5">
-        <v>92.45551298503655</v>
+        <v>82.58834167922231</v>
       </c>
       <c r="C65" s="5">
-        <v>42.09420288963406</v>
+        <v>41.0426809621324</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="25" customHeight="1">
@@ -1965,10 +1965,10 @@
         <v>64</v>
       </c>
       <c r="B66" s="5">
-        <v>52.31069226651419</v>
+        <v>60.35695943201943</v>
       </c>
       <c r="C66" s="5">
-        <v>26.76025746879534</v>
+        <v>25.82398048897474</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="25" customHeight="1">
@@ -1976,10 +1976,10 @@
         <v>65</v>
       </c>
       <c r="B67" s="5">
-        <v>12.93560575858206</v>
+        <v>25.85129829684913</v>
       </c>
       <c r="C67" s="5">
-        <v>28.08062625651204</v>
+        <v>20.75247753610257</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="25" customHeight="1">
@@ -1987,10 +1987,10 @@
         <v>66</v>
       </c>
       <c r="B68" s="5">
-        <v>83.48408408285165</v>
+        <v>48.18440466613907</v>
       </c>
       <c r="C68" s="5">
-        <v>33.28972417799283</v>
+        <v>37.71810841111516</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="25" customHeight="1">
@@ -1998,10 +1998,10 @@
         <v>67</v>
       </c>
       <c r="B69" s="5">
-        <v>82.56645222691333</v>
+        <v>45.96124419751332</v>
       </c>
       <c r="C69" s="5">
-        <v>28.67752361455787</v>
+        <v>24.65353977261419</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="25" customHeight="1">
@@ -2009,10 +2009,10 @@
         <v>68</v>
       </c>
       <c r="B70" s="5">
-        <v>82.75906502289928</v>
+        <v>94.96464985924337</v>
       </c>
       <c r="C70" s="5">
-        <v>40.46897422822042</v>
+        <v>36.241558885749</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="25" customHeight="1">
@@ -2020,10 +2020,10 @@
         <v>69</v>
       </c>
       <c r="B71" s="5">
-        <v>95.97865688784393</v>
+        <v>93.13796665971226</v>
       </c>
       <c r="C71" s="5">
-        <v>24.78545660990291</v>
+        <v>35.81414685762267</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="25" customHeight="1">
@@ -2031,10 +2031,10 @@
         <v>70</v>
       </c>
       <c r="B72" s="5">
-        <v>31.96019631585754</v>
+        <v>76.933051916105</v>
       </c>
       <c r="C72" s="5">
-        <v>43.94552396500203</v>
+        <v>33.54571602310725</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="25" customHeight="1">
@@ -2042,10 +2042,10 @@
         <v>71</v>
       </c>
       <c r="B73" s="5">
-        <v>90.87687537356645</v>
+        <v>57.30249243580808</v>
       </c>
       <c r="C73" s="5">
-        <v>49.12870721054803</v>
+        <v>20.33754664592575</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="25" customHeight="1">
@@ -2053,10 +2053,10 @@
         <v>72</v>
       </c>
       <c r="B74" s="5">
-        <v>55.75987911330556</v>
+        <v>80.13479047179085</v>
       </c>
       <c r="C74" s="5">
-        <v>27.10783829409558</v>
+        <v>41.50201061072717</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="25" customHeight="1">
@@ -2064,10 +2064,10 @@
         <v>73</v>
       </c>
       <c r="B75" s="5">
-        <v>45.51763941169909</v>
+        <v>96.21450445669201</v>
       </c>
       <c r="C75" s="5">
-        <v>27.55779915452553</v>
+        <v>36.06891788209413</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="25" customHeight="1">
@@ -2075,10 +2075,10 @@
         <v>74</v>
       </c>
       <c r="B76" s="5">
-        <v>14.29042509217282</v>
+        <v>57.90782322705255</v>
       </c>
       <c r="C76" s="5">
-        <v>46.60188675812946</v>
+        <v>25.15530102680956</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="25" customHeight="1">
@@ -2086,10 +2086,10 @@
         <v>75</v>
       </c>
       <c r="B77" s="5">
-        <v>76.17623467420484</v>
+        <v>79.97510195768828</v>
       </c>
       <c r="C77" s="5">
-        <v>28.81752394603479</v>
+        <v>21.51801726929299</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="25" customHeight="1">
@@ -2097,10 +2097,10 @@
         <v>76</v>
       </c>
       <c r="B78" s="5">
-        <v>75.44710850267617</v>
+        <v>35.33256081668532</v>
       </c>
       <c r="C78" s="5">
-        <v>44.81301561795043</v>
+        <v>24.34628593571437</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="25" customHeight="1">
@@ -2108,10 +2108,10 @@
         <v>77</v>
       </c>
       <c r="B79" s="5">
-        <v>26.75451761951918</v>
+        <v>79.82450742428203</v>
       </c>
       <c r="C79" s="5">
-        <v>23.22758894871619</v>
+        <v>31.03298728339804</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="25" customHeight="1">
@@ -2119,10 +2119,10 @@
         <v>78</v>
       </c>
       <c r="B80" s="5">
-        <v>59.66255752448487</v>
+        <v>90.64128459653044</v>
       </c>
       <c r="C80" s="5">
-        <v>36.23844869686091</v>
+        <v>24.59007391239329</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="25" customHeight="1">
@@ -2130,10 +2130,10 @@
         <v>79</v>
       </c>
       <c r="B81" s="5">
-        <v>54.38090923712026</v>
+        <v>95.19622537206845</v>
       </c>
       <c r="C81" s="5">
-        <v>45.54772395871676</v>
+        <v>33.98309969558537</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="25" customHeight="1">
@@ -2141,10 +2141,10 @@
         <v>80</v>
       </c>
       <c r="B82" s="5">
-        <v>30.89580250028337</v>
+        <v>27.39539880346758</v>
       </c>
       <c r="C82" s="5">
-        <v>28.52781043465851</v>
+        <v>28.10358007380632</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="25" customHeight="1">
@@ -2152,10 +2152,10 @@
         <v>81</v>
       </c>
       <c r="B83" s="5">
-        <v>91.75111469592856</v>
+        <v>72.04067895121051</v>
       </c>
       <c r="C83" s="5">
-        <v>31.85163714677044</v>
+        <v>36.35974669523979</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="25" customHeight="1">
@@ -2163,10 +2163,10 @@
         <v>82</v>
       </c>
       <c r="B84" s="5">
-        <v>10.4680778381256</v>
+        <v>92.71453001112802</v>
       </c>
       <c r="C84" s="5">
-        <v>42.17751393174115</v>
+        <v>40.36066644573799</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="25" customHeight="1">
@@ -2174,10 +2174,10 @@
         <v>83</v>
       </c>
       <c r="B85" s="5">
-        <v>56.10115954983888</v>
+        <v>43.40658343247344</v>
       </c>
       <c r="C85" s="5">
-        <v>21.48219699532644</v>
+        <v>46.8456158761225</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="25" customHeight="1">
@@ -2185,10 +2185,10 @@
         <v>84</v>
       </c>
       <c r="B86" s="5">
-        <v>20.29471488309852</v>
+        <v>88.48784292114912</v>
       </c>
       <c r="C86" s="5">
-        <v>27.57302724979548</v>
+        <v>26.10799866099774</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="25" customHeight="1">
@@ -2196,10 +2196,10 @@
         <v>85</v>
       </c>
       <c r="B87" s="5">
-        <v>77.06430274114601</v>
+        <v>23.81544433216983</v>
       </c>
       <c r="C87" s="5">
-        <v>41.69351192645295</v>
+        <v>49.22119951986329</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="25" customHeight="1">
@@ -2207,10 +2207,10 @@
         <v>86</v>
       </c>
       <c r="B88" s="5">
-        <v>75.78646766211354</v>
+        <v>93.86083850723298</v>
       </c>
       <c r="C88" s="5">
-        <v>43.8542624843478</v>
+        <v>35.62778051742738</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="25" customHeight="1">
@@ -2218,10 +2218,10 @@
         <v>87</v>
       </c>
       <c r="B89" s="5">
-        <v>41.18284040293024</v>
+        <v>27.26256124347956</v>
       </c>
       <c r="C89" s="5">
-        <v>36.12807706212911</v>
+        <v>20.52536787570187</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="25" customHeight="1">
@@ -2229,10 +2229,10 @@
         <v>88</v>
       </c>
       <c r="B90" s="5">
-        <v>24.68900822108959</v>
+        <v>46.13438782264661</v>
       </c>
       <c r="C90" s="5">
-        <v>26.73469467363554</v>
+        <v>34.69079931811059</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="25" customHeight="1">
@@ -2240,10 +2240,10 @@
         <v>89</v>
       </c>
       <c r="B91" s="5">
-        <v>14.97319825809191</v>
+        <v>43.00324779252536</v>
       </c>
       <c r="C91" s="5">
-        <v>21.58491406660707</v>
+        <v>37.0126710744666</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="25" customHeight="1">
@@ -2251,10 +2251,10 @@
         <v>90</v>
       </c>
       <c r="B92" s="5">
-        <v>41.77470635473715</v>
+        <v>29.00948499245904</v>
       </c>
       <c r="C92" s="5">
-        <v>33.77357401021008</v>
+        <v>44.2047030599674</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="25" customHeight="1">
@@ -2262,10 +2262,10 @@
         <v>91</v>
       </c>
       <c r="B93" s="5">
-        <v>33.7577822330725</v>
+        <v>97.34335519619228</v>
       </c>
       <c r="C93" s="5">
-        <v>42.04054714039459</v>
+        <v>40.49692997528553</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="25" customHeight="1">
@@ -2273,10 +2273,10 @@
         <v>92</v>
       </c>
       <c r="B94" s="5">
-        <v>35.95925633064175</v>
+        <v>93.43307626853999</v>
       </c>
       <c r="C94" s="5">
-        <v>22.34742493671132</v>
+        <v>21.91330291914676</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="25" customHeight="1">
@@ -2284,10 +2284,10 @@
         <v>93</v>
       </c>
       <c r="B95" s="5">
-        <v>26.61164797653343</v>
+        <v>15.09740783081142</v>
       </c>
       <c r="C95" s="5">
-        <v>40.47026304634029</v>
+        <v>47.13724667555906</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="25" customHeight="1">
@@ -2295,10 +2295,10 @@
         <v>94</v>
       </c>
       <c r="B96" s="5">
-        <v>90.60950945895202</v>
+        <v>30.50863867285946</v>
       </c>
       <c r="C96" s="5">
-        <v>37.63761255728356</v>
+        <v>22.11690246264183</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="25" customHeight="1">
@@ -2306,10 +2306,10 @@
         <v>95</v>
       </c>
       <c r="B97" s="5">
-        <v>84.85104654073244</v>
+        <v>89.87983960761321</v>
       </c>
       <c r="C97" s="5">
-        <v>40.77656780218561</v>
+        <v>21.95292164944991</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="25" customHeight="1">
@@ -2317,10 +2317,10 @@
         <v>96</v>
       </c>
       <c r="B98" s="5">
-        <v>58.38765191096734</v>
+        <v>19.49303493157207</v>
       </c>
       <c r="C98" s="5">
-        <v>39.39373129558659</v>
+        <v>23.45635387765481</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="25" customHeight="1">
@@ -2328,10 +2328,10 @@
         <v>97</v>
       </c>
       <c r="B99" s="5">
-        <v>80.17905368822136</v>
+        <v>23.71269795023675</v>
       </c>
       <c r="C99" s="5">
-        <v>49.01158066030919</v>
+        <v>33.30773825665688</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="25" customHeight="1">
@@ -2339,10 +2339,10 @@
         <v>98</v>
       </c>
       <c r="B100" s="5">
-        <v>75.82735267104459</v>
+        <v>66.23320166707506</v>
       </c>
       <c r="C100" s="5">
-        <v>33.96058242001801</v>
+        <v>22.37679110714073</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="25" customHeight="1">
@@ -2350,10 +2350,10 @@
         <v>99</v>
       </c>
       <c r="B101" s="5">
-        <v>19.34325286952254</v>
+        <v>49.44658607668708</v>
       </c>
       <c r="C101" s="5">
-        <v>25.05445152693918</v>
+        <v>46.10312748490767</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="25" customHeight="1">
@@ -2361,10 +2361,10 @@
         <v>100</v>
       </c>
       <c r="B102" s="5">
-        <v>32.85927714800223</v>
+        <v>36.64262987811785</v>
       </c>
       <c r="C102" s="5">
-        <v>33.49646907467381</v>
+        <v>35.33719665542903</v>
       </c>
     </row>
   </sheetData>

--- a/demo.xlsx
+++ b/demo.xlsx
@@ -195,301 +195,301 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>52.22634547842436</c:v>
+                  <c:v>77.39689874268032</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24.33502398053488</c:v>
+                  <c:v>63.04483000987513</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>88.10410779434851</c:v>
+                  <c:v>69.0706033692619</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44.46495108474625</c:v>
+                  <c:v>80.46836947158999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>33.60883210390214</c:v>
+                  <c:v>41.59020149993552</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>52.67587170416202</c:v>
+                  <c:v>64.79233531573985</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>78.57969306653223</c:v>
+                  <c:v>38.75343253122536</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>28.7978953441044</c:v>
+                  <c:v>10.98846634466194</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>15.50302076610182</c:v>
+                  <c:v>10.95858093479739</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>83.92484575098003</c:v>
+                  <c:v>87.98550585318112</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>90.00703899509233</c:v>
+                  <c:v>37.63567739809163</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>26.76844872998425</c:v>
+                  <c:v>18.1335132407677</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>71.15476087476546</c:v>
+                  <c:v>24.30034285471323</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>37.65016753129042</c:v>
+                  <c:v>44.14062036427299</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>98.32205663648382</c:v>
+                  <c:v>36.13832087584305</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>66.44798405798159</c:v>
+                  <c:v>66.24949974726934</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>58.82115229314847</c:v>
+                  <c:v>30.78887557451866</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>97.06333196363131</c:v>
+                  <c:v>26.21710564902675</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>35.81100280116046</c:v>
+                  <c:v>56.11623635701753</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>96.4022286736996</c:v>
+                  <c:v>63.33933913341429</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>26.92294508733579</c:v>
+                  <c:v>53.50608330154665</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>55.40515487638112</c:v>
+                  <c:v>69.11183081355763</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>36.45589604058004</c:v>
+                  <c:v>80.37151930172929</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>70.74346042437838</c:v>
+                  <c:v>52.73930714884703</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>87.53211968566841</c:v>
+                  <c:v>82.36657819983408</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>97.18117549795041</c:v>
+                  <c:v>70.79206717140893</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>38.49710769224171</c:v>
+                  <c:v>21.1463363160423</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>12.32580701105268</c:v>
+                  <c:v>79.99869965302008</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>49.51064149889704</c:v>
+                  <c:v>13.28532648127813</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>57.35646864768822</c:v>
+                  <c:v>86.10012163952906</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>28.59026778588629</c:v>
+                  <c:v>96.58944705150819</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>58.52156914674199</c:v>
+                  <c:v>24.2978491125929</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>19.93071640810523</c:v>
+                  <c:v>33.65265237245508</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>54.81350461054532</c:v>
+                  <c:v>57.95834504813821</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>13.64624386493455</c:v>
+                  <c:v>66.73519607866189</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>82.78384127472829</c:v>
+                  <c:v>88.01180525908843</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>80.60557649283231</c:v>
+                  <c:v>95.07178304186822</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>57.88080967898171</c:v>
+                  <c:v>84.60909320429026</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>84.28813540629476</c:v>
+                  <c:v>77.68484193942625</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>38.07640124817209</c:v>
+                  <c:v>50.82825717868953</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>72.82179731642694</c:v>
+                  <c:v>82.50725806067466</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>47.22338481246765</c:v>
+                  <c:v>81.3754694837297</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>97.93970994182132</c:v>
+                  <c:v>56.02269315367823</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>49.16667750017669</c:v>
+                  <c:v>42.79190685896171</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>33.25744721531245</c:v>
+                  <c:v>13.2669638945776</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>95.04849758944425</c:v>
+                  <c:v>96.98406513615097</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>82.44950866926297</c:v>
+                  <c:v>82.8522037263652</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>78.15485417251595</c:v>
+                  <c:v>77.46989185870891</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>32.13567711982236</c:v>
+                  <c:v>54.65898529609054</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>62.94084610342504</c:v>
+                  <c:v>75.05936909611366</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>72.31365240643848</c:v>
+                  <c:v>53.23753484036612</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>56.42057664658931</c:v>
+                  <c:v>39.08555516042647</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>60.48784058119268</c:v>
+                  <c:v>63.57046683482892</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>80.42259368484426</c:v>
+                  <c:v>67.72311407158926</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>62.10094475135074</c:v>
+                  <c:v>42.30637890031199</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>92.07981172906825</c:v>
+                  <c:v>20.17398763784539</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>37.5601118838706</c:v>
+                  <c:v>12.18139313192446</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>93.71403061197675</c:v>
+                  <c:v>35.79884192014546</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>45.20698426255795</c:v>
+                  <c:v>64.41178555125543</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>37.78103928593168</c:v>
+                  <c:v>21.83319548540442</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>15.87655644776742</c:v>
+                  <c:v>17.66986119027896</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>75.59293786126686</c:v>
+                  <c:v>65.98611924447766</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>82.58834167922231</c:v>
+                  <c:v>18.0897856967905</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>60.35695943201943</c:v>
+                  <c:v>40.91942342565977</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>25.85129829684913</c:v>
+                  <c:v>43.1580757368492</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>48.18440466613907</c:v>
+                  <c:v>98.49647382773301</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>45.96124419751332</c:v>
+                  <c:v>14.08122418167597</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>94.96464985924337</c:v>
+                  <c:v>23.72680700527568</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>93.13796665971226</c:v>
+                  <c:v>10.86940349965025</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>76.933051916105</c:v>
+                  <c:v>66.92349571628164</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>57.30249243580808</c:v>
+                  <c:v>77.66995669458957</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>80.13479047179085</c:v>
+                  <c:v>81.47465752083352</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>96.21450445669201</c:v>
+                  <c:v>10.32298059664159</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>57.90782322705255</c:v>
+                  <c:v>96.8246572218158</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>79.97510195768828</c:v>
+                  <c:v>86.01716689871068</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>35.33256081668532</c:v>
+                  <c:v>95.39126529612747</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>79.82450742428203</c:v>
+                  <c:v>56.79309820794099</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>90.64128459653044</c:v>
+                  <c:v>31.83874197056397</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>95.19622537206845</c:v>
+                  <c:v>63.24751107649099</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>27.39539880346758</c:v>
+                  <c:v>66.22800266825581</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>72.04067895121051</c:v>
+                  <c:v>42.6907377975574</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>92.71453001112802</c:v>
+                  <c:v>89.02001890996608</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>43.40658343247344</c:v>
+                  <c:v>61.87112511676936</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>88.48784292114912</c:v>
+                  <c:v>44.35770522649564</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>23.81544433216983</c:v>
+                  <c:v>19.30768085197051</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>93.86083850723298</c:v>
+                  <c:v>94.45350710355501</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>27.26256124347956</c:v>
+                  <c:v>31.47588280183883</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>46.13438782264661</c:v>
+                  <c:v>98.07873670429544</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>43.00324779252536</c:v>
+                  <c:v>60.67932650508392</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>29.00948499245904</c:v>
+                  <c:v>46.58000754655647</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>97.34335519619228</c:v>
+                  <c:v>90.92637049185629</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>93.43307626853999</c:v>
+                  <c:v>35.54086843988748</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>15.09740783081142</c:v>
+                  <c:v>95.73666787478554</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>30.50863867285946</c:v>
+                  <c:v>34.66299984103971</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>89.87983960761321</c:v>
+                  <c:v>24.65789444211672</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>19.49303493157207</c:v>
+                  <c:v>18.83815202086015</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>23.71269795023675</c:v>
+                  <c:v>62.57992890602498</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>66.23320166707506</c:v>
+                  <c:v>96.70106501940148</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>49.44658607668708</c:v>
+                  <c:v>24.43161109808531</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -522,301 +522,301 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41.91679395758606</c:v>
+                  <c:v>49.3227489115568</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43.36723128455492</c:v>
+                  <c:v>28.72560144370532</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>35.33784552821339</c:v>
+                  <c:v>34.9073167699252</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>46.12074437380982</c:v>
+                  <c:v>41.35545170244453</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>26.20640979151213</c:v>
+                  <c:v>22.75201278119327</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>40.7926817249532</c:v>
+                  <c:v>31.0663917133058</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45.83113178192799</c:v>
+                  <c:v>42.68927395565917</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>35.81078357254657</c:v>
+                  <c:v>21.59835004299674</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>25.51531798352209</c:v>
+                  <c:v>42.43734634838071</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>25.46854301474026</c:v>
+                  <c:v>43.1385350479287</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>48.14032587478415</c:v>
+                  <c:v>44.7703437866802</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>21.69602935758753</c:v>
+                  <c:v>47.33243406519274</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>34.99918281341039</c:v>
+                  <c:v>49.40176202155443</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>46.5488724263851</c:v>
+                  <c:v>41.26663947713299</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>40.77220937840009</c:v>
+                  <c:v>45.33257675735508</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>27.42427287044917</c:v>
+                  <c:v>23.22401476975789</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>37.49781949925364</c:v>
+                  <c:v>38.20784316554237</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>20.42855594399366</c:v>
+                  <c:v>46.15332234694856</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>21.73833997689172</c:v>
+                  <c:v>21.12422832007939</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>23.93056234176079</c:v>
+                  <c:v>30.63316130822912</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>33.77881106885495</c:v>
+                  <c:v>40.80622944119907</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>32.9604208947638</c:v>
+                  <c:v>27.10404203945714</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>36.1713490110577</c:v>
+                  <c:v>26.69419977339986</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>29.88434835280639</c:v>
+                  <c:v>28.32321123036871</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>20.05416203065288</c:v>
+                  <c:v>39.52888971014066</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>35.83633700125259</c:v>
+                  <c:v>36.6128501200603</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>24.00036350458781</c:v>
+                  <c:v>46.20841986336116</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>26.60932256440239</c:v>
+                  <c:v>46.31089717112066</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>22.82695646517519</c:v>
+                  <c:v>24.22476812940731</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>46.16481583131603</c:v>
+                  <c:v>21.22186461496969</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>43.71386814602943</c:v>
+                  <c:v>41.66519219165711</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>45.94845189608085</c:v>
+                  <c:v>42.24920787148277</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>31.00412657245312</c:v>
+                  <c:v>43.6162409242156</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>36.10386622048688</c:v>
+                  <c:v>21.33704702012147</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>33.30292161336327</c:v>
+                  <c:v>23.36770632855755</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>26.57595818132034</c:v>
+                  <c:v>27.59779202757145</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>27.81157388498587</c:v>
+                  <c:v>37.38590413194309</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>32.62820025019901</c:v>
+                  <c:v>37.34114344891894</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>48.02444968747818</c:v>
+                  <c:v>21.7339825586305</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>29.62850800496535</c:v>
+                  <c:v>40.39717881702082</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>35.06902884103379</c:v>
+                  <c:v>32.927715013378</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>40.58952620153475</c:v>
+                  <c:v>39.28797959433786</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>37.27713854981523</c:v>
+                  <c:v>45.63770067460012</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>32.33673601075748</c:v>
+                  <c:v>36.4248839391496</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>46.20763763899923</c:v>
+                  <c:v>32.65041292599116</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>24.62344496280175</c:v>
+                  <c:v>31.2342321292884</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>37.50857881242763</c:v>
+                  <c:v>48.55592296924757</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>30.60451734542193</c:v>
+                  <c:v>46.19935087074386</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>27.1104157780802</c:v>
+                  <c:v>35.87257832339778</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>30.8393402505176</c:v>
+                  <c:v>24.62797680828497</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>25.95410729274509</c:v>
+                  <c:v>49.27270728812603</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>36.22636116017198</c:v>
+                  <c:v>48.29974671243409</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>28.68785381225975</c:v>
+                  <c:v>28.0298818429577</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>22.10291651069229</c:v>
+                  <c:v>37.88328102483318</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>42.76704943429095</c:v>
+                  <c:v>48.29154093455243</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>30.0965768552852</c:v>
+                  <c:v>36.36486814208381</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>21.15035723368172</c:v>
+                  <c:v>47.7886825785631</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>29.85988575563188</c:v>
+                  <c:v>28.3849020809984</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>32.46545715128948</c:v>
+                  <c:v>25.1953868007265</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>48.03672925799893</c:v>
+                  <c:v>40.69558296186598</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>29.91371101933804</c:v>
+                  <c:v>41.99129391072719</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>46.97671730802555</c:v>
+                  <c:v>21.49507583172958</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>41.0426809621324</c:v>
+                  <c:v>43.91579473891318</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>25.82398048897474</c:v>
+                  <c:v>29.25351053287645</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>20.75247753610257</c:v>
+                  <c:v>49.40812498321667</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>37.71810841111516</c:v>
+                  <c:v>32.81929515376691</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>24.65353977261419</c:v>
+                  <c:v>31.00242898316496</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>36.241558885749</c:v>
+                  <c:v>34.39812955427684</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>35.81414685762267</c:v>
+                  <c:v>29.76996380239217</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>33.54571602310725</c:v>
+                  <c:v>35.39280608094338</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>20.33754664592575</c:v>
+                  <c:v>29.8460631658443</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>41.50201061072717</c:v>
+                  <c:v>43.27863987009438</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>36.06891788209413</c:v>
+                  <c:v>21.55815357010415</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>25.15530102680956</c:v>
+                  <c:v>20.05617700403002</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>21.51801726929299</c:v>
+                  <c:v>28.33239160342556</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>24.34628593571437</c:v>
+                  <c:v>36.39323883723782</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>31.03298728339804</c:v>
+                  <c:v>21.56816335869483</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>24.59007391239329</c:v>
+                  <c:v>36.05387431795164</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>33.98309969558537</c:v>
+                  <c:v>23.08942805543084</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>28.10358007380632</c:v>
+                  <c:v>34.88265680090734</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>36.35974669523979</c:v>
+                  <c:v>24.94297861880869</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>40.36066644573799</c:v>
+                  <c:v>21.8291954900964</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>46.8456158761225</c:v>
+                  <c:v>29.38590981250959</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>26.10799866099774</c:v>
+                  <c:v>43.89713897340766</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>49.22119951986329</c:v>
+                  <c:v>22.80874666533363</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>35.62778051742738</c:v>
+                  <c:v>33.93791855840405</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>20.52536787570187</c:v>
+                  <c:v>36.63191897131662</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>34.69079931811059</c:v>
+                  <c:v>47.60562913556861</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>37.0126710744666</c:v>
+                  <c:v>44.75727021713028</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>44.2047030599674</c:v>
+                  <c:v>42.3321256806779</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>40.49692997528553</c:v>
+                  <c:v>42.87466299837165</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>21.91330291914676</c:v>
+                  <c:v>48.24792254058005</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>47.13724667555906</c:v>
+                  <c:v>48.45262431170277</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>22.11690246264183</c:v>
+                  <c:v>26.71108433350927</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>21.95292164944991</c:v>
+                  <c:v>37.75629750947908</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>23.45635387765481</c:v>
+                  <c:v>32.58688269401735</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>33.30773825665688</c:v>
+                  <c:v>24.10093017527897</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>22.37679110714073</c:v>
+                  <c:v>27.72551326580706</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>46.10312748490767</c:v>
+                  <c:v>46.38953433026541</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1261,7 +1261,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="4">
-        <v>44714.24843834269</v>
+        <v>44720.0820758901</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -1272,10 +1272,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="5">
-        <v>52.22634547842436</v>
+        <v>77.39689874268032</v>
       </c>
       <c r="C3" s="5">
-        <v>41.91679395758606</v>
+        <v>49.3227489115568</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="25" customHeight="1">
@@ -1283,10 +1283,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="5">
-        <v>24.33502398053488</v>
+        <v>63.04483000987513</v>
       </c>
       <c r="C4" s="5">
-        <v>43.36723128455492</v>
+        <v>28.72560144370532</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="25" customHeight="1">
@@ -1294,10 +1294,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="5">
-        <v>88.10410779434851</v>
+        <v>69.0706033692619</v>
       </c>
       <c r="C5" s="5">
-        <v>35.33784552821339</v>
+        <v>34.9073167699252</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="25" customHeight="1">
@@ -1305,10 +1305,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="5">
-        <v>44.46495108474625</v>
+        <v>80.46836947158999</v>
       </c>
       <c r="C6" s="5">
-        <v>46.12074437380982</v>
+        <v>41.35545170244453</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="25" customHeight="1">
@@ -1316,10 +1316,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="5">
-        <v>33.60883210390214</v>
+        <v>41.59020149993552</v>
       </c>
       <c r="C7" s="5">
-        <v>26.20640979151213</v>
+        <v>22.75201278119327</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="25" customHeight="1">
@@ -1327,10 +1327,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="5">
-        <v>52.67587170416202</v>
+        <v>64.79233531573985</v>
       </c>
       <c r="C8" s="5">
-        <v>40.7926817249532</v>
+        <v>31.0663917133058</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="25" customHeight="1">
@@ -1338,10 +1338,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="5">
-        <v>78.57969306653223</v>
+        <v>38.75343253122536</v>
       </c>
       <c r="C9" s="5">
-        <v>45.83113178192799</v>
+        <v>42.68927395565917</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="25" customHeight="1">
@@ -1349,10 +1349,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="5">
-        <v>28.7978953441044</v>
+        <v>10.98846634466194</v>
       </c>
       <c r="C10" s="5">
-        <v>35.81078357254657</v>
+        <v>21.59835004299674</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="25" customHeight="1">
@@ -1360,10 +1360,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="5">
-        <v>15.50302076610182</v>
+        <v>10.95858093479739</v>
       </c>
       <c r="C11" s="5">
-        <v>25.51531798352209</v>
+        <v>42.43734634838071</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="25" customHeight="1">
@@ -1371,10 +1371,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="5">
-        <v>83.92484575098003</v>
+        <v>87.98550585318112</v>
       </c>
       <c r="C12" s="5">
-        <v>25.46854301474026</v>
+        <v>43.1385350479287</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="25" customHeight="1">
@@ -1382,10 +1382,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="5">
-        <v>90.00703899509233</v>
+        <v>37.63567739809163</v>
       </c>
       <c r="C13" s="5">
-        <v>48.14032587478415</v>
+        <v>44.7703437866802</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="25" customHeight="1">
@@ -1393,10 +1393,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="5">
-        <v>26.76844872998425</v>
+        <v>18.1335132407677</v>
       </c>
       <c r="C14" s="5">
-        <v>21.69602935758753</v>
+        <v>47.33243406519274</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="25" customHeight="1">
@@ -1404,10 +1404,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="5">
-        <v>71.15476087476546</v>
+        <v>24.30034285471323</v>
       </c>
       <c r="C15" s="5">
-        <v>34.99918281341039</v>
+        <v>49.40176202155443</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="25" customHeight="1">
@@ -1415,10 +1415,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="5">
-        <v>37.65016753129042</v>
+        <v>44.14062036427299</v>
       </c>
       <c r="C16" s="5">
-        <v>46.5488724263851</v>
+        <v>41.26663947713299</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="25" customHeight="1">
@@ -1426,10 +1426,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="5">
-        <v>98.32205663648382</v>
+        <v>36.13832087584305</v>
       </c>
       <c r="C17" s="5">
-        <v>40.77220937840009</v>
+        <v>45.33257675735508</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="25" customHeight="1">
@@ -1437,10 +1437,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="5">
-        <v>66.44798405798159</v>
+        <v>66.24949974726934</v>
       </c>
       <c r="C18" s="5">
-        <v>27.42427287044917</v>
+        <v>23.22401476975789</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="25" customHeight="1">
@@ -1448,10 +1448,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="5">
-        <v>58.82115229314847</v>
+        <v>30.78887557451866</v>
       </c>
       <c r="C19" s="5">
-        <v>37.49781949925364</v>
+        <v>38.20784316554237</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="25" customHeight="1">
@@ -1459,10 +1459,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="5">
-        <v>97.06333196363131</v>
+        <v>26.21710564902675</v>
       </c>
       <c r="C20" s="5">
-        <v>20.42855594399366</v>
+        <v>46.15332234694856</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="25" customHeight="1">
@@ -1470,10 +1470,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="5">
-        <v>35.81100280116046</v>
+        <v>56.11623635701753</v>
       </c>
       <c r="C21" s="5">
-        <v>21.73833997689172</v>
+        <v>21.12422832007939</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="25" customHeight="1">
@@ -1481,10 +1481,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="5">
-        <v>96.4022286736996</v>
+        <v>63.33933913341429</v>
       </c>
       <c r="C22" s="5">
-        <v>23.93056234176079</v>
+        <v>30.63316130822912</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="25" customHeight="1">
@@ -1492,10 +1492,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="5">
-        <v>26.92294508733579</v>
+        <v>53.50608330154665</v>
       </c>
       <c r="C23" s="5">
-        <v>33.77881106885495</v>
+        <v>40.80622944119907</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="25" customHeight="1">
@@ -1503,10 +1503,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="5">
-        <v>55.40515487638112</v>
+        <v>69.11183081355763</v>
       </c>
       <c r="C24" s="5">
-        <v>32.9604208947638</v>
+        <v>27.10404203945714</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="25" customHeight="1">
@@ -1514,10 +1514,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="5">
-        <v>36.45589604058004</v>
+        <v>80.37151930172929</v>
       </c>
       <c r="C25" s="5">
-        <v>36.1713490110577</v>
+        <v>26.69419977339986</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="25" customHeight="1">
@@ -1525,10 +1525,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="5">
-        <v>70.74346042437838</v>
+        <v>52.73930714884703</v>
       </c>
       <c r="C26" s="5">
-        <v>29.88434835280639</v>
+        <v>28.32321123036871</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="25" customHeight="1">
@@ -1536,10 +1536,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="5">
-        <v>87.53211968566841</v>
+        <v>82.36657819983408</v>
       </c>
       <c r="C27" s="5">
-        <v>20.05416203065288</v>
+        <v>39.52888971014066</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="25" customHeight="1">
@@ -1547,10 +1547,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="5">
-        <v>97.18117549795041</v>
+        <v>70.79206717140893</v>
       </c>
       <c r="C28" s="5">
-        <v>35.83633700125259</v>
+        <v>36.6128501200603</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="25" customHeight="1">
@@ -1558,10 +1558,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="5">
-        <v>38.49710769224171</v>
+        <v>21.1463363160423</v>
       </c>
       <c r="C29" s="5">
-        <v>24.00036350458781</v>
+        <v>46.20841986336116</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="25" customHeight="1">
@@ -1569,10 +1569,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="5">
-        <v>12.32580701105268</v>
+        <v>79.99869965302008</v>
       </c>
       <c r="C30" s="5">
-        <v>26.60932256440239</v>
+        <v>46.31089717112066</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="25" customHeight="1">
@@ -1580,10 +1580,10 @@
         <v>29</v>
       </c>
       <c r="B31" s="5">
-        <v>49.51064149889704</v>
+        <v>13.28532648127813</v>
       </c>
       <c r="C31" s="5">
-        <v>22.82695646517519</v>
+        <v>24.22476812940731</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="25" customHeight="1">
@@ -1591,10 +1591,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="5">
-        <v>57.35646864768822</v>
+        <v>86.10012163952906</v>
       </c>
       <c r="C32" s="5">
-        <v>46.16481583131603</v>
+        <v>21.22186461496969</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="25" customHeight="1">
@@ -1602,10 +1602,10 @@
         <v>31</v>
       </c>
       <c r="B33" s="5">
-        <v>28.59026778588629</v>
+        <v>96.58944705150819</v>
       </c>
       <c r="C33" s="5">
-        <v>43.71386814602943</v>
+        <v>41.66519219165711</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="25" customHeight="1">
@@ -1613,10 +1613,10 @@
         <v>32</v>
       </c>
       <c r="B34" s="5">
-        <v>58.52156914674199</v>
+        <v>24.2978491125929</v>
       </c>
       <c r="C34" s="5">
-        <v>45.94845189608085</v>
+        <v>42.24920787148277</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="25" customHeight="1">
@@ -1624,10 +1624,10 @@
         <v>33</v>
       </c>
       <c r="B35" s="5">
-        <v>19.93071640810523</v>
+        <v>33.65265237245508</v>
       </c>
       <c r="C35" s="5">
-        <v>31.00412657245312</v>
+        <v>43.6162409242156</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="25" customHeight="1">
@@ -1635,10 +1635,10 @@
         <v>34</v>
       </c>
       <c r="B36" s="5">
-        <v>54.81350461054532</v>
+        <v>57.95834504813821</v>
       </c>
       <c r="C36" s="5">
-        <v>36.10386622048688</v>
+        <v>21.33704702012147</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="25" customHeight="1">
@@ -1646,10 +1646,10 @@
         <v>35</v>
       </c>
       <c r="B37" s="5">
-        <v>13.64624386493455</v>
+        <v>66.73519607866189</v>
       </c>
       <c r="C37" s="5">
-        <v>33.30292161336327</v>
+        <v>23.36770632855755</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="25" customHeight="1">
@@ -1657,10 +1657,10 @@
         <v>36</v>
       </c>
       <c r="B38" s="5">
-        <v>82.78384127472829</v>
+        <v>88.01180525908843</v>
       </c>
       <c r="C38" s="5">
-        <v>26.57595818132034</v>
+        <v>27.59779202757145</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="25" customHeight="1">
@@ -1668,10 +1668,10 @@
         <v>37</v>
       </c>
       <c r="B39" s="5">
-        <v>80.60557649283231</v>
+        <v>95.07178304186822</v>
       </c>
       <c r="C39" s="5">
-        <v>27.81157388498587</v>
+        <v>37.38590413194309</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="25" customHeight="1">
@@ -1679,10 +1679,10 @@
         <v>38</v>
       </c>
       <c r="B40" s="5">
-        <v>57.88080967898171</v>
+        <v>84.60909320429026</v>
       </c>
       <c r="C40" s="5">
-        <v>32.62820025019901</v>
+        <v>37.34114344891894</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="25" customHeight="1">
@@ -1690,10 +1690,10 @@
         <v>39</v>
       </c>
       <c r="B41" s="5">
-        <v>84.28813540629476</v>
+        <v>77.68484193942625</v>
       </c>
       <c r="C41" s="5">
-        <v>48.02444968747818</v>
+        <v>21.7339825586305</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="25" customHeight="1">
@@ -1701,10 +1701,10 @@
         <v>40</v>
       </c>
       <c r="B42" s="5">
-        <v>38.07640124817209</v>
+        <v>50.82825717868953</v>
       </c>
       <c r="C42" s="5">
-        <v>29.62850800496535</v>
+        <v>40.39717881702082</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="25" customHeight="1">
@@ -1712,10 +1712,10 @@
         <v>41</v>
       </c>
       <c r="B43" s="5">
-        <v>72.82179731642694</v>
+        <v>82.50725806067466</v>
       </c>
       <c r="C43" s="5">
-        <v>35.06902884103379</v>
+        <v>32.927715013378</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="25" customHeight="1">
@@ -1723,10 +1723,10 @@
         <v>42</v>
       </c>
       <c r="B44" s="5">
-        <v>47.22338481246765</v>
+        <v>81.3754694837297</v>
       </c>
       <c r="C44" s="5">
-        <v>40.58952620153475</v>
+        <v>39.28797959433786</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="25" customHeight="1">
@@ -1734,10 +1734,10 @@
         <v>43</v>
       </c>
       <c r="B45" s="5">
-        <v>97.93970994182132</v>
+        <v>56.02269315367823</v>
       </c>
       <c r="C45" s="5">
-        <v>37.27713854981523</v>
+        <v>45.63770067460012</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="25" customHeight="1">
@@ -1745,10 +1745,10 @@
         <v>44</v>
       </c>
       <c r="B46" s="5">
-        <v>49.16667750017669</v>
+        <v>42.79190685896171</v>
       </c>
       <c r="C46" s="5">
-        <v>32.33673601075748</v>
+        <v>36.4248839391496</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="25" customHeight="1">
@@ -1756,10 +1756,10 @@
         <v>45</v>
       </c>
       <c r="B47" s="5">
-        <v>33.25744721531245</v>
+        <v>13.2669638945776</v>
       </c>
       <c r="C47" s="5">
-        <v>46.20763763899923</v>
+        <v>32.65041292599116</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="25" customHeight="1">
@@ -1767,10 +1767,10 @@
         <v>46</v>
       </c>
       <c r="B48" s="5">
-        <v>95.04849758944425</v>
+        <v>96.98406513615097</v>
       </c>
       <c r="C48" s="5">
-        <v>24.62344496280175</v>
+        <v>31.2342321292884</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="25" customHeight="1">
@@ -1778,10 +1778,10 @@
         <v>47</v>
       </c>
       <c r="B49" s="5">
-        <v>82.44950866926297</v>
+        <v>82.8522037263652</v>
       </c>
       <c r="C49" s="5">
-        <v>37.50857881242763</v>
+        <v>48.55592296924757</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="25" customHeight="1">
@@ -1789,10 +1789,10 @@
         <v>48</v>
       </c>
       <c r="B50" s="5">
-        <v>78.15485417251595</v>
+        <v>77.46989185870891</v>
       </c>
       <c r="C50" s="5">
-        <v>30.60451734542193</v>
+        <v>46.19935087074386</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="25" customHeight="1">
@@ -1800,10 +1800,10 @@
         <v>49</v>
       </c>
       <c r="B51" s="5">
-        <v>32.13567711982236</v>
+        <v>54.65898529609054</v>
       </c>
       <c r="C51" s="5">
-        <v>27.1104157780802</v>
+        <v>35.87257832339778</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="25" customHeight="1">
@@ -1811,10 +1811,10 @@
         <v>50</v>
       </c>
       <c r="B52" s="5">
-        <v>62.94084610342504</v>
+        <v>75.05936909611366</v>
       </c>
       <c r="C52" s="5">
-        <v>30.8393402505176</v>
+        <v>24.62797680828497</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="25" customHeight="1">
@@ -1822,10 +1822,10 @@
         <v>51</v>
       </c>
       <c r="B53" s="5">
-        <v>72.31365240643848</v>
+        <v>53.23753484036612</v>
       </c>
       <c r="C53" s="5">
-        <v>25.95410729274509</v>
+        <v>49.27270728812603</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="25" customHeight="1">
@@ -1833,10 +1833,10 @@
         <v>52</v>
       </c>
       <c r="B54" s="5">
-        <v>56.42057664658931</v>
+        <v>39.08555516042647</v>
       </c>
       <c r="C54" s="5">
-        <v>36.22636116017198</v>
+        <v>48.29974671243409</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="25" customHeight="1">
@@ -1844,10 +1844,10 @@
         <v>53</v>
       </c>
       <c r="B55" s="5">
-        <v>60.48784058119268</v>
+        <v>63.57046683482892</v>
       </c>
       <c r="C55" s="5">
-        <v>28.68785381225975</v>
+        <v>28.0298818429577</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="25" customHeight="1">
@@ -1855,10 +1855,10 @@
         <v>54</v>
       </c>
       <c r="B56" s="5">
-        <v>80.42259368484426</v>
+        <v>67.72311407158926</v>
       </c>
       <c r="C56" s="5">
-        <v>22.10291651069229</v>
+        <v>37.88328102483318</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="25" customHeight="1">
@@ -1866,10 +1866,10 @@
         <v>55</v>
       </c>
       <c r="B57" s="5">
-        <v>62.10094475135074</v>
+        <v>42.30637890031199</v>
       </c>
       <c r="C57" s="5">
-        <v>42.76704943429095</v>
+        <v>48.29154093455243</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="25" customHeight="1">
@@ -1877,10 +1877,10 @@
         <v>56</v>
       </c>
       <c r="B58" s="5">
-        <v>92.07981172906825</v>
+        <v>20.17398763784539</v>
       </c>
       <c r="C58" s="5">
-        <v>30.0965768552852</v>
+        <v>36.36486814208381</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="25" customHeight="1">
@@ -1888,10 +1888,10 @@
         <v>57</v>
       </c>
       <c r="B59" s="5">
-        <v>37.5601118838706</v>
+        <v>12.18139313192446</v>
       </c>
       <c r="C59" s="5">
-        <v>21.15035723368172</v>
+        <v>47.7886825785631</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="25" customHeight="1">
@@ -1899,10 +1899,10 @@
         <v>58</v>
       </c>
       <c r="B60" s="5">
-        <v>93.71403061197675</v>
+        <v>35.79884192014546</v>
       </c>
       <c r="C60" s="5">
-        <v>29.85988575563188</v>
+        <v>28.3849020809984</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="25" customHeight="1">
@@ -1910,10 +1910,10 @@
         <v>59</v>
       </c>
       <c r="B61" s="5">
-        <v>45.20698426255795</v>
+        <v>64.41178555125543</v>
       </c>
       <c r="C61" s="5">
-        <v>32.46545715128948</v>
+        <v>25.1953868007265</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="25" customHeight="1">
@@ -1921,10 +1921,10 @@
         <v>60</v>
       </c>
       <c r="B62" s="5">
-        <v>37.78103928593168</v>
+        <v>21.83319548540442</v>
       </c>
       <c r="C62" s="5">
-        <v>48.03672925799893</v>
+        <v>40.69558296186598</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="25" customHeight="1">
@@ -1932,10 +1932,10 @@
         <v>61</v>
       </c>
       <c r="B63" s="5">
-        <v>15.87655644776742</v>
+        <v>17.66986119027896</v>
       </c>
       <c r="C63" s="5">
-        <v>29.91371101933804</v>
+        <v>41.99129391072719</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="25" customHeight="1">
@@ -1943,10 +1943,10 @@
         <v>62</v>
       </c>
       <c r="B64" s="5">
-        <v>75.59293786126686</v>
+        <v>65.98611924447766</v>
       </c>
       <c r="C64" s="5">
-        <v>46.97671730802555</v>
+        <v>21.49507583172958</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="25" customHeight="1">
@@ -1954,10 +1954,10 @@
         <v>63</v>
       </c>
       <c r="B65" s="5">
-        <v>82.58834167922231</v>
+        <v>18.0897856967905</v>
       </c>
       <c r="C65" s="5">
-        <v>41.0426809621324</v>
+        <v>43.91579473891318</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="25" customHeight="1">
@@ -1965,10 +1965,10 @@
         <v>64</v>
       </c>
       <c r="B66" s="5">
-        <v>60.35695943201943</v>
+        <v>40.91942342565977</v>
       </c>
       <c r="C66" s="5">
-        <v>25.82398048897474</v>
+        <v>29.25351053287645</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="25" customHeight="1">
@@ -1976,10 +1976,10 @@
         <v>65</v>
       </c>
       <c r="B67" s="5">
-        <v>25.85129829684913</v>
+        <v>43.1580757368492</v>
       </c>
       <c r="C67" s="5">
-        <v>20.75247753610257</v>
+        <v>49.40812498321667</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="25" customHeight="1">
@@ -1987,10 +1987,10 @@
         <v>66</v>
       </c>
       <c r="B68" s="5">
-        <v>48.18440466613907</v>
+        <v>98.49647382773301</v>
       </c>
       <c r="C68" s="5">
-        <v>37.71810841111516</v>
+        <v>32.81929515376691</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="25" customHeight="1">
@@ -1998,10 +1998,10 @@
         <v>67</v>
       </c>
       <c r="B69" s="5">
-        <v>45.96124419751332</v>
+        <v>14.08122418167597</v>
       </c>
       <c r="C69" s="5">
-        <v>24.65353977261419</v>
+        <v>31.00242898316496</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="25" customHeight="1">
@@ -2009,10 +2009,10 @@
         <v>68</v>
       </c>
       <c r="B70" s="5">
-        <v>94.96464985924337</v>
+        <v>23.72680700527568</v>
       </c>
       <c r="C70" s="5">
-        <v>36.241558885749</v>
+        <v>34.39812955427684</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="25" customHeight="1">
@@ -2020,10 +2020,10 @@
         <v>69</v>
       </c>
       <c r="B71" s="5">
-        <v>93.13796665971226</v>
+        <v>10.86940349965025</v>
       </c>
       <c r="C71" s="5">
-        <v>35.81414685762267</v>
+        <v>29.76996380239217</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="25" customHeight="1">
@@ -2031,10 +2031,10 @@
         <v>70</v>
       </c>
       <c r="B72" s="5">
-        <v>76.933051916105</v>
+        <v>66.92349571628164</v>
       </c>
       <c r="C72" s="5">
-        <v>33.54571602310725</v>
+        <v>35.39280608094338</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="25" customHeight="1">
@@ -2042,10 +2042,10 @@
         <v>71</v>
       </c>
       <c r="B73" s="5">
-        <v>57.30249243580808</v>
+        <v>77.66995669458957</v>
       </c>
       <c r="C73" s="5">
-        <v>20.33754664592575</v>
+        <v>29.8460631658443</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="25" customHeight="1">
@@ -2053,10 +2053,10 @@
         <v>72</v>
       </c>
       <c r="B74" s="5">
-        <v>80.13479047179085</v>
+        <v>81.47465752083352</v>
       </c>
       <c r="C74" s="5">
-        <v>41.50201061072717</v>
+        <v>43.27863987009438</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="25" customHeight="1">
@@ -2064,10 +2064,10 @@
         <v>73</v>
       </c>
       <c r="B75" s="5">
-        <v>96.21450445669201</v>
+        <v>10.32298059664159</v>
       </c>
       <c r="C75" s="5">
-        <v>36.06891788209413</v>
+        <v>21.55815357010415</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="25" customHeight="1">
@@ -2075,10 +2075,10 @@
         <v>74</v>
       </c>
       <c r="B76" s="5">
-        <v>57.90782322705255</v>
+        <v>96.8246572218158</v>
       </c>
       <c r="C76" s="5">
-        <v>25.15530102680956</v>
+        <v>20.05617700403002</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="25" customHeight="1">
@@ -2086,10 +2086,10 @@
         <v>75</v>
       </c>
       <c r="B77" s="5">
-        <v>79.97510195768828</v>
+        <v>86.01716689871068</v>
       </c>
       <c r="C77" s="5">
-        <v>21.51801726929299</v>
+        <v>28.33239160342556</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="25" customHeight="1">
@@ -2097,10 +2097,10 @@
         <v>76</v>
       </c>
       <c r="B78" s="5">
-        <v>35.33256081668532</v>
+        <v>95.39126529612747</v>
       </c>
       <c r="C78" s="5">
-        <v>24.34628593571437</v>
+        <v>36.39323883723782</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="25" customHeight="1">
@@ -2108,10 +2108,10 @@
         <v>77</v>
       </c>
       <c r="B79" s="5">
-        <v>79.82450742428203</v>
+        <v>56.79309820794099</v>
       </c>
       <c r="C79" s="5">
-        <v>31.03298728339804</v>
+        <v>21.56816335869483</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="25" customHeight="1">
@@ -2119,10 +2119,10 @@
         <v>78</v>
       </c>
       <c r="B80" s="5">
-        <v>90.64128459653044</v>
+        <v>31.83874197056397</v>
       </c>
       <c r="C80" s="5">
-        <v>24.59007391239329</v>
+        <v>36.05387431795164</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="25" customHeight="1">
@@ -2130,10 +2130,10 @@
         <v>79</v>
       </c>
       <c r="B81" s="5">
-        <v>95.19622537206845</v>
+        <v>63.24751107649099</v>
       </c>
       <c r="C81" s="5">
-        <v>33.98309969558537</v>
+        <v>23.08942805543084</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="25" customHeight="1">
@@ -2141,10 +2141,10 @@
         <v>80</v>
       </c>
       <c r="B82" s="5">
-        <v>27.39539880346758</v>
+        <v>66.22800266825581</v>
       </c>
       <c r="C82" s="5">
-        <v>28.10358007380632</v>
+        <v>34.88265680090734</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="25" customHeight="1">
@@ -2152,10 +2152,10 @@
         <v>81</v>
       </c>
       <c r="B83" s="5">
-        <v>72.04067895121051</v>
+        <v>42.6907377975574</v>
       </c>
       <c r="C83" s="5">
-        <v>36.35974669523979</v>
+        <v>24.94297861880869</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="25" customHeight="1">
@@ -2163,10 +2163,10 @@
         <v>82</v>
       </c>
       <c r="B84" s="5">
-        <v>92.71453001112802</v>
+        <v>89.02001890996608</v>
       </c>
       <c r="C84" s="5">
-        <v>40.36066644573799</v>
+        <v>21.8291954900964</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="25" customHeight="1">
@@ -2174,10 +2174,10 @@
         <v>83</v>
       </c>
       <c r="B85" s="5">
-        <v>43.40658343247344</v>
+        <v>61.87112511676936</v>
       </c>
       <c r="C85" s="5">
-        <v>46.8456158761225</v>
+        <v>29.38590981250959</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="25" customHeight="1">
@@ -2185,10 +2185,10 @@
         <v>84</v>
       </c>
       <c r="B86" s="5">
-        <v>88.48784292114912</v>
+        <v>44.35770522649564</v>
       </c>
       <c r="C86" s="5">
-        <v>26.10799866099774</v>
+        <v>43.89713897340766</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="25" customHeight="1">
@@ -2196,10 +2196,10 @@
         <v>85</v>
       </c>
       <c r="B87" s="5">
-        <v>23.81544433216983</v>
+        <v>19.30768085197051</v>
       </c>
       <c r="C87" s="5">
-        <v>49.22119951986329</v>
+        <v>22.80874666533363</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="25" customHeight="1">
@@ -2207,10 +2207,10 @@
         <v>86</v>
       </c>
       <c r="B88" s="5">
-        <v>93.86083850723298</v>
+        <v>94.45350710355501</v>
       </c>
       <c r="C88" s="5">
-        <v>35.62778051742738</v>
+        <v>33.93791855840405</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="25" customHeight="1">
@@ -2218,10 +2218,10 @@
         <v>87</v>
       </c>
       <c r="B89" s="5">
-        <v>27.26256124347956</v>
+        <v>31.47588280183883</v>
       </c>
       <c r="C89" s="5">
-        <v>20.52536787570187</v>
+        <v>36.63191897131662</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="25" customHeight="1">
@@ -2229,10 +2229,10 @@
         <v>88</v>
       </c>
       <c r="B90" s="5">
-        <v>46.13438782264661</v>
+        <v>98.07873670429544</v>
       </c>
       <c r="C90" s="5">
-        <v>34.69079931811059</v>
+        <v>47.60562913556861</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="25" customHeight="1">
@@ -2240,10 +2240,10 @@
         <v>89</v>
       </c>
       <c r="B91" s="5">
-        <v>43.00324779252536</v>
+        <v>60.67932650508392</v>
       </c>
       <c r="C91" s="5">
-        <v>37.0126710744666</v>
+        <v>44.75727021713028</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="25" customHeight="1">
@@ -2251,10 +2251,10 @@
         <v>90</v>
       </c>
       <c r="B92" s="5">
-        <v>29.00948499245904</v>
+        <v>46.58000754655647</v>
       </c>
       <c r="C92" s="5">
-        <v>44.2047030599674</v>
+        <v>42.3321256806779</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="25" customHeight="1">
@@ -2262,10 +2262,10 @@
         <v>91</v>
       </c>
       <c r="B93" s="5">
-        <v>97.34335519619228</v>
+        <v>90.92637049185629</v>
       </c>
       <c r="C93" s="5">
-        <v>40.49692997528553</v>
+        <v>42.87466299837165</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="25" customHeight="1">
@@ -2273,10 +2273,10 @@
         <v>92</v>
       </c>
       <c r="B94" s="5">
-        <v>93.43307626853999</v>
+        <v>35.54086843988748</v>
       </c>
       <c r="C94" s="5">
-        <v>21.91330291914676</v>
+        <v>48.24792254058005</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="25" customHeight="1">
@@ -2284,10 +2284,10 @@
         <v>93</v>
       </c>
       <c r="B95" s="5">
-        <v>15.09740783081142</v>
+        <v>95.73666787478554</v>
       </c>
       <c r="C95" s="5">
-        <v>47.13724667555906</v>
+        <v>48.45262431170277</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="25" customHeight="1">
@@ -2295,10 +2295,10 @@
         <v>94</v>
       </c>
       <c r="B96" s="5">
-        <v>30.50863867285946</v>
+        <v>34.66299984103971</v>
       </c>
       <c r="C96" s="5">
-        <v>22.11690246264183</v>
+        <v>26.71108433350927</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="25" customHeight="1">
@@ -2306,10 +2306,10 @@
         <v>95</v>
       </c>
       <c r="B97" s="5">
-        <v>89.87983960761321</v>
+        <v>24.65789444211672</v>
       </c>
       <c r="C97" s="5">
-        <v>21.95292164944991</v>
+        <v>37.75629750947908</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="25" customHeight="1">
@@ -2317,10 +2317,10 @@
         <v>96</v>
       </c>
       <c r="B98" s="5">
-        <v>19.49303493157207</v>
+        <v>18.83815202086015</v>
       </c>
       <c r="C98" s="5">
-        <v>23.45635387765481</v>
+        <v>32.58688269401735</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="25" customHeight="1">
@@ -2328,10 +2328,10 @@
         <v>97</v>
       </c>
       <c r="B99" s="5">
-        <v>23.71269795023675</v>
+        <v>62.57992890602498</v>
       </c>
       <c r="C99" s="5">
-        <v>33.30773825665688</v>
+        <v>24.10093017527897</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="25" customHeight="1">
@@ -2339,10 +2339,10 @@
         <v>98</v>
       </c>
       <c r="B100" s="5">
-        <v>66.23320166707506</v>
+        <v>96.70106501940148</v>
       </c>
       <c r="C100" s="5">
-        <v>22.37679110714073</v>
+        <v>27.72551326580706</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="25" customHeight="1">
@@ -2350,10 +2350,10 @@
         <v>99</v>
       </c>
       <c r="B101" s="5">
-        <v>49.44658607668708</v>
+        <v>24.43161109808531</v>
       </c>
       <c r="C101" s="5">
-        <v>46.10312748490767</v>
+        <v>46.38953433026541</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="25" customHeight="1">
@@ -2361,10 +2361,10 @@
         <v>100</v>
       </c>
       <c r="B102" s="5">
-        <v>36.64262987811785</v>
+        <v>12.63447466304701</v>
       </c>
       <c r="C102" s="5">
-        <v>35.33719665542903</v>
+        <v>40.7454099838328</v>
       </c>
     </row>
   </sheetData>

--- a/demo.xlsx
+++ b/demo.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Second" sheetId="2" r:id="rId2"/>
+    <sheet name="Background" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
   <si>
     <t>Merged Range</t>
   </si>
@@ -50,6 +51,9 @@
   </si>
   <si>
     <t>Batch 2</t>
+  </si>
+  <si>
+    <t>Text</t>
   </si>
 </sst>
 </file>
@@ -102,7 +106,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -125,11 +129,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border diagonalUp="1">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal style="thin">
+        <color auto="1"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="1">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal style="thin">
+        <color auto="1"/>
+      </diagonal>
+    </border>
+    <border diagonalUp="1" diagonalDown="1">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal style="thin">
+        <color auto="1"/>
+      </diagonal>
+    </border>
+    <border diagonalUp="1" diagonalDown="1">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal style="hair">
+        <color rgb="FFFF0000"/>
+      </diagonal>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -142,6 +182,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -195,301 +239,301 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>77.39689874268032</c:v>
+                  <c:v>96.10406083414914</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>63.04483000987513</c:v>
+                  <c:v>24.51074932317651</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>69.0706033692619</c:v>
+                  <c:v>94.87315609282277</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>80.46836947158999</c:v>
+                  <c:v>37.11431567968748</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41.59020149993552</c:v>
+                  <c:v>66.25499223296809</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>64.79233531573985</c:v>
+                  <c:v>83.78350559894527</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>38.75343253122536</c:v>
+                  <c:v>93.11376412371999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10.98846634466194</c:v>
+                  <c:v>82.20671861625331</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.95858093479739</c:v>
+                  <c:v>48.96586847309435</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>87.98550585318112</c:v>
+                  <c:v>56.84804456907234</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>37.63567739809163</c:v>
+                  <c:v>45.86144150649275</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>18.1335132407677</c:v>
+                  <c:v>46.59535938564397</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>24.30034285471323</c:v>
+                  <c:v>66.46203077369317</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44.14062036427299</c:v>
+                  <c:v>90.96893337608714</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>36.13832087584305</c:v>
+                  <c:v>58.99732096975882</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>66.24949974726934</c:v>
+                  <c:v>61.56821449049039</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>30.78887557451866</c:v>
+                  <c:v>91.84022815703823</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>26.21710564902675</c:v>
+                  <c:v>21.79746323512192</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>56.11623635701753</c:v>
+                  <c:v>14.40895333186714</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>63.33933913341429</c:v>
+                  <c:v>35.05933320921074</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>53.50608330154665</c:v>
+                  <c:v>38.6578952806498</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>69.11183081355763</c:v>
+                  <c:v>29.62904912609263</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>80.37151930172929</c:v>
+                  <c:v>52.22258866842385</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>52.73930714884703</c:v>
+                  <c:v>97.02430136583584</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>82.36657819983408</c:v>
+                  <c:v>93.21308834661035</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>70.79206717140893</c:v>
+                  <c:v>30.10753887391399</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>21.1463363160423</c:v>
+                  <c:v>99.40567057891562</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>79.99869965302008</c:v>
+                  <c:v>31.12632054488291</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>13.28532648127813</c:v>
+                  <c:v>66.49438280002059</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>86.10012163952906</c:v>
+                  <c:v>85.22419247062275</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>96.58944705150819</c:v>
+                  <c:v>10.38423944500812</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>24.2978491125929</c:v>
+                  <c:v>77.81463264700828</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>33.65265237245508</c:v>
+                  <c:v>16.04108316021289</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>57.95834504813821</c:v>
+                  <c:v>13.2178143398855</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>66.73519607866189</c:v>
+                  <c:v>69.23035909606838</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>88.01180525908843</c:v>
+                  <c:v>62.85244758042885</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>95.07178304186822</c:v>
+                  <c:v>12.25129920644872</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>84.60909320429026</c:v>
+                  <c:v>60.76593679016284</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>77.68484193942625</c:v>
+                  <c:v>49.07560711201031</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>50.82825717868953</c:v>
+                  <c:v>40.29317463720369</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>82.50725806067466</c:v>
+                  <c:v>35.30056594088458</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>81.3754694837297</c:v>
+                  <c:v>75.21891998125388</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>56.02269315367823</c:v>
+                  <c:v>61.00943569517186</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>42.79190685896171</c:v>
+                  <c:v>27.83552097804207</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>13.2669638945776</c:v>
+                  <c:v>43.24454949095691</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>96.98406513615097</c:v>
+                  <c:v>20.61463227962973</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>82.8522037263652</c:v>
+                  <c:v>60.4875855537782</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>77.46989185870891</c:v>
+                  <c:v>51.8570981341274</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>54.65898529609054</c:v>
+                  <c:v>61.8147511073732</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>75.05936909611366</c:v>
+                  <c:v>70.98758414745211</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>53.23753484036612</c:v>
+                  <c:v>44.06449667027943</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>39.08555516042647</c:v>
+                  <c:v>59.01586637090439</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>63.57046683482892</c:v>
+                  <c:v>26.71657928137722</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>67.72311407158926</c:v>
+                  <c:v>61.85937923598441</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>42.30637890031199</c:v>
+                  <c:v>75.44976970637258</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>20.17398763784539</c:v>
+                  <c:v>33.46686143025362</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>12.18139313192446</c:v>
+                  <c:v>77.88633053326792</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>35.79884192014546</c:v>
+                  <c:v>59.49556197902209</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>64.41178555125543</c:v>
+                  <c:v>53.93969008316721</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>21.83319548540442</c:v>
+                  <c:v>65.79056186149784</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>17.66986119027896</c:v>
+                  <c:v>73.56295511306959</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>65.98611924447766</c:v>
+                  <c:v>62.7374224122219</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>18.0897856967905</c:v>
+                  <c:v>15.68447666114872</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>40.91942342565977</c:v>
+                  <c:v>62.68457548210101</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>43.1580757368492</c:v>
+                  <c:v>99.16638344080032</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>98.49647382773301</c:v>
+                  <c:v>93.75438609353287</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>14.08122418167597</c:v>
+                  <c:v>72.20878354684561</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>23.72680700527568</c:v>
+                  <c:v>50.07024265497939</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>10.86940349965025</c:v>
+                  <c:v>56.03708916834815</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>66.92349571628164</c:v>
+                  <c:v>62.65855078393134</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>77.66995669458957</c:v>
+                  <c:v>88.11944803193892</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>81.47465752083352</c:v>
+                  <c:v>71.34646783797029</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>10.32298059664159</c:v>
+                  <c:v>46.41703425200991</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>96.8246572218158</c:v>
+                  <c:v>65.80867268781614</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>86.01716689871068</c:v>
+                  <c:v>34.9408750008417</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>95.39126529612747</c:v>
+                  <c:v>56.64292864750741</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>56.79309820794099</c:v>
+                  <c:v>58.76419922305689</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>31.83874197056397</c:v>
+                  <c:v>97.7004891682527</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>63.24751107649099</c:v>
+                  <c:v>86.94404060013723</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>66.22800266825581</c:v>
+                  <c:v>96.31176362722333</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>42.6907377975574</c:v>
+                  <c:v>75.81470436043061</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>89.02001890996608</c:v>
+                  <c:v>27.68907152286034</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>61.87112511676936</c:v>
+                  <c:v>15.22412041198356</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>44.35770522649564</c:v>
+                  <c:v>27.20084298882551</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>19.30768085197051</c:v>
+                  <c:v>22.72588045763314</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>94.45350710355501</c:v>
+                  <c:v>66.06647424011369</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>31.47588280183883</c:v>
+                  <c:v>11.39618959218023</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>98.07873670429544</c:v>
+                  <c:v>41.55428107217689</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>60.67932650508392</c:v>
+                  <c:v>97.45327393059098</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>46.58000754655647</c:v>
+                  <c:v>45.52910238639206</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>90.92637049185629</c:v>
+                  <c:v>79.58589881409094</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>35.54086843988748</c:v>
+                  <c:v>20.32054546196045</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>95.73666787478554</c:v>
+                  <c:v>12.38308551582389</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>34.66299984103971</c:v>
+                  <c:v>92.96538480426204</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>24.65789444211672</c:v>
+                  <c:v>90.09389805541967</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>18.83815202086015</c:v>
+                  <c:v>72.3070032015259</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>62.57992890602498</c:v>
+                  <c:v>92.78282567269301</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>96.70106501940148</c:v>
+                  <c:v>14.17236731408424</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>24.43161109808531</c:v>
+                  <c:v>14.47896190595806</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -522,301 +566,301 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>49.3227489115568</c:v>
+                  <c:v>48.13186003294449</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28.72560144370532</c:v>
+                  <c:v>31.87840770880405</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>34.9073167699252</c:v>
+                  <c:v>37.10915625461169</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41.35545170244453</c:v>
+                  <c:v>35.37068300015946</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22.75201278119327</c:v>
+                  <c:v>45.65261587409024</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>31.0663917133058</c:v>
+                  <c:v>44.94774133035752</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42.68927395565917</c:v>
+                  <c:v>22.8763312059267</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>21.59835004299674</c:v>
+                  <c:v>42.83219597533977</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>42.43734634838071</c:v>
+                  <c:v>29.85086866441583</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43.1385350479287</c:v>
+                  <c:v>42.38726414113108</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44.7703437866802</c:v>
+                  <c:v>25.23120834744952</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>47.33243406519274</c:v>
+                  <c:v>23.06800844604169</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>49.40176202155443</c:v>
+                  <c:v>48.37994962900438</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>41.26663947713299</c:v>
+                  <c:v>29.30716669149339</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>45.33257675735508</c:v>
+                  <c:v>31.86391051128527</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>23.22401476975789</c:v>
+                  <c:v>24.11560958827153</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>38.20784316554237</c:v>
+                  <c:v>38.42298261860815</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>46.15332234694856</c:v>
+                  <c:v>42.940256171661</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>21.12422832007939</c:v>
+                  <c:v>29.86500588508862</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>30.63316130822912</c:v>
+                  <c:v>24.35977061951561</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>40.80622944119907</c:v>
+                  <c:v>21.89033082927936</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>27.10404203945714</c:v>
+                  <c:v>20.59063615421452</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>26.69419977339986</c:v>
+                  <c:v>39.66796389657239</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>28.32321123036871</c:v>
+                  <c:v>42.5107968542959</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>39.52888971014066</c:v>
+                  <c:v>20.32138814132178</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>36.6128501200603</c:v>
+                  <c:v>28.87820563650011</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>46.20841986336116</c:v>
+                  <c:v>47.39967075145092</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>46.31089717112066</c:v>
+                  <c:v>34.58962346969147</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>24.22476812940731</c:v>
+                  <c:v>22.56417918004935</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>21.22186461496969</c:v>
+                  <c:v>22.34078238083922</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>41.66519219165711</c:v>
+                  <c:v>27.77578623072147</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>42.24920787148277</c:v>
+                  <c:v>23.96086101163596</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>43.6162409242156</c:v>
+                  <c:v>20.61226520629161</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>21.33704702012147</c:v>
+                  <c:v>21.53512964887653</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>23.36770632855755</c:v>
+                  <c:v>38.33322091195851</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>27.59779202757145</c:v>
+                  <c:v>47.0595953020579</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>37.38590413194309</c:v>
+                  <c:v>36.36287417567856</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>37.34114344891894</c:v>
+                  <c:v>34.3514289765978</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>21.7339825586305</c:v>
+                  <c:v>33.06062440357807</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>40.39717881702082</c:v>
+                  <c:v>30.12072251678309</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>32.927715013378</c:v>
+                  <c:v>40.71489871679709</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>39.28797959433786</c:v>
+                  <c:v>44.13305144629943</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>45.63770067460012</c:v>
+                  <c:v>39.31808318796777</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>36.4248839391496</c:v>
+                  <c:v>41.48712909516188</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>32.65041292599116</c:v>
+                  <c:v>49.9495980932233</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>31.2342321292884</c:v>
+                  <c:v>32.97496808625748</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>48.55592296924757</c:v>
+                  <c:v>41.62875185753454</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>46.19935087074386</c:v>
+                  <c:v>37.4719179060417</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>35.87257832339778</c:v>
+                  <c:v>46.34890419060643</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>24.62797680828497</c:v>
+                  <c:v>27.80366109912698</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>49.27270728812603</c:v>
+                  <c:v>40.37106836601518</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>48.29974671243409</c:v>
+                  <c:v>32.63052556983375</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>28.0298818429577</c:v>
+                  <c:v>25.56599951183795</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>37.88328102483318</c:v>
+                  <c:v>22.98555839669871</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>48.29154093455243</c:v>
+                  <c:v>32.82021831532231</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>36.36486814208381</c:v>
+                  <c:v>28.04808968156951</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>47.7886825785631</c:v>
+                  <c:v>24.72897405406864</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>28.3849020809984</c:v>
+                  <c:v>33.32677934306026</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>25.1953868007265</c:v>
+                  <c:v>42.11773769891133</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>40.69558296186598</c:v>
+                  <c:v>21.31013907154948</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>41.99129391072719</c:v>
+                  <c:v>41.56895550538687</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>21.49507583172958</c:v>
+                  <c:v>26.48849900233641</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>43.91579473891318</c:v>
+                  <c:v>32.70057947621344</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>29.25351053287645</c:v>
+                  <c:v>27.03287714217411</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>49.40812498321667</c:v>
+                  <c:v>37.18516724285934</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>32.81929515376691</c:v>
+                  <c:v>31.13649414631245</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>31.00242898316496</c:v>
+                  <c:v>42.26663803617895</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>34.39812955427684</c:v>
+                  <c:v>35.65392071182234</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>29.76996380239217</c:v>
+                  <c:v>24.06800681851863</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>35.39280608094338</c:v>
+                  <c:v>23.9363410837894</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>29.8460631658443</c:v>
+                  <c:v>46.12095173062937</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>43.27863987009438</c:v>
+                  <c:v>23.04420789766669</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>21.55815357010415</c:v>
+                  <c:v>43.26715036727896</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>20.05617700403002</c:v>
+                  <c:v>48.21195098698183</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>28.33239160342556</c:v>
+                  <c:v>23.91521979036627</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>36.39323883723782</c:v>
+                  <c:v>39.38270017352653</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>21.56816335869483</c:v>
+                  <c:v>45.4194060915144</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>36.05387431795164</c:v>
+                  <c:v>42.30985810640634</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>23.08942805543084</c:v>
+                  <c:v>49.56420720314139</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>34.88265680090734</c:v>
+                  <c:v>22.24323283540089</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>24.94297861880869</c:v>
+                  <c:v>35.69592600573313</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>21.8291954900964</c:v>
+                  <c:v>26.82179071832504</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>29.38590981250959</c:v>
+                  <c:v>47.86518199349682</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>43.89713897340766</c:v>
+                  <c:v>32.04718681666932</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>22.80874666533363</c:v>
+                  <c:v>30.23013500709007</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>33.93791855840405</c:v>
+                  <c:v>33.44569617937103</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>36.63191897131662</c:v>
+                  <c:v>43.72446078770317</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>47.60562913556861</c:v>
+                  <c:v>46.12018631580427</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>44.75727021713028</c:v>
+                  <c:v>34.17969397830002</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>42.3321256806779</c:v>
+                  <c:v>44.07639721658195</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>42.87466299837165</c:v>
+                  <c:v>32.91840011729683</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>48.24792254058005</c:v>
+                  <c:v>20.80465531305775</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>48.45262431170277</c:v>
+                  <c:v>35.83907493042506</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>26.71108433350927</c:v>
+                  <c:v>33.21784762402847</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>37.75629750947908</c:v>
+                  <c:v>47.41571646827236</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>32.58688269401735</c:v>
+                  <c:v>40.38261821099357</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>24.10093017527897</c:v>
+                  <c:v>42.08019634698191</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>27.72551326580706</c:v>
+                  <c:v>46.47377044745258</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>46.38953433026541</c:v>
+                  <c:v>31.88564561853137</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1261,7 +1305,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="4">
-        <v>44720.0820758901</v>
+        <v>44720.3471053298</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -1272,10 +1316,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="5">
-        <v>77.39689874268032</v>
+        <v>96.10406083414914</v>
       </c>
       <c r="C3" s="5">
-        <v>49.3227489115568</v>
+        <v>48.13186003294449</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="25" customHeight="1">
@@ -1283,10 +1327,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="5">
-        <v>63.04483000987513</v>
+        <v>24.51074932317651</v>
       </c>
       <c r="C4" s="5">
-        <v>28.72560144370532</v>
+        <v>31.87840770880405</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="25" customHeight="1">
@@ -1294,10 +1338,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="5">
-        <v>69.0706033692619</v>
+        <v>94.87315609282277</v>
       </c>
       <c r="C5" s="5">
-        <v>34.9073167699252</v>
+        <v>37.10915625461169</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="25" customHeight="1">
@@ -1305,10 +1349,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="5">
-        <v>80.46836947158999</v>
+        <v>37.11431567968748</v>
       </c>
       <c r="C6" s="5">
-        <v>41.35545170244453</v>
+        <v>35.37068300015946</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="25" customHeight="1">
@@ -1316,10 +1360,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="5">
-        <v>41.59020149993552</v>
+        <v>66.25499223296809</v>
       </c>
       <c r="C7" s="5">
-        <v>22.75201278119327</v>
+        <v>45.65261587409024</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="25" customHeight="1">
@@ -1327,10 +1371,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="5">
-        <v>64.79233531573985</v>
+        <v>83.78350559894527</v>
       </c>
       <c r="C8" s="5">
-        <v>31.0663917133058</v>
+        <v>44.94774133035752</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="25" customHeight="1">
@@ -1338,10 +1382,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="5">
-        <v>38.75343253122536</v>
+        <v>93.11376412371999</v>
       </c>
       <c r="C9" s="5">
-        <v>42.68927395565917</v>
+        <v>22.8763312059267</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="25" customHeight="1">
@@ -1349,10 +1393,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="5">
-        <v>10.98846634466194</v>
+        <v>82.20671861625331</v>
       </c>
       <c r="C10" s="5">
-        <v>21.59835004299674</v>
+        <v>42.83219597533977</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="25" customHeight="1">
@@ -1360,10 +1404,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="5">
-        <v>10.95858093479739</v>
+        <v>48.96586847309435</v>
       </c>
       <c r="C11" s="5">
-        <v>42.43734634838071</v>
+        <v>29.85086866441583</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="25" customHeight="1">
@@ -1371,10 +1415,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="5">
-        <v>87.98550585318112</v>
+        <v>56.84804456907234</v>
       </c>
       <c r="C12" s="5">
-        <v>43.1385350479287</v>
+        <v>42.38726414113108</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="25" customHeight="1">
@@ -1382,10 +1426,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="5">
-        <v>37.63567739809163</v>
+        <v>45.86144150649275</v>
       </c>
       <c r="C13" s="5">
-        <v>44.7703437866802</v>
+        <v>25.23120834744952</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="25" customHeight="1">
@@ -1393,10 +1437,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="5">
-        <v>18.1335132407677</v>
+        <v>46.59535938564397</v>
       </c>
       <c r="C14" s="5">
-        <v>47.33243406519274</v>
+        <v>23.06800844604169</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="25" customHeight="1">
@@ -1404,10 +1448,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="5">
-        <v>24.30034285471323</v>
+        <v>66.46203077369317</v>
       </c>
       <c r="C15" s="5">
-        <v>49.40176202155443</v>
+        <v>48.37994962900438</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="25" customHeight="1">
@@ -1415,10 +1459,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="5">
-        <v>44.14062036427299</v>
+        <v>90.96893337608714</v>
       </c>
       <c r="C16" s="5">
-        <v>41.26663947713299</v>
+        <v>29.30716669149339</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="25" customHeight="1">
@@ -1426,10 +1470,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="5">
-        <v>36.13832087584305</v>
+        <v>58.99732096975882</v>
       </c>
       <c r="C17" s="5">
-        <v>45.33257675735508</v>
+        <v>31.86391051128527</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="25" customHeight="1">
@@ -1437,10 +1481,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="5">
-        <v>66.24949974726934</v>
+        <v>61.56821449049039</v>
       </c>
       <c r="C18" s="5">
-        <v>23.22401476975789</v>
+        <v>24.11560958827153</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="25" customHeight="1">
@@ -1448,10 +1492,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="5">
-        <v>30.78887557451866</v>
+        <v>91.84022815703823</v>
       </c>
       <c r="C19" s="5">
-        <v>38.20784316554237</v>
+        <v>38.42298261860815</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="25" customHeight="1">
@@ -1459,10 +1503,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="5">
-        <v>26.21710564902675</v>
+        <v>21.79746323512192</v>
       </c>
       <c r="C20" s="5">
-        <v>46.15332234694856</v>
+        <v>42.940256171661</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="25" customHeight="1">
@@ -1470,10 +1514,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="5">
-        <v>56.11623635701753</v>
+        <v>14.40895333186714</v>
       </c>
       <c r="C21" s="5">
-        <v>21.12422832007939</v>
+        <v>29.86500588508862</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="25" customHeight="1">
@@ -1481,10 +1525,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="5">
-        <v>63.33933913341429</v>
+        <v>35.05933320921074</v>
       </c>
       <c r="C22" s="5">
-        <v>30.63316130822912</v>
+        <v>24.35977061951561</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="25" customHeight="1">
@@ -1492,10 +1536,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="5">
-        <v>53.50608330154665</v>
+        <v>38.6578952806498</v>
       </c>
       <c r="C23" s="5">
-        <v>40.80622944119907</v>
+        <v>21.89033082927936</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="25" customHeight="1">
@@ -1503,10 +1547,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="5">
-        <v>69.11183081355763</v>
+        <v>29.62904912609263</v>
       </c>
       <c r="C24" s="5">
-        <v>27.10404203945714</v>
+        <v>20.59063615421452</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="25" customHeight="1">
@@ -1514,10 +1558,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="5">
-        <v>80.37151930172929</v>
+        <v>52.22258866842385</v>
       </c>
       <c r="C25" s="5">
-        <v>26.69419977339986</v>
+        <v>39.66796389657239</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="25" customHeight="1">
@@ -1525,10 +1569,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="5">
-        <v>52.73930714884703</v>
+        <v>97.02430136583584</v>
       </c>
       <c r="C26" s="5">
-        <v>28.32321123036871</v>
+        <v>42.5107968542959</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="25" customHeight="1">
@@ -1536,10 +1580,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="5">
-        <v>82.36657819983408</v>
+        <v>93.21308834661035</v>
       </c>
       <c r="C27" s="5">
-        <v>39.52888971014066</v>
+        <v>20.32138814132178</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="25" customHeight="1">
@@ -1547,10 +1591,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="5">
-        <v>70.79206717140893</v>
+        <v>30.10753887391399</v>
       </c>
       <c r="C28" s="5">
-        <v>36.6128501200603</v>
+        <v>28.87820563650011</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="25" customHeight="1">
@@ -1558,10 +1602,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="5">
-        <v>21.1463363160423</v>
+        <v>99.40567057891562</v>
       </c>
       <c r="C29" s="5">
-        <v>46.20841986336116</v>
+        <v>47.39967075145092</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="25" customHeight="1">
@@ -1569,10 +1613,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="5">
-        <v>79.99869965302008</v>
+        <v>31.12632054488291</v>
       </c>
       <c r="C30" s="5">
-        <v>46.31089717112066</v>
+        <v>34.58962346969147</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="25" customHeight="1">
@@ -1580,10 +1624,10 @@
         <v>29</v>
       </c>
       <c r="B31" s="5">
-        <v>13.28532648127813</v>
+        <v>66.49438280002059</v>
       </c>
       <c r="C31" s="5">
-        <v>24.22476812940731</v>
+        <v>22.56417918004935</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="25" customHeight="1">
@@ -1591,10 +1635,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="5">
-        <v>86.10012163952906</v>
+        <v>85.22419247062275</v>
       </c>
       <c r="C32" s="5">
-        <v>21.22186461496969</v>
+        <v>22.34078238083922</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="25" customHeight="1">
@@ -1602,10 +1646,10 @@
         <v>31</v>
       </c>
       <c r="B33" s="5">
-        <v>96.58944705150819</v>
+        <v>10.38423944500812</v>
       </c>
       <c r="C33" s="5">
-        <v>41.66519219165711</v>
+        <v>27.77578623072147</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="25" customHeight="1">
@@ -1613,10 +1657,10 @@
         <v>32</v>
       </c>
       <c r="B34" s="5">
-        <v>24.2978491125929</v>
+        <v>77.81463264700828</v>
       </c>
       <c r="C34" s="5">
-        <v>42.24920787148277</v>
+        <v>23.96086101163596</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="25" customHeight="1">
@@ -1624,10 +1668,10 @@
         <v>33</v>
       </c>
       <c r="B35" s="5">
-        <v>33.65265237245508</v>
+        <v>16.04108316021289</v>
       </c>
       <c r="C35" s="5">
-        <v>43.6162409242156</v>
+        <v>20.61226520629161</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="25" customHeight="1">
@@ -1635,10 +1679,10 @@
         <v>34</v>
       </c>
       <c r="B36" s="5">
-        <v>57.95834504813821</v>
+        <v>13.2178143398855</v>
       </c>
       <c r="C36" s="5">
-        <v>21.33704702012147</v>
+        <v>21.53512964887653</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="25" customHeight="1">
@@ -1646,10 +1690,10 @@
         <v>35</v>
       </c>
       <c r="B37" s="5">
-        <v>66.73519607866189</v>
+        <v>69.23035909606838</v>
       </c>
       <c r="C37" s="5">
-        <v>23.36770632855755</v>
+        <v>38.33322091195851</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="25" customHeight="1">
@@ -1657,10 +1701,10 @@
         <v>36</v>
       </c>
       <c r="B38" s="5">
-        <v>88.01180525908843</v>
+        <v>62.85244758042885</v>
       </c>
       <c r="C38" s="5">
-        <v>27.59779202757145</v>
+        <v>47.0595953020579</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="25" customHeight="1">
@@ -1668,10 +1712,10 @@
         <v>37</v>
       </c>
       <c r="B39" s="5">
-        <v>95.07178304186822</v>
+        <v>12.25129920644872</v>
       </c>
       <c r="C39" s="5">
-        <v>37.38590413194309</v>
+        <v>36.36287417567856</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="25" customHeight="1">
@@ -1679,10 +1723,10 @@
         <v>38</v>
       </c>
       <c r="B40" s="5">
-        <v>84.60909320429026</v>
+        <v>60.76593679016284</v>
       </c>
       <c r="C40" s="5">
-        <v>37.34114344891894</v>
+        <v>34.3514289765978</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="25" customHeight="1">
@@ -1690,10 +1734,10 @@
         <v>39</v>
       </c>
       <c r="B41" s="5">
-        <v>77.68484193942625</v>
+        <v>49.07560711201031</v>
       </c>
       <c r="C41" s="5">
-        <v>21.7339825586305</v>
+        <v>33.06062440357807</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="25" customHeight="1">
@@ -1701,10 +1745,10 @@
         <v>40</v>
       </c>
       <c r="B42" s="5">
-        <v>50.82825717868953</v>
+        <v>40.29317463720369</v>
       </c>
       <c r="C42" s="5">
-        <v>40.39717881702082</v>
+        <v>30.12072251678309</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="25" customHeight="1">
@@ -1712,10 +1756,10 @@
         <v>41</v>
       </c>
       <c r="B43" s="5">
-        <v>82.50725806067466</v>
+        <v>35.30056594088458</v>
       </c>
       <c r="C43" s="5">
-        <v>32.927715013378</v>
+        <v>40.71489871679709</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="25" customHeight="1">
@@ -1723,10 +1767,10 @@
         <v>42</v>
       </c>
       <c r="B44" s="5">
-        <v>81.3754694837297</v>
+        <v>75.21891998125388</v>
       </c>
       <c r="C44" s="5">
-        <v>39.28797959433786</v>
+        <v>44.13305144629943</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="25" customHeight="1">
@@ -1734,10 +1778,10 @@
         <v>43</v>
       </c>
       <c r="B45" s="5">
-        <v>56.02269315367823</v>
+        <v>61.00943569517186</v>
       </c>
       <c r="C45" s="5">
-        <v>45.63770067460012</v>
+        <v>39.31808318796777</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="25" customHeight="1">
@@ -1745,10 +1789,10 @@
         <v>44</v>
       </c>
       <c r="B46" s="5">
-        <v>42.79190685896171</v>
+        <v>27.83552097804207</v>
       </c>
       <c r="C46" s="5">
-        <v>36.4248839391496</v>
+        <v>41.48712909516188</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="25" customHeight="1">
@@ -1756,10 +1800,10 @@
         <v>45</v>
       </c>
       <c r="B47" s="5">
-        <v>13.2669638945776</v>
+        <v>43.24454949095691</v>
       </c>
       <c r="C47" s="5">
-        <v>32.65041292599116</v>
+        <v>49.9495980932233</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="25" customHeight="1">
@@ -1767,10 +1811,10 @@
         <v>46</v>
       </c>
       <c r="B48" s="5">
-        <v>96.98406513615097</v>
+        <v>20.61463227962973</v>
       </c>
       <c r="C48" s="5">
-        <v>31.2342321292884</v>
+        <v>32.97496808625748</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="25" customHeight="1">
@@ -1778,10 +1822,10 @@
         <v>47</v>
       </c>
       <c r="B49" s="5">
-        <v>82.8522037263652</v>
+        <v>60.4875855537782</v>
       </c>
       <c r="C49" s="5">
-        <v>48.55592296924757</v>
+        <v>41.62875185753454</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="25" customHeight="1">
@@ -1789,10 +1833,10 @@
         <v>48</v>
       </c>
       <c r="B50" s="5">
-        <v>77.46989185870891</v>
+        <v>51.8570981341274</v>
       </c>
       <c r="C50" s="5">
-        <v>46.19935087074386</v>
+        <v>37.4719179060417</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="25" customHeight="1">
@@ -1800,10 +1844,10 @@
         <v>49</v>
       </c>
       <c r="B51" s="5">
-        <v>54.65898529609054</v>
+        <v>61.8147511073732</v>
       </c>
       <c r="C51" s="5">
-        <v>35.87257832339778</v>
+        <v>46.34890419060643</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="25" customHeight="1">
@@ -1811,10 +1855,10 @@
         <v>50</v>
       </c>
       <c r="B52" s="5">
-        <v>75.05936909611366</v>
+        <v>70.98758414745211</v>
       </c>
       <c r="C52" s="5">
-        <v>24.62797680828497</v>
+        <v>27.80366109912698</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="25" customHeight="1">
@@ -1822,10 +1866,10 @@
         <v>51</v>
       </c>
       <c r="B53" s="5">
-        <v>53.23753484036612</v>
+        <v>44.06449667027943</v>
       </c>
       <c r="C53" s="5">
-        <v>49.27270728812603</v>
+        <v>40.37106836601518</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="25" customHeight="1">
@@ -1833,10 +1877,10 @@
         <v>52</v>
       </c>
       <c r="B54" s="5">
-        <v>39.08555516042647</v>
+        <v>59.01586637090439</v>
       </c>
       <c r="C54" s="5">
-        <v>48.29974671243409</v>
+        <v>32.63052556983375</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="25" customHeight="1">
@@ -1844,10 +1888,10 @@
         <v>53</v>
       </c>
       <c r="B55" s="5">
-        <v>63.57046683482892</v>
+        <v>26.71657928137722</v>
       </c>
       <c r="C55" s="5">
-        <v>28.0298818429577</v>
+        <v>25.56599951183795</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="25" customHeight="1">
@@ -1855,10 +1899,10 @@
         <v>54</v>
       </c>
       <c r="B56" s="5">
-        <v>67.72311407158926</v>
+        <v>61.85937923598441</v>
       </c>
       <c r="C56" s="5">
-        <v>37.88328102483318</v>
+        <v>22.98555839669871</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="25" customHeight="1">
@@ -1866,10 +1910,10 @@
         <v>55</v>
       </c>
       <c r="B57" s="5">
-        <v>42.30637890031199</v>
+        <v>75.44976970637258</v>
       </c>
       <c r="C57" s="5">
-        <v>48.29154093455243</v>
+        <v>32.82021831532231</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="25" customHeight="1">
@@ -1877,10 +1921,10 @@
         <v>56</v>
       </c>
       <c r="B58" s="5">
-        <v>20.17398763784539</v>
+        <v>33.46686143025362</v>
       </c>
       <c r="C58" s="5">
-        <v>36.36486814208381</v>
+        <v>28.04808968156951</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="25" customHeight="1">
@@ -1888,10 +1932,10 @@
         <v>57</v>
       </c>
       <c r="B59" s="5">
-        <v>12.18139313192446</v>
+        <v>77.88633053326792</v>
       </c>
       <c r="C59" s="5">
-        <v>47.7886825785631</v>
+        <v>24.72897405406864</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="25" customHeight="1">
@@ -1899,10 +1943,10 @@
         <v>58</v>
       </c>
       <c r="B60" s="5">
-        <v>35.79884192014546</v>
+        <v>59.49556197902209</v>
       </c>
       <c r="C60" s="5">
-        <v>28.3849020809984</v>
+        <v>33.32677934306026</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="25" customHeight="1">
@@ -1910,10 +1954,10 @@
         <v>59</v>
       </c>
       <c r="B61" s="5">
-        <v>64.41178555125543</v>
+        <v>53.93969008316721</v>
       </c>
       <c r="C61" s="5">
-        <v>25.1953868007265</v>
+        <v>42.11773769891133</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="25" customHeight="1">
@@ -1921,10 +1965,10 @@
         <v>60</v>
       </c>
       <c r="B62" s="5">
-        <v>21.83319548540442</v>
+        <v>65.79056186149784</v>
       </c>
       <c r="C62" s="5">
-        <v>40.69558296186598</v>
+        <v>21.31013907154948</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="25" customHeight="1">
@@ -1932,10 +1976,10 @@
         <v>61</v>
       </c>
       <c r="B63" s="5">
-        <v>17.66986119027896</v>
+        <v>73.56295511306959</v>
       </c>
       <c r="C63" s="5">
-        <v>41.99129391072719</v>
+        <v>41.56895550538687</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="25" customHeight="1">
@@ -1943,10 +1987,10 @@
         <v>62</v>
       </c>
       <c r="B64" s="5">
-        <v>65.98611924447766</v>
+        <v>62.7374224122219</v>
       </c>
       <c r="C64" s="5">
-        <v>21.49507583172958</v>
+        <v>26.48849900233641</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="25" customHeight="1">
@@ -1954,10 +1998,10 @@
         <v>63</v>
       </c>
       <c r="B65" s="5">
-        <v>18.0897856967905</v>
+        <v>15.68447666114872</v>
       </c>
       <c r="C65" s="5">
-        <v>43.91579473891318</v>
+        <v>32.70057947621344</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="25" customHeight="1">
@@ -1965,10 +2009,10 @@
         <v>64</v>
       </c>
       <c r="B66" s="5">
-        <v>40.91942342565977</v>
+        <v>62.68457548210101</v>
       </c>
       <c r="C66" s="5">
-        <v>29.25351053287645</v>
+        <v>27.03287714217411</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="25" customHeight="1">
@@ -1976,10 +2020,10 @@
         <v>65</v>
       </c>
       <c r="B67" s="5">
-        <v>43.1580757368492</v>
+        <v>99.16638344080032</v>
       </c>
       <c r="C67" s="5">
-        <v>49.40812498321667</v>
+        <v>37.18516724285934</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="25" customHeight="1">
@@ -1987,10 +2031,10 @@
         <v>66</v>
       </c>
       <c r="B68" s="5">
-        <v>98.49647382773301</v>
+        <v>93.75438609353287</v>
       </c>
       <c r="C68" s="5">
-        <v>32.81929515376691</v>
+        <v>31.13649414631245</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="25" customHeight="1">
@@ -1998,10 +2042,10 @@
         <v>67</v>
       </c>
       <c r="B69" s="5">
-        <v>14.08122418167597</v>
+        <v>72.20878354684561</v>
       </c>
       <c r="C69" s="5">
-        <v>31.00242898316496</v>
+        <v>42.26663803617895</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="25" customHeight="1">
@@ -2009,10 +2053,10 @@
         <v>68</v>
       </c>
       <c r="B70" s="5">
-        <v>23.72680700527568</v>
+        <v>50.07024265497939</v>
       </c>
       <c r="C70" s="5">
-        <v>34.39812955427684</v>
+        <v>35.65392071182234</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="25" customHeight="1">
@@ -2020,10 +2064,10 @@
         <v>69</v>
       </c>
       <c r="B71" s="5">
-        <v>10.86940349965025</v>
+        <v>56.03708916834815</v>
       </c>
       <c r="C71" s="5">
-        <v>29.76996380239217</v>
+        <v>24.06800681851863</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="25" customHeight="1">
@@ -2031,10 +2075,10 @@
         <v>70</v>
       </c>
       <c r="B72" s="5">
-        <v>66.92349571628164</v>
+        <v>62.65855078393134</v>
       </c>
       <c r="C72" s="5">
-        <v>35.39280608094338</v>
+        <v>23.9363410837894</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="25" customHeight="1">
@@ -2042,10 +2086,10 @@
         <v>71</v>
       </c>
       <c r="B73" s="5">
-        <v>77.66995669458957</v>
+        <v>88.11944803193892</v>
       </c>
       <c r="C73" s="5">
-        <v>29.8460631658443</v>
+        <v>46.12095173062937</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="25" customHeight="1">
@@ -2053,10 +2097,10 @@
         <v>72</v>
       </c>
       <c r="B74" s="5">
-        <v>81.47465752083352</v>
+        <v>71.34646783797029</v>
       </c>
       <c r="C74" s="5">
-        <v>43.27863987009438</v>
+        <v>23.04420789766669</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="25" customHeight="1">
@@ -2064,10 +2108,10 @@
         <v>73</v>
       </c>
       <c r="B75" s="5">
-        <v>10.32298059664159</v>
+        <v>46.41703425200991</v>
       </c>
       <c r="C75" s="5">
-        <v>21.55815357010415</v>
+        <v>43.26715036727896</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="25" customHeight="1">
@@ -2075,10 +2119,10 @@
         <v>74</v>
       </c>
       <c r="B76" s="5">
-        <v>96.8246572218158</v>
+        <v>65.80867268781614</v>
       </c>
       <c r="C76" s="5">
-        <v>20.05617700403002</v>
+        <v>48.21195098698183</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="25" customHeight="1">
@@ -2086,10 +2130,10 @@
         <v>75</v>
       </c>
       <c r="B77" s="5">
-        <v>86.01716689871068</v>
+        <v>34.9408750008417</v>
       </c>
       <c r="C77" s="5">
-        <v>28.33239160342556</v>
+        <v>23.91521979036627</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="25" customHeight="1">
@@ -2097,10 +2141,10 @@
         <v>76</v>
       </c>
       <c r="B78" s="5">
-        <v>95.39126529612747</v>
+        <v>56.64292864750741</v>
       </c>
       <c r="C78" s="5">
-        <v>36.39323883723782</v>
+        <v>39.38270017352653</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="25" customHeight="1">
@@ -2108,10 +2152,10 @@
         <v>77</v>
       </c>
       <c r="B79" s="5">
-        <v>56.79309820794099</v>
+        <v>58.76419922305689</v>
       </c>
       <c r="C79" s="5">
-        <v>21.56816335869483</v>
+        <v>45.4194060915144</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="25" customHeight="1">
@@ -2119,10 +2163,10 @@
         <v>78</v>
       </c>
       <c r="B80" s="5">
-        <v>31.83874197056397</v>
+        <v>97.7004891682527</v>
       </c>
       <c r="C80" s="5">
-        <v>36.05387431795164</v>
+        <v>42.30985810640634</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="25" customHeight="1">
@@ -2130,10 +2174,10 @@
         <v>79</v>
       </c>
       <c r="B81" s="5">
-        <v>63.24751107649099</v>
+        <v>86.94404060013723</v>
       </c>
       <c r="C81" s="5">
-        <v>23.08942805543084</v>
+        <v>49.56420720314139</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="25" customHeight="1">
@@ -2141,10 +2185,10 @@
         <v>80</v>
       </c>
       <c r="B82" s="5">
-        <v>66.22800266825581</v>
+        <v>96.31176362722333</v>
       </c>
       <c r="C82" s="5">
-        <v>34.88265680090734</v>
+        <v>22.24323283540089</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="25" customHeight="1">
@@ -2152,10 +2196,10 @@
         <v>81</v>
       </c>
       <c r="B83" s="5">
-        <v>42.6907377975574</v>
+        <v>75.81470436043061</v>
       </c>
       <c r="C83" s="5">
-        <v>24.94297861880869</v>
+        <v>35.69592600573313</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="25" customHeight="1">
@@ -2163,10 +2207,10 @@
         <v>82</v>
       </c>
       <c r="B84" s="5">
-        <v>89.02001890996608</v>
+        <v>27.68907152286034</v>
       </c>
       <c r="C84" s="5">
-        <v>21.8291954900964</v>
+        <v>26.82179071832504</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="25" customHeight="1">
@@ -2174,10 +2218,10 @@
         <v>83</v>
       </c>
       <c r="B85" s="5">
-        <v>61.87112511676936</v>
+        <v>15.22412041198356</v>
       </c>
       <c r="C85" s="5">
-        <v>29.38590981250959</v>
+        <v>47.86518199349682</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="25" customHeight="1">
@@ -2185,10 +2229,10 @@
         <v>84</v>
       </c>
       <c r="B86" s="5">
-        <v>44.35770522649564</v>
+        <v>27.20084298882551</v>
       </c>
       <c r="C86" s="5">
-        <v>43.89713897340766</v>
+        <v>32.04718681666932</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="25" customHeight="1">
@@ -2196,10 +2240,10 @@
         <v>85</v>
       </c>
       <c r="B87" s="5">
-        <v>19.30768085197051</v>
+        <v>22.72588045763314</v>
       </c>
       <c r="C87" s="5">
-        <v>22.80874666533363</v>
+        <v>30.23013500709007</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="25" customHeight="1">
@@ -2207,10 +2251,10 @@
         <v>86</v>
       </c>
       <c r="B88" s="5">
-        <v>94.45350710355501</v>
+        <v>66.06647424011369</v>
       </c>
       <c r="C88" s="5">
-        <v>33.93791855840405</v>
+        <v>33.44569617937103</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="25" customHeight="1">
@@ -2218,10 +2262,10 @@
         <v>87</v>
       </c>
       <c r="B89" s="5">
-        <v>31.47588280183883</v>
+        <v>11.39618959218023</v>
       </c>
       <c r="C89" s="5">
-        <v>36.63191897131662</v>
+        <v>43.72446078770317</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="25" customHeight="1">
@@ -2229,10 +2273,10 @@
         <v>88</v>
       </c>
       <c r="B90" s="5">
-        <v>98.07873670429544</v>
+        <v>41.55428107217689</v>
       </c>
       <c r="C90" s="5">
-        <v>47.60562913556861</v>
+        <v>46.12018631580427</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="25" customHeight="1">
@@ -2240,10 +2284,10 @@
         <v>89</v>
       </c>
       <c r="B91" s="5">
-        <v>60.67932650508392</v>
+        <v>97.45327393059098</v>
       </c>
       <c r="C91" s="5">
-        <v>44.75727021713028</v>
+        <v>34.17969397830002</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="25" customHeight="1">
@@ -2251,10 +2295,10 @@
         <v>90</v>
       </c>
       <c r="B92" s="5">
-        <v>46.58000754655647</v>
+        <v>45.52910238639206</v>
       </c>
       <c r="C92" s="5">
-        <v>42.3321256806779</v>
+        <v>44.07639721658195</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="25" customHeight="1">
@@ -2262,10 +2306,10 @@
         <v>91</v>
       </c>
       <c r="B93" s="5">
-        <v>90.92637049185629</v>
+        <v>79.58589881409094</v>
       </c>
       <c r="C93" s="5">
-        <v>42.87466299837165</v>
+        <v>32.91840011729683</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="25" customHeight="1">
@@ -2273,10 +2317,10 @@
         <v>92</v>
       </c>
       <c r="B94" s="5">
-        <v>35.54086843988748</v>
+        <v>20.32054546196045</v>
       </c>
       <c r="C94" s="5">
-        <v>48.24792254058005</v>
+        <v>20.80465531305775</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="25" customHeight="1">
@@ -2284,10 +2328,10 @@
         <v>93</v>
       </c>
       <c r="B95" s="5">
-        <v>95.73666787478554</v>
+        <v>12.38308551582389</v>
       </c>
       <c r="C95" s="5">
-        <v>48.45262431170277</v>
+        <v>35.83907493042506</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="25" customHeight="1">
@@ -2295,10 +2339,10 @@
         <v>94</v>
       </c>
       <c r="B96" s="5">
-        <v>34.66299984103971</v>
+        <v>92.96538480426204</v>
       </c>
       <c r="C96" s="5">
-        <v>26.71108433350927</v>
+        <v>33.21784762402847</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="25" customHeight="1">
@@ -2306,10 +2350,10 @@
         <v>95</v>
       </c>
       <c r="B97" s="5">
-        <v>24.65789444211672</v>
+        <v>90.09389805541967</v>
       </c>
       <c r="C97" s="5">
-        <v>37.75629750947908</v>
+        <v>47.41571646827236</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="25" customHeight="1">
@@ -2317,10 +2361,10 @@
         <v>96</v>
       </c>
       <c r="B98" s="5">
-        <v>18.83815202086015</v>
+        <v>72.3070032015259</v>
       </c>
       <c r="C98" s="5">
-        <v>32.58688269401735</v>
+        <v>40.38261821099357</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="25" customHeight="1">
@@ -2328,10 +2372,10 @@
         <v>97</v>
       </c>
       <c r="B99" s="5">
-        <v>62.57992890602498</v>
+        <v>92.78282567269301</v>
       </c>
       <c r="C99" s="5">
-        <v>24.10093017527897</v>
+        <v>42.08019634698191</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="25" customHeight="1">
@@ -2339,10 +2383,10 @@
         <v>98</v>
       </c>
       <c r="B100" s="5">
-        <v>96.70106501940148</v>
+        <v>14.17236731408424</v>
       </c>
       <c r="C100" s="5">
-        <v>27.72551326580706</v>
+        <v>46.47377044745258</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="25" customHeight="1">
@@ -2350,10 +2394,10 @@
         <v>99</v>
       </c>
       <c r="B101" s="5">
-        <v>24.43161109808531</v>
+        <v>14.47896190595806</v>
       </c>
       <c r="C101" s="5">
-        <v>46.38953433026541</v>
+        <v>31.88564561853137</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="25" customHeight="1">
@@ -2361,10 +2405,10 @@
         <v>100</v>
       </c>
       <c r="B102" s="5">
-        <v>12.63447466304701</v>
+        <v>49.02668360740743</v>
       </c>
       <c r="C102" s="5">
-        <v>40.7454099838328</v>
+        <v>43.8012486113072</v>
       </c>
     </row>
   </sheetData>
@@ -2374,4 +2418,38 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B3:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="3" spans="2:2">
+      <c r="B3" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <picture r:id="rId1"/>
+</worksheet>
 </file>
--- a/demo.xlsx
+++ b/demo.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
   <si>
     <t>Merged Range</t>
   </si>
@@ -55,6 +55,15 @@
   <si>
     <t>Text</t>
   </si>
+  <si>
+    <t>http://libxlsxwriter.github.io</t>
+  </si>
+  <si>
+    <t>Read the documentation</t>
+  </si>
+  <si>
+    <t>Это фраза на русском!</t>
+  </si>
 </sst>
 </file>
 
@@ -63,7 +72,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy/MM/dd"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,6 +87,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -166,10 +182,14 @@
       </diagonal>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -186,8 +206,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -239,301 +261,301 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>96.10406083414914</c:v>
+                  <c:v>53.28979560539729</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24.51074932317651</c:v>
+                  <c:v>68.56712997902773</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>94.87315609282277</c:v>
+                  <c:v>82.99083418229907</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>37.11431567968748</c:v>
+                  <c:v>74.6142930693141</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>66.25499223296809</c:v>
+                  <c:v>33.24113800348471</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>83.78350559894527</c:v>
+                  <c:v>15.25144655328871</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>93.11376412371999</c:v>
+                  <c:v>80.74593414921904</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>82.20671861625331</c:v>
+                  <c:v>16.93804748356422</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>48.96586847309435</c:v>
+                  <c:v>17.43694681533881</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>56.84804456907234</c:v>
+                  <c:v>80.40545215580097</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>45.86144150649275</c:v>
+                  <c:v>72.18063796830866</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>46.59535938564397</c:v>
+                  <c:v>90.97280630131108</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>66.46203077369317</c:v>
+                  <c:v>65.15956270639298</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>90.96893337608714</c:v>
+                  <c:v>84.90549155242195</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>58.99732096975882</c:v>
+                  <c:v>86.44599160348702</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>61.56821449049039</c:v>
+                  <c:v>73.04386902474275</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>91.84022815703823</c:v>
+                  <c:v>24.21516111277972</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>21.79746323512192</c:v>
+                  <c:v>42.38045800619468</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>14.40895333186714</c:v>
+                  <c:v>62.86540434101705</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>35.05933320921074</c:v>
+                  <c:v>86.98283256115836</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>38.6578952806498</c:v>
+                  <c:v>24.08776430290098</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>29.62904912609263</c:v>
+                  <c:v>68.94796272405497</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>52.22258866842385</c:v>
+                  <c:v>29.82034909141006</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>97.02430136583584</c:v>
+                  <c:v>28.32710399373674</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>93.21308834661035</c:v>
+                  <c:v>69.61521402256152</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>30.10753887391399</c:v>
+                  <c:v>41.77614342250155</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>99.40567057891562</c:v>
+                  <c:v>87.09130361553008</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>31.12632054488291</c:v>
+                  <c:v>82.68320928956257</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>66.49438280002059</c:v>
+                  <c:v>10.93544703438916</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>85.22419247062275</c:v>
+                  <c:v>99.04295694508001</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>10.38423944500812</c:v>
+                  <c:v>39.15075908600905</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>77.81463264700828</c:v>
+                  <c:v>35.11945918458051</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>16.04108316021289</c:v>
+                  <c:v>13.62474029084852</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>13.2178143398855</c:v>
+                  <c:v>35.62263675279301</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>69.23035909606838</c:v>
+                  <c:v>28.74133118079018</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>62.85244758042885</c:v>
+                  <c:v>70.34288115113785</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>12.25129920644872</c:v>
+                  <c:v>73.49524621979573</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>60.76593679016284</c:v>
+                  <c:v>33.32360631530129</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>49.07560711201031</c:v>
+                  <c:v>40.42888296078942</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>40.29317463720369</c:v>
+                  <c:v>81.89995405232698</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>35.30056594088458</c:v>
+                  <c:v>17.05886649695181</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>75.21891998125388</c:v>
+                  <c:v>56.78033422628503</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>61.00943569517186</c:v>
+                  <c:v>64.10080090368436</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>27.83552097804207</c:v>
+                  <c:v>30.57230589345087</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>43.24454949095691</c:v>
+                  <c:v>41.23813266901448</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>20.61463227962973</c:v>
+                  <c:v>48.57334810916874</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>60.4875855537782</c:v>
+                  <c:v>52.87438348176227</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>51.8570981341274</c:v>
+                  <c:v>42.08023427201181</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>61.8147511073732</c:v>
+                  <c:v>77.78134725834821</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>70.98758414745211</c:v>
+                  <c:v>21.28872261911832</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>44.06449667027943</c:v>
+                  <c:v>38.27847488359474</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>59.01586637090439</c:v>
+                  <c:v>20.0747418103013</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>26.71657928137722</c:v>
+                  <c:v>81.18531722168717</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>61.85937923598441</c:v>
+                  <c:v>88.71821674520152</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>75.44976970637258</c:v>
+                  <c:v>36.41315568013424</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>33.46686143025362</c:v>
+                  <c:v>25.73626247393622</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>77.88633053326792</c:v>
+                  <c:v>17.40398255601157</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>59.49556197902209</c:v>
+                  <c:v>43.49257582766958</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>53.93969008316721</c:v>
+                  <c:v>67.30641920638688</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>65.79056186149784</c:v>
+                  <c:v>92.07162095829349</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>73.56295511306959</c:v>
+                  <c:v>45.24237460782066</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>62.7374224122219</c:v>
+                  <c:v>35.41490351500667</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>15.68447666114872</c:v>
+                  <c:v>22.1973175737138</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>62.68457548210101</c:v>
+                  <c:v>47.07990240785932</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>99.16638344080032</c:v>
+                  <c:v>70.49245526078184</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>93.75438609353287</c:v>
+                  <c:v>59.08380932089028</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>72.20878354684561</c:v>
+                  <c:v>29.52671288592778</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>50.07024265497939</c:v>
+                  <c:v>41.12623294193379</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>56.03708916834815</c:v>
+                  <c:v>63.1522133053986</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>62.65855078393134</c:v>
+                  <c:v>24.38356672310749</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>88.11944803193892</c:v>
+                  <c:v>45.99551402196148</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>71.34646783797029</c:v>
+                  <c:v>50.4212078538099</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>46.41703425200991</c:v>
+                  <c:v>81.87135126937847</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>65.80867268781614</c:v>
+                  <c:v>98.12923270274618</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>34.9408750008417</c:v>
+                  <c:v>75.80146048646002</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>56.64292864750741</c:v>
+                  <c:v>35.42793931033121</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>58.76419922305689</c:v>
+                  <c:v>71.626056937219</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>97.7004891682527</c:v>
+                  <c:v>26.67266597303205</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>86.94404060013723</c:v>
+                  <c:v>61.4503268602089</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>96.31176362722333</c:v>
+                  <c:v>95.08585072872255</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>75.81470436043061</c:v>
+                  <c:v>66.80092952103101</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>27.68907152286034</c:v>
+                  <c:v>46.84325693925947</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>15.22412041198356</c:v>
+                  <c:v>53.64205025383014</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>27.20084298882551</c:v>
+                  <c:v>91.67066414746033</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>22.72588045763314</c:v>
+                  <c:v>88.72275996201564</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>66.06647424011369</c:v>
+                  <c:v>86.9643090377059</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>11.39618959218023</c:v>
+                  <c:v>47.07180470491285</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>41.55428107217689</c:v>
+                  <c:v>46.12684190056998</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>97.45327393059098</c:v>
+                  <c:v>56.72647403635192</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>45.52910238639206</c:v>
+                  <c:v>86.23590601209301</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>79.58589881409094</c:v>
+                  <c:v>85.8255718259239</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>20.32054546196045</c:v>
+                  <c:v>70.6793938237243</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>12.38308551582389</c:v>
+                  <c:v>31.4001342793017</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>92.96538480426204</c:v>
+                  <c:v>99.40748987300015</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>90.09389805541967</c:v>
+                  <c:v>62.56945216124381</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>72.3070032015259</c:v>
+                  <c:v>57.82834496965986</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>92.78282567269301</c:v>
+                  <c:v>16.10118664653474</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>14.17236731408424</c:v>
+                  <c:v>61.87576973416328</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>14.47896190595806</c:v>
+                  <c:v>94.69810085981184</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -566,301 +588,301 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>48.13186003294449</c:v>
+                  <c:v>39.24574015213339</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31.87840770880405</c:v>
+                  <c:v>22.78717477935214</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>37.10915625461169</c:v>
+                  <c:v>39.78599606823497</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>35.37068300015946</c:v>
+                  <c:v>38.25318061041659</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45.65261587409024</c:v>
+                  <c:v>29.76012116392684</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44.94774133035752</c:v>
+                  <c:v>40.40533934440484</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>22.8763312059267</c:v>
+                  <c:v>24.55283394523596</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>42.83219597533977</c:v>
+                  <c:v>20.26017031058346</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>29.85086866441583</c:v>
+                  <c:v>32.61925205449427</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>42.38726414113108</c:v>
+                  <c:v>21.26945127955707</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>25.23120834744952</c:v>
+                  <c:v>41.74529963261395</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>23.06800844604169</c:v>
+                  <c:v>44.46244503936457</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>48.37994962900438</c:v>
+                  <c:v>30.16768045603873</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>29.30716669149339</c:v>
+                  <c:v>46.17371909859376</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>31.86391051128527</c:v>
+                  <c:v>31.80466351138263</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>24.11560958827153</c:v>
+                  <c:v>20.19207813278402</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>38.42298261860815</c:v>
+                  <c:v>20.55978372849387</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>42.940256171661</c:v>
+                  <c:v>24.17388449315166</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>29.86500588508862</c:v>
+                  <c:v>46.93409945441709</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>24.35977061951561</c:v>
+                  <c:v>32.15151887800517</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>21.89033082927936</c:v>
+                  <c:v>45.08087027439507</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>20.59063615421452</c:v>
+                  <c:v>44.73485490154266</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>39.66796389657239</c:v>
+                  <c:v>29.83062215068165</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>42.5107968542959</c:v>
+                  <c:v>20.96446057027356</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>20.32138814132178</c:v>
+                  <c:v>41.58502155911567</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>28.87820563650011</c:v>
+                  <c:v>45.59494257783592</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>47.39967075145092</c:v>
+                  <c:v>41.14214765934561</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>34.58962346969147</c:v>
+                  <c:v>40.0932890007311</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>22.56417918004935</c:v>
+                  <c:v>34.33793375184415</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>22.34078238083922</c:v>
+                  <c:v>38.37806679559286</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>27.77578623072147</c:v>
+                  <c:v>33.36571272943301</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>23.96086101163596</c:v>
+                  <c:v>31.13017545997435</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>20.61226520629161</c:v>
+                  <c:v>23.00735948886822</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>21.53512964887653</c:v>
+                  <c:v>41.81203667989975</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>38.33322091195851</c:v>
+                  <c:v>48.06766007335975</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>47.0595953020579</c:v>
+                  <c:v>25.68698890575794</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>36.36287417567856</c:v>
+                  <c:v>34.86975687082488</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>34.3514289765978</c:v>
+                  <c:v>23.6904791062067</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>33.06062440357807</c:v>
+                  <c:v>36.47350690234619</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>30.12072251678309</c:v>
+                  <c:v>34.25018539004638</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>40.71489871679709</c:v>
+                  <c:v>28.37580122172965</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>44.13305144629943</c:v>
+                  <c:v>27.08767505150558</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>39.31808318796777</c:v>
+                  <c:v>33.79896454807751</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>41.48712909516188</c:v>
+                  <c:v>27.24761328806085</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>49.9495980932233</c:v>
+                  <c:v>48.51191761577984</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>32.97496808625748</c:v>
+                  <c:v>41.41979946497587</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>41.62875185753454</c:v>
+                  <c:v>49.80521774249084</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>37.4719179060417</c:v>
+                  <c:v>45.41484737277696</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>46.34890419060643</c:v>
+                  <c:v>26.34861188871238</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>27.80366109912698</c:v>
+                  <c:v>28.80049281676948</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>40.37106836601518</c:v>
+                  <c:v>43.43632800033421</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>32.63052556983375</c:v>
+                  <c:v>27.56983157965301</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>25.56599951183795</c:v>
+                  <c:v>31.39949353218285</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>22.98555839669871</c:v>
+                  <c:v>31.24192542392864</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>32.82021831532231</c:v>
+                  <c:v>27.31876256866005</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>28.04808968156951</c:v>
+                  <c:v>41.65420047802965</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>24.72897405406864</c:v>
+                  <c:v>24.30316759003788</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>33.32677934306026</c:v>
+                  <c:v>27.48537150995864</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>42.11773769891133</c:v>
+                  <c:v>34.82218788270024</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>21.31013907154948</c:v>
+                  <c:v>31.04020652006258</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>41.56895550538687</c:v>
+                  <c:v>29.76301016851637</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>26.48849900233641</c:v>
+                  <c:v>26.10310843478719</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>32.70057947621344</c:v>
+                  <c:v>47.29594743131162</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>27.03287714217411</c:v>
+                  <c:v>36.92775636917604</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>37.18516724285934</c:v>
+                  <c:v>48.58789234910638</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>31.13649414631245</c:v>
+                  <c:v>24.84049762587438</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>42.26663803617895</c:v>
+                  <c:v>29.50397517888776</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>35.65392071182234</c:v>
+                  <c:v>29.09796007513288</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>24.06800681851863</c:v>
+                  <c:v>46.40049885380515</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>23.9363410837894</c:v>
+                  <c:v>33.55988923319734</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>46.12095173062937</c:v>
+                  <c:v>35.64983849306631</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>23.04420789766669</c:v>
+                  <c:v>24.70690931006112</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>43.26715036727896</c:v>
+                  <c:v>39.04479477123891</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>48.21195098698183</c:v>
+                  <c:v>27.59589629258656</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>23.91521979036627</c:v>
+                  <c:v>42.50397080264156</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>39.38270017352653</c:v>
+                  <c:v>23.5611220541483</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>45.4194060915144</c:v>
+                  <c:v>30.09781718861451</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>42.30985810640634</c:v>
+                  <c:v>31.15782343952412</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>49.56420720314139</c:v>
+                  <c:v>39.51687992262922</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>22.24323283540089</c:v>
+                  <c:v>42.51931826507749</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>35.69592600573313</c:v>
+                  <c:v>38.18111143125748</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>26.82179071832504</c:v>
+                  <c:v>20.38716863508951</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>47.86518199349682</c:v>
+                  <c:v>30.74804333098643</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>32.04718681666932</c:v>
+                  <c:v>32.73641905190415</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>30.23013500709007</c:v>
+                  <c:v>39.11247804076606</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>33.44569617937103</c:v>
+                  <c:v>39.79172262319444</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>43.72446078770317</c:v>
+                  <c:v>39.73153783385852</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>46.12018631580427</c:v>
+                  <c:v>31.2734775383442</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>34.17969397830002</c:v>
+                  <c:v>40.47123559557183</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>44.07639721658195</c:v>
+                  <c:v>43.38678552273343</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>32.91840011729683</c:v>
+                  <c:v>43.71720873521383</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>20.80465531305775</c:v>
+                  <c:v>35.68376294014256</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>35.83907493042506</c:v>
+                  <c:v>29.97168207711782</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>33.21784762402847</c:v>
+                  <c:v>49.16944730008559</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>47.41571646827236</c:v>
+                  <c:v>31.63381967362991</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>40.38261821099357</c:v>
+                  <c:v>37.95764587863158</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>42.08019634698191</c:v>
+                  <c:v>39.47159377275348</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>46.47377044745258</c:v>
+                  <c:v>35.04936458412964</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>31.88564561853137</c:v>
+                  <c:v>35.62775167894134</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1305,7 +1327,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="4">
-        <v>44720.3471053298</v>
+        <v>44721.12583897656</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -1316,10 +1338,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="5">
-        <v>96.10406083414914</v>
+        <v>53.28979560539729</v>
       </c>
       <c r="C3" s="5">
-        <v>48.13186003294449</v>
+        <v>39.24574015213339</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="25" customHeight="1">
@@ -1327,10 +1349,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="5">
-        <v>24.51074932317651</v>
+        <v>68.56712997902773</v>
       </c>
       <c r="C4" s="5">
-        <v>31.87840770880405</v>
+        <v>22.78717477935214</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="25" customHeight="1">
@@ -1338,10 +1360,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="5">
-        <v>94.87315609282277</v>
+        <v>82.99083418229907</v>
       </c>
       <c r="C5" s="5">
-        <v>37.10915625461169</v>
+        <v>39.78599606823497</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="25" customHeight="1">
@@ -1349,10 +1371,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="5">
-        <v>37.11431567968748</v>
+        <v>74.6142930693141</v>
       </c>
       <c r="C6" s="5">
-        <v>35.37068300015946</v>
+        <v>38.25318061041659</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="25" customHeight="1">
@@ -1360,10 +1382,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="5">
-        <v>66.25499223296809</v>
+        <v>33.24113800348471</v>
       </c>
       <c r="C7" s="5">
-        <v>45.65261587409024</v>
+        <v>29.76012116392684</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="25" customHeight="1">
@@ -1371,10 +1393,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="5">
-        <v>83.78350559894527</v>
+        <v>15.25144655328871</v>
       </c>
       <c r="C8" s="5">
-        <v>44.94774133035752</v>
+        <v>40.40533934440484</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="25" customHeight="1">
@@ -1382,10 +1404,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="5">
-        <v>93.11376412371999</v>
+        <v>80.74593414921904</v>
       </c>
       <c r="C9" s="5">
-        <v>22.8763312059267</v>
+        <v>24.55283394523596</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="25" customHeight="1">
@@ -1393,10 +1415,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="5">
-        <v>82.20671861625331</v>
+        <v>16.93804748356422</v>
       </c>
       <c r="C10" s="5">
-        <v>42.83219597533977</v>
+        <v>20.26017031058346</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="25" customHeight="1">
@@ -1404,10 +1426,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="5">
-        <v>48.96586847309435</v>
+        <v>17.43694681533881</v>
       </c>
       <c r="C11" s="5">
-        <v>29.85086866441583</v>
+        <v>32.61925205449427</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="25" customHeight="1">
@@ -1415,10 +1437,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="5">
-        <v>56.84804456907234</v>
+        <v>80.40545215580097</v>
       </c>
       <c r="C12" s="5">
-        <v>42.38726414113108</v>
+        <v>21.26945127955707</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="25" customHeight="1">
@@ -1426,10 +1448,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="5">
-        <v>45.86144150649275</v>
+        <v>72.18063796830866</v>
       </c>
       <c r="C13" s="5">
-        <v>25.23120834744952</v>
+        <v>41.74529963261395</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="25" customHeight="1">
@@ -1437,10 +1459,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="5">
-        <v>46.59535938564397</v>
+        <v>90.97280630131108</v>
       </c>
       <c r="C14" s="5">
-        <v>23.06800844604169</v>
+        <v>44.46244503936457</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="25" customHeight="1">
@@ -1448,10 +1470,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="5">
-        <v>66.46203077369317</v>
+        <v>65.15956270639298</v>
       </c>
       <c r="C15" s="5">
-        <v>48.37994962900438</v>
+        <v>30.16768045603873</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="25" customHeight="1">
@@ -1459,10 +1481,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="5">
-        <v>90.96893337608714</v>
+        <v>84.90549155242195</v>
       </c>
       <c r="C16" s="5">
-        <v>29.30716669149339</v>
+        <v>46.17371909859376</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="25" customHeight="1">
@@ -1470,10 +1492,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="5">
-        <v>58.99732096975882</v>
+        <v>86.44599160348702</v>
       </c>
       <c r="C17" s="5">
-        <v>31.86391051128527</v>
+        <v>31.80466351138263</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="25" customHeight="1">
@@ -1481,10 +1503,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="5">
-        <v>61.56821449049039</v>
+        <v>73.04386902474275</v>
       </c>
       <c r="C18" s="5">
-        <v>24.11560958827153</v>
+        <v>20.19207813278402</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="25" customHeight="1">
@@ -1492,10 +1514,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="5">
-        <v>91.84022815703823</v>
+        <v>24.21516111277972</v>
       </c>
       <c r="C19" s="5">
-        <v>38.42298261860815</v>
+        <v>20.55978372849387</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="25" customHeight="1">
@@ -1503,10 +1525,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="5">
-        <v>21.79746323512192</v>
+        <v>42.38045800619468</v>
       </c>
       <c r="C20" s="5">
-        <v>42.940256171661</v>
+        <v>24.17388449315166</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="25" customHeight="1">
@@ -1514,10 +1536,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="5">
-        <v>14.40895333186714</v>
+        <v>62.86540434101705</v>
       </c>
       <c r="C21" s="5">
-        <v>29.86500588508862</v>
+        <v>46.93409945441709</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="25" customHeight="1">
@@ -1525,10 +1547,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="5">
-        <v>35.05933320921074</v>
+        <v>86.98283256115836</v>
       </c>
       <c r="C22" s="5">
-        <v>24.35977061951561</v>
+        <v>32.15151887800517</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="25" customHeight="1">
@@ -1536,10 +1558,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="5">
-        <v>38.6578952806498</v>
+        <v>24.08776430290098</v>
       </c>
       <c r="C23" s="5">
-        <v>21.89033082927936</v>
+        <v>45.08087027439507</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="25" customHeight="1">
@@ -1547,10 +1569,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="5">
-        <v>29.62904912609263</v>
+        <v>68.94796272405497</v>
       </c>
       <c r="C24" s="5">
-        <v>20.59063615421452</v>
+        <v>44.73485490154266</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="25" customHeight="1">
@@ -1558,10 +1580,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="5">
-        <v>52.22258866842385</v>
+        <v>29.82034909141006</v>
       </c>
       <c r="C25" s="5">
-        <v>39.66796389657239</v>
+        <v>29.83062215068165</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="25" customHeight="1">
@@ -1569,10 +1591,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="5">
-        <v>97.02430136583584</v>
+        <v>28.32710399373674</v>
       </c>
       <c r="C26" s="5">
-        <v>42.5107968542959</v>
+        <v>20.96446057027356</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="25" customHeight="1">
@@ -1580,10 +1602,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="5">
-        <v>93.21308834661035</v>
+        <v>69.61521402256152</v>
       </c>
       <c r="C27" s="5">
-        <v>20.32138814132178</v>
+        <v>41.58502155911567</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="25" customHeight="1">
@@ -1591,10 +1613,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="5">
-        <v>30.10753887391399</v>
+        <v>41.77614342250155</v>
       </c>
       <c r="C28" s="5">
-        <v>28.87820563650011</v>
+        <v>45.59494257783592</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="25" customHeight="1">
@@ -1602,10 +1624,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="5">
-        <v>99.40567057891562</v>
+        <v>87.09130361553008</v>
       </c>
       <c r="C29" s="5">
-        <v>47.39967075145092</v>
+        <v>41.14214765934561</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="25" customHeight="1">
@@ -1613,10 +1635,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="5">
-        <v>31.12632054488291</v>
+        <v>82.68320928956257</v>
       </c>
       <c r="C30" s="5">
-        <v>34.58962346969147</v>
+        <v>40.0932890007311</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="25" customHeight="1">
@@ -1624,10 +1646,10 @@
         <v>29</v>
       </c>
       <c r="B31" s="5">
-        <v>66.49438280002059</v>
+        <v>10.93544703438916</v>
       </c>
       <c r="C31" s="5">
-        <v>22.56417918004935</v>
+        <v>34.33793375184415</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="25" customHeight="1">
@@ -1635,10 +1657,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="5">
-        <v>85.22419247062275</v>
+        <v>99.04295694508001</v>
       </c>
       <c r="C32" s="5">
-        <v>22.34078238083922</v>
+        <v>38.37806679559286</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="25" customHeight="1">
@@ -1646,10 +1668,10 @@
         <v>31</v>
       </c>
       <c r="B33" s="5">
-        <v>10.38423944500812</v>
+        <v>39.15075908600905</v>
       </c>
       <c r="C33" s="5">
-        <v>27.77578623072147</v>
+        <v>33.36571272943301</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="25" customHeight="1">
@@ -1657,10 +1679,10 @@
         <v>32</v>
       </c>
       <c r="B34" s="5">
-        <v>77.81463264700828</v>
+        <v>35.11945918458051</v>
       </c>
       <c r="C34" s="5">
-        <v>23.96086101163596</v>
+        <v>31.13017545997435</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="25" customHeight="1">
@@ -1668,10 +1690,10 @@
         <v>33</v>
       </c>
       <c r="B35" s="5">
-        <v>16.04108316021289</v>
+        <v>13.62474029084852</v>
       </c>
       <c r="C35" s="5">
-        <v>20.61226520629161</v>
+        <v>23.00735948886822</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="25" customHeight="1">
@@ -1679,10 +1701,10 @@
         <v>34</v>
       </c>
       <c r="B36" s="5">
-        <v>13.2178143398855</v>
+        <v>35.62263675279301</v>
       </c>
       <c r="C36" s="5">
-        <v>21.53512964887653</v>
+        <v>41.81203667989975</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="25" customHeight="1">
@@ -1690,10 +1712,10 @@
         <v>35</v>
       </c>
       <c r="B37" s="5">
-        <v>69.23035909606838</v>
+        <v>28.74133118079018</v>
       </c>
       <c r="C37" s="5">
-        <v>38.33322091195851</v>
+        <v>48.06766007335975</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="25" customHeight="1">
@@ -1701,10 +1723,10 @@
         <v>36</v>
       </c>
       <c r="B38" s="5">
-        <v>62.85244758042885</v>
+        <v>70.34288115113785</v>
       </c>
       <c r="C38" s="5">
-        <v>47.0595953020579</v>
+        <v>25.68698890575794</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="25" customHeight="1">
@@ -1712,10 +1734,10 @@
         <v>37</v>
       </c>
       <c r="B39" s="5">
-        <v>12.25129920644872</v>
+        <v>73.49524621979573</v>
       </c>
       <c r="C39" s="5">
-        <v>36.36287417567856</v>
+        <v>34.86975687082488</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="25" customHeight="1">
@@ -1723,10 +1745,10 @@
         <v>38</v>
       </c>
       <c r="B40" s="5">
-        <v>60.76593679016284</v>
+        <v>33.32360631530129</v>
       </c>
       <c r="C40" s="5">
-        <v>34.3514289765978</v>
+        <v>23.6904791062067</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="25" customHeight="1">
@@ -1734,10 +1756,10 @@
         <v>39</v>
       </c>
       <c r="B41" s="5">
-        <v>49.07560711201031</v>
+        <v>40.42888296078942</v>
       </c>
       <c r="C41" s="5">
-        <v>33.06062440357807</v>
+        <v>36.47350690234619</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="25" customHeight="1">
@@ -1745,10 +1767,10 @@
         <v>40</v>
       </c>
       <c r="B42" s="5">
-        <v>40.29317463720369</v>
+        <v>81.89995405232698</v>
       </c>
       <c r="C42" s="5">
-        <v>30.12072251678309</v>
+        <v>34.25018539004638</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="25" customHeight="1">
@@ -1756,10 +1778,10 @@
         <v>41</v>
       </c>
       <c r="B43" s="5">
-        <v>35.30056594088458</v>
+        <v>17.05886649695181</v>
       </c>
       <c r="C43" s="5">
-        <v>40.71489871679709</v>
+        <v>28.37580122172965</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="25" customHeight="1">
@@ -1767,10 +1789,10 @@
         <v>42</v>
       </c>
       <c r="B44" s="5">
-        <v>75.21891998125388</v>
+        <v>56.78033422628503</v>
       </c>
       <c r="C44" s="5">
-        <v>44.13305144629943</v>
+        <v>27.08767505150558</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="25" customHeight="1">
@@ -1778,10 +1800,10 @@
         <v>43</v>
       </c>
       <c r="B45" s="5">
-        <v>61.00943569517186</v>
+        <v>64.10080090368436</v>
       </c>
       <c r="C45" s="5">
-        <v>39.31808318796777</v>
+        <v>33.79896454807751</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="25" customHeight="1">
@@ -1789,10 +1811,10 @@
         <v>44</v>
       </c>
       <c r="B46" s="5">
-        <v>27.83552097804207</v>
+        <v>30.57230589345087</v>
       </c>
       <c r="C46" s="5">
-        <v>41.48712909516188</v>
+        <v>27.24761328806085</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="25" customHeight="1">
@@ -1800,10 +1822,10 @@
         <v>45</v>
       </c>
       <c r="B47" s="5">
-        <v>43.24454949095691</v>
+        <v>41.23813266901448</v>
       </c>
       <c r="C47" s="5">
-        <v>49.9495980932233</v>
+        <v>48.51191761577984</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="25" customHeight="1">
@@ -1811,10 +1833,10 @@
         <v>46</v>
       </c>
       <c r="B48" s="5">
-        <v>20.61463227962973</v>
+        <v>48.57334810916874</v>
       </c>
       <c r="C48" s="5">
-        <v>32.97496808625748</v>
+        <v>41.41979946497587</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="25" customHeight="1">
@@ -1822,10 +1844,10 @@
         <v>47</v>
       </c>
       <c r="B49" s="5">
-        <v>60.4875855537782</v>
+        <v>52.87438348176227</v>
       </c>
       <c r="C49" s="5">
-        <v>41.62875185753454</v>
+        <v>49.80521774249084</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="25" customHeight="1">
@@ -1833,10 +1855,10 @@
         <v>48</v>
       </c>
       <c r="B50" s="5">
-        <v>51.8570981341274</v>
+        <v>42.08023427201181</v>
       </c>
       <c r="C50" s="5">
-        <v>37.4719179060417</v>
+        <v>45.41484737277696</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="25" customHeight="1">
@@ -1844,10 +1866,10 @@
         <v>49</v>
       </c>
       <c r="B51" s="5">
-        <v>61.8147511073732</v>
+        <v>77.78134725834821</v>
       </c>
       <c r="C51" s="5">
-        <v>46.34890419060643</v>
+        <v>26.34861188871238</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="25" customHeight="1">
@@ -1855,10 +1877,10 @@
         <v>50</v>
       </c>
       <c r="B52" s="5">
-        <v>70.98758414745211</v>
+        <v>21.28872261911832</v>
       </c>
       <c r="C52" s="5">
-        <v>27.80366109912698</v>
+        <v>28.80049281676948</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="25" customHeight="1">
@@ -1866,10 +1888,10 @@
         <v>51</v>
       </c>
       <c r="B53" s="5">
-        <v>44.06449667027943</v>
+        <v>38.27847488359474</v>
       </c>
       <c r="C53" s="5">
-        <v>40.37106836601518</v>
+        <v>43.43632800033421</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="25" customHeight="1">
@@ -1877,10 +1899,10 @@
         <v>52</v>
       </c>
       <c r="B54" s="5">
-        <v>59.01586637090439</v>
+        <v>20.0747418103013</v>
       </c>
       <c r="C54" s="5">
-        <v>32.63052556983375</v>
+        <v>27.56983157965301</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="25" customHeight="1">
@@ -1888,10 +1910,10 @@
         <v>53</v>
       </c>
       <c r="B55" s="5">
-        <v>26.71657928137722</v>
+        <v>81.18531722168717</v>
       </c>
       <c r="C55" s="5">
-        <v>25.56599951183795</v>
+        <v>31.39949353218285</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="25" customHeight="1">
@@ -1899,10 +1921,10 @@
         <v>54</v>
       </c>
       <c r="B56" s="5">
-        <v>61.85937923598441</v>
+        <v>88.71821674520152</v>
       </c>
       <c r="C56" s="5">
-        <v>22.98555839669871</v>
+        <v>31.24192542392864</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="25" customHeight="1">
@@ -1910,10 +1932,10 @@
         <v>55</v>
       </c>
       <c r="B57" s="5">
-        <v>75.44976970637258</v>
+        <v>36.41315568013424</v>
       </c>
       <c r="C57" s="5">
-        <v>32.82021831532231</v>
+        <v>27.31876256866005</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="25" customHeight="1">
@@ -1921,10 +1943,10 @@
         <v>56</v>
       </c>
       <c r="B58" s="5">
-        <v>33.46686143025362</v>
+        <v>25.73626247393622</v>
       </c>
       <c r="C58" s="5">
-        <v>28.04808968156951</v>
+        <v>41.65420047802965</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="25" customHeight="1">
@@ -1932,10 +1954,10 @@
         <v>57</v>
       </c>
       <c r="B59" s="5">
-        <v>77.88633053326792</v>
+        <v>17.40398255601157</v>
       </c>
       <c r="C59" s="5">
-        <v>24.72897405406864</v>
+        <v>24.30316759003788</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="25" customHeight="1">
@@ -1943,10 +1965,10 @@
         <v>58</v>
       </c>
       <c r="B60" s="5">
-        <v>59.49556197902209</v>
+        <v>43.49257582766958</v>
       </c>
       <c r="C60" s="5">
-        <v>33.32677934306026</v>
+        <v>27.48537150995864</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="25" customHeight="1">
@@ -1954,10 +1976,10 @@
         <v>59</v>
       </c>
       <c r="B61" s="5">
-        <v>53.93969008316721</v>
+        <v>67.30641920638688</v>
       </c>
       <c r="C61" s="5">
-        <v>42.11773769891133</v>
+        <v>34.82218788270024</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="25" customHeight="1">
@@ -1965,10 +1987,10 @@
         <v>60</v>
       </c>
       <c r="B62" s="5">
-        <v>65.79056186149784</v>
+        <v>92.07162095829349</v>
       </c>
       <c r="C62" s="5">
-        <v>21.31013907154948</v>
+        <v>31.04020652006258</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="25" customHeight="1">
@@ -1976,10 +1998,10 @@
         <v>61</v>
       </c>
       <c r="B63" s="5">
-        <v>73.56295511306959</v>
+        <v>45.24237460782066</v>
       </c>
       <c r="C63" s="5">
-        <v>41.56895550538687</v>
+        <v>29.76301016851637</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="25" customHeight="1">
@@ -1987,10 +2009,10 @@
         <v>62</v>
       </c>
       <c r="B64" s="5">
-        <v>62.7374224122219</v>
+        <v>35.41490351500667</v>
       </c>
       <c r="C64" s="5">
-        <v>26.48849900233641</v>
+        <v>26.10310843478719</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="25" customHeight="1">
@@ -1998,10 +2020,10 @@
         <v>63</v>
       </c>
       <c r="B65" s="5">
-        <v>15.68447666114872</v>
+        <v>22.1973175737138</v>
       </c>
       <c r="C65" s="5">
-        <v>32.70057947621344</v>
+        <v>47.29594743131162</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="25" customHeight="1">
@@ -2009,10 +2031,10 @@
         <v>64</v>
       </c>
       <c r="B66" s="5">
-        <v>62.68457548210101</v>
+        <v>47.07990240785932</v>
       </c>
       <c r="C66" s="5">
-        <v>27.03287714217411</v>
+        <v>36.92775636917604</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="25" customHeight="1">
@@ -2020,10 +2042,10 @@
         <v>65</v>
       </c>
       <c r="B67" s="5">
-        <v>99.16638344080032</v>
+        <v>70.49245526078184</v>
       </c>
       <c r="C67" s="5">
-        <v>37.18516724285934</v>
+        <v>48.58789234910638</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="25" customHeight="1">
@@ -2031,10 +2053,10 @@
         <v>66</v>
       </c>
       <c r="B68" s="5">
-        <v>93.75438609353287</v>
+        <v>59.08380932089028</v>
       </c>
       <c r="C68" s="5">
-        <v>31.13649414631245</v>
+        <v>24.84049762587438</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="25" customHeight="1">
@@ -2042,10 +2064,10 @@
         <v>67</v>
       </c>
       <c r="B69" s="5">
-        <v>72.20878354684561</v>
+        <v>29.52671288592778</v>
       </c>
       <c r="C69" s="5">
-        <v>42.26663803617895</v>
+        <v>29.50397517888776</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="25" customHeight="1">
@@ -2053,10 +2075,10 @@
         <v>68</v>
       </c>
       <c r="B70" s="5">
-        <v>50.07024265497939</v>
+        <v>41.12623294193379</v>
       </c>
       <c r="C70" s="5">
-        <v>35.65392071182234</v>
+        <v>29.09796007513288</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="25" customHeight="1">
@@ -2064,10 +2086,10 @@
         <v>69</v>
       </c>
       <c r="B71" s="5">
-        <v>56.03708916834815</v>
+        <v>63.1522133053986</v>
       </c>
       <c r="C71" s="5">
-        <v>24.06800681851863</v>
+        <v>46.40049885380515</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="25" customHeight="1">
@@ -2075,10 +2097,10 @@
         <v>70</v>
       </c>
       <c r="B72" s="5">
-        <v>62.65855078393134</v>
+        <v>24.38356672310749</v>
       </c>
       <c r="C72" s="5">
-        <v>23.9363410837894</v>
+        <v>33.55988923319734</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="25" customHeight="1">
@@ -2086,10 +2108,10 @@
         <v>71</v>
       </c>
       <c r="B73" s="5">
-        <v>88.11944803193892</v>
+        <v>45.99551402196148</v>
       </c>
       <c r="C73" s="5">
-        <v>46.12095173062937</v>
+        <v>35.64983849306631</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="25" customHeight="1">
@@ -2097,10 +2119,10 @@
         <v>72</v>
       </c>
       <c r="B74" s="5">
-        <v>71.34646783797029</v>
+        <v>50.4212078538099</v>
       </c>
       <c r="C74" s="5">
-        <v>23.04420789766669</v>
+        <v>24.70690931006112</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="25" customHeight="1">
@@ -2108,10 +2130,10 @@
         <v>73</v>
       </c>
       <c r="B75" s="5">
-        <v>46.41703425200991</v>
+        <v>81.87135126937847</v>
       </c>
       <c r="C75" s="5">
-        <v>43.26715036727896</v>
+        <v>39.04479477123891</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="25" customHeight="1">
@@ -2119,10 +2141,10 @@
         <v>74</v>
       </c>
       <c r="B76" s="5">
-        <v>65.80867268781614</v>
+        <v>98.12923270274618</v>
       </c>
       <c r="C76" s="5">
-        <v>48.21195098698183</v>
+        <v>27.59589629258656</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="25" customHeight="1">
@@ -2130,10 +2152,10 @@
         <v>75</v>
       </c>
       <c r="B77" s="5">
-        <v>34.9408750008417</v>
+        <v>75.80146048646002</v>
       </c>
       <c r="C77" s="5">
-        <v>23.91521979036627</v>
+        <v>42.50397080264156</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="25" customHeight="1">
@@ -2141,10 +2163,10 @@
         <v>76</v>
       </c>
       <c r="B78" s="5">
-        <v>56.64292864750741</v>
+        <v>35.42793931033121</v>
       </c>
       <c r="C78" s="5">
-        <v>39.38270017352653</v>
+        <v>23.5611220541483</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="25" customHeight="1">
@@ -2152,10 +2174,10 @@
         <v>77</v>
       </c>
       <c r="B79" s="5">
-        <v>58.76419922305689</v>
+        <v>71.626056937219</v>
       </c>
       <c r="C79" s="5">
-        <v>45.4194060915144</v>
+        <v>30.09781718861451</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="25" customHeight="1">
@@ -2163,10 +2185,10 @@
         <v>78</v>
       </c>
       <c r="B80" s="5">
-        <v>97.7004891682527</v>
+        <v>26.67266597303205</v>
       </c>
       <c r="C80" s="5">
-        <v>42.30985810640634</v>
+        <v>31.15782343952412</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="25" customHeight="1">
@@ -2174,10 +2196,10 @@
         <v>79</v>
       </c>
       <c r="B81" s="5">
-        <v>86.94404060013723</v>
+        <v>61.4503268602089</v>
       </c>
       <c r="C81" s="5">
-        <v>49.56420720314139</v>
+        <v>39.51687992262922</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="25" customHeight="1">
@@ -2185,10 +2207,10 @@
         <v>80</v>
       </c>
       <c r="B82" s="5">
-        <v>96.31176362722333</v>
+        <v>95.08585072872255</v>
       </c>
       <c r="C82" s="5">
-        <v>22.24323283540089</v>
+        <v>42.51931826507749</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="25" customHeight="1">
@@ -2196,10 +2218,10 @@
         <v>81</v>
       </c>
       <c r="B83" s="5">
-        <v>75.81470436043061</v>
+        <v>66.80092952103101</v>
       </c>
       <c r="C83" s="5">
-        <v>35.69592600573313</v>
+        <v>38.18111143125748</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="25" customHeight="1">
@@ -2207,10 +2229,10 @@
         <v>82</v>
       </c>
       <c r="B84" s="5">
-        <v>27.68907152286034</v>
+        <v>46.84325693925947</v>
       </c>
       <c r="C84" s="5">
-        <v>26.82179071832504</v>
+        <v>20.38716863508951</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="25" customHeight="1">
@@ -2218,10 +2240,10 @@
         <v>83</v>
       </c>
       <c r="B85" s="5">
-        <v>15.22412041198356</v>
+        <v>53.64205025383014</v>
       </c>
       <c r="C85" s="5">
-        <v>47.86518199349682</v>
+        <v>30.74804333098643</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="25" customHeight="1">
@@ -2229,10 +2251,10 @@
         <v>84</v>
       </c>
       <c r="B86" s="5">
-        <v>27.20084298882551</v>
+        <v>91.67066414746033</v>
       </c>
       <c r="C86" s="5">
-        <v>32.04718681666932</v>
+        <v>32.73641905190415</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="25" customHeight="1">
@@ -2240,10 +2262,10 @@
         <v>85</v>
       </c>
       <c r="B87" s="5">
-        <v>22.72588045763314</v>
+        <v>88.72275996201564</v>
       </c>
       <c r="C87" s="5">
-        <v>30.23013500709007</v>
+        <v>39.11247804076606</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="25" customHeight="1">
@@ -2251,10 +2273,10 @@
         <v>86</v>
       </c>
       <c r="B88" s="5">
-        <v>66.06647424011369</v>
+        <v>86.9643090377059</v>
       </c>
       <c r="C88" s="5">
-        <v>33.44569617937103</v>
+        <v>39.79172262319444</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="25" customHeight="1">
@@ -2262,10 +2284,10 @@
         <v>87</v>
       </c>
       <c r="B89" s="5">
-        <v>11.39618959218023</v>
+        <v>47.07180470491285</v>
       </c>
       <c r="C89" s="5">
-        <v>43.72446078770317</v>
+        <v>39.73153783385852</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="25" customHeight="1">
@@ -2273,10 +2295,10 @@
         <v>88</v>
       </c>
       <c r="B90" s="5">
-        <v>41.55428107217689</v>
+        <v>46.12684190056998</v>
       </c>
       <c r="C90" s="5">
-        <v>46.12018631580427</v>
+        <v>31.2734775383442</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="25" customHeight="1">
@@ -2284,10 +2306,10 @@
         <v>89</v>
       </c>
       <c r="B91" s="5">
-        <v>97.45327393059098</v>
+        <v>56.72647403635192</v>
       </c>
       <c r="C91" s="5">
-        <v>34.17969397830002</v>
+        <v>40.47123559557183</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="25" customHeight="1">
@@ -2295,10 +2317,10 @@
         <v>90</v>
       </c>
       <c r="B92" s="5">
-        <v>45.52910238639206</v>
+        <v>86.23590601209301</v>
       </c>
       <c r="C92" s="5">
-        <v>44.07639721658195</v>
+        <v>43.38678552273343</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="25" customHeight="1">
@@ -2306,10 +2328,10 @@
         <v>91</v>
       </c>
       <c r="B93" s="5">
-        <v>79.58589881409094</v>
+        <v>85.8255718259239</v>
       </c>
       <c r="C93" s="5">
-        <v>32.91840011729683</v>
+        <v>43.71720873521383</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="25" customHeight="1">
@@ -2317,10 +2339,10 @@
         <v>92</v>
       </c>
       <c r="B94" s="5">
-        <v>20.32054546196045</v>
+        <v>70.6793938237243</v>
       </c>
       <c r="C94" s="5">
-        <v>20.80465531305775</v>
+        <v>35.68376294014256</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="25" customHeight="1">
@@ -2328,10 +2350,10 @@
         <v>93</v>
       </c>
       <c r="B95" s="5">
-        <v>12.38308551582389</v>
+        <v>31.4001342793017</v>
       </c>
       <c r="C95" s="5">
-        <v>35.83907493042506</v>
+        <v>29.97168207711782</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="25" customHeight="1">
@@ -2339,10 +2361,10 @@
         <v>94</v>
       </c>
       <c r="B96" s="5">
-        <v>92.96538480426204</v>
+        <v>99.40748987300015</v>
       </c>
       <c r="C96" s="5">
-        <v>33.21784762402847</v>
+        <v>49.16944730008559</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="25" customHeight="1">
@@ -2350,10 +2372,10 @@
         <v>95</v>
       </c>
       <c r="B97" s="5">
-        <v>90.09389805541967</v>
+        <v>62.56945216124381</v>
       </c>
       <c r="C97" s="5">
-        <v>47.41571646827236</v>
+        <v>31.63381967362991</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="25" customHeight="1">
@@ -2361,10 +2383,10 @@
         <v>96</v>
       </c>
       <c r="B98" s="5">
-        <v>72.3070032015259</v>
+        <v>57.82834496965986</v>
       </c>
       <c r="C98" s="5">
-        <v>40.38261821099357</v>
+        <v>37.95764587863158</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="25" customHeight="1">
@@ -2372,10 +2394,10 @@
         <v>97</v>
       </c>
       <c r="B99" s="5">
-        <v>92.78282567269301</v>
+        <v>16.10118664653474</v>
       </c>
       <c r="C99" s="5">
-        <v>42.08019634698191</v>
+        <v>39.47159377275348</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="25" customHeight="1">
@@ -2383,10 +2405,10 @@
         <v>98</v>
       </c>
       <c r="B100" s="5">
-        <v>14.17236731408424</v>
+        <v>61.87576973416328</v>
       </c>
       <c r="C100" s="5">
-        <v>46.47377044745258</v>
+        <v>35.04936458412964</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="25" customHeight="1">
@@ -2394,10 +2416,10 @@
         <v>99</v>
       </c>
       <c r="B101" s="5">
-        <v>14.47896190595806</v>
+        <v>94.69810085981184</v>
       </c>
       <c r="C101" s="5">
-        <v>31.88564561853137</v>
+        <v>35.62775167894134</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="25" customHeight="1">
@@ -2405,10 +2427,10 @@
         <v>100</v>
       </c>
       <c r="B102" s="5">
-        <v>49.02668360740743</v>
+        <v>72.23677379923353</v>
       </c>
       <c r="C102" s="5">
-        <v>43.8012486113072</v>
+        <v>35.17928734303993</v>
       </c>
     </row>
   </sheetData>
@@ -2422,7 +2444,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:B12"/>
+  <dimension ref="B3:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2448,8 +2470,21 @@
         <v>4</v>
       </c>
     </row>
+    <row r="14" spans="2:2">
+      <c r="B14" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B14" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <picture r:id="rId1"/>
+  <picture r:id="rId2"/>
 </worksheet>
 </file>